--- a/Document Library/Bill Of Materials/V-Baby BOM.xlsx
+++ b/Document Library/Bill Of Materials/V-Baby BOM.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Document Library\GitHub\V-Baby CoreXY\Document Library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roy\OneDrive\Document Library\GitHub\V-Baby CoreXY\Document Library\Bill Of Materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1561" documentId="11_2E462098BBA7632759C38D02185E4833A2B67484" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{F1F77782-2EA4-4A77-90E1-BFAF072C5C8F}"/>
+  <xr:revisionPtr revIDLastSave="1643" documentId="11_2E462098BBA7632759C38D02185E4833A2B67484" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A392826A-AA8B-45E8-B717-B75EBBA3C932}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OpenBuild Part List" sheetId="1" r:id="rId1"/>
-    <sheet name="Component Part List" sheetId="3" r:id="rId2"/>
-    <sheet name="Fasteners" sheetId="5" r:id="rId3"/>
-    <sheet name="Cable Managment" sheetId="4" r:id="rId4"/>
+    <sheet name="V-Slot Calculator" sheetId="6" r:id="rId2"/>
+    <sheet name="Component Part List" sheetId="3" r:id="rId3"/>
+    <sheet name="Fasteners" sheetId="5" r:id="rId4"/>
+    <sheet name="Cable Managment" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="202">
   <si>
     <t>Exstrusions</t>
   </si>
@@ -592,6 +593,51 @@
   </si>
   <si>
     <t>1/17 Worm Stepper</t>
+  </si>
+  <si>
+    <t>V-Slot Calculator</t>
+  </si>
+  <si>
+    <t>V-Baby 200</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>V-Baby 250</t>
+  </si>
+  <si>
+    <t>V-Baby 300</t>
+  </si>
+  <si>
+    <t>Configure Your Own</t>
+  </si>
+  <si>
+    <t>V-Baby XYZ</t>
+  </si>
+  <si>
+    <t>Add your wanted travel here:</t>
+  </si>
+  <si>
+    <t>Needed Extrusion Length:</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>You Can Support the Development Here:</t>
+  </si>
+  <si>
+    <t>https://www.buymeacoffee.com/pro3d</t>
+  </si>
+  <si>
+    <t>https://www.patreon.com/pro3d</t>
   </si>
 </sst>
 </file>
@@ -601,7 +647,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -668,8 +714,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -721,8 +790,26 @@
         <bgColor theme="0" tint="-0.14999847407452621"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="30">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1063,6 +1150,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1072,7 +1201,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1207,6 +1336,41 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="40% - Accent6" xfId="4" builtinId="51"/>
@@ -1379,6 +1543,61 @@
         <a:xfrm>
           <a:off x="3552825" y="4391025"/>
           <a:ext cx="1866900" cy="1866900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>520065</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64C08516-6AD8-43E1-84A0-3DDA7480CA6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1303020" y="2598420"/>
+          <a:ext cx="1945005" cy="1790700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1730,21 +1949,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -1772,7 +1993,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="55"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -1786,7 +2007,7 @@
       <c r="I2" s="50"/>
       <c r="J2" s="67"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="56" t="s">
         <v>7</v>
       </c>
@@ -1809,7 +2030,7 @@
       <c r="I3" s="18"/>
       <c r="J3" s="68"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="57" t="s">
         <v>10</v>
       </c>
@@ -1832,7 +2053,7 @@
       <c r="I4" s="50"/>
       <c r="J4" s="67"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="56" t="s">
         <v>13</v>
       </c>
@@ -1855,7 +2076,7 @@
       <c r="I5" s="18"/>
       <c r="J5" s="68"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="57" t="s">
         <v>16</v>
       </c>
@@ -1878,7 +2099,7 @@
       <c r="I6" s="50"/>
       <c r="J6" s="67"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="56"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -1890,7 +2111,7 @@
       <c r="I7" s="8"/>
       <c r="J7" s="68"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="57" t="s">
         <v>18</v>
       </c>
@@ -1913,7 +2134,7 @@
       <c r="I8" s="50"/>
       <c r="J8" s="67"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="56" t="s">
         <v>21</v>
       </c>
@@ -1936,7 +2157,7 @@
       <c r="I9" s="18"/>
       <c r="J9" s="68"/>
     </row>
-    <row r="10" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="57" t="s">
         <v>24</v>
       </c>
@@ -1963,7 +2184,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="56"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -1979,7 +2200,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="57" t="s">
         <v>29</v>
       </c>
@@ -2005,7 +2226,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="56"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -2017,7 +2238,7 @@
       <c r="I13" s="70"/>
       <c r="J13" s="68"/>
     </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="57" t="s">
         <v>32</v>
       </c>
@@ -2043,7 +2264,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
         <v>36</v>
       </c>
@@ -2062,11 +2283,11 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G16" s="17"/>
     </row>
-    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="40" t="s">
         <v>37</v>
       </c>
@@ -2088,7 +2309,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>38</v>
       </c>
@@ -2110,7 +2331,7 @@
         <v>349.5</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="30" t="s">
         <v>39</v>
       </c>
@@ -2130,7 +2351,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="41" t="s">
         <v>41</v>
       </c>
@@ -2151,7 +2372,7 @@
         <v>80.600000000000009</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="45" t="s">
         <v>169</v>
       </c>
@@ -2191,30 +2412,261 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F218652C-84FF-410D-B4A3-3D58858A2DC6}">
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+    <col min="3" max="3" width="6.21875" style="106" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="A1" s="108" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="109"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="111"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="112"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="13"/>
+    </row>
+    <row r="3" spans="1:7" s="107" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="114" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="115"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="117" t="s">
+        <v>192</v>
+      </c>
+      <c r="E3" s="115"/>
+      <c r="F3" s="117" t="s">
+        <v>193</v>
+      </c>
+      <c r="G3" s="118"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="112" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4" s="8">
+        <v>310</v>
+      </c>
+      <c r="C4" s="113"/>
+      <c r="D4" s="8">
+        <f>B4+50</f>
+        <v>360</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8">
+        <f>B4+100</f>
+        <v>410</v>
+      </c>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="112" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" s="8">
+        <v>350</v>
+      </c>
+      <c r="C5" s="113"/>
+      <c r="D5" s="8">
+        <f>B5+50</f>
+        <v>400</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8">
+        <f>B5+100</f>
+        <v>450</v>
+      </c>
+      <c r="G5" s="13"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="112" t="s">
+        <v>191</v>
+      </c>
+      <c r="B6" s="8">
+        <v>340</v>
+      </c>
+      <c r="C6" s="113"/>
+      <c r="D6" s="8">
+        <f>B6+50</f>
+        <v>390</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8">
+        <f>B6+100</f>
+        <v>440</v>
+      </c>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="112"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="1:7" s="107" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="114" t="s">
+        <v>195</v>
+      </c>
+      <c r="B8" s="115"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="118"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="112" t="s">
+        <v>194</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="113"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="119" t="s">
+        <v>196</v>
+      </c>
+      <c r="B10" s="120"/>
+      <c r="C10" s="121" t="s">
+        <v>198</v>
+      </c>
+      <c r="D10" s="122" t="s">
+        <v>197</v>
+      </c>
+      <c r="E10" s="122"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="112" t="s">
+        <v>189</v>
+      </c>
+      <c r="B11" s="120">
+        <v>200</v>
+      </c>
+      <c r="C11" s="121" t="s">
+        <v>189</v>
+      </c>
+      <c r="D11" s="122">
+        <f>B11+110</f>
+        <v>310</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="112" t="s">
+        <v>190</v>
+      </c>
+      <c r="B12" s="120">
+        <v>200</v>
+      </c>
+      <c r="C12" s="121" t="s">
+        <v>190</v>
+      </c>
+      <c r="D12" s="122">
+        <f>B12+150</f>
+        <v>350</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="123" t="s">
+        <v>191</v>
+      </c>
+      <c r="B13" s="124">
+        <v>200</v>
+      </c>
+      <c r="C13" s="125" t="s">
+        <v>191</v>
+      </c>
+      <c r="D13" s="126">
+        <f>B13+140</f>
+        <v>340</v>
+      </c>
+      <c r="E13" s="127"/>
+      <c r="F13" s="127"/>
+      <c r="G13" s="128"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A26" r:id="rId1" xr:uid="{82CE5886-BC2F-4406-ADB2-C316B29905F2}"/>
+    <hyperlink ref="A27" r:id="rId2" xr:uid="{B44D397D-7187-458A-B083-3D9FD5C5F9E0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" orientation="landscape" r:id="rId3"/>
+  <drawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{932488CD-A13D-49F6-B1D7-8DBDDFDC11EE}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" style="17" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5546875" style="17" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" style="17" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5546875" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="76" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="76" customFormat="1" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="78" t="s">
         <v>174</v>
       </c>
@@ -2240,7 +2692,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="81" t="s">
         <v>1</v>
       </c>
@@ -2264,7 +2716,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>44</v>
       </c>
@@ -2285,7 +2737,7 @@
       <c r="H3" s="85"/>
       <c r="L3" s="7"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>47</v>
       </c>
@@ -2305,7 +2757,7 @@
       <c r="G4" s="29"/>
       <c r="H4" s="85"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>50</v>
       </c>
@@ -2325,7 +2777,7 @@
       <c r="G5" s="29"/>
       <c r="H5" s="85"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>52</v>
       </c>
@@ -2345,7 +2797,7 @@
       <c r="G6" s="29"/>
       <c r="H6" s="85"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>54</v>
       </c>
@@ -2365,7 +2817,7 @@
       <c r="G7" s="58"/>
       <c r="H7" s="85"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>57</v>
       </c>
@@ -2385,7 +2837,7 @@
       <c r="G8" s="58"/>
       <c r="H8" s="85"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>60</v>
       </c>
@@ -2405,7 +2857,7 @@
       <c r="G9" s="88"/>
       <c r="H9" s="85"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>63</v>
       </c>
@@ -2425,7 +2877,7 @@
       <c r="G10" s="88"/>
       <c r="H10" s="85"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>66</v>
       </c>
@@ -2445,7 +2897,7 @@
       <c r="G11" s="89"/>
       <c r="H11" s="85"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
         <v>69</v>
       </c>
@@ -2469,7 +2921,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>73</v>
       </c>
@@ -2489,7 +2941,7 @@
       <c r="G13" s="90"/>
       <c r="H13" s="85"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>76</v>
       </c>
@@ -2509,7 +2961,7 @@
       <c r="G14" s="90"/>
       <c r="H14" s="85"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>79</v>
       </c>
@@ -2529,7 +2981,7 @@
       <c r="G15" s="58"/>
       <c r="H15" s="85"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>82</v>
       </c>
@@ -2549,7 +3001,7 @@
       <c r="G16" s="58"/>
       <c r="H16" s="85"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
         <v>85</v>
       </c>
@@ -2569,7 +3021,7 @@
       <c r="G17" s="58"/>
       <c r="H17" s="85"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="29" t="s">
         <v>88</v>
       </c>
@@ -2589,7 +3041,7 @@
       <c r="G18" s="58"/>
       <c r="H18" s="85"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>91</v>
       </c>
@@ -2609,7 +3061,7 @@
       <c r="G19" s="58"/>
       <c r="H19" s="85"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
         <v>94</v>
       </c>
@@ -2629,7 +3081,7 @@
       <c r="G20" s="58"/>
       <c r="H20" s="85"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
         <v>98</v>
       </c>
@@ -2649,7 +3101,7 @@
       <c r="G21" s="58"/>
       <c r="H21" s="85"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
         <v>101</v>
       </c>
@@ -2669,7 +3121,7 @@
       <c r="G22" s="58"/>
       <c r="H22" s="85"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="29" t="s">
         <v>104</v>
       </c>
@@ -2689,7 +3141,7 @@
       <c r="G23" s="91"/>
       <c r="H23" s="34"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="29" t="s">
         <v>107</v>
       </c>
@@ -2709,7 +3161,7 @@
       <c r="G24" s="92"/>
       <c r="H24" s="36"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="29" t="s">
         <v>110</v>
       </c>
@@ -2729,7 +3181,7 @@
       <c r="G25" s="58"/>
       <c r="H25" s="85"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="29" t="s">
         <v>113</v>
       </c>
@@ -2753,7 +3205,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="29" t="s">
         <v>115</v>
       </c>
@@ -2777,7 +3229,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="12" t="s">
         <v>118</v>
       </c>
@@ -2831,26 +3283,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D29D6D75-B7C4-4BE2-88D5-EC1A978798F7}">
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -2873,7 +3325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>120</v>
       </c>
@@ -2887,7 +3339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>122</v>
       </c>
@@ -2901,7 +3353,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>123</v>
       </c>
@@ -2915,7 +3367,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>125</v>
       </c>
@@ -2929,7 +3381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>126</v>
       </c>
@@ -2943,7 +3395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>128</v>
       </c>
@@ -2957,7 +3409,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>129</v>
       </c>
@@ -2971,7 +3423,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>131</v>
       </c>
@@ -2985,7 +3437,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>132</v>
       </c>
@@ -2999,7 +3451,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>133</v>
       </c>
@@ -3013,7 +3465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
         <v>134</v>
       </c>
@@ -3027,7 +3479,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>182</v>
       </c>
@@ -3041,7 +3493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>135</v>
       </c>
@@ -3055,7 +3507,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>137</v>
       </c>
@@ -3069,7 +3521,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>138</v>
       </c>
@@ -3083,7 +3535,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
         <v>139</v>
       </c>
@@ -3097,7 +3549,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="29" t="s">
         <v>140</v>
       </c>
@@ -3111,7 +3563,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>141</v>
       </c>
@@ -3125,7 +3577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
         <v>142</v>
       </c>
@@ -3139,7 +3591,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
         <v>143</v>
       </c>
@@ -3153,7 +3605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
         <v>144</v>
       </c>
@@ -3167,7 +3619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="29" t="s">
         <v>145</v>
       </c>
@@ -3181,7 +3633,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="29" t="s">
         <v>146</v>
       </c>
@@ -3195,7 +3647,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="29" t="s">
         <v>147</v>
       </c>
@@ -3209,7 +3661,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="29" t="s">
         <v>149</v>
       </c>
@@ -3223,7 +3675,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="29" t="s">
         <v>151</v>
       </c>
@@ -3237,7 +3689,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="29" t="s">
         <v>153</v>
       </c>
@@ -3251,7 +3703,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="29" t="s">
         <v>154</v>
       </c>
@@ -3265,7 +3717,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="29" t="s">
         <v>155</v>
       </c>
@@ -3279,7 +3731,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="29" t="s">
         <v>156</v>
       </c>
@@ -3293,7 +3745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="29" t="s">
         <v>157</v>
       </c>
@@ -3307,7 +3759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="29" t="s">
         <v>158</v>
       </c>
@@ -3321,7 +3773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="29" t="s">
         <v>159</v>
       </c>
@@ -3335,7 +3787,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="29" t="s">
         <v>160</v>
       </c>
@@ -3349,7 +3801,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="29" t="s">
         <v>161</v>
       </c>
@@ -3363,7 +3815,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="71" t="s">
         <v>162</v>
       </c>
@@ -3377,7 +3829,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="29" t="s">
         <v>163</v>
       </c>
@@ -3387,7 +3839,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="14" t="s">
         <v>164</v>
       </c>
@@ -3404,20 +3856,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{925F042A-9E32-4038-B3DB-6EE5FFFEDFCE}">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>

--- a/Document Library/Bill Of Materials/V-Baby BOM.xlsx
+++ b/Document Library/Bill Of Materials/V-Baby BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roy\OneDrive\Document Library\GitHub\V-Baby CoreXY\Document Library\Bill Of Materials\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/V-Baby CoreXY/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1643" documentId="11_2E462098BBA7632759C38D02185E4833A2B67484" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A392826A-AA8B-45E8-B717-B75EBBA3C932}"/>
+  <xr:revisionPtr revIDLastSave="1698" documentId="11_2E462098BBA7632759C38D02185E4833A2B67484" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C7653C99-0E49-4783-A3B9-AC19B4DB8066}"/>
   <bookViews>
-    <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OpenBuild Part List" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="210">
   <si>
     <t>Exstrusions</t>
   </si>
@@ -638,6 +638,30 @@
   </si>
   <si>
     <t>https://www.patreon.com/pro3d</t>
+  </si>
+  <si>
+    <t>X Base Frame</t>
+  </si>
+  <si>
+    <t>Y Base Frame</t>
+  </si>
+  <si>
+    <t>Z Base Frame</t>
+  </si>
+  <si>
+    <t>x4</t>
+  </si>
+  <si>
+    <t>x5</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>Pcs</t>
   </si>
 </sst>
 </file>
@@ -738,7 +762,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -808,6 +832,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="34">
     <border>
@@ -1201,7 +1231,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1330,12 +1360,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1371,6 +1395,19 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="40% - Accent6" xfId="4" builtinId="51"/>
@@ -1558,16 +1595,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>520065</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>497205</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1596,7 +1633,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1303020" y="2598420"/>
+          <a:off x="2781300" y="3710940"/>
           <a:ext cx="1945005" cy="1790700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1949,9 +1986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1999,7 +2034,7 @@
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
       <c r="E2" s="23"/>
-      <c r="F2" s="104" t="s">
+      <c r="F2" s="127" t="s">
         <v>166</v>
       </c>
       <c r="G2" s="48"/>
@@ -2024,7 +2059,7 @@
         <f>D3*310</f>
         <v>1240</v>
       </c>
-      <c r="F3" s="105"/>
+      <c r="F3" s="128"/>
       <c r="G3" s="48"/>
       <c r="H3" s="58"/>
       <c r="I3" s="18"/>
@@ -2047,7 +2082,7 @@
         <f>D4*350</f>
         <v>1400</v>
       </c>
-      <c r="F4" s="105"/>
+      <c r="F4" s="128"/>
       <c r="G4" s="48"/>
       <c r="H4" s="59"/>
       <c r="I4" s="50"/>
@@ -2070,7 +2105,7 @@
         <f>D5*340</f>
         <v>1700</v>
       </c>
-      <c r="F5" s="105"/>
+      <c r="F5" s="128"/>
       <c r="G5" s="48"/>
       <c r="H5" s="58"/>
       <c r="I5" s="18"/>
@@ -2093,7 +2128,7 @@
         <f>D6*295</f>
         <v>295</v>
       </c>
-      <c r="F6" s="105"/>
+      <c r="F6" s="128"/>
       <c r="G6" s="48"/>
       <c r="H6" s="59"/>
       <c r="I6" s="50"/>
@@ -2105,7 +2140,7 @@
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="13"/>
-      <c r="F7" s="105"/>
+      <c r="F7" s="128"/>
       <c r="G7" s="48"/>
       <c r="H7" s="29"/>
       <c r="I7" s="8"/>
@@ -2128,7 +2163,7 @@
         <f>D8*290</f>
         <v>290</v>
       </c>
-      <c r="F8" s="105"/>
+      <c r="F8" s="128"/>
       <c r="G8" s="48"/>
       <c r="H8" s="59"/>
       <c r="I8" s="50"/>
@@ -2151,7 +2186,7 @@
         <f>D9*350</f>
         <v>700</v>
       </c>
-      <c r="F9" s="105"/>
+      <c r="F9" s="128"/>
       <c r="G9" s="48"/>
       <c r="H9" s="58"/>
       <c r="I9" s="18"/>
@@ -2172,7 +2207,7 @@
         <f>SUM(E3:E9)</f>
         <v>5625</v>
       </c>
-      <c r="F10" s="105"/>
+      <c r="F10" s="128"/>
       <c r="G10" s="48"/>
       <c r="H10" s="60" t="s">
         <v>27</v>
@@ -2190,7 +2225,7 @@
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="13"/>
-      <c r="F11" s="105"/>
+      <c r="F11" s="128"/>
       <c r="G11" s="48"/>
       <c r="H11" s="29" t="s">
         <v>28</v>
@@ -2214,7 +2249,7 @@
         <v>18</v>
       </c>
       <c r="E12" s="24"/>
-      <c r="F12" s="105"/>
+      <c r="F12" s="128"/>
       <c r="G12" s="48"/>
       <c r="H12" s="60" t="s">
         <v>31</v>
@@ -2232,7 +2267,7 @@
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="13"/>
-      <c r="F13" s="105"/>
+      <c r="F13" s="128"/>
       <c r="G13" s="48"/>
       <c r="H13" s="29"/>
       <c r="I13" s="70"/>
@@ -2252,7 +2287,7 @@
         <v>30</v>
       </c>
       <c r="E14" s="24"/>
-      <c r="F14" s="105"/>
+      <c r="F14" s="128"/>
       <c r="G14" s="48"/>
       <c r="H14" s="60" t="s">
         <v>35</v>
@@ -2413,60 +2448,64 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F218652C-84FF-410D-B4A3-3D58858A2DC6}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.77734375" customWidth="1"/>
-    <col min="3" max="3" width="6.21875" style="106" customWidth="1"/>
+    <col min="3" max="3" width="6.21875" style="104" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="106" t="s">
         <v>187</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="111"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="109"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="112"/>
+      <c r="A2" s="110"/>
       <c r="B2" s="8"/>
-      <c r="C2" s="113"/>
+      <c r="C2" s="111"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="13"/>
     </row>
-    <row r="3" spans="1:7" s="107" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="114" t="s">
+    <row r="3" spans="1:7" s="105" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="112" t="s">
         <v>188</v>
       </c>
-      <c r="B3" s="115"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="117" t="s">
+      <c r="B3" s="113"/>
+      <c r="C3" s="129" t="s">
+        <v>209</v>
+      </c>
+      <c r="D3" s="115" t="s">
         <v>192</v>
       </c>
-      <c r="E3" s="115"/>
-      <c r="F3" s="117" t="s">
+      <c r="E3" s="113"/>
+      <c r="F3" s="115" t="s">
         <v>193</v>
       </c>
-      <c r="G3" s="118"/>
+      <c r="G3" s="116"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="112" t="s">
-        <v>189</v>
+      <c r="A4" s="110" t="s">
+        <v>202</v>
       </c>
       <c r="B4" s="8">
         <v>310</v>
       </c>
-      <c r="C4" s="113"/>
+      <c r="C4" s="130" t="s">
+        <v>205</v>
+      </c>
       <c r="D4" s="8">
         <f>B4+50</f>
         <v>360</v>
@@ -2479,13 +2518,15 @@
       <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="112" t="s">
-        <v>190</v>
+      <c r="A5" s="110" t="s">
+        <v>203</v>
       </c>
       <c r="B5" s="8">
         <v>350</v>
       </c>
-      <c r="C5" s="113"/>
+      <c r="C5" s="130" t="s">
+        <v>205</v>
+      </c>
       <c r="D5" s="8">
         <f>B5+50</f>
         <v>400</v>
@@ -2498,13 +2539,15 @@
       <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="112" t="s">
-        <v>191</v>
+      <c r="A6" s="110" t="s">
+        <v>204</v>
       </c>
       <c r="B6" s="8">
         <v>340</v>
       </c>
-      <c r="C6" s="113"/>
+      <c r="C6" s="130" t="s">
+        <v>206</v>
+      </c>
       <c r="D6" s="8">
         <f>B6+50</f>
         <v>390</v>
@@ -2517,124 +2560,250 @@
       <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="112"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="113"/>
-      <c r="D7" s="8"/>
+      <c r="A7" s="110" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="17">
+        <v>290</v>
+      </c>
+      <c r="C7" s="130" t="s">
+        <v>207</v>
+      </c>
+      <c r="D7" s="8">
+        <f t="shared" ref="D7:D9" si="0">B7+50</f>
+        <v>340</v>
+      </c>
       <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="F7" s="8">
+        <f t="shared" ref="F7:F9" si="1">B7+100</f>
+        <v>390</v>
+      </c>
       <c r="G7" s="13"/>
     </row>
-    <row r="8" spans="1:7" s="107" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="114" t="s">
-        <v>195</v>
-      </c>
-      <c r="B8" s="115"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="118"/>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="17">
+        <v>350</v>
+      </c>
+      <c r="C8" s="130" t="s">
+        <v>208</v>
+      </c>
+      <c r="D8" s="8">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8">
+        <f t="shared" si="1"/>
+        <v>450</v>
+      </c>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="112" t="s">
-        <v>194</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="113"/>
-      <c r="D9" s="8"/>
+      <c r="A9" s="110" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="17">
+        <v>295</v>
+      </c>
+      <c r="C9" s="130" t="s">
+        <v>207</v>
+      </c>
+      <c r="D9" s="8">
+        <f t="shared" si="0"/>
+        <v>345</v>
+      </c>
       <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="F9" s="8">
+        <f t="shared" si="1"/>
+        <v>395</v>
+      </c>
       <c r="G9" s="13"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="119" t="s">
-        <v>196</v>
-      </c>
-      <c r="B10" s="120"/>
-      <c r="C10" s="121" t="s">
-        <v>198</v>
-      </c>
-      <c r="D10" s="122" t="s">
-        <v>197</v>
-      </c>
-      <c r="E10" s="122"/>
+      <c r="A10" s="110"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="13"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="105" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="112" t="s">
-        <v>189</v>
-      </c>
-      <c r="B11" s="120">
-        <v>200</v>
-      </c>
-      <c r="C11" s="121" t="s">
-        <v>189</v>
-      </c>
-      <c r="D11" s="122">
-        <f>B11+110</f>
-        <v>310</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="13"/>
+        <v>195</v>
+      </c>
+      <c r="B11" s="113"/>
+      <c r="C11" s="114"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="113"/>
+      <c r="G11" s="116"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="112" t="s">
-        <v>190</v>
-      </c>
-      <c r="B12" s="120">
-        <v>200</v>
-      </c>
-      <c r="C12" s="121" t="s">
-        <v>190</v>
-      </c>
-      <c r="D12" s="122">
-        <f>B12+150</f>
-        <v>350</v>
-      </c>
+      <c r="A12" s="110" t="s">
+        <v>194</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="13"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="123" t="s">
+      <c r="A13" s="117" t="s">
+        <v>196</v>
+      </c>
+      <c r="B13" s="118"/>
+      <c r="C13" s="119" t="s">
+        <v>198</v>
+      </c>
+      <c r="D13" s="120" t="s">
+        <v>197</v>
+      </c>
+      <c r="E13" s="120"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="110" t="s">
+        <v>202</v>
+      </c>
+      <c r="B14" s="118">
+        <v>200</v>
+      </c>
+      <c r="C14" s="119" t="s">
+        <v>189</v>
+      </c>
+      <c r="D14" s="120">
+        <f>B14+110</f>
+        <v>310</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="110" t="s">
+        <v>203</v>
+      </c>
+      <c r="B15" s="118">
+        <v>200</v>
+      </c>
+      <c r="C15" s="119" t="s">
+        <v>190</v>
+      </c>
+      <c r="D15" s="120">
+        <f>B15+150</f>
+        <v>350</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="110" t="s">
+        <v>204</v>
+      </c>
+      <c r="B16" s="118">
+        <v>200</v>
+      </c>
+      <c r="C16" s="119" t="s">
         <v>191</v>
       </c>
-      <c r="B13" s="124">
+      <c r="D16" s="120">
+        <f>B16+140</f>
+        <v>340</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="110" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="118"/>
+      <c r="C17" s="119"/>
+      <c r="D17" s="120">
+        <f>B14+90</f>
+        <v>290</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="118"/>
+      <c r="C18" s="119"/>
+      <c r="D18" s="120">
+        <f>B15+150</f>
+        <v>350</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="121" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="122"/>
+      <c r="C19" s="123"/>
+      <c r="D19" s="124">
+        <f>B14+95</f>
+        <v>295</v>
+      </c>
+      <c r="E19" s="131" t="s">
+        <v>207</v>
+      </c>
+      <c r="F19" s="125"/>
+      <c r="G19" s="126"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="111"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="C13" s="125" t="s">
-        <v>191</v>
-      </c>
-      <c r="D13" s="126">
-        <f>B13+140</f>
-        <v>340</v>
-      </c>
-      <c r="E13" s="127"/>
-      <c r="F13" s="127"/>
-      <c r="G13" s="128"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
         <v>201</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A26" r:id="rId1" xr:uid="{82CE5886-BC2F-4406-ADB2-C316B29905F2}"/>
-    <hyperlink ref="A27" r:id="rId2" xr:uid="{B44D397D-7187-458A-B083-3D9FD5C5F9E0}"/>
+    <hyperlink ref="A23" r:id="rId1" xr:uid="{82CE5886-BC2F-4406-ADB2-C316B29905F2}"/>
+    <hyperlink ref="A24" r:id="rId2" xr:uid="{B44D397D-7187-458A-B083-3D9FD5C5F9E0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" orientation="landscape" r:id="rId3"/>

--- a/Document Library/Bill Of Materials/V-Baby BOM.xlsx
+++ b/Document Library/Bill Of Materials/V-Baby BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/V-Baby CoreXY/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1698" documentId="11_2E462098BBA7632759C38D02185E4833A2B67484" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C7653C99-0E49-4783-A3B9-AC19B4DB8066}"/>
+  <xr:revisionPtr revIDLastSave="1701" documentId="11_2E462098BBA7632759C38D02185E4833A2B67484" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{906D8AA3-9B7F-4E65-8D74-C2D942DC6DF2}"/>
   <bookViews>
     <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="211">
   <si>
     <t>Exstrusions</t>
   </si>
@@ -662,6 +662,9 @@
   </si>
   <si>
     <t>Pcs</t>
+  </si>
+  <si>
+    <t>Tapped</t>
   </si>
 </sst>
 </file>
@@ -1395,12 +1398,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1408,6 +1405,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="40% - Accent6" xfId="4" builtinId="51"/>
@@ -2034,7 +2037,7 @@
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
       <c r="E2" s="23"/>
-      <c r="F2" s="127" t="s">
+      <c r="F2" s="130" t="s">
         <v>166</v>
       </c>
       <c r="G2" s="48"/>
@@ -2059,7 +2062,7 @@
         <f>D3*310</f>
         <v>1240</v>
       </c>
-      <c r="F3" s="128"/>
+      <c r="F3" s="131"/>
       <c r="G3" s="48"/>
       <c r="H3" s="58"/>
       <c r="I3" s="18"/>
@@ -2082,7 +2085,7 @@
         <f>D4*350</f>
         <v>1400</v>
       </c>
-      <c r="F4" s="128"/>
+      <c r="F4" s="131"/>
       <c r="G4" s="48"/>
       <c r="H4" s="59"/>
       <c r="I4" s="50"/>
@@ -2105,7 +2108,7 @@
         <f>D5*340</f>
         <v>1700</v>
       </c>
-      <c r="F5" s="128"/>
+      <c r="F5" s="131"/>
       <c r="G5" s="48"/>
       <c r="H5" s="58"/>
       <c r="I5" s="18"/>
@@ -2128,7 +2131,7 @@
         <f>D6*295</f>
         <v>295</v>
       </c>
-      <c r="F6" s="128"/>
+      <c r="F6" s="131"/>
       <c r="G6" s="48"/>
       <c r="H6" s="59"/>
       <c r="I6" s="50"/>
@@ -2140,7 +2143,7 @@
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="13"/>
-      <c r="F7" s="128"/>
+      <c r="F7" s="131"/>
       <c r="G7" s="48"/>
       <c r="H7" s="29"/>
       <c r="I7" s="8"/>
@@ -2163,7 +2166,7 @@
         <f>D8*290</f>
         <v>290</v>
       </c>
-      <c r="F8" s="128"/>
+      <c r="F8" s="131"/>
       <c r="G8" s="48"/>
       <c r="H8" s="59"/>
       <c r="I8" s="50"/>
@@ -2186,7 +2189,7 @@
         <f>D9*350</f>
         <v>700</v>
       </c>
-      <c r="F9" s="128"/>
+      <c r="F9" s="131"/>
       <c r="G9" s="48"/>
       <c r="H9" s="58"/>
       <c r="I9" s="18"/>
@@ -2207,7 +2210,7 @@
         <f>SUM(E3:E9)</f>
         <v>5625</v>
       </c>
-      <c r="F10" s="128"/>
+      <c r="F10" s="131"/>
       <c r="G10" s="48"/>
       <c r="H10" s="60" t="s">
         <v>27</v>
@@ -2225,7 +2228,7 @@
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="13"/>
-      <c r="F11" s="128"/>
+      <c r="F11" s="131"/>
       <c r="G11" s="48"/>
       <c r="H11" s="29" t="s">
         <v>28</v>
@@ -2249,7 +2252,7 @@
         <v>18</v>
       </c>
       <c r="E12" s="24"/>
-      <c r="F12" s="128"/>
+      <c r="F12" s="131"/>
       <c r="G12" s="48"/>
       <c r="H12" s="60" t="s">
         <v>31</v>
@@ -2267,7 +2270,7 @@
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="13"/>
-      <c r="F13" s="128"/>
+      <c r="F13" s="131"/>
       <c r="G13" s="48"/>
       <c r="H13" s="29"/>
       <c r="I13" s="70"/>
@@ -2287,7 +2290,7 @@
         <v>30</v>
       </c>
       <c r="E14" s="24"/>
-      <c r="F14" s="128"/>
+      <c r="F14" s="131"/>
       <c r="G14" s="48"/>
       <c r="H14" s="60" t="s">
         <v>35</v>
@@ -2484,7 +2487,7 @@
         <v>188</v>
       </c>
       <c r="B3" s="113"/>
-      <c r="C3" s="129" t="s">
+      <c r="C3" s="127" t="s">
         <v>209</v>
       </c>
       <c r="D3" s="115" t="s">
@@ -2503,7 +2506,7 @@
       <c r="B4" s="8">
         <v>310</v>
       </c>
-      <c r="C4" s="130" t="s">
+      <c r="C4" s="128" t="s">
         <v>205</v>
       </c>
       <c r="D4" s="8">
@@ -2524,19 +2527,23 @@
       <c r="B5" s="8">
         <v>350</v>
       </c>
-      <c r="C5" s="130" t="s">
+      <c r="C5" s="128" t="s">
         <v>205</v>
       </c>
       <c r="D5" s="8">
         <f>B5+50</f>
         <v>400</v>
       </c>
-      <c r="E5" s="8"/>
+      <c r="E5" s="8" t="s">
+        <v>210</v>
+      </c>
       <c r="F5" s="8">
         <f>B5+100</f>
         <v>450</v>
       </c>
-      <c r="G5" s="13"/>
+      <c r="G5" s="13" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="110" t="s">
@@ -2545,7 +2552,7 @@
       <c r="B6" s="8">
         <v>340</v>
       </c>
-      <c r="C6" s="130" t="s">
+      <c r="C6" s="128" t="s">
         <v>206</v>
       </c>
       <c r="D6" s="8">
@@ -2566,7 +2573,7 @@
       <c r="B7" s="17">
         <v>290</v>
       </c>
-      <c r="C7" s="130" t="s">
+      <c r="C7" s="128" t="s">
         <v>207</v>
       </c>
       <c r="D7" s="8">
@@ -2587,7 +2594,7 @@
       <c r="B8" s="17">
         <v>350</v>
       </c>
-      <c r="C8" s="130" t="s">
+      <c r="C8" s="128" t="s">
         <v>208</v>
       </c>
       <c r="D8" s="8">
@@ -2608,7 +2615,7 @@
       <c r="B9" s="17">
         <v>295</v>
       </c>
-      <c r="C9" s="130" t="s">
+      <c r="C9" s="128" t="s">
         <v>207</v>
       </c>
       <c r="D9" s="8">
@@ -2705,7 +2712,9 @@
       <c r="E15" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="F15" s="8"/>
+      <c r="F15" s="8" t="s">
+        <v>210</v>
+      </c>
       <c r="G15" s="13"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -2770,7 +2779,7 @@
         <f>B14+95</f>
         <v>295</v>
       </c>
-      <c r="E19" s="131" t="s">
+      <c r="E19" s="129" t="s">
         <v>207</v>
       </c>
       <c r="F19" s="125"/>

--- a/Document Library/Bill Of Materials/V-Baby BOM.xlsx
+++ b/Document Library/Bill Of Materials/V-Baby BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/V-Baby CoreXY/Document Library/Bill Of Materials/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Document Library\GitHub\V-Baby CoreXY\Document Library\Bill Of Materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1701" documentId="11_2E462098BBA7632759C38D02185E4833A2B67484" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{906D8AA3-9B7F-4E65-8D74-C2D942DC6DF2}"/>
+  <xr:revisionPtr revIDLastSave="1702" documentId="11_2E462098BBA7632759C38D02185E4833A2B67484" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{12043F0A-03D1-417A-9D6E-3C8A54FD27CA}"/>
   <bookViews>
-    <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OpenBuild Part List" sheetId="1" r:id="rId1"/>
@@ -1270,7 +1270,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1411,6 +1410,7 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="40% - Accent6" xfId="4" builtinId="51"/>
@@ -1989,21 +1989,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -2019,34 +2019,34 @@
       <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="53" t="s">
         <v>167</v>
       </c>
-      <c r="G1" s="51"/>
-      <c r="H1" s="65" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="64" t="s">
         <v>168</v>
       </c>
-      <c r="I1" s="64"/>
-      <c r="J1" s="66" t="s">
+      <c r="I1" s="63"/>
+      <c r="J1" s="65" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="55"/>
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="54"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
       <c r="E2" s="23"/>
-      <c r="F2" s="130" t="s">
+      <c r="F2" s="129" t="s">
         <v>166</v>
       </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="67"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="56" t="s">
+      <c r="G2" s="47"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="66"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="55" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -2062,14 +2062,14 @@
         <f>D3*310</f>
         <v>1240</v>
       </c>
-      <c r="F3" s="131"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="58"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="18"/>
-      <c r="J3" s="68"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="57" t="s">
+      <c r="J3" s="67"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="56" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="22" t="s">
@@ -2085,14 +2085,14 @@
         <f>D4*350</f>
         <v>1400</v>
       </c>
-      <c r="F4" s="131"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="67"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="56" t="s">
+      <c r="F4" s="130"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="66"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="55" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -2108,14 +2108,14 @@
         <f>D5*340</f>
         <v>1700</v>
       </c>
-      <c r="F5" s="131"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="58"/>
+      <c r="F5" s="130"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="57"/>
       <c r="I5" s="18"/>
-      <c r="J5" s="68"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="57" t="s">
+      <c r="J5" s="67"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="56" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="22" t="s">
@@ -2131,26 +2131,26 @@
         <f>D6*295</f>
         <v>295</v>
       </c>
-      <c r="F6" s="131"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="67"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="56"/>
+      <c r="F6" s="130"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="66"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="55"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="13"/>
-      <c r="F7" s="131"/>
-      <c r="G7" s="48"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="47"/>
       <c r="H7" s="29"/>
       <c r="I7" s="8"/>
-      <c r="J7" s="68"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="57" t="s">
+      <c r="J7" s="67"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="56" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="22" t="s">
@@ -2166,14 +2166,14 @@
         <f>D8*290</f>
         <v>290</v>
       </c>
-      <c r="F8" s="131"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="67"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="56" t="s">
+      <c r="F8" s="130"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="66"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="55" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -2189,14 +2189,14 @@
         <f>D9*350</f>
         <v>700</v>
       </c>
-      <c r="F9" s="131"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="58"/>
+      <c r="F9" s="130"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="57"/>
       <c r="I9" s="18"/>
-      <c r="J9" s="68"/>
-    </row>
-    <row r="10" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="57" t="s">
+      <c r="J9" s="67"/>
+    </row>
+    <row r="10" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="56" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="22" t="s">
@@ -2210,36 +2210,36 @@
         <f>SUM(E3:E9)</f>
         <v>5625</v>
       </c>
-      <c r="F10" s="131"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="60" t="s">
+      <c r="F10" s="130"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="69" t="s">
+      <c r="I10" s="68" t="s">
         <v>170</v>
       </c>
-      <c r="J10" s="67">
+      <c r="J10" s="66">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="56"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="55"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="13"/>
-      <c r="F11" s="131"/>
-      <c r="G11" s="48"/>
+      <c r="F11" s="130"/>
+      <c r="G11" s="47"/>
       <c r="H11" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="70"/>
-      <c r="J11" s="68">
+      <c r="I11" s="69"/>
+      <c r="J11" s="67">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="57" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="56" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="22" t="s">
@@ -2252,32 +2252,32 @@
         <v>18</v>
       </c>
       <c r="E12" s="24"/>
-      <c r="F12" s="131"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="60" t="s">
+      <c r="F12" s="130"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="69" t="s">
+      <c r="I12" s="68" t="s">
         <v>171</v>
       </c>
-      <c r="J12" s="67">
+      <c r="J12" s="66">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="56"/>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="55"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="13"/>
-      <c r="F13" s="131"/>
-      <c r="G13" s="48"/>
+      <c r="F13" s="130"/>
+      <c r="G13" s="47"/>
       <c r="H13" s="29"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="68"/>
-    </row>
-    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="57" t="s">
+      <c r="I13" s="69"/>
+      <c r="J13" s="67"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="56" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="22" t="s">
@@ -2290,19 +2290,19 @@
         <v>30</v>
       </c>
       <c r="E14" s="24"/>
-      <c r="F14" s="131"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="60" t="s">
+      <c r="F14" s="130"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="69" t="s">
+      <c r="I14" s="68" t="s">
         <v>172</v>
       </c>
-      <c r="J14" s="67">
+      <c r="J14" s="66">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>36</v>
       </c>
@@ -2313,7 +2313,7 @@
       <c r="F15" s="28">
         <v>314</v>
       </c>
-      <c r="G15" s="52"/>
+      <c r="G15" s="51"/>
       <c r="H15" s="14"/>
       <c r="I15" s="10"/>
       <c r="J15" s="28">
@@ -2321,33 +2321,33 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G16" s="17"/>
     </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="40" t="s">
+    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="39" t="s">
         <v>37</v>
       </c>
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
       <c r="D18" s="31"/>
       <c r="E18" s="31"/>
-      <c r="F18" s="37">
+      <c r="F18" s="36">
         <f>F15</f>
         <v>314</v>
       </c>
-      <c r="G18" s="49"/>
-      <c r="H18" s="40" t="s">
+      <c r="G18" s="48"/>
+      <c r="H18" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="I18" s="43"/>
-      <c r="J18" s="37">
+      <c r="I18" s="42"/>
+      <c r="J18" s="36">
         <f>J15</f>
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>38</v>
       </c>
@@ -2355,21 +2355,21 @@
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
-      <c r="F19" s="38">
+      <c r="F19" s="37">
         <f>'Component Part List'!$E$28</f>
         <v>349.5</v>
       </c>
-      <c r="G19" s="49"/>
+      <c r="G19" s="48"/>
       <c r="H19" s="29" t="s">
         <v>38</v>
       </c>
       <c r="I19" s="8"/>
-      <c r="J19" s="38">
+      <c r="J19" s="37">
         <f>'Component Part List'!$E$28</f>
         <v>349.5</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
         <v>39</v>
       </c>
@@ -2377,57 +2377,57 @@
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
-      <c r="F20" s="39" t="s">
+      <c r="F20" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="G20" s="49"/>
+      <c r="G20" s="48"/>
       <c r="H20" s="30" t="s">
         <v>39</v>
       </c>
       <c r="I20" s="27"/>
-      <c r="J20" s="39" t="s">
+      <c r="J20" s="38" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="41" t="s">
+    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="47" t="s">
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="46" t="s">
         <v>165</v>
       </c>
-      <c r="G21" s="49"/>
+      <c r="G21" s="48"/>
       <c r="H21" s="29" t="s">
         <v>41</v>
       </c>
       <c r="I21" s="8"/>
-      <c r="J21" s="38">
+      <c r="J21" s="37">
         <f>Fasteners!D39</f>
         <v>80.600000000000009</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="45" t="s">
+    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="42">
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="41">
         <f>SUM(F18:F21)</f>
         <v>663.5</v>
       </c>
-      <c r="G22" s="49"/>
-      <c r="H22" s="61" t="s">
+      <c r="G22" s="48"/>
+      <c r="H22" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="I22" s="62"/>
-      <c r="J22" s="63">
+      <c r="I22" s="61"/>
+      <c r="J22" s="62">
         <f>SUM(J18:J21)</f>
         <v>534.1</v>
       </c>
@@ -2455,58 +2455,58 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" customWidth="1"/>
-    <col min="3" max="3" width="6.21875" style="104" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="103" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A1" s="106" t="s">
+    <row r="1" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="105" t="s">
         <v>187</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="109"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="110"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="108"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="109"/>
       <c r="B2" s="8"/>
-      <c r="C2" s="111"/>
+      <c r="C2" s="110"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="13"/>
     </row>
-    <row r="3" spans="1:7" s="105" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="112" t="s">
+    <row r="3" spans="1:7" s="104" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="111" t="s">
         <v>188</v>
       </c>
-      <c r="B3" s="113"/>
-      <c r="C3" s="127" t="s">
+      <c r="B3" s="112"/>
+      <c r="C3" s="126" t="s">
         <v>209</v>
       </c>
-      <c r="D3" s="115" t="s">
+      <c r="D3" s="114" t="s">
         <v>192</v>
       </c>
-      <c r="E3" s="113"/>
-      <c r="F3" s="115" t="s">
+      <c r="E3" s="112"/>
+      <c r="F3" s="114" t="s">
         <v>193</v>
       </c>
-      <c r="G3" s="116"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="110" t="s">
+      <c r="G3" s="115"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="109" t="s">
         <v>202</v>
       </c>
       <c r="B4" s="8">
         <v>310</v>
       </c>
-      <c r="C4" s="128" t="s">
+      <c r="C4" s="127" t="s">
         <v>205</v>
       </c>
       <c r="D4" s="8">
@@ -2520,14 +2520,14 @@
       </c>
       <c r="G4" s="13"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="110" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="109" t="s">
         <v>203</v>
       </c>
       <c r="B5" s="8">
         <v>350</v>
       </c>
-      <c r="C5" s="128" t="s">
+      <c r="C5" s="127" t="s">
         <v>205</v>
       </c>
       <c r="D5" s="8">
@@ -2545,14 +2545,14 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="110" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="109" t="s">
         <v>204</v>
       </c>
       <c r="B6" s="8">
         <v>340</v>
       </c>
-      <c r="C6" s="128" t="s">
+      <c r="C6" s="127" t="s">
         <v>206</v>
       </c>
       <c r="D6" s="8">
@@ -2566,14 +2566,14 @@
       </c>
       <c r="G6" s="13"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="110" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="109" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="17">
         <v>290</v>
       </c>
-      <c r="C7" s="128" t="s">
+      <c r="C7" s="127" t="s">
         <v>207</v>
       </c>
       <c r="D7" s="8">
@@ -2587,14 +2587,14 @@
       </c>
       <c r="G7" s="13"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="110" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="109" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="17">
         <v>350</v>
       </c>
-      <c r="C8" s="128" t="s">
+      <c r="C8" s="127" t="s">
         <v>208</v>
       </c>
       <c r="D8" s="8">
@@ -2608,14 +2608,14 @@
       </c>
       <c r="G8" s="13"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="110" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="109" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="17">
         <v>295</v>
       </c>
-      <c r="C9" s="128" t="s">
+      <c r="C9" s="127" t="s">
         <v>207</v>
       </c>
       <c r="D9" s="8">
@@ -2629,63 +2629,63 @@
       </c>
       <c r="G9" s="13"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="110"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="109"/>
       <c r="B10" s="8"/>
-      <c r="C10" s="111"/>
+      <c r="C10" s="110"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="13"/>
     </row>
-    <row r="11" spans="1:7" s="105" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="112" t="s">
+    <row r="11" spans="1:7" s="104" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="111" t="s">
         <v>195</v>
       </c>
-      <c r="B11" s="113"/>
-      <c r="C11" s="114"/>
-      <c r="D11" s="113"/>
-      <c r="E11" s="113"/>
-      <c r="F11" s="113"/>
-      <c r="G11" s="116"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="110" t="s">
+      <c r="B11" s="112"/>
+      <c r="C11" s="113"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="115"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="109" t="s">
         <v>194</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="111"/>
+      <c r="C12" s="110"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="13"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="117" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="116" t="s">
         <v>196</v>
       </c>
-      <c r="B13" s="118"/>
-      <c r="C13" s="119" t="s">
+      <c r="B13" s="117"/>
+      <c r="C13" s="118" t="s">
         <v>198</v>
       </c>
-      <c r="D13" s="120" t="s">
+      <c r="D13" s="119" t="s">
         <v>197</v>
       </c>
-      <c r="E13" s="120"/>
+      <c r="E13" s="119"/>
       <c r="F13" s="8"/>
       <c r="G13" s="13"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="110" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="109" t="s">
         <v>202</v>
       </c>
-      <c r="B14" s="118">
+      <c r="B14" s="117">
         <v>200</v>
       </c>
-      <c r="C14" s="119" t="s">
+      <c r="C14" s="118" t="s">
         <v>189</v>
       </c>
-      <c r="D14" s="120">
+      <c r="D14" s="119">
         <f>B14+110</f>
         <v>310</v>
       </c>
@@ -2695,17 +2695,17 @@
       <c r="F14" s="8"/>
       <c r="G14" s="13"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="110" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="109" t="s">
         <v>203</v>
       </c>
-      <c r="B15" s="118">
+      <c r="B15" s="117">
         <v>200</v>
       </c>
-      <c r="C15" s="119" t="s">
+      <c r="C15" s="118" t="s">
         <v>190</v>
       </c>
-      <c r="D15" s="120">
+      <c r="D15" s="119">
         <f>B15+150</f>
         <v>350</v>
       </c>
@@ -2717,17 +2717,17 @@
       </c>
       <c r="G15" s="13"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="110" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="109" t="s">
         <v>204</v>
       </c>
-      <c r="B16" s="118">
+      <c r="B16" s="117">
         <v>200</v>
       </c>
-      <c r="C16" s="119" t="s">
+      <c r="C16" s="118" t="s">
         <v>191</v>
       </c>
-      <c r="D16" s="120">
+      <c r="D16" s="119">
         <f>B16+140</f>
         <v>340</v>
       </c>
@@ -2737,13 +2737,13 @@
       <c r="F16" s="8"/>
       <c r="G16" s="13"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="110" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="118"/>
-      <c r="C17" s="119"/>
-      <c r="D17" s="120">
+      <c r="B17" s="117"/>
+      <c r="C17" s="118"/>
+      <c r="D17" s="119">
         <f>B14+90</f>
         <v>290</v>
       </c>
@@ -2753,13 +2753,13 @@
       <c r="F17" s="8"/>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="110" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="118"/>
-      <c r="C18" s="119"/>
-      <c r="D18" s="120">
+      <c r="B18" s="117"/>
+      <c r="C18" s="118"/>
+      <c r="D18" s="119">
         <f>B15+150</f>
         <v>350</v>
       </c>
@@ -2769,42 +2769,42 @@
       <c r="F18" s="8"/>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="121" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="122"/>
-      <c r="C19" s="123"/>
-      <c r="D19" s="124">
+      <c r="B19" s="121"/>
+      <c r="C19" s="122"/>
+      <c r="D19" s="123">
         <f>B14+95</f>
         <v>295</v>
       </c>
-      <c r="E19" s="129" t="s">
+      <c r="E19" s="128" t="s">
         <v>207</v>
       </c>
-      <c r="F19" s="125"/>
-      <c r="G19" s="126"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F19" s="124"/>
+      <c r="G19" s="125"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="111"/>
+      <c r="C20" s="110"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>201</v>
       </c>
@@ -2824,77 +2824,77 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{932488CD-A13D-49F6-B1D7-8DBDDFDC11EE}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5546875" style="17" customWidth="1"/>
-    <col min="7" max="7" width="18.44140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" style="17" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" customWidth="1"/>
-    <col min="9" max="9" width="8.5546875" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="76" customFormat="1" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="78" t="s">
+    <row r="1" spans="1:12" s="75" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="77" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="77" t="s">
         <v>175</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="78" t="s">
         <v>176</v>
       </c>
-      <c r="D1" s="80" t="s">
+      <c r="D1" s="79" t="s">
         <v>177</v>
       </c>
-      <c r="E1" s="93" t="s">
+      <c r="E1" s="92" t="s">
         <v>178</v>
       </c>
-      <c r="F1" s="77" t="s">
+      <c r="F1" s="76" t="s">
         <v>179</v>
       </c>
-      <c r="G1" s="86" t="s">
+      <c r="G1" s="85" t="s">
         <v>180</v>
       </c>
-      <c r="H1" s="86" t="s">
+      <c r="H1" s="85" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="81" t="s">
+    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="83" t="s">
+      <c r="C2" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="84" t="s">
+      <c r="D2" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="97" t="s">
+      <c r="E2" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="74"/>
-      <c r="G2" s="87" t="s">
+      <c r="F2" s="73"/>
+      <c r="G2" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="96" t="s">
+      <c r="H2" s="95" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>44</v>
       </c>
@@ -2907,15 +2907,15 @@
       <c r="D3" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="85">
+      <c r="E3" s="84">
         <v>20</v>
       </c>
-      <c r="F3" s="53"/>
+      <c r="F3" s="52"/>
       <c r="G3" s="29"/>
-      <c r="H3" s="85"/>
+      <c r="H3" s="84"/>
       <c r="L3" s="7"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>47</v>
       </c>
@@ -2928,14 +2928,14 @@
       <c r="D4" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="85">
+      <c r="E4" s="84">
         <v>15</v>
       </c>
-      <c r="F4" s="53"/>
+      <c r="F4" s="52"/>
       <c r="G4" s="29"/>
-      <c r="H4" s="85"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H4" s="84"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>50</v>
       </c>
@@ -2948,14 +2948,14 @@
       <c r="D5" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="E5" s="85">
+      <c r="E5" s="84">
         <v>12</v>
       </c>
-      <c r="F5" s="53"/>
+      <c r="F5" s="52"/>
       <c r="G5" s="29"/>
-      <c r="H5" s="85"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H5" s="84"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>52</v>
       </c>
@@ -2968,14 +2968,14 @@
       <c r="D6" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="E6" s="85">
+      <c r="E6" s="84">
         <v>11</v>
       </c>
-      <c r="F6" s="53"/>
+      <c r="F6" s="52"/>
       <c r="G6" s="29"/>
-      <c r="H6" s="85"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H6" s="84"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>54</v>
       </c>
@@ -2988,14 +2988,14 @@
       <c r="D7" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="85">
+      <c r="E7" s="84">
         <v>10</v>
       </c>
-      <c r="F7" s="53"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="85"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F7" s="52"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="84"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>57</v>
       </c>
@@ -3008,14 +3008,14 @@
       <c r="D8" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="85">
+      <c r="E8" s="84">
         <v>2</v>
       </c>
-      <c r="F8" s="53"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="85"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F8" s="52"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="84"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>60</v>
       </c>
@@ -3028,14 +3028,14 @@
       <c r="D9" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="85">
+      <c r="E9" s="84">
         <v>3</v>
       </c>
-      <c r="F9" s="53"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="85"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F9" s="52"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="84"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>63</v>
       </c>
@@ -3048,14 +3048,14 @@
       <c r="D10" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="85">
+      <c r="E10" s="84">
         <v>4</v>
       </c>
-      <c r="F10" s="53"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="85"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F10" s="52"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="84"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>66</v>
       </c>
@@ -3068,14 +3068,14 @@
       <c r="D11" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="85">
+      <c r="E11" s="84">
         <v>14</v>
       </c>
-      <c r="F11" s="53"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="85"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F11" s="52"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="84"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>69</v>
       </c>
@@ -3088,18 +3088,18 @@
       <c r="D12" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="85">
+      <c r="E12" s="84">
         <v>27</v>
       </c>
-      <c r="F12" s="53"/>
-      <c r="G12" s="90" t="s">
+      <c r="F12" s="52"/>
+      <c r="G12" s="89" t="s">
         <v>72</v>
       </c>
-      <c r="H12" s="85">
+      <c r="H12" s="84">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>73</v>
       </c>
@@ -3112,14 +3112,14 @@
       <c r="D13" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E13" s="85">
+      <c r="E13" s="84">
         <v>3.5</v>
       </c>
-      <c r="F13" s="53"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="85"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F13" s="52"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="84"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>76</v>
       </c>
@@ -3132,14 +3132,14 @@
       <c r="D14" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E14" s="85">
+      <c r="E14" s="84">
         <v>2</v>
       </c>
-      <c r="F14" s="53"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="85"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F14" s="52"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="84"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>79</v>
       </c>
@@ -3152,14 +3152,14 @@
       <c r="D15" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E15" s="85">
+      <c r="E15" s="84">
         <v>17</v>
       </c>
-      <c r="F15" s="53"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="85"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F15" s="52"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="84"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>82</v>
       </c>
@@ -3172,14 +3172,14 @@
       <c r="D16" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E16" s="85">
+      <c r="E16" s="84">
         <v>20</v>
       </c>
-      <c r="F16" s="53"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="85"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F16" s="52"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="84"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>85</v>
       </c>
@@ -3192,14 +3192,14 @@
       <c r="D17" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E17" s="85">
+      <c r="E17" s="84">
         <v>2.5</v>
       </c>
-      <c r="F17" s="53"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="85"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F17" s="52"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="84"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>88</v>
       </c>
@@ -3212,14 +3212,14 @@
       <c r="D18" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E18" s="85">
+      <c r="E18" s="84">
         <v>20</v>
       </c>
-      <c r="F18" s="53"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="85"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F18" s="52"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="84"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>91</v>
       </c>
@@ -3232,14 +3232,14 @@
       <c r="D19" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E19" s="85">
+      <c r="E19" s="84">
         <v>8.5</v>
       </c>
-      <c r="F19" s="53"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="85"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F19" s="52"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="84"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>94</v>
       </c>
@@ -3252,14 +3252,14 @@
       <c r="D20" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E20" s="85">
+      <c r="E20" s="84">
         <v>14</v>
       </c>
-      <c r="F20" s="53"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="85"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F20" s="52"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="84"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>98</v>
       </c>
@@ -3272,14 +3272,14 @@
       <c r="D21" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E21" s="85">
+      <c r="E21" s="84">
         <v>8</v>
       </c>
-      <c r="F21" s="53"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="85"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F21" s="52"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="84"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>101</v>
       </c>
@@ -3292,14 +3292,14 @@
       <c r="D22" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E22" s="85">
+      <c r="E22" s="84">
         <v>6</v>
       </c>
-      <c r="F22" s="53"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="85"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F22" s="52"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="84"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>104</v>
       </c>
@@ -3309,17 +3309,17 @@
       <c r="C23" s="9">
         <v>7</v>
       </c>
-      <c r="D23" s="33" t="s">
+      <c r="D23" s="131" t="s">
         <v>106</v>
       </c>
-      <c r="E23" s="34">
+      <c r="E23" s="33">
         <v>25</v>
       </c>
-      <c r="F23" s="73"/>
-      <c r="G23" s="91"/>
-      <c r="H23" s="34"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F23" s="72"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="33"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>107</v>
       </c>
@@ -3329,17 +3329,17 @@
       <c r="C24" s="9">
         <v>6</v>
       </c>
-      <c r="D24" s="35" t="s">
+      <c r="D24" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="E24" s="36">
+      <c r="E24" s="35">
         <v>22</v>
       </c>
-      <c r="F24" s="73"/>
-      <c r="G24" s="92"/>
-      <c r="H24" s="36"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F24" s="72"/>
+      <c r="G24" s="91"/>
+      <c r="H24" s="35"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
         <v>110</v>
       </c>
@@ -3352,14 +3352,14 @@
       <c r="D25" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E25" s="85">
+      <c r="E25" s="84">
         <v>30</v>
       </c>
-      <c r="F25" s="53"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="85"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F25" s="52"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="84"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
         <v>113</v>
       </c>
@@ -3372,18 +3372,18 @@
       <c r="D26" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="E26" s="85">
+      <c r="E26" s="84">
         <v>37</v>
       </c>
-      <c r="F26" s="53"/>
-      <c r="G26" s="58" t="s">
+      <c r="F26" s="52"/>
+      <c r="G26" s="57" t="s">
         <v>186</v>
       </c>
-      <c r="H26" s="85">
+      <c r="H26" s="84">
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="29" t="s">
         <v>115</v>
       </c>
@@ -3396,30 +3396,30 @@
       <c r="D27" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E27" s="85">
+      <c r="E27" s="84">
         <v>16</v>
       </c>
-      <c r="F27" s="53"/>
-      <c r="G27" s="94" t="s">
+      <c r="F27" s="52"/>
+      <c r="G27" s="93" t="s">
         <v>173</v>
       </c>
-      <c r="H27" s="95">
+      <c r="H27" s="94">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>118</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
-      <c r="E28" s="75">
+      <c r="E28" s="74">
         <f>SUM(E2:E27)</f>
         <v>349.5</v>
       </c>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -3449,7 +3449,7 @@
     <hyperlink ref="G27" r:id="rId23" display="CLEVER3D" xr:uid="{7B1D2EFC-9E0A-4BD0-B66C-2C091262564C}"/>
     <hyperlink ref="D10" r:id="rId24" xr:uid="{4AEFCE09-28B7-4C24-82DE-ADAB9CAA43E1}"/>
     <hyperlink ref="D11" r:id="rId25" xr:uid="{0ED2334F-09CF-437E-82F8-E81D86F288DC}"/>
-    <hyperlink ref="D23" r:id="rId26" display="8X With High End" xr:uid="{87CB364F-700B-4E81-BC67-3C859C1B7934}"/>
+    <hyperlink ref="D23" r:id="rId26" xr:uid="{87CB364F-700B-4E81-BC67-3C859C1B7934}"/>
     <hyperlink ref="D24" r:id="rId27" display="5X High End" xr:uid="{D4CB98E8-7A2B-495D-9E37-8208D21A6270}"/>
     <hyperlink ref="G26" r:id="rId28" display="1/17 Alternative" xr:uid="{C2F85E16-6DCE-4455-AAFB-64BC7439D25F}"/>
   </hyperlinks>
@@ -3467,30 +3467,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="100" t="s">
+      <c r="C1" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="98" t="s">
+      <c r="D1" s="97" t="s">
         <v>119</v>
       </c>
       <c r="F1" t="s">
@@ -3503,7 +3503,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>120</v>
       </c>
@@ -3513,11 +3513,11 @@
       <c r="C2" s="32">
         <v>2</v>
       </c>
-      <c r="D2" s="99">
+      <c r="D2" s="98">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>122</v>
       </c>
@@ -3527,11 +3527,11 @@
       <c r="C3" s="32">
         <v>4</v>
       </c>
-      <c r="D3" s="99">
+      <c r="D3" s="98">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>123</v>
       </c>
@@ -3541,11 +3541,11 @@
       <c r="C4" s="32">
         <v>4</v>
       </c>
-      <c r="D4" s="99">
+      <c r="D4" s="98">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>125</v>
       </c>
@@ -3555,11 +3555,11 @@
       <c r="C5" s="32">
         <v>2</v>
       </c>
-      <c r="D5" s="99">
+      <c r="D5" s="98">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>126</v>
       </c>
@@ -3569,11 +3569,11 @@
       <c r="C6" s="32">
         <v>2</v>
       </c>
-      <c r="D6" s="99">
+      <c r="D6" s="98">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>128</v>
       </c>
@@ -3583,11 +3583,11 @@
       <c r="C7" s="32">
         <v>11</v>
       </c>
-      <c r="D7" s="99">
+      <c r="D7" s="98">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>129</v>
       </c>
@@ -3597,11 +3597,11 @@
       <c r="C8" s="32">
         <v>15</v>
       </c>
-      <c r="D8" s="99">
+      <c r="D8" s="98">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>131</v>
       </c>
@@ -3611,11 +3611,11 @@
       <c r="C9" s="32">
         <v>6</v>
       </c>
-      <c r="D9" s="99">
+      <c r="D9" s="98">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>132</v>
       </c>
@@ -3625,11 +3625,11 @@
       <c r="C10" s="32">
         <v>9</v>
       </c>
-      <c r="D10" s="99">
+      <c r="D10" s="98">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>133</v>
       </c>
@@ -3639,11 +3639,11 @@
       <c r="C11" s="32">
         <v>5</v>
       </c>
-      <c r="D11" s="99">
+      <c r="D11" s="98">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>134</v>
       </c>
@@ -3653,11 +3653,11 @@
       <c r="C12" s="32">
         <v>8</v>
       </c>
-      <c r="D12" s="99">
+      <c r="D12" s="98">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>182</v>
       </c>
@@ -3667,11 +3667,11 @@
       <c r="C13" s="32">
         <v>2</v>
       </c>
-      <c r="D13" s="99">
+      <c r="D13" s="98">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>135</v>
       </c>
@@ -3681,11 +3681,11 @@
       <c r="C14" s="32">
         <v>5</v>
       </c>
-      <c r="D14" s="99">
+      <c r="D14" s="98">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>137</v>
       </c>
@@ -3695,11 +3695,11 @@
       <c r="C15" s="32">
         <v>5</v>
       </c>
-      <c r="D15" s="99">
+      <c r="D15" s="98">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>138</v>
       </c>
@@ -3709,11 +3709,11 @@
       <c r="C16" s="32">
         <v>13</v>
       </c>
-      <c r="D16" s="99">
+      <c r="D16" s="98">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>139</v>
       </c>
@@ -3723,11 +3723,11 @@
       <c r="C17" s="32">
         <v>6</v>
       </c>
-      <c r="D17" s="99">
+      <c r="D17" s="98">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>140</v>
       </c>
@@ -3737,11 +3737,11 @@
       <c r="C18" s="32">
         <v>2</v>
       </c>
-      <c r="D18" s="99">
+      <c r="D18" s="98">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>141</v>
       </c>
@@ -3751,11 +3751,11 @@
       <c r="C19" s="32">
         <v>1</v>
       </c>
-      <c r="D19" s="99">
+      <c r="D19" s="98">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>142</v>
       </c>
@@ -3765,11 +3765,11 @@
       <c r="C20" s="32">
         <v>3</v>
       </c>
-      <c r="D20" s="99">
+      <c r="D20" s="98">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>143</v>
       </c>
@@ -3779,11 +3779,11 @@
       <c r="C21" s="32">
         <v>1</v>
       </c>
-      <c r="D21" s="99">
+      <c r="D21" s="98">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>144</v>
       </c>
@@ -3793,11 +3793,11 @@
       <c r="C22" s="32">
         <v>1</v>
       </c>
-      <c r="D22" s="99">
+      <c r="D22" s="98">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>145</v>
       </c>
@@ -3807,11 +3807,11 @@
       <c r="C23" s="32">
         <v>28</v>
       </c>
-      <c r="D23" s="99">
+      <c r="D23" s="98">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>146</v>
       </c>
@@ -3821,11 +3821,11 @@
       <c r="C24" s="32">
         <v>6</v>
       </c>
-      <c r="D24" s="99">
+      <c r="D24" s="98">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
         <v>147</v>
       </c>
@@ -3835,11 +3835,11 @@
       <c r="C25" s="32">
         <v>50</v>
       </c>
-      <c r="D25" s="99">
+      <c r="D25" s="98">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
         <v>149</v>
       </c>
@@ -3849,11 +3849,11 @@
       <c r="C26" s="32">
         <v>63</v>
       </c>
-      <c r="D26" s="99">
+      <c r="D26" s="98">
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
         <v>151</v>
       </c>
@@ -3863,11 +3863,11 @@
       <c r="C27" s="32">
         <v>143</v>
       </c>
-      <c r="D27" s="99">
+      <c r="D27" s="98">
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
         <v>153</v>
       </c>
@@ -3877,11 +3877,11 @@
       <c r="C28" s="32">
         <v>200</v>
       </c>
-      <c r="D28" s="99">
+      <c r="D28" s="98">
         <v>200</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
         <v>154</v>
       </c>
@@ -3891,11 +3891,11 @@
       <c r="C29" s="32">
         <v>142</v>
       </c>
-      <c r="D29" s="99">
+      <c r="D29" s="98">
         <v>150</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>155</v>
       </c>
@@ -3905,11 +3905,11 @@
       <c r="C30" s="32">
         <v>8</v>
       </c>
-      <c r="D30" s="99">
+      <c r="D30" s="98">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
         <v>156</v>
       </c>
@@ -3919,11 +3919,11 @@
       <c r="C31" s="32">
         <v>1</v>
       </c>
-      <c r="D31" s="99">
+      <c r="D31" s="98">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
         <v>157</v>
       </c>
@@ -3933,11 +3933,11 @@
       <c r="C32" s="32">
         <v>2</v>
       </c>
-      <c r="D32" s="99">
+      <c r="D32" s="98">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="29" t="s">
         <v>158</v>
       </c>
@@ -3947,11 +3947,11 @@
       <c r="C33" s="32">
         <v>2</v>
       </c>
-      <c r="D33" s="99">
+      <c r="D33" s="98">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="29" t="s">
         <v>159</v>
       </c>
@@ -3961,11 +3961,11 @@
       <c r="C34" s="32">
         <v>18</v>
       </c>
-      <c r="D34" s="99">
+      <c r="D34" s="98">
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="29" t="s">
         <v>160</v>
       </c>
@@ -3975,11 +3975,11 @@
       <c r="C35" s="32">
         <v>8</v>
       </c>
-      <c r="D35" s="99">
+      <c r="D35" s="98">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="29" t="s">
         <v>161</v>
       </c>
@@ -3989,35 +3989,35 @@
       <c r="C36" s="32">
         <v>4</v>
       </c>
-      <c r="D36" s="99">
+      <c r="D36" s="98">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="71" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="70" t="s">
         <v>162</v>
       </c>
-      <c r="B37" s="72"/>
-      <c r="C37" s="101">
+      <c r="B37" s="71"/>
+      <c r="C37" s="100">
         <f>SUM(C2:C36)</f>
         <v>782</v>
       </c>
-      <c r="D37" s="102">
+      <c r="D37" s="101">
         <f>SUM(D2:D36)</f>
         <v>806</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="29" t="s">
         <v>163</v>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="5"/>
-      <c r="D38" s="103">
+      <c r="D38" s="102">
         <v>0.1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="s">
         <v>164</v>
       </c>
@@ -4040,14 +4040,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>

--- a/Document Library/Bill Of Materials/V-Baby BOM.xlsx
+++ b/Document Library/Bill Of Materials/V-Baby BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Document Library\GitHub\V-Baby CoreXY\Document Library\Bill Of Materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1702" documentId="11_2E462098BBA7632759C38D02185E4833A2B67484" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{12043F0A-03D1-417A-9D6E-3C8A54FD27CA}"/>
+  <xr:revisionPtr revIDLastSave="1706" documentId="11_2E462098BBA7632759C38D02185E4833A2B67484" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8C6639D8-D77E-4D0F-8FC7-8D12DF099F8D}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="211">
   <si>
     <t>Exstrusions</t>
   </si>
@@ -592,9 +594,6 @@
     <t>TMC2209 UART x2</t>
   </si>
   <si>
-    <t>1/17 Worm Stepper</t>
-  </si>
-  <si>
     <t>V-Slot Calculator</t>
   </si>
   <si>
@@ -665,6 +664,9 @@
   </si>
   <si>
     <t>Tapped</t>
+  </si>
+  <si>
+    <t>1/30 Worm Stepper</t>
   </si>
 </sst>
 </file>
@@ -1404,13 +1406,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="40% - Accent6" xfId="4" builtinId="51"/>
@@ -2037,7 +2039,7 @@
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
       <c r="E2" s="23"/>
-      <c r="F2" s="129" t="s">
+      <c r="F2" s="130" t="s">
         <v>166</v>
       </c>
       <c r="G2" s="47"/>
@@ -2062,7 +2064,7 @@
         <f>D3*310</f>
         <v>1240</v>
       </c>
-      <c r="F3" s="130"/>
+      <c r="F3" s="131"/>
       <c r="G3" s="47"/>
       <c r="H3" s="57"/>
       <c r="I3" s="18"/>
@@ -2085,7 +2087,7 @@
         <f>D4*350</f>
         <v>1400</v>
       </c>
-      <c r="F4" s="130"/>
+      <c r="F4" s="131"/>
       <c r="G4" s="47"/>
       <c r="H4" s="58"/>
       <c r="I4" s="49"/>
@@ -2108,7 +2110,7 @@
         <f>D5*340</f>
         <v>1700</v>
       </c>
-      <c r="F5" s="130"/>
+      <c r="F5" s="131"/>
       <c r="G5" s="47"/>
       <c r="H5" s="57"/>
       <c r="I5" s="18"/>
@@ -2131,7 +2133,7 @@
         <f>D6*295</f>
         <v>295</v>
       </c>
-      <c r="F6" s="130"/>
+      <c r="F6" s="131"/>
       <c r="G6" s="47"/>
       <c r="H6" s="58"/>
       <c r="I6" s="49"/>
@@ -2143,7 +2145,7 @@
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="13"/>
-      <c r="F7" s="130"/>
+      <c r="F7" s="131"/>
       <c r="G7" s="47"/>
       <c r="H7" s="29"/>
       <c r="I7" s="8"/>
@@ -2166,7 +2168,7 @@
         <f>D8*290</f>
         <v>290</v>
       </c>
-      <c r="F8" s="130"/>
+      <c r="F8" s="131"/>
       <c r="G8" s="47"/>
       <c r="H8" s="58"/>
       <c r="I8" s="49"/>
@@ -2189,7 +2191,7 @@
         <f>D9*350</f>
         <v>700</v>
       </c>
-      <c r="F9" s="130"/>
+      <c r="F9" s="131"/>
       <c r="G9" s="47"/>
       <c r="H9" s="57"/>
       <c r="I9" s="18"/>
@@ -2210,7 +2212,7 @@
         <f>SUM(E3:E9)</f>
         <v>5625</v>
       </c>
-      <c r="F10" s="130"/>
+      <c r="F10" s="131"/>
       <c r="G10" s="47"/>
       <c r="H10" s="59" t="s">
         <v>27</v>
@@ -2228,7 +2230,7 @@
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="13"/>
-      <c r="F11" s="130"/>
+      <c r="F11" s="131"/>
       <c r="G11" s="47"/>
       <c r="H11" s="29" t="s">
         <v>28</v>
@@ -2252,7 +2254,7 @@
         <v>18</v>
       </c>
       <c r="E12" s="24"/>
-      <c r="F12" s="130"/>
+      <c r="F12" s="131"/>
       <c r="G12" s="47"/>
       <c r="H12" s="59" t="s">
         <v>31</v>
@@ -2270,7 +2272,7 @@
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="13"/>
-      <c r="F13" s="130"/>
+      <c r="F13" s="131"/>
       <c r="G13" s="47"/>
       <c r="H13" s="29"/>
       <c r="I13" s="69"/>
@@ -2290,7 +2292,7 @@
         <v>30</v>
       </c>
       <c r="E14" s="24"/>
-      <c r="F14" s="130"/>
+      <c r="F14" s="131"/>
       <c r="G14" s="47"/>
       <c r="H14" s="59" t="s">
         <v>35</v>
@@ -2464,7 +2466,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A1" s="105" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B1" s="106"/>
       <c r="C1" s="107"/>
@@ -2484,30 +2486,30 @@
     </row>
     <row r="3" spans="1:7" s="104" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="111" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B3" s="112"/>
       <c r="C3" s="126" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D3" s="114" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E3" s="112"/>
       <c r="F3" s="114" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G3" s="115"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="109" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B4" s="8">
         <v>310</v>
       </c>
       <c r="C4" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D4" s="8">
         <f>B4+50</f>
@@ -2522,38 +2524,38 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="109" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B5" s="8">
         <v>350</v>
       </c>
       <c r="C5" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D5" s="8">
         <f>B5+50</f>
         <v>400</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F5" s="8">
         <f>B5+100</f>
         <v>450</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="109" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B6" s="8">
         <v>340</v>
       </c>
       <c r="C6" s="127" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D6" s="8">
         <f>B6+50</f>
@@ -2574,7 +2576,7 @@
         <v>290</v>
       </c>
       <c r="C7" s="127" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D7" s="8">
         <f t="shared" ref="D7:D9" si="0">B7+50</f>
@@ -2595,7 +2597,7 @@
         <v>350</v>
       </c>
       <c r="C8" s="127" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D8" s="8">
         <f t="shared" si="0"/>
@@ -2616,7 +2618,7 @@
         <v>295</v>
       </c>
       <c r="C9" s="127" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D9" s="8">
         <f t="shared" si="0"/>
@@ -2640,7 +2642,7 @@
     </row>
     <row r="11" spans="1:7" s="104" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="111" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B11" s="112"/>
       <c r="C11" s="113"/>
@@ -2651,7 +2653,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="109" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="110"/>
@@ -2662,14 +2664,14 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="116" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B13" s="117"/>
       <c r="C13" s="118" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D13" s="119" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E13" s="119"/>
       <c r="F13" s="8"/>
@@ -2677,62 +2679,62 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="109" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B14" s="117">
         <v>200</v>
       </c>
       <c r="C14" s="118" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D14" s="119">
         <f>B14+110</f>
         <v>310</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="13"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="109" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B15" s="117">
         <v>200</v>
       </c>
       <c r="C15" s="118" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D15" s="119">
         <f>B15+150</f>
         <v>350</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G15" s="13"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="109" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B16" s="117">
         <v>200</v>
       </c>
       <c r="C16" s="118" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D16" s="119">
         <f>B16+140</f>
         <v>340</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="13"/>
@@ -2748,7 +2750,7 @@
         <v>290</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="13"/>
@@ -2764,7 +2766,7 @@
         <v>350</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="13"/>
@@ -2780,7 +2782,7 @@
         <v>295</v>
       </c>
       <c r="E19" s="128" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F19" s="124"/>
       <c r="G19" s="125"/>
@@ -2796,17 +2798,17 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -2825,7 +2827,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3309,7 +3311,7 @@
       <c r="C23" s="9">
         <v>7</v>
       </c>
-      <c r="D23" s="131" t="s">
+      <c r="D23" s="129" t="s">
         <v>106</v>
       </c>
       <c r="E23" s="33">
@@ -3370,18 +3372,14 @@
         <v>1</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="E26" s="84">
         <v>37</v>
       </c>
       <c r="F26" s="52"/>
-      <c r="G26" s="57" t="s">
-        <v>186</v>
-      </c>
-      <c r="H26" s="84">
-        <v>55</v>
-      </c>
+      <c r="G26" s="57"/>
+      <c r="H26" s="84"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="29" t="s">
@@ -3445,18 +3443,17 @@
     <hyperlink ref="D15" r:id="rId19" xr:uid="{537A3F3C-7C92-42A9-B8B2-F37129F7787F}"/>
     <hyperlink ref="D4" r:id="rId20" display="Mini 12864" xr:uid="{56BAC9A8-6A57-4E69-944B-AE64A70C2A1E}"/>
     <hyperlink ref="D17" r:id="rId21" xr:uid="{82909F8B-3A14-4248-8CB2-384756C6E8BE}"/>
-    <hyperlink ref="D26" r:id="rId22" display="Worm Stepper" xr:uid="{0D6A5659-9181-49D0-A7D8-101F63076C8A}"/>
+    <hyperlink ref="D26" r:id="rId22" xr:uid="{0D6A5659-9181-49D0-A7D8-101F63076C8A}"/>
     <hyperlink ref="G27" r:id="rId23" display="CLEVER3D" xr:uid="{7B1D2EFC-9E0A-4BD0-B66C-2C091262564C}"/>
     <hyperlink ref="D10" r:id="rId24" xr:uid="{4AEFCE09-28B7-4C24-82DE-ADAB9CAA43E1}"/>
     <hyperlink ref="D11" r:id="rId25" xr:uid="{0ED2334F-09CF-437E-82F8-E81D86F288DC}"/>
     <hyperlink ref="D23" r:id="rId26" xr:uid="{87CB364F-700B-4E81-BC67-3C859C1B7934}"/>
     <hyperlink ref="D24" r:id="rId27" display="5X High End" xr:uid="{D4CB98E8-7A2B-495D-9E37-8208D21A6270}"/>
-    <hyperlink ref="G26" r:id="rId28" display="1/17 Alternative" xr:uid="{C2F85E16-6DCE-4455-AAFB-64BC7439D25F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToWidth="0" orientation="landscape" r:id="rId29"/>
+  <pageSetup paperSize="9" fitToWidth="0" orientation="landscape" r:id="rId28"/>
   <tableParts count="1">
-    <tablePart r:id="rId30"/>
+    <tablePart r:id="rId29"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Document Library/Bill Of Materials/V-Baby BOM.xlsx
+++ b/Document Library/Bill Of Materials/V-Baby BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Document Library\GitHub\V-Baby CoreXY\Document Library\Bill Of Materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1706" documentId="11_2E462098BBA7632759C38D02185E4833A2B67484" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8C6639D8-D77E-4D0F-8FC7-8D12DF099F8D}"/>
+  <xr:revisionPtr revIDLastSave="1708" documentId="11_2E462098BBA7632759C38D02185E4833A2B67484" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{532A1811-B5C6-43E2-9F2E-8802057F72CA}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,9 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="212">
   <si>
     <t>Exstrusions</t>
   </si>
@@ -354,9 +352,6 @@
     <t>GT2 20T Thoothed Idler</t>
   </si>
   <si>
-    <t>7Pcs 7mm With T</t>
-  </si>
-  <si>
     <t>Belt Idler Smooth</t>
   </si>
   <si>
@@ -667,6 +662,12 @@
   </si>
   <si>
     <t>1/30 Worm Stepper</t>
+  </si>
+  <si>
+    <t>8Pcs 7mm With T</t>
+  </si>
+  <si>
+    <t>Choose the 30/1 gear</t>
   </si>
 </sst>
 </file>
@@ -2022,11 +2023,11 @@
         <v>4</v>
       </c>
       <c r="F1" s="53" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G1" s="50"/>
       <c r="H1" s="64" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I1" s="63"/>
       <c r="J1" s="65" t="s">
@@ -2040,7 +2041,7 @@
       <c r="D2" s="19"/>
       <c r="E2" s="23"/>
       <c r="F2" s="130" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G2" s="47"/>
       <c r="H2" s="58"/>
@@ -2218,7 +2219,7 @@
         <v>27</v>
       </c>
       <c r="I10" s="68" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J10" s="66">
         <v>27</v>
@@ -2260,7 +2261,7 @@
         <v>31</v>
       </c>
       <c r="I12" s="68" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J12" s="66">
         <v>15</v>
@@ -2298,7 +2299,7 @@
         <v>35</v>
       </c>
       <c r="I14" s="68" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J14" s="66">
         <v>12</v>
@@ -2400,7 +2401,7 @@
       <c r="D21" s="43"/>
       <c r="E21" s="43"/>
       <c r="F21" s="46" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G21" s="48"/>
       <c r="H21" s="29" t="s">
@@ -2414,7 +2415,7 @@
     </row>
     <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="44" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B22" s="45"/>
       <c r="C22" s="45"/>
@@ -2466,7 +2467,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A1" s="105" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B1" s="106"/>
       <c r="C1" s="107"/>
@@ -2486,30 +2487,30 @@
     </row>
     <row r="3" spans="1:7" s="104" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="111" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B3" s="112"/>
       <c r="C3" s="126" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D3" s="114" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E3" s="112"/>
       <c r="F3" s="114" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G3" s="115"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="109" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B4" s="8">
         <v>310</v>
       </c>
       <c r="C4" s="127" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D4" s="8">
         <f>B4+50</f>
@@ -2524,38 +2525,38 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="109" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B5" s="8">
         <v>350</v>
       </c>
       <c r="C5" s="127" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D5" s="8">
         <f>B5+50</f>
         <v>400</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F5" s="8">
         <f>B5+100</f>
         <v>450</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="109" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B6" s="8">
         <v>340</v>
       </c>
       <c r="C6" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D6" s="8">
         <f>B6+50</f>
@@ -2576,7 +2577,7 @@
         <v>290</v>
       </c>
       <c r="C7" s="127" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D7" s="8">
         <f t="shared" ref="D7:D9" si="0">B7+50</f>
@@ -2597,7 +2598,7 @@
         <v>350</v>
       </c>
       <c r="C8" s="127" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D8" s="8">
         <f t="shared" si="0"/>
@@ -2618,7 +2619,7 @@
         <v>295</v>
       </c>
       <c r="C9" s="127" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D9" s="8">
         <f t="shared" si="0"/>
@@ -2642,7 +2643,7 @@
     </row>
     <row r="11" spans="1:7" s="104" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="111" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B11" s="112"/>
       <c r="C11" s="113"/>
@@ -2653,7 +2654,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="109" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="110"/>
@@ -2664,14 +2665,14 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="116" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B13" s="117"/>
       <c r="C13" s="118" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D13" s="119" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E13" s="119"/>
       <c r="F13" s="8"/>
@@ -2679,62 +2680,62 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="109" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B14" s="117">
         <v>200</v>
       </c>
       <c r="C14" s="118" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D14" s="119">
         <f>B14+110</f>
         <v>310</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="13"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="109" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B15" s="117">
         <v>200</v>
       </c>
       <c r="C15" s="118" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D15" s="119">
         <f>B15+150</f>
         <v>350</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G15" s="13"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="109" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B16" s="117">
         <v>200</v>
       </c>
       <c r="C16" s="118" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D16" s="119">
         <f>B16+140</f>
         <v>340</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="13"/>
@@ -2750,7 +2751,7 @@
         <v>290</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="13"/>
@@ -2766,7 +2767,7 @@
         <v>350</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="13"/>
@@ -2782,7 +2783,7 @@
         <v>295</v>
       </c>
       <c r="E19" s="128" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F19" s="124"/>
       <c r="G19" s="125"/>
@@ -2798,17 +2799,17 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -2827,7 +2828,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2848,28 +2849,28 @@
   <sheetData>
     <row r="1" spans="1:12" s="75" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="77" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="77" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="C1" s="78" t="s">
         <v>175</v>
       </c>
-      <c r="C1" s="78" t="s">
+      <c r="D1" s="79" t="s">
         <v>176</v>
       </c>
-      <c r="D1" s="79" t="s">
+      <c r="E1" s="92" t="s">
         <v>177</v>
       </c>
-      <c r="E1" s="92" t="s">
+      <c r="F1" s="76" t="s">
         <v>178</v>
       </c>
-      <c r="F1" s="76" t="s">
+      <c r="G1" s="85" t="s">
         <v>179</v>
       </c>
-      <c r="G1" s="85" t="s">
+      <c r="H1" s="85" t="s">
         <v>180</v>
-      </c>
-      <c r="H1" s="85" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2948,7 +2949,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E5" s="84">
         <v>12</v>
@@ -2968,7 +2969,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E6" s="84">
         <v>11</v>
@@ -3312,7 +3313,7 @@
         <v>7</v>
       </c>
       <c r="D23" s="129" t="s">
-        <v>106</v>
+        <v>210</v>
       </c>
       <c r="E23" s="33">
         <v>25</v>
@@ -3323,16 +3324,16 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>107</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>108</v>
       </c>
       <c r="C24" s="9">
         <v>6</v>
       </c>
       <c r="D24" s="34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E24" s="35">
         <v>22</v>
@@ -3343,16 +3344,16 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>110</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>111</v>
       </c>
       <c r="C25" s="9">
         <v>3</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E25" s="84">
         <v>30</v>
@@ -3363,43 +3364,45 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>113</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>114</v>
       </c>
       <c r="C26" s="9">
         <v>1</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E26" s="84">
         <v>37</v>
       </c>
       <c r="F26" s="52"/>
-      <c r="G26" s="57"/>
+      <c r="G26" s="57" t="s">
+        <v>211</v>
+      </c>
       <c r="H26" s="84"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>115</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>116</v>
       </c>
       <c r="C27" s="9">
         <v>1</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E27" s="84">
         <v>16</v>
       </c>
       <c r="F27" s="52"/>
       <c r="G27" s="93" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H27" s="94">
         <v>30</v>
@@ -3407,7 +3410,7 @@
     </row>
     <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -3488,7 +3491,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="97" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -3502,10 +3505,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>120</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>121</v>
       </c>
       <c r="C2" s="32">
         <v>2</v>
@@ -3516,10 +3519,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C3" s="32">
         <v>4</v>
@@ -3530,10 +3533,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>123</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>124</v>
       </c>
       <c r="C4" s="32">
         <v>4</v>
@@ -3544,10 +3547,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C5" s="32">
         <v>2</v>
@@ -3558,10 +3561,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>126</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>127</v>
       </c>
       <c r="C6" s="32">
         <v>2</v>
@@ -3572,10 +3575,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C7" s="32">
         <v>11</v>
@@ -3586,10 +3589,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>129</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>130</v>
       </c>
       <c r="C8" s="32">
         <v>15</v>
@@ -3600,10 +3603,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C9" s="32">
         <v>6</v>
@@ -3614,10 +3617,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C10" s="32">
         <v>9</v>
@@ -3628,10 +3631,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C11" s="32">
         <v>5</v>
@@ -3642,10 +3645,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C12" s="32">
         <v>8</v>
@@ -3656,10 +3659,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>182</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>183</v>
       </c>
       <c r="C13" s="32">
         <v>2</v>
@@ -3670,10 +3673,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>135</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>136</v>
       </c>
       <c r="C14" s="32">
         <v>5</v>
@@ -3684,10 +3687,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C15" s="32">
         <v>5</v>
@@ -3698,10 +3701,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C16" s="32">
         <v>13</v>
@@ -3712,10 +3715,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C17" s="32">
         <v>6</v>
@@ -3726,10 +3729,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C18" s="32">
         <v>2</v>
@@ -3740,10 +3743,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C19" s="32">
         <v>1</v>
@@ -3754,10 +3757,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C20" s="32">
         <v>3</v>
@@ -3768,10 +3771,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C21" s="32">
         <v>1</v>
@@ -3782,10 +3785,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C22" s="32">
         <v>1</v>
@@ -3796,10 +3799,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C23" s="32">
         <v>28</v>
@@ -3810,10 +3813,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C24" s="32">
         <v>6</v>
@@ -3824,10 +3827,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>147</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>148</v>
       </c>
       <c r="C25" s="32">
         <v>50</v>
@@ -3838,10 +3841,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>149</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>150</v>
       </c>
       <c r="C26" s="32">
         <v>63</v>
@@ -3852,10 +3855,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>151</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>152</v>
       </c>
       <c r="C27" s="32">
         <v>143</v>
@@ -3866,10 +3869,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C28" s="32">
         <v>200</v>
@@ -3880,10 +3883,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C29" s="32">
         <v>142</v>
@@ -3894,10 +3897,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C30" s="32">
         <v>8</v>
@@ -3908,10 +3911,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C31" s="32">
         <v>1</v>
@@ -3922,10 +3925,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C32" s="32">
         <v>2</v>
@@ -3936,10 +3939,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C33" s="32">
         <v>2</v>
@@ -3950,10 +3953,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C34" s="32">
         <v>18</v>
@@ -3964,10 +3967,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C35" s="32">
         <v>8</v>
@@ -3978,10 +3981,10 @@
     </row>
     <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C36" s="32">
         <v>4</v>
@@ -3992,7 +3995,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="70" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B37" s="71"/>
       <c r="C37" s="100">
@@ -4006,7 +4009,7 @@
     </row>
     <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="5"/>
@@ -4016,7 +4019,7 @@
     </row>
     <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="11"/>

--- a/Document Library/Bill Of Materials/V-Baby BOM.xlsx
+++ b/Document Library/Bill Of Materials/V-Baby BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Document Library\GitHub\V-Baby CoreXY\Document Library\Bill Of Materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1708" documentId="11_2E462098BBA7632759C38D02185E4833A2B67484" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{532A1811-B5C6-43E2-9F2E-8802057F72CA}"/>
+  <xr:revisionPtr revIDLastSave="1748" documentId="11_2E462098BBA7632759C38D02185E4833A2B67484" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5817A054-DE21-4C69-A2C1-DA15AB239C85}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OpenBuild Part List" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="216">
   <si>
     <t>Exstrusions</t>
   </si>
@@ -250,9 +250,6 @@
     <t>220V/110V</t>
   </si>
   <si>
-    <t>Keenovo</t>
-  </si>
-  <si>
     <t>Solid State Relay</t>
   </si>
   <si>
@@ -481,9 +478,6 @@
     <t>M5 Precision Shim</t>
   </si>
   <si>
-    <t>Shim Precision</t>
-  </si>
-  <si>
     <t>M5 T-Nut OB</t>
   </si>
   <si>
@@ -550,9 +544,6 @@
     <t>Brackets</t>
   </si>
   <si>
-    <t>clever3d</t>
-  </si>
-  <si>
     <t>Column1</t>
   </si>
   <si>
@@ -568,9 +559,6 @@
     <t>Column5</t>
   </si>
   <si>
-    <t>Column6</t>
-  </si>
-  <si>
     <t>Column8</t>
   </si>
   <si>
@@ -667,7 +655,31 @@
     <t>8Pcs 7mm With T</t>
   </si>
   <si>
-    <t>Choose the 30/1 gear</t>
+    <t>5X6X1 Precision Shim</t>
+  </si>
+  <si>
+    <t>Belt Idler Precision Shim</t>
+  </si>
+  <si>
+    <t>5x6x1 mm Precision Shim</t>
+  </si>
+  <si>
+    <t>NB! Choose the 30/1 gear</t>
+  </si>
+  <si>
+    <t>clever3d High End Option</t>
+  </si>
+  <si>
+    <t>Keenovo Option</t>
+  </si>
+  <si>
+    <t>NB! 200 pcs option is same price</t>
+  </si>
+  <si>
+    <t>(4x20) 6x5x1 Option Shim</t>
+  </si>
+  <si>
+    <t>NB! See Component List</t>
   </si>
 </sst>
 </file>
@@ -1237,7 +1249,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1296,7 +1308,6 @@
     <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1317,12 +1328,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
@@ -1423,7 +1430,7 @@
     <cellStyle name="Neutral" xfId="5" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="9">
     <dxf>
       <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -1442,14 +1449,6 @@
         <right/>
         <vertical/>
       </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
@@ -1653,15 +1652,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1070DF90-74AC-4245-AA46-2FAD63F74767}" name="Table1" displayName="Table1" ref="A1:H27" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7">
-  <autoFilter ref="A1:H27" xr:uid="{F74387CC-3A2A-4CC8-A8F2-631B4360BF85}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{AB8C8187-911D-4248-8608-1F70796FF7C8}" name="Column1" dataDxfId="6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1070DF90-74AC-4245-AA46-2FAD63F74767}" name="Table1" displayName="Table1" ref="A1:G28" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6">
+  <autoFilter ref="A1:G28" xr:uid="{F74387CC-3A2A-4CC8-A8F2-631B4360BF85}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{AB8C8187-911D-4248-8608-1F70796FF7C8}" name="Column1" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{129F7AE4-0D03-4AA3-A2BF-5181AA27AF31}" name="Column2"/>
-    <tableColumn id="3" xr3:uid="{34C25536-CCA4-454C-9FCE-0168DD2CC6CC}" name="Column3" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{2ABF818D-0A23-4468-A061-EB5B1AC04237}" name="Column4" dataDxfId="4" dataCellStyle="Hyperlink"/>
-    <tableColumn id="5" xr3:uid="{3DD38B84-FE10-46EA-8CEE-8542F56DCDD7}" name="Column5" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{69B3180F-5468-4BD3-B452-119DE39ADA34}" name="Column6" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{34C25536-CCA4-454C-9FCE-0168DD2CC6CC}" name="Column3" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{2ABF818D-0A23-4468-A061-EB5B1AC04237}" name="Column4" dataDxfId="3" dataCellStyle="Hyperlink"/>
+    <tableColumn id="5" xr3:uid="{3DD38B84-FE10-46EA-8CEE-8542F56DCDD7}" name="Column5" dataDxfId="2"/>
     <tableColumn id="6" xr3:uid="{E4DF9CF3-4A3D-433E-9BD0-F94DDCA192BB}" name="Column8" dataDxfId="1" dataCellStyle="Hyperlink"/>
     <tableColumn id="7" xr3:uid="{4866A326-BBBA-4B58-BFBD-4D095130E124}" name="Column9" dataDxfId="0"/>
   </tableColumns>
@@ -2022,34 +2020,34 @@
       <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="53" t="s">
-        <v>166</v>
+      <c r="F1" s="52" t="s">
+        <v>164</v>
       </c>
       <c r="G1" s="50"/>
-      <c r="H1" s="64" t="s">
-        <v>167</v>
-      </c>
-      <c r="I1" s="63"/>
-      <c r="J1" s="65" t="s">
+      <c r="H1" s="63" t="s">
+        <v>165</v>
+      </c>
+      <c r="I1" s="62"/>
+      <c r="J1" s="64" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54"/>
+      <c r="A2" s="53"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
       <c r="E2" s="23"/>
-      <c r="F2" s="130" t="s">
-        <v>165</v>
+      <c r="F2" s="127" t="s">
+        <v>163</v>
       </c>
       <c r="G2" s="47"/>
-      <c r="H2" s="58"/>
+      <c r="H2" s="57"/>
       <c r="I2" s="49"/>
-      <c r="J2" s="66"/>
+      <c r="J2" s="65"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="54" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -2065,14 +2063,14 @@
         <f>D3*310</f>
         <v>1240</v>
       </c>
-      <c r="F3" s="131"/>
+      <c r="F3" s="128"/>
       <c r="G3" s="47"/>
-      <c r="H3" s="57"/>
+      <c r="H3" s="56"/>
       <c r="I3" s="18"/>
-      <c r="J3" s="67"/>
+      <c r="J3" s="66"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="55" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="22" t="s">
@@ -2088,14 +2086,14 @@
         <f>D4*350</f>
         <v>1400</v>
       </c>
-      <c r="F4" s="131"/>
+      <c r="F4" s="128"/>
       <c r="G4" s="47"/>
-      <c r="H4" s="58"/>
+      <c r="H4" s="57"/>
       <c r="I4" s="49"/>
-      <c r="J4" s="66"/>
+      <c r="J4" s="65"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="54" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -2111,14 +2109,14 @@
         <f>D5*340</f>
         <v>1700</v>
       </c>
-      <c r="F5" s="131"/>
+      <c r="F5" s="128"/>
       <c r="G5" s="47"/>
-      <c r="H5" s="57"/>
+      <c r="H5" s="56"/>
       <c r="I5" s="18"/>
-      <c r="J5" s="67"/>
+      <c r="J5" s="66"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="55" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="22" t="s">
@@ -2134,26 +2132,26 @@
         <f>D6*295</f>
         <v>295</v>
       </c>
-      <c r="F6" s="131"/>
+      <c r="F6" s="128"/>
       <c r="G6" s="47"/>
-      <c r="H6" s="58"/>
+      <c r="H6" s="57"/>
       <c r="I6" s="49"/>
-      <c r="J6" s="66"/>
+      <c r="J6" s="65"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
+      <c r="A7" s="54"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="13"/>
-      <c r="F7" s="131"/>
+      <c r="F7" s="128"/>
       <c r="G7" s="47"/>
       <c r="H7" s="29"/>
       <c r="I7" s="8"/>
-      <c r="J7" s="67"/>
+      <c r="J7" s="66"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="55" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="22" t="s">
@@ -2169,14 +2167,14 @@
         <f>D8*290</f>
         <v>290</v>
       </c>
-      <c r="F8" s="131"/>
+      <c r="F8" s="128"/>
       <c r="G8" s="47"/>
-      <c r="H8" s="58"/>
+      <c r="H8" s="57"/>
       <c r="I8" s="49"/>
-      <c r="J8" s="66"/>
+      <c r="J8" s="65"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="54" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -2192,14 +2190,14 @@
         <f>D9*350</f>
         <v>700</v>
       </c>
-      <c r="F9" s="131"/>
+      <c r="F9" s="128"/>
       <c r="G9" s="47"/>
-      <c r="H9" s="57"/>
+      <c r="H9" s="56"/>
       <c r="I9" s="18"/>
-      <c r="J9" s="67"/>
+      <c r="J9" s="66"/>
     </row>
     <row r="10" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="55" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="22" t="s">
@@ -2213,36 +2211,36 @@
         <f>SUM(E3:E9)</f>
         <v>5625</v>
       </c>
-      <c r="F10" s="131"/>
+      <c r="F10" s="128"/>
       <c r="G10" s="47"/>
-      <c r="H10" s="59" t="s">
+      <c r="H10" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="68" t="s">
-        <v>169</v>
-      </c>
-      <c r="J10" s="66">
+      <c r="I10" s="67" t="s">
+        <v>167</v>
+      </c>
+      <c r="J10" s="65">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
+      <c r="A11" s="54"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="13"/>
-      <c r="F11" s="131"/>
+      <c r="F11" s="128"/>
       <c r="G11" s="47"/>
       <c r="H11" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="69"/>
-      <c r="J11" s="67">
+      <c r="I11" s="68"/>
+      <c r="J11" s="66">
         <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="55" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="22" t="s">
@@ -2255,32 +2253,32 @@
         <v>18</v>
       </c>
       <c r="E12" s="24"/>
-      <c r="F12" s="131"/>
+      <c r="F12" s="128"/>
       <c r="G12" s="47"/>
-      <c r="H12" s="59" t="s">
+      <c r="H12" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="68" t="s">
-        <v>170</v>
-      </c>
-      <c r="J12" s="66">
+      <c r="I12" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J12" s="65">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="55"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="13"/>
-      <c r="F13" s="131"/>
+      <c r="F13" s="128"/>
       <c r="G13" s="47"/>
       <c r="H13" s="29"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="67"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="66"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="55" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="22" t="s">
@@ -2293,15 +2291,15 @@
         <v>30</v>
       </c>
       <c r="E14" s="24"/>
-      <c r="F14" s="131"/>
+      <c r="F14" s="128"/>
       <c r="G14" s="47"/>
-      <c r="H14" s="59" t="s">
+      <c r="H14" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="68" t="s">
-        <v>171</v>
-      </c>
-      <c r="J14" s="66">
+      <c r="I14" s="67" t="s">
+        <v>169</v>
+      </c>
+      <c r="J14" s="65">
         <v>12</v>
       </c>
     </row>
@@ -2359,8 +2357,8 @@
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="37">
-        <f>'Component Part List'!$E$28</f>
-        <v>349.5</v>
+        <f>'Component Part List'!$E$29</f>
+        <v>364.5</v>
       </c>
       <c r="G19" s="48"/>
       <c r="H19" s="29" t="s">
@@ -2368,8 +2366,8 @@
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="37">
-        <f>'Component Part List'!$E$28</f>
-        <v>349.5</v>
+        <f>'Component Part List'!$E$29</f>
+        <v>364.5</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -2401,7 +2399,7 @@
       <c r="D21" s="43"/>
       <c r="E21" s="43"/>
       <c r="F21" s="46" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G21" s="48"/>
       <c r="H21" s="29" t="s">
@@ -2415,7 +2413,7 @@
     </row>
     <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="44" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B22" s="45"/>
       <c r="C22" s="45"/>
@@ -2423,16 +2421,16 @@
       <c r="E22" s="45"/>
       <c r="F22" s="41">
         <f>SUM(F18:F21)</f>
-        <v>663.5</v>
+        <v>678.5</v>
       </c>
       <c r="G22" s="48"/>
-      <c r="H22" s="60" t="s">
+      <c r="H22" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="I22" s="61"/>
-      <c r="J22" s="62">
+      <c r="I22" s="60"/>
+      <c r="J22" s="61">
         <f>SUM(J18:J21)</f>
-        <v>534.1</v>
+        <v>549.1</v>
       </c>
     </row>
   </sheetData>
@@ -2461,56 +2459,56 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="103" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="100" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="105" t="s">
-        <v>185</v>
-      </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="108"/>
+      <c r="A1" s="102" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="103"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="105"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="109"/>
+      <c r="A2" s="106"/>
       <c r="B2" s="8"/>
-      <c r="C2" s="110"/>
+      <c r="C2" s="107"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="13"/>
     </row>
-    <row r="3" spans="1:7" s="104" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="111" t="s">
+    <row r="3" spans="1:7" s="101" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="108" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3" s="109"/>
+      <c r="C3" s="123" t="s">
+        <v>203</v>
+      </c>
+      <c r="D3" s="111" t="s">
         <v>186</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="126" t="s">
-        <v>207</v>
-      </c>
-      <c r="D3" s="114" t="s">
-        <v>190</v>
-      </c>
-      <c r="E3" s="112"/>
-      <c r="F3" s="114" t="s">
-        <v>191</v>
-      </c>
-      <c r="G3" s="115"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="111" t="s">
+        <v>187</v>
+      </c>
+      <c r="G3" s="112"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="109" t="s">
-        <v>200</v>
+      <c r="A4" s="106" t="s">
+        <v>196</v>
       </c>
       <c r="B4" s="8">
         <v>310</v>
       </c>
-      <c r="C4" s="127" t="s">
-        <v>203</v>
+      <c r="C4" s="124" t="s">
+        <v>199</v>
       </c>
       <c r="D4" s="8">
         <f>B4+50</f>
@@ -2524,39 +2522,39 @@
       <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="109" t="s">
-        <v>201</v>
+      <c r="A5" s="106" t="s">
+        <v>197</v>
       </c>
       <c r="B5" s="8">
         <v>350</v>
       </c>
-      <c r="C5" s="127" t="s">
-        <v>203</v>
+      <c r="C5" s="124" t="s">
+        <v>199</v>
       </c>
       <c r="D5" s="8">
         <f>B5+50</f>
         <v>400</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F5" s="8">
         <f>B5+100</f>
         <v>450</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="109" t="s">
-        <v>202</v>
+      <c r="A6" s="106" t="s">
+        <v>198</v>
       </c>
       <c r="B6" s="8">
         <v>340</v>
       </c>
-      <c r="C6" s="127" t="s">
-        <v>204</v>
+      <c r="C6" s="124" t="s">
+        <v>200</v>
       </c>
       <c r="D6" s="8">
         <f>B6+50</f>
@@ -2570,14 +2568,14 @@
       <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="109" t="s">
+      <c r="A7" s="106" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="17">
         <v>290</v>
       </c>
-      <c r="C7" s="127" t="s">
-        <v>205</v>
+      <c r="C7" s="124" t="s">
+        <v>201</v>
       </c>
       <c r="D7" s="8">
         <f t="shared" ref="D7:D9" si="0">B7+50</f>
@@ -2591,14 +2589,14 @@
       <c r="G7" s="13"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="109" t="s">
+      <c r="A8" s="106" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="17">
         <v>350</v>
       </c>
-      <c r="C8" s="127" t="s">
-        <v>206</v>
+      <c r="C8" s="124" t="s">
+        <v>202</v>
       </c>
       <c r="D8" s="8">
         <f t="shared" si="0"/>
@@ -2612,14 +2610,14 @@
       <c r="G8" s="13"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="106" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="17">
         <v>295</v>
       </c>
-      <c r="C9" s="127" t="s">
-        <v>205</v>
+      <c r="C9" s="124" t="s">
+        <v>201</v>
       </c>
       <c r="D9" s="8">
         <f t="shared" si="0"/>
@@ -2633,165 +2631,165 @@
       <c r="G9" s="13"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="109"/>
+      <c r="A10" s="106"/>
       <c r="B10" s="8"/>
-      <c r="C10" s="110"/>
+      <c r="C10" s="107"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="13"/>
     </row>
-    <row r="11" spans="1:7" s="104" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="111" t="s">
-        <v>193</v>
-      </c>
-      <c r="B11" s="112"/>
-      <c r="C11" s="113"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="112"/>
-      <c r="F11" s="112"/>
-      <c r="G11" s="115"/>
+    <row r="11" spans="1:7" s="101" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="108" t="s">
+        <v>189</v>
+      </c>
+      <c r="B11" s="109"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="109"/>
+      <c r="E11" s="109"/>
+      <c r="F11" s="109"/>
+      <c r="G11" s="112"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="109" t="s">
-        <v>192</v>
+      <c r="A12" s="106" t="s">
+        <v>188</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="110"/>
+      <c r="C12" s="107"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="13"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="116" t="s">
-        <v>194</v>
-      </c>
-      <c r="B13" s="117"/>
-      <c r="C13" s="118" t="s">
-        <v>196</v>
-      </c>
-      <c r="D13" s="119" t="s">
-        <v>195</v>
-      </c>
-      <c r="E13" s="119"/>
+      <c r="A13" s="113" t="s">
+        <v>190</v>
+      </c>
+      <c r="B13" s="114"/>
+      <c r="C13" s="115" t="s">
+        <v>192</v>
+      </c>
+      <c r="D13" s="116" t="s">
+        <v>191</v>
+      </c>
+      <c r="E13" s="116"/>
       <c r="F13" s="8"/>
       <c r="G13" s="13"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="109" t="s">
+      <c r="A14" s="106" t="s">
+        <v>196</v>
+      </c>
+      <c r="B14" s="114">
         <v>200</v>
       </c>
-      <c r="B14" s="117">
-        <v>200</v>
-      </c>
-      <c r="C14" s="118" t="s">
-        <v>187</v>
-      </c>
-      <c r="D14" s="119">
+      <c r="C14" s="115" t="s">
+        <v>183</v>
+      </c>
+      <c r="D14" s="116">
         <f>B14+110</f>
         <v>310</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="13"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="109" t="s">
-        <v>201</v>
-      </c>
-      <c r="B15" s="117">
+      <c r="A15" s="106" t="s">
+        <v>197</v>
+      </c>
+      <c r="B15" s="114">
         <v>200</v>
       </c>
-      <c r="C15" s="118" t="s">
-        <v>188</v>
-      </c>
-      <c r="D15" s="119">
+      <c r="C15" s="115" t="s">
+        <v>184</v>
+      </c>
+      <c r="D15" s="116">
         <f>B15+150</f>
         <v>350</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G15" s="13"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="109" t="s">
-        <v>202</v>
-      </c>
-      <c r="B16" s="117">
+      <c r="A16" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="B16" s="114">
         <v>200</v>
       </c>
-      <c r="C16" s="118" t="s">
-        <v>189</v>
-      </c>
-      <c r="D16" s="119">
+      <c r="C16" s="115" t="s">
+        <v>185</v>
+      </c>
+      <c r="D16" s="116">
         <f>B16+140</f>
         <v>340</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="13"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="109" t="s">
+      <c r="A17" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="117"/>
-      <c r="C17" s="118"/>
-      <c r="D17" s="119">
+      <c r="B17" s="114"/>
+      <c r="C17" s="115"/>
+      <c r="D17" s="116">
         <f>B14+90</f>
         <v>290</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="13"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="109" t="s">
+      <c r="A18" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="117"/>
-      <c r="C18" s="118"/>
-      <c r="D18" s="119">
+      <c r="B18" s="114"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="116">
         <f>B15+150</f>
         <v>350</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="13"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="120" t="s">
+      <c r="A19" s="117" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="121"/>
-      <c r="C19" s="122"/>
-      <c r="D19" s="123">
+      <c r="B19" s="118"/>
+      <c r="C19" s="119"/>
+      <c r="D19" s="120">
         <f>B14+95</f>
         <v>295</v>
       </c>
-      <c r="E19" s="128" t="s">
-        <v>205</v>
-      </c>
-      <c r="F19" s="124"/>
-      <c r="G19" s="125"/>
+      <c r="E19" s="125" t="s">
+        <v>201</v>
+      </c>
+      <c r="F19" s="121"/>
+      <c r="G19" s="122"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="110"/>
+      <c r="C20" s="107"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
@@ -2799,17 +2797,17 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2825,21 +2823,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{932488CD-A13D-49F6-B1D7-8DBDDFDC11EE}">
-  <dimension ref="A1:L28"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
-    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" style="17" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" style="17" customWidth="1"/>
     <col min="8" max="8" width="7" customWidth="1"/>
     <col min="9" max="9" width="8.5703125" customWidth="1"/>
     <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
@@ -2847,57 +2848,53 @@
     <col min="13" max="13" width="4.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="75" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+    <row r="1" spans="1:11" s="73" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="74" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="74" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1" s="75" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1" s="76" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="E1" s="89" t="s">
         <v>174</v>
       </c>
-      <c r="C1" s="78" t="s">
+      <c r="F1" s="82" t="s">
         <v>175</v>
       </c>
-      <c r="D1" s="79" t="s">
+      <c r="G1" s="82" t="s">
         <v>176</v>
       </c>
-      <c r="E1" s="92" t="s">
-        <v>177</v>
-      </c>
-      <c r="F1" s="76" t="s">
-        <v>178</v>
-      </c>
-      <c r="G1" s="85" t="s">
-        <v>179</v>
-      </c>
-      <c r="H1" s="85" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+    </row>
+    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="82" t="s">
+      <c r="C2" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="83" t="s">
+      <c r="D2" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="96" t="s">
+      <c r="E2" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="73"/>
-      <c r="G2" s="86" t="s">
+      <c r="F2" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="95" t="s">
+      <c r="G2" s="92" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>44</v>
       </c>
@@ -2910,15 +2907,14 @@
       <c r="D3" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="84">
+      <c r="E3" s="81">
         <v>20</v>
       </c>
-      <c r="F3" s="52"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="84"/>
-      <c r="L3" s="7"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F3" s="29"/>
+      <c r="G3" s="81"/>
+      <c r="K3" s="7"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>47</v>
       </c>
@@ -2931,14 +2927,13 @@
       <c r="D4" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="84">
+      <c r="E4" s="81">
         <v>15</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="84"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F4" s="29"/>
+      <c r="G4" s="81"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>50</v>
       </c>
@@ -2949,16 +2944,15 @@
         <v>2</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="E5" s="84">
+        <v>180</v>
+      </c>
+      <c r="E5" s="81">
         <v>12</v>
       </c>
-      <c r="F5" s="52"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="84"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F5" s="29"/>
+      <c r="G5" s="81"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>52</v>
       </c>
@@ -2969,16 +2963,15 @@
         <v>2</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="E6" s="84">
+        <v>179</v>
+      </c>
+      <c r="E6" s="81">
         <v>11</v>
       </c>
-      <c r="F6" s="52"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="84"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F6" s="29"/>
+      <c r="G6" s="81"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>54</v>
       </c>
@@ -2991,14 +2984,13 @@
       <c r="D7" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="84">
+      <c r="E7" s="81">
         <v>10</v>
       </c>
-      <c r="F7" s="52"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="84"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F7" s="56"/>
+      <c r="G7" s="81"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>57</v>
       </c>
@@ -3011,14 +3003,13 @@
       <c r="D8" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="84">
+      <c r="E8" s="81">
         <v>2</v>
       </c>
-      <c r="F8" s="52"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="84"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F8" s="56"/>
+      <c r="G8" s="81"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>60</v>
       </c>
@@ -3031,14 +3022,13 @@
       <c r="D9" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="84">
+      <c r="E9" s="81">
         <v>3</v>
       </c>
-      <c r="F9" s="52"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="84"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F9" s="84"/>
+      <c r="G9" s="81"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>63</v>
       </c>
@@ -3051,14 +3041,13 @@
       <c r="D10" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="84">
+      <c r="E10" s="81">
         <v>4</v>
       </c>
-      <c r="F10" s="52"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="84"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F10" s="84"/>
+      <c r="G10" s="81"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>66</v>
       </c>
@@ -3071,14 +3060,13 @@
       <c r="D11" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="84">
+      <c r="E11" s="81">
         <v>14</v>
       </c>
-      <c r="F11" s="52"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="84"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F11" s="85"/>
+      <c r="G11" s="81"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>69</v>
       </c>
@@ -3091,341 +3079,346 @@
       <c r="D12" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="84">
+      <c r="E12" s="81">
         <v>27</v>
       </c>
-      <c r="F12" s="52"/>
-      <c r="G12" s="89" t="s">
+      <c r="F12" s="86" t="s">
+        <v>212</v>
+      </c>
+      <c r="G12" s="81">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="H12" s="84">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
+      <c r="B13" s="8" t="s">
         <v>73</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>74</v>
       </c>
       <c r="C13" s="9">
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="81">
+        <v>3.5</v>
+      </c>
+      <c r="F13" s="86"/>
+      <c r="G13" s="81"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="E13" s="84">
-        <v>3.5</v>
-      </c>
-      <c r="F13" s="52"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="84"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
+      <c r="B14" s="8" t="s">
         <v>76</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>77</v>
       </c>
       <c r="C14" s="9">
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="81">
+        <v>2</v>
+      </c>
+      <c r="F14" s="86"/>
+      <c r="G14" s="81"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="E14" s="84">
-        <v>2</v>
-      </c>
-      <c r="F14" s="52"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="84"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+      <c r="B15" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>80</v>
       </c>
       <c r="C15" s="9">
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="81">
+        <v>17</v>
+      </c>
+      <c r="F15" s="56"/>
+      <c r="G15" s="81"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="E15" s="84">
-        <v>17</v>
-      </c>
-      <c r="F15" s="52"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="84"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
+      <c r="B16" s="8" t="s">
         <v>82</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>83</v>
       </c>
       <c r="C16" s="9">
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="81">
+        <v>20</v>
+      </c>
+      <c r="F16" s="56"/>
+      <c r="G16" s="81"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="E16" s="84">
-        <v>20</v>
-      </c>
-      <c r="F16" s="52"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="84"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="29" t="s">
+      <c r="B17" s="8" t="s">
         <v>85</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>86</v>
       </c>
       <c r="C17" s="9">
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="81">
+        <v>2.5</v>
+      </c>
+      <c r="F17" s="56"/>
+      <c r="G17" s="81"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="E17" s="84">
-        <v>2.5</v>
-      </c>
-      <c r="F17" s="52"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="84"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
+      <c r="B18" s="8" t="s">
         <v>88</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>89</v>
       </c>
       <c r="C18" s="9">
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="81">
+        <v>20</v>
+      </c>
+      <c r="F18" s="56"/>
+      <c r="G18" s="81"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="E18" s="84">
-        <v>20</v>
-      </c>
-      <c r="F18" s="52"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="84"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="s">
+      <c r="B19" s="8" t="s">
         <v>91</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>92</v>
       </c>
       <c r="C19" s="9">
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="81">
+        <v>8.5</v>
+      </c>
+      <c r="F19" s="56"/>
+      <c r="G19" s="81"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="E19" s="84">
-        <v>8.5</v>
-      </c>
-      <c r="F19" s="52"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="84"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
+      <c r="B20" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="C20" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="D20" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="E20" s="81">
+        <v>14</v>
+      </c>
+      <c r="F20" s="56"/>
+      <c r="G20" s="81"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="E20" s="84">
-        <v>14</v>
-      </c>
-      <c r="F20" s="52"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="84"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="s">
+      <c r="B21" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="C21" s="9">
         <v>2</v>
       </c>
       <c r="D21" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" s="81">
+        <v>8</v>
+      </c>
+      <c r="F21" s="56"/>
+      <c r="G21" s="81"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="E21" s="84">
-        <v>8</v>
-      </c>
-      <c r="F21" s="52"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="84"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="29" t="s">
+      <c r="B22" s="8" t="s">
         <v>101</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>102</v>
       </c>
       <c r="C22" s="9">
         <v>1</v>
       </c>
       <c r="D22" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" s="81">
+        <v>6</v>
+      </c>
+      <c r="F22" s="56"/>
+      <c r="G22" s="81"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="E22" s="84">
-        <v>6</v>
-      </c>
-      <c r="F22" s="52"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="84"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="29" t="s">
+      <c r="B23" s="8" t="s">
         <v>104</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>105</v>
       </c>
       <c r="C23" s="9">
         <v>7</v>
       </c>
-      <c r="D23" s="129" t="s">
-        <v>210</v>
+      <c r="D23" s="126" t="s">
+        <v>206</v>
       </c>
       <c r="E23" s="33">
         <v>25</v>
       </c>
-      <c r="F23" s="72"/>
-      <c r="G23" s="90"/>
-      <c r="H23" s="33"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="87"/>
+      <c r="G23" s="33"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>106</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>107</v>
       </c>
       <c r="C24" s="9">
         <v>6</v>
       </c>
       <c r="D24" s="34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E24" s="35">
         <v>22</v>
       </c>
-      <c r="F24" s="72"/>
-      <c r="G24" s="91"/>
-      <c r="H24" s="35"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F24" s="88"/>
+      <c r="G24" s="35"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C25" s="9">
+        <v>70</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E25" s="35">
+        <v>15</v>
+      </c>
+      <c r="F25" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="G25" s="35"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="C26" s="9">
+        <v>3</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C25" s="9">
-        <v>3</v>
-      </c>
-      <c r="D25" s="3" t="s">
+      <c r="E26" s="81">
+        <v>30</v>
+      </c>
+      <c r="F26" s="56"/>
+      <c r="G26" s="81"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="E25" s="84">
-        <v>30</v>
-      </c>
-      <c r="F25" s="52"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="84"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
+      <c r="B27" s="8" t="s">
         <v>112</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C26" s="9">
-        <v>1</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E26" s="84">
-        <v>37</v>
-      </c>
-      <c r="F26" s="52"/>
-      <c r="G26" s="57" t="s">
-        <v>211</v>
-      </c>
-      <c r="H26" s="84"/>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>115</v>
       </c>
       <c r="C27" s="9">
         <v>1</v>
       </c>
       <c r="D27" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E27" s="81">
+        <v>37</v>
+      </c>
+      <c r="F27" s="56" t="s">
+        <v>210</v>
+      </c>
+      <c r="G27" s="81"/>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" s="9">
+        <v>1</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E28" s="81">
+        <v>16</v>
+      </c>
+      <c r="F28" s="90" t="s">
+        <v>211</v>
+      </c>
+      <c r="G28" s="91">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="E27" s="84">
-        <v>16</v>
-      </c>
-      <c r="F27" s="52"/>
-      <c r="G27" s="93" t="s">
-        <v>172</v>
-      </c>
-      <c r="H27" s="94">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="74">
-        <f>SUM(E2:E27)</f>
-        <v>349.5</v>
-      </c>
-      <c r="F28" s="72"/>
-      <c r="G28" s="72"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="72">
+        <f>SUM(E2:E28)</f>
+        <v>364.5</v>
+      </c>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D27" r:id="rId1" display="5mm 220x220" xr:uid="{A5B2720F-8C3E-478A-BE06-E55BE0B574B4}"/>
+    <hyperlink ref="D28" r:id="rId1" display="5mm 220x220" xr:uid="{A5B2720F-8C3E-478A-BE06-E55BE0B574B4}"/>
     <hyperlink ref="D12" r:id="rId2" xr:uid="{3773511A-F3AF-4897-B5BB-16FB39A0B508}"/>
     <hyperlink ref="D9" r:id="rId3" xr:uid="{AFC120EB-E75F-4BB8-BC6D-4AA9408DD14D}"/>
     <hyperlink ref="D18" r:id="rId4" display="Link" xr:uid="{401DDADA-DB79-4416-96CF-3B1D6329769B}"/>
@@ -3433,12 +3426,12 @@
     <hyperlink ref="D8" r:id="rId6" xr:uid="{968A8156-5055-4A5F-97A2-06DF8EA0EB3D}"/>
     <hyperlink ref="D20" r:id="rId7" display="5 Meter Gates LL" xr:uid="{9F0DE403-B0EC-4933-928F-2806FBCF603A}"/>
     <hyperlink ref="D19" r:id="rId8" display="Link" xr:uid="{45531F32-6B6C-44D5-9B2A-FB1F259BC9F9}"/>
-    <hyperlink ref="G12" r:id="rId9" xr:uid="{C2A02BBB-B317-4856-A562-A30BE2CA0A6C}"/>
+    <hyperlink ref="F12" r:id="rId9" display="Keenovo" xr:uid="{C2A02BBB-B317-4856-A562-A30BE2CA0A6C}"/>
     <hyperlink ref="D22" r:id="rId10" display="8 Bore" xr:uid="{4C50ADBB-FC9C-42E4-8421-5A0C1600DD46}"/>
     <hyperlink ref="D21" r:id="rId11" display="5 BORE" xr:uid="{43C03DCA-7867-4C9F-B1D0-8588267A1C82}"/>
     <hyperlink ref="D13" r:id="rId12" xr:uid="{A901DFE1-486C-4AC2-8672-C18618945E04}"/>
     <hyperlink ref="D14" r:id="rId13" xr:uid="{BA467D2F-0948-4A82-B49C-B8DCBA7936A0}"/>
-    <hyperlink ref="D25" r:id="rId14" display="Link" xr:uid="{49178A12-AF45-4969-AC8E-49BA3EBADDA9}"/>
+    <hyperlink ref="D26" r:id="rId14" display="Link" xr:uid="{49178A12-AF45-4969-AC8E-49BA3EBADDA9}"/>
     <hyperlink ref="D3" r:id="rId15" xr:uid="{EC545E70-D1FC-4E65-A1EE-4669C3053F17}"/>
     <hyperlink ref="D5" r:id="rId16" display="TMC2209x4" xr:uid="{66F0B115-3A28-4ECD-9CAD-3D7BD72D9C3F}"/>
     <hyperlink ref="D6" r:id="rId17" xr:uid="{81386FB5-9CB0-4047-BC43-B46FEE5FC03C}"/>
@@ -3446,17 +3439,19 @@
     <hyperlink ref="D15" r:id="rId19" xr:uid="{537A3F3C-7C92-42A9-B8B2-F37129F7787F}"/>
     <hyperlink ref="D4" r:id="rId20" display="Mini 12864" xr:uid="{56BAC9A8-6A57-4E69-944B-AE64A70C2A1E}"/>
     <hyperlink ref="D17" r:id="rId21" xr:uid="{82909F8B-3A14-4248-8CB2-384756C6E8BE}"/>
-    <hyperlink ref="D26" r:id="rId22" xr:uid="{0D6A5659-9181-49D0-A7D8-101F63076C8A}"/>
-    <hyperlink ref="G27" r:id="rId23" display="CLEVER3D" xr:uid="{7B1D2EFC-9E0A-4BD0-B66C-2C091262564C}"/>
+    <hyperlink ref="D27" r:id="rId22" xr:uid="{0D6A5659-9181-49D0-A7D8-101F63076C8A}"/>
+    <hyperlink ref="F28" r:id="rId23" display="CLEVER3D" xr:uid="{7B1D2EFC-9E0A-4BD0-B66C-2C091262564C}"/>
     <hyperlink ref="D10" r:id="rId24" xr:uid="{4AEFCE09-28B7-4C24-82DE-ADAB9CAA43E1}"/>
     <hyperlink ref="D11" r:id="rId25" xr:uid="{0ED2334F-09CF-437E-82F8-E81D86F288DC}"/>
     <hyperlink ref="D23" r:id="rId26" xr:uid="{87CB364F-700B-4E81-BC67-3C859C1B7934}"/>
     <hyperlink ref="D24" r:id="rId27" display="5X High End" xr:uid="{D4CB98E8-7A2B-495D-9E37-8208D21A6270}"/>
+    <hyperlink ref="D25" r:id="rId28" display="6x5x1 Option Shim" xr:uid="{A333F16C-7F8A-421A-B64A-B04B701B747A}"/>
+    <hyperlink ref="F25" r:id="rId29" xr:uid="{D98A7A59-4D4C-4589-8C00-1DCF83FFF3E6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToWidth="0" orientation="landscape" r:id="rId28"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId30"/>
   <tableParts count="1">
-    <tablePart r:id="rId29"/>
+    <tablePart r:id="rId31"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3465,12 +3460,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D29D6D75-B7C4-4BE2-88D5-EC1A978798F7}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.7109375" bestFit="1" customWidth="1"/>
@@ -3487,11 +3482,11 @@
       <c r="B1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="99" t="s">
+      <c r="C1" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="97" t="s">
-        <v>118</v>
+      <c r="D1" s="94" t="s">
+        <v>117</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -3505,521 +3500,524 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>119</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>120</v>
       </c>
       <c r="C2" s="32">
         <v>2</v>
       </c>
-      <c r="D2" s="98">
+      <c r="D2" s="95">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C3" s="32">
         <v>4</v>
       </c>
-      <c r="D3" s="98">
+      <c r="D3" s="95">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>122</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>123</v>
       </c>
       <c r="C4" s="32">
         <v>4</v>
       </c>
-      <c r="D4" s="98">
+      <c r="D4" s="95">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C5" s="32">
         <v>2</v>
       </c>
-      <c r="D5" s="98">
+      <c r="D5" s="95">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>125</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>126</v>
       </c>
       <c r="C6" s="32">
         <v>2</v>
       </c>
-      <c r="D6" s="98">
+      <c r="D6" s="95">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C7" s="32">
         <v>11</v>
       </c>
-      <c r="D7" s="98">
+      <c r="D7" s="95">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>128</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>129</v>
       </c>
       <c r="C8" s="32">
         <v>15</v>
       </c>
-      <c r="D8" s="98">
+      <c r="D8" s="95">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C9" s="32">
         <v>6</v>
       </c>
-      <c r="D9" s="98">
+      <c r="D9" s="95">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C10" s="32">
         <v>9</v>
       </c>
-      <c r="D10" s="98">
+      <c r="D10" s="95">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C11" s="32">
         <v>5</v>
       </c>
-      <c r="D11" s="98">
+      <c r="D11" s="95">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C12" s="32">
         <v>8</v>
       </c>
-      <c r="D12" s="98">
+      <c r="D12" s="95">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C13" s="32">
         <v>2</v>
       </c>
-      <c r="D13" s="98">
+      <c r="D13" s="95">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>134</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>135</v>
       </c>
       <c r="C14" s="32">
         <v>5</v>
       </c>
-      <c r="D14" s="98">
+      <c r="D14" s="95">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C15" s="32">
         <v>5</v>
       </c>
-      <c r="D15" s="98">
+      <c r="D15" s="95">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C16" s="32">
         <v>13</v>
       </c>
-      <c r="D16" s="98">
+      <c r="D16" s="95">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C17" s="32">
         <v>6</v>
       </c>
-      <c r="D17" s="98">
+      <c r="D17" s="95">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C18" s="32">
         <v>2</v>
       </c>
-      <c r="D18" s="98">
+      <c r="D18" s="95">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C19" s="32">
         <v>1</v>
       </c>
-      <c r="D19" s="98">
+      <c r="D19" s="95">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C20" s="32">
         <v>3</v>
       </c>
-      <c r="D20" s="98">
+      <c r="D20" s="95">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C21" s="32">
         <v>1</v>
       </c>
-      <c r="D21" s="98">
+      <c r="D21" s="95">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C22" s="32">
         <v>1</v>
       </c>
-      <c r="D22" s="98">
+      <c r="D22" s="95">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C23" s="32">
         <v>28</v>
       </c>
-      <c r="D23" s="98">
+      <c r="D23" s="95">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C24" s="32">
         <v>6</v>
       </c>
-      <c r="D24" s="98">
+      <c r="D24" s="95">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>146</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>147</v>
       </c>
       <c r="C25" s="32">
         <v>50</v>
       </c>
-      <c r="D25" s="98">
+      <c r="D25" s="95">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>207</v>
       </c>
       <c r="C26" s="32">
         <v>63</v>
       </c>
-      <c r="D26" s="98">
+      <c r="D26" s="95">
         <v>70</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C27" s="32">
         <v>143</v>
       </c>
-      <c r="D27" s="98">
+      <c r="D27" s="95">
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C28" s="32">
         <v>200</v>
       </c>
-      <c r="D28" s="98">
+      <c r="D28" s="95">
         <v>200</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C29" s="32">
         <v>142</v>
       </c>
-      <c r="D29" s="98">
+      <c r="D29" s="95">
         <v>150</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C30" s="32">
         <v>8</v>
       </c>
-      <c r="D30" s="98">
+      <c r="D30" s="95">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C31" s="32">
         <v>1</v>
       </c>
-      <c r="D31" s="98">
+      <c r="D31" s="95">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C32" s="32">
         <v>2</v>
       </c>
-      <c r="D32" s="98">
+      <c r="D32" s="95">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="29" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C33" s="32">
         <v>2</v>
       </c>
-      <c r="D33" s="98">
+      <c r="D33" s="95">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="29" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C34" s="32">
         <v>18</v>
       </c>
-      <c r="D34" s="98">
+      <c r="D34" s="95">
         <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="29" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C35" s="32">
         <v>8</v>
       </c>
-      <c r="D35" s="98">
+      <c r="D35" s="95">
         <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="29" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C36" s="32">
         <v>4</v>
       </c>
-      <c r="D36" s="98">
+      <c r="D36" s="95">
         <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="70" t="s">
-        <v>161</v>
-      </c>
-      <c r="B37" s="71"/>
-      <c r="C37" s="100">
+      <c r="A37" s="69" t="s">
+        <v>159</v>
+      </c>
+      <c r="B37" s="70"/>
+      <c r="C37" s="97">
         <f>SUM(C2:C36)</f>
         <v>782</v>
       </c>
-      <c r="D37" s="101">
+      <c r="D37" s="98">
         <f>SUM(D2:D36)</f>
         <v>806</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="29" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="5"/>
-      <c r="D38" s="102">
+      <c r="D38" s="99">
         <v>0.1</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="11"/>
@@ -4029,6 +4027,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B26" location="'Component Part List'!A1" display="5X6X1 Precision Shim" xr:uid="{3572F6E0-E77C-4DC4-8F2D-396904032282}"/>
+  </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="125" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Document Library/Bill Of Materials/V-Baby BOM.xlsx
+++ b/Document Library/Bill Of Materials/V-Baby BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Document Library\GitHub\V-Baby CoreXY\Document Library\Bill Of Materials\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roy\OneDrive\Document Library\GitHub\V-Baby CoreXY\Document Library\Bill Of Materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1748" documentId="11_2E462098BBA7632759C38D02185E4833A2B67484" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5817A054-DE21-4C69-A2C1-DA15AB239C85}"/>
+  <xr:revisionPtr revIDLastSave="1763" documentId="11_2E462098BBA7632759C38D02185E4833A2B67484" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{37083877-C722-48A0-A3C5-D81F53578C01}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OpenBuild Part List" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="215">
   <si>
     <t>Exstrusions</t>
   </si>
@@ -172,9 +172,6 @@
     <t>SKR 1.3 32Bit Controller</t>
   </si>
   <si>
-    <t>Board</t>
-  </si>
-  <si>
     <t>LCD Controller</t>
   </si>
   <si>
@@ -190,12 +187,6 @@
     <t>TMC 2209 Stepper Drivers</t>
   </si>
   <si>
-    <t>EZ Stepper Drivers</t>
-  </si>
-  <si>
-    <t>Allegro A4988 2A Drivers</t>
-  </si>
-  <si>
     <t>Layer Fan</t>
   </si>
   <si>
@@ -571,12 +562,6 @@
     <t>Hex Bolt</t>
   </si>
   <si>
-    <t>TMC2208 UART x2</t>
-  </si>
-  <si>
-    <t>TMC2209 UART x2</t>
-  </si>
-  <si>
     <t>V-Slot Calculator</t>
   </si>
   <si>
@@ -680,6 +665,18 @@
   </si>
   <si>
     <t>NB! See Component List</t>
+  </si>
+  <si>
+    <t>TMC2209 UART x4</t>
+  </si>
+  <si>
+    <t>TMC2208 UART x4</t>
+  </si>
+  <si>
+    <t>SKR 1.4/1.4 Turbo</t>
+  </si>
+  <si>
+    <t>Board Only</t>
   </si>
 </sst>
 </file>
@@ -1652,8 +1649,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1070DF90-74AC-4245-AA46-2FAD63F74767}" name="Table1" displayName="Table1" ref="A1:G28" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6">
-  <autoFilter ref="A1:G28" xr:uid="{F74387CC-3A2A-4CC8-A8F2-631B4360BF85}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1070DF90-74AC-4245-AA46-2FAD63F74767}" name="Table1" displayName="Table1" ref="A1:G27" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6">
+  <autoFilter ref="A1:G27" xr:uid="{F74387CC-3A2A-4CC8-A8F2-631B4360BF85}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{AB8C8187-911D-4248-8608-1F70796FF7C8}" name="Column1" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{129F7AE4-0D03-4AA3-A2BF-5181AA27AF31}" name="Column2"/>
@@ -1992,19 +1989,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -2021,32 +2018,32 @@
         <v>4</v>
       </c>
       <c r="F1" s="52" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G1" s="50"/>
       <c r="H1" s="63" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I1" s="62"/>
       <c r="J1" s="64" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="53"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
       <c r="E2" s="23"/>
       <c r="F2" s="127" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G2" s="47"/>
       <c r="H2" s="57"/>
       <c r="I2" s="49"/>
       <c r="J2" s="65"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="54" t="s">
         <v>7</v>
       </c>
@@ -2069,7 +2066,7 @@
       <c r="I3" s="18"/>
       <c r="J3" s="66"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="55" t="s">
         <v>10</v>
       </c>
@@ -2092,7 +2089,7 @@
       <c r="I4" s="49"/>
       <c r="J4" s="65"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="54" t="s">
         <v>13</v>
       </c>
@@ -2115,7 +2112,7 @@
       <c r="I5" s="18"/>
       <c r="J5" s="66"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="55" t="s">
         <v>16</v>
       </c>
@@ -2138,7 +2135,7 @@
       <c r="I6" s="49"/>
       <c r="J6" s="65"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="54"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -2150,7 +2147,7 @@
       <c r="I7" s="8"/>
       <c r="J7" s="66"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="55" t="s">
         <v>18</v>
       </c>
@@ -2173,7 +2170,7 @@
       <c r="I8" s="49"/>
       <c r="J8" s="65"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="54" t="s">
         <v>21</v>
       </c>
@@ -2196,7 +2193,7 @@
       <c r="I9" s="18"/>
       <c r="J9" s="66"/>
     </row>
-    <row r="10" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="55" t="s">
         <v>24</v>
       </c>
@@ -2217,13 +2214,13 @@
         <v>27</v>
       </c>
       <c r="I10" s="67" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="J10" s="65">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="54"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -2239,7 +2236,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="55" t="s">
         <v>29</v>
       </c>
@@ -2259,13 +2256,13 @@
         <v>31</v>
       </c>
       <c r="I12" s="67" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J12" s="65">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="54"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -2277,7 +2274,7 @@
       <c r="I13" s="68"/>
       <c r="J13" s="66"/>
     </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="55" t="s">
         <v>32</v>
       </c>
@@ -2297,13 +2294,13 @@
         <v>35</v>
       </c>
       <c r="I14" s="67" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J14" s="65">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
         <v>36</v>
       </c>
@@ -2322,11 +2319,11 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G16" s="17"/>
     </row>
-    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="39" t="s">
         <v>37</v>
       </c>
@@ -2348,7 +2345,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>38</v>
       </c>
@@ -2357,8 +2354,8 @@
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="37">
-        <f>'Component Part List'!$E$29</f>
-        <v>364.5</v>
+        <f>'Component Part List'!$E$28</f>
+        <v>365.5</v>
       </c>
       <c r="G19" s="48"/>
       <c r="H19" s="29" t="s">
@@ -2366,11 +2363,11 @@
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="37">
-        <f>'Component Part List'!$E$29</f>
-        <v>364.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <f>'Component Part List'!$E$28</f>
+        <v>365.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="30" t="s">
         <v>39</v>
       </c>
@@ -2390,7 +2387,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="40" t="s">
         <v>41</v>
       </c>
@@ -2399,7 +2396,7 @@
       <c r="D21" s="43"/>
       <c r="E21" s="43"/>
       <c r="F21" s="46" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G21" s="48"/>
       <c r="H21" s="29" t="s">
@@ -2411,9 +2408,9 @@
         <v>80.600000000000009</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="44" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B22" s="45"/>
       <c r="C22" s="45"/>
@@ -2421,7 +2418,7 @@
       <c r="E22" s="45"/>
       <c r="F22" s="41">
         <f>SUM(F18:F21)</f>
-        <v>678.5</v>
+        <v>679.5</v>
       </c>
       <c r="G22" s="48"/>
       <c r="H22" s="59" t="s">
@@ -2430,7 +2427,7 @@
       <c r="I22" s="60"/>
       <c r="J22" s="61">
         <f>SUM(J18:J21)</f>
-        <v>549.1</v>
+        <v>550.1</v>
       </c>
     </row>
   </sheetData>
@@ -2456,16 +2453,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="100" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="100" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A1" s="102" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B1" s="103"/>
       <c r="C1" s="104"/>
@@ -2474,7 +2471,7 @@
       <c r="F1" s="103"/>
       <c r="G1" s="105"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="106"/>
       <c r="B2" s="8"/>
       <c r="C2" s="107"/>
@@ -2483,32 +2480,32 @@
       <c r="F2" s="8"/>
       <c r="G2" s="13"/>
     </row>
-    <row r="3" spans="1:7" s="101" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="101" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="108" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B3" s="109"/>
       <c r="C3" s="123" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D3" s="111" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E3" s="109"/>
       <c r="F3" s="111" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="G3" s="112"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="106" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B4" s="8">
         <v>310</v>
       </c>
       <c r="C4" s="124" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D4" s="8">
         <f>B4+50</f>
@@ -2521,40 +2518,40 @@
       </c>
       <c r="G4" s="13"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="106" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B5" s="8">
         <v>350</v>
       </c>
       <c r="C5" s="124" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D5" s="8">
         <f>B5+50</f>
         <v>400</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="F5" s="8">
         <f>B5+100</f>
         <v>450</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="106" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B6" s="8">
         <v>340</v>
       </c>
       <c r="C6" s="124" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D6" s="8">
         <f>B6+50</f>
@@ -2567,7 +2564,7 @@
       </c>
       <c r="G6" s="13"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="106" t="s">
         <v>18</v>
       </c>
@@ -2575,7 +2572,7 @@
         <v>290</v>
       </c>
       <c r="C7" s="124" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D7" s="8">
         <f t="shared" ref="D7:D9" si="0">B7+50</f>
@@ -2588,7 +2585,7 @@
       </c>
       <c r="G7" s="13"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="106" t="s">
         <v>21</v>
       </c>
@@ -2596,7 +2593,7 @@
         <v>350</v>
       </c>
       <c r="C8" s="124" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D8" s="8">
         <f t="shared" si="0"/>
@@ -2609,7 +2606,7 @@
       </c>
       <c r="G8" s="13"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="106" t="s">
         <v>16</v>
       </c>
@@ -2617,7 +2614,7 @@
         <v>295</v>
       </c>
       <c r="C9" s="124" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D9" s="8">
         <f t="shared" si="0"/>
@@ -2630,7 +2627,7 @@
       </c>
       <c r="G9" s="13"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="106"/>
       <c r="B10" s="8"/>
       <c r="C10" s="107"/>
@@ -2639,9 +2636,9 @@
       <c r="F10" s="8"/>
       <c r="G10" s="13"/>
     </row>
-    <row r="11" spans="1:7" s="101" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="101" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="108" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B11" s="109"/>
       <c r="C11" s="110"/>
@@ -2650,9 +2647,9 @@
       <c r="F11" s="109"/>
       <c r="G11" s="112"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="106" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="107"/>
@@ -2661,84 +2658,84 @@
       <c r="F12" s="8"/>
       <c r="G12" s="13"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="113" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B13" s="114"/>
       <c r="C13" s="115" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D13" s="116" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E13" s="116"/>
       <c r="F13" s="8"/>
       <c r="G13" s="13"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="106" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B14" s="114">
         <v>200</v>
       </c>
       <c r="C14" s="115" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D14" s="116">
         <f>B14+110</f>
         <v>310</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="13"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="106" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B15" s="114">
         <v>200</v>
       </c>
       <c r="C15" s="115" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D15" s="116">
         <f>B15+150</f>
         <v>350</v>
       </c>
       <c r="E15" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>204</v>
-      </c>
       <c r="G15" s="13"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="106" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B16" s="114">
         <v>200</v>
       </c>
       <c r="C16" s="115" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D16" s="116">
         <f>B16+140</f>
         <v>340</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="13"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="106" t="s">
         <v>18</v>
       </c>
@@ -2749,12 +2746,12 @@
         <v>290</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="106" t="s">
         <v>21</v>
       </c>
@@ -2765,12 +2762,12 @@
         <v>350</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="117" t="s">
         <v>16</v>
       </c>
@@ -2781,12 +2778,12 @@
         <v>295</v>
       </c>
       <c r="E19" s="125" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F19" s="121"/>
       <c r="G19" s="122"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="107"/>
@@ -2795,19 +2792,19 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -2826,52 +2823,52 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.88671875" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" style="17" customWidth="1"/>
     <col min="8" max="8" width="7" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5546875" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="73" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="73" customFormat="1" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="74" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="74" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1" s="75" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1" s="76" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="E1" s="89" t="s">
         <v>171</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="F1" s="82" t="s">
         <v>172</v>
       </c>
-      <c r="D1" s="76" t="s">
+      <c r="G1" s="82" t="s">
         <v>173</v>
       </c>
-      <c r="E1" s="89" t="s">
-        <v>174</v>
-      </c>
-      <c r="F1" s="82" t="s">
-        <v>175</v>
-      </c>
-      <c r="G1" s="82" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="77" t="s">
         <v>1</v>
       </c>
@@ -2894,7 +2891,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>44</v>
       </c>
@@ -2905,27 +2902,31 @@
         <v>1</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>46</v>
+        <v>214</v>
       </c>
       <c r="E3" s="81">
         <v>20</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="81"/>
+      <c r="F3" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="G3" s="81">
+        <v>25</v>
+      </c>
       <c r="K3" s="7"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="C4" s="9">
         <v>1</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" s="81">
         <v>15</v>
@@ -2933,45 +2934,49 @@
       <c r="F4" s="29"/>
       <c r="G4" s="81"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="9">
+        <v>4</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="E5" s="81">
+        <v>24</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="G5" s="81">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="9">
-        <v>2</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="E5" s="81">
-        <v>12</v>
-      </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="81"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
+      <c r="B6" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>53</v>
       </c>
       <c r="C6" s="9">
         <v>2</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>179</v>
+      <c r="D6" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="E6" s="81">
-        <v>11</v>
-      </c>
-      <c r="F6" s="29"/>
+        <v>10</v>
+      </c>
+      <c r="F6" s="56"/>
       <c r="G6" s="81"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>54</v>
       </c>
@@ -2979,18 +2984,18 @@
         <v>55</v>
       </c>
       <c r="C7" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>56</v>
       </c>
       <c r="E7" s="81">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F7" s="56"/>
       <c r="G7" s="81"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>57</v>
       </c>
@@ -2998,37 +3003,37 @@
         <v>58</v>
       </c>
       <c r="C8" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E8" s="81">
-        <v>2</v>
-      </c>
-      <c r="F8" s="56"/>
+        <v>3</v>
+      </c>
+      <c r="F8" s="84"/>
       <c r="G8" s="81"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="17" t="s">
         <v>61</v>
       </c>
       <c r="C9" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>62</v>
       </c>
       <c r="E9" s="81">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F9" s="84"/>
       <c r="G9" s="81"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>63</v>
       </c>
@@ -3036,22 +3041,22 @@
         <v>64</v>
       </c>
       <c r="C10" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>65</v>
       </c>
       <c r="E10" s="81">
-        <v>4</v>
-      </c>
-      <c r="F10" s="84"/>
+        <v>14</v>
+      </c>
+      <c r="F10" s="85"/>
       <c r="G10" s="81"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="8" t="s">
         <v>67</v>
       </c>
       <c r="C11" s="9">
@@ -3061,12 +3066,16 @@
         <v>68</v>
       </c>
       <c r="E11" s="81">
-        <v>14</v>
-      </c>
-      <c r="F11" s="85"/>
-      <c r="G11" s="81"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="F11" s="86" t="s">
+        <v>207</v>
+      </c>
+      <c r="G11" s="81">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
         <v>69</v>
       </c>
@@ -3080,16 +3089,12 @@
         <v>71</v>
       </c>
       <c r="E12" s="81">
-        <v>27</v>
-      </c>
-      <c r="F12" s="86" t="s">
-        <v>212</v>
-      </c>
-      <c r="G12" s="81">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3.5</v>
+      </c>
+      <c r="F12" s="86"/>
+      <c r="G12" s="81"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>72</v>
       </c>
@@ -3103,12 +3108,12 @@
         <v>74</v>
       </c>
       <c r="E13" s="81">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="F13" s="86"/>
       <c r="G13" s="81"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>75</v>
       </c>
@@ -3122,12 +3127,12 @@
         <v>77</v>
       </c>
       <c r="E14" s="81">
-        <v>2</v>
-      </c>
-      <c r="F14" s="86"/>
+        <v>17</v>
+      </c>
+      <c r="F14" s="56"/>
       <c r="G14" s="81"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>78</v>
       </c>
@@ -3141,12 +3146,12 @@
         <v>80</v>
       </c>
       <c r="E15" s="81">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F15" s="56"/>
       <c r="G15" s="81"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>81</v>
       </c>
@@ -3160,12 +3165,12 @@
         <v>83</v>
       </c>
       <c r="E16" s="81">
-        <v>20</v>
+        <v>2.5</v>
       </c>
       <c r="F16" s="56"/>
       <c r="G16" s="81"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
         <v>84</v>
       </c>
@@ -3179,12 +3184,12 @@
         <v>86</v>
       </c>
       <c r="E17" s="81">
-        <v>2.5</v>
+        <v>20</v>
       </c>
       <c r="F17" s="56"/>
       <c r="G17" s="81"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="29" t="s">
         <v>87</v>
       </c>
@@ -3198,50 +3203,50 @@
         <v>89</v>
       </c>
       <c r="E18" s="81">
-        <v>20</v>
+        <v>8.5</v>
       </c>
       <c r="F18" s="56"/>
       <c r="G18" s="81"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>90</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C19" s="9">
-        <v>1</v>
+      <c r="C19" s="9" t="s">
+        <v>92</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E19" s="81">
-        <v>8.5</v>
+        <v>14</v>
       </c>
       <c r="F19" s="56"/>
       <c r="G19" s="81"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C20" s="9" t="s">
         <v>95</v>
+      </c>
+      <c r="C20" s="9">
+        <v>2</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>96</v>
       </c>
       <c r="E20" s="81">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F20" s="56"/>
       <c r="G20" s="81"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
         <v>97</v>
       </c>
@@ -3249,18 +3254,18 @@
         <v>98</v>
       </c>
       <c r="C21" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>99</v>
       </c>
       <c r="E21" s="81">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F21" s="56"/>
       <c r="G21" s="81"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
         <v>100</v>
       </c>
@@ -3268,77 +3273,77 @@
         <v>101</v>
       </c>
       <c r="C22" s="9">
-        <v>1</v>
-      </c>
-      <c r="D22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="126" t="s">
+        <v>201</v>
+      </c>
+      <c r="E22" s="33">
+        <v>25</v>
+      </c>
+      <c r="F22" s="87"/>
+      <c r="G22" s="33"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="E22" s="81">
+      <c r="B23" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="9">
         <v>6</v>
       </c>
-      <c r="F22" s="56"/>
-      <c r="G22" s="81"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="B23" s="8" t="s">
+      <c r="D23" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="C23" s="9">
-        <v>7</v>
-      </c>
-      <c r="D23" s="126" t="s">
-        <v>206</v>
-      </c>
-      <c r="E23" s="33">
-        <v>25</v>
-      </c>
-      <c r="F23" s="87"/>
-      <c r="G23" s="33"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E23" s="35">
+        <v>22</v>
+      </c>
+      <c r="F23" s="88"/>
+      <c r="G23" s="35"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C24" s="9">
+        <v>70</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E24" s="35">
+        <v>15</v>
+      </c>
+      <c r="F24" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="G24" s="35"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B25" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C24" s="9">
-        <v>6</v>
-      </c>
-      <c r="D24" s="34" t="s">
+      <c r="C25" s="9">
+        <v>3</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E24" s="35">
-        <v>22</v>
-      </c>
-      <c r="F24" s="88"/>
-      <c r="G24" s="35"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="29" t="s">
-        <v>208</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="C25" s="9">
-        <v>70</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="E25" s="35">
-        <v>15</v>
-      </c>
-      <c r="F25" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="G25" s="35"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E25" s="81">
+        <v>30</v>
+      </c>
+      <c r="F25" s="56"/>
+      <c r="G25" s="81"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="29" t="s">
         <v>108</v>
       </c>
@@ -3346,112 +3351,94 @@
         <v>109</v>
       </c>
       <c r="C26" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D26" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E26" s="81">
+        <v>37</v>
+      </c>
+      <c r="F26" s="56" t="s">
+        <v>205</v>
+      </c>
+      <c r="G26" s="81"/>
+    </row>
+    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="E26" s="81">
-        <v>30</v>
-      </c>
-      <c r="F26" s="56"/>
-      <c r="G26" s="81"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
+      <c r="B27" s="8" t="s">
         <v>111</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>112</v>
       </c>
       <c r="C27" s="9">
         <v>1</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>205</v>
+        <v>112</v>
       </c>
       <c r="E27" s="81">
-        <v>37</v>
-      </c>
-      <c r="F27" s="56" t="s">
-        <v>210</v>
-      </c>
-      <c r="G27" s="81"/>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="90" t="s">
+        <v>206</v>
+      </c>
+      <c r="G27" s="91">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C28" s="9">
-        <v>1</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E28" s="81">
-        <v>16</v>
-      </c>
-      <c r="F28" s="90" t="s">
-        <v>211</v>
-      </c>
-      <c r="G28" s="91">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="72">
-        <f>SUM(E2:E28)</f>
-        <v>364.5</v>
-      </c>
-      <c r="F29" s="71"/>
-      <c r="G29" s="71"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="72">
+        <f>SUM(E2:E27)</f>
+        <v>365.5</v>
+      </c>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D28" r:id="rId1" display="5mm 220x220" xr:uid="{A5B2720F-8C3E-478A-BE06-E55BE0B574B4}"/>
-    <hyperlink ref="D12" r:id="rId2" xr:uid="{3773511A-F3AF-4897-B5BB-16FB39A0B508}"/>
-    <hyperlink ref="D9" r:id="rId3" xr:uid="{AFC120EB-E75F-4BB8-BC6D-4AA9408DD14D}"/>
-    <hyperlink ref="D18" r:id="rId4" display="Link" xr:uid="{401DDADA-DB79-4416-96CF-3B1D6329769B}"/>
-    <hyperlink ref="D7" r:id="rId5" display="24V Dual Ball" xr:uid="{98BCAD8D-1DD9-49E5-B60D-FB8A39108E71}"/>
-    <hyperlink ref="D8" r:id="rId6" xr:uid="{968A8156-5055-4A5F-97A2-06DF8EA0EB3D}"/>
-    <hyperlink ref="D20" r:id="rId7" display="5 Meter Gates LL" xr:uid="{9F0DE403-B0EC-4933-928F-2806FBCF603A}"/>
-    <hyperlink ref="D19" r:id="rId8" display="Link" xr:uid="{45531F32-6B6C-44D5-9B2A-FB1F259BC9F9}"/>
-    <hyperlink ref="F12" r:id="rId9" display="Keenovo" xr:uid="{C2A02BBB-B317-4856-A562-A30BE2CA0A6C}"/>
-    <hyperlink ref="D22" r:id="rId10" display="8 Bore" xr:uid="{4C50ADBB-FC9C-42E4-8421-5A0C1600DD46}"/>
-    <hyperlink ref="D21" r:id="rId11" display="5 BORE" xr:uid="{43C03DCA-7867-4C9F-B1D0-8588267A1C82}"/>
-    <hyperlink ref="D13" r:id="rId12" xr:uid="{A901DFE1-486C-4AC2-8672-C18618945E04}"/>
-    <hyperlink ref="D14" r:id="rId13" xr:uid="{BA467D2F-0948-4A82-B49C-B8DCBA7936A0}"/>
-    <hyperlink ref="D26" r:id="rId14" display="Link" xr:uid="{49178A12-AF45-4969-AC8E-49BA3EBADDA9}"/>
-    <hyperlink ref="D3" r:id="rId15" xr:uid="{EC545E70-D1FC-4E65-A1EE-4669C3053F17}"/>
+    <hyperlink ref="D27" r:id="rId1" display="5mm 220x220" xr:uid="{A5B2720F-8C3E-478A-BE06-E55BE0B574B4}"/>
+    <hyperlink ref="D11" r:id="rId2" xr:uid="{3773511A-F3AF-4897-B5BB-16FB39A0B508}"/>
+    <hyperlink ref="D8" r:id="rId3" xr:uid="{AFC120EB-E75F-4BB8-BC6D-4AA9408DD14D}"/>
+    <hyperlink ref="D17" r:id="rId4" display="Link" xr:uid="{401DDADA-DB79-4416-96CF-3B1D6329769B}"/>
+    <hyperlink ref="D6" r:id="rId5" display="24V Dual Ball" xr:uid="{98BCAD8D-1DD9-49E5-B60D-FB8A39108E71}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{968A8156-5055-4A5F-97A2-06DF8EA0EB3D}"/>
+    <hyperlink ref="D19" r:id="rId7" display="5 Meter Gates LL" xr:uid="{9F0DE403-B0EC-4933-928F-2806FBCF603A}"/>
+    <hyperlink ref="D18" r:id="rId8" display="Link" xr:uid="{45531F32-6B6C-44D5-9B2A-FB1F259BC9F9}"/>
+    <hyperlink ref="F11" r:id="rId9" display="Keenovo" xr:uid="{C2A02BBB-B317-4856-A562-A30BE2CA0A6C}"/>
+    <hyperlink ref="D21" r:id="rId10" display="8 Bore" xr:uid="{4C50ADBB-FC9C-42E4-8421-5A0C1600DD46}"/>
+    <hyperlink ref="D20" r:id="rId11" display="5 BORE" xr:uid="{43C03DCA-7867-4C9F-B1D0-8588267A1C82}"/>
+    <hyperlink ref="D12" r:id="rId12" xr:uid="{A901DFE1-486C-4AC2-8672-C18618945E04}"/>
+    <hyperlink ref="D13" r:id="rId13" xr:uid="{BA467D2F-0948-4A82-B49C-B8DCBA7936A0}"/>
+    <hyperlink ref="D25" r:id="rId14" display="Link" xr:uid="{49178A12-AF45-4969-AC8E-49BA3EBADDA9}"/>
+    <hyperlink ref="D3" r:id="rId15" display="Board" xr:uid="{EC545E70-D1FC-4E65-A1EE-4669C3053F17}"/>
     <hyperlink ref="D5" r:id="rId16" display="TMC2209x4" xr:uid="{66F0B115-3A28-4ECD-9CAD-3D7BD72D9C3F}"/>
-    <hyperlink ref="D6" r:id="rId17" xr:uid="{81386FB5-9CB0-4047-BC43-B46FEE5FC03C}"/>
-    <hyperlink ref="D16" r:id="rId18" xr:uid="{9689F2B7-24E0-4CC5-A39F-53D7E0370FC8}"/>
-    <hyperlink ref="D15" r:id="rId19" xr:uid="{537A3F3C-7C92-42A9-B8B2-F37129F7787F}"/>
-    <hyperlink ref="D4" r:id="rId20" display="Mini 12864" xr:uid="{56BAC9A8-6A57-4E69-944B-AE64A70C2A1E}"/>
-    <hyperlink ref="D17" r:id="rId21" xr:uid="{82909F8B-3A14-4248-8CB2-384756C6E8BE}"/>
-    <hyperlink ref="D27" r:id="rId22" xr:uid="{0D6A5659-9181-49D0-A7D8-101F63076C8A}"/>
-    <hyperlink ref="F28" r:id="rId23" display="CLEVER3D" xr:uid="{7B1D2EFC-9E0A-4BD0-B66C-2C091262564C}"/>
-    <hyperlink ref="D10" r:id="rId24" xr:uid="{4AEFCE09-28B7-4C24-82DE-ADAB9CAA43E1}"/>
-    <hyperlink ref="D11" r:id="rId25" xr:uid="{0ED2334F-09CF-437E-82F8-E81D86F288DC}"/>
-    <hyperlink ref="D23" r:id="rId26" xr:uid="{87CB364F-700B-4E81-BC67-3C859C1B7934}"/>
-    <hyperlink ref="D24" r:id="rId27" display="5X High End" xr:uid="{D4CB98E8-7A2B-495D-9E37-8208D21A6270}"/>
-    <hyperlink ref="D25" r:id="rId28" display="6x5x1 Option Shim" xr:uid="{A333F16C-7F8A-421A-B64A-B04B701B747A}"/>
-    <hyperlink ref="F25" r:id="rId29" xr:uid="{D98A7A59-4D4C-4589-8C00-1DCF83FFF3E6}"/>
+    <hyperlink ref="D15" r:id="rId17" xr:uid="{9689F2B7-24E0-4CC5-A39F-53D7E0370FC8}"/>
+    <hyperlink ref="D14" r:id="rId18" xr:uid="{537A3F3C-7C92-42A9-B8B2-F37129F7787F}"/>
+    <hyperlink ref="D4" r:id="rId19" display="Mini 12864" xr:uid="{56BAC9A8-6A57-4E69-944B-AE64A70C2A1E}"/>
+    <hyperlink ref="D16" r:id="rId20" xr:uid="{82909F8B-3A14-4248-8CB2-384756C6E8BE}"/>
+    <hyperlink ref="D26" r:id="rId21" xr:uid="{0D6A5659-9181-49D0-A7D8-101F63076C8A}"/>
+    <hyperlink ref="F27" r:id="rId22" display="CLEVER3D" xr:uid="{7B1D2EFC-9E0A-4BD0-B66C-2C091262564C}"/>
+    <hyperlink ref="D9" r:id="rId23" xr:uid="{4AEFCE09-28B7-4C24-82DE-ADAB9CAA43E1}"/>
+    <hyperlink ref="D10" r:id="rId24" xr:uid="{0ED2334F-09CF-437E-82F8-E81D86F288DC}"/>
+    <hyperlink ref="D22" r:id="rId25" xr:uid="{87CB364F-700B-4E81-BC67-3C859C1B7934}"/>
+    <hyperlink ref="D23" r:id="rId26" display="5X High End" xr:uid="{D4CB98E8-7A2B-495D-9E37-8208D21A6270}"/>
+    <hyperlink ref="D24" r:id="rId27" display="6x5x1 Option Shim" xr:uid="{A333F16C-7F8A-421A-B64A-B04B701B747A}"/>
+    <hyperlink ref="F24" r:id="rId28" xr:uid="{D98A7A59-4D4C-4589-8C00-1DCF83FFF3E6}"/>
+    <hyperlink ref="F5" r:id="rId29" display="TMC2209x4" xr:uid="{5A565AD2-589F-454F-8FE2-3DC1AA6ECAC6}"/>
+    <hyperlink ref="F3" r:id="rId30" xr:uid="{5B14FBB6-ADAD-4948-95D7-FBD8C9BC5BB5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId30"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId31"/>
   <tableParts count="1">
-    <tablePart r:id="rId31"/>
+    <tablePart r:id="rId32"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3460,22 +3447,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D29D6D75-B7C4-4BE2-88D5-EC1A978798F7}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -3486,7 +3473,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="94" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -3498,12 +3485,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C2" s="32">
         <v>2</v>
@@ -3512,12 +3499,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C3" s="32">
         <v>4</v>
@@ -3526,12 +3513,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C4" s="32">
         <v>4</v>
@@ -3540,12 +3527,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C5" s="32">
         <v>2</v>
@@ -3554,12 +3541,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C6" s="32">
         <v>2</v>
@@ -3568,12 +3555,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C7" s="32">
         <v>11</v>
@@ -3582,12 +3569,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C8" s="32">
         <v>15</v>
@@ -3596,12 +3583,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C9" s="32">
         <v>6</v>
@@ -3610,12 +3597,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C10" s="32">
         <v>9</v>
@@ -3624,12 +3611,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C11" s="32">
         <v>5</v>
@@ -3638,12 +3625,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C12" s="32">
         <v>8</v>
@@ -3652,12 +3639,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C13" s="32">
         <v>2</v>
@@ -3666,12 +3653,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C14" s="32">
         <v>5</v>
@@ -3680,12 +3667,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C15" s="32">
         <v>5</v>
@@ -3694,12 +3681,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C16" s="32">
         <v>13</v>
@@ -3708,12 +3695,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C17" s="32">
         <v>6</v>
@@ -3722,12 +3709,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="29" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C18" s="32">
         <v>2</v>
@@ -3736,12 +3723,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C19" s="32">
         <v>1</v>
@@ -3750,12 +3737,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C20" s="32">
         <v>3</v>
@@ -3764,12 +3751,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C21" s="32">
         <v>1</v>
@@ -3778,12 +3765,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C22" s="32">
         <v>1</v>
@@ -3792,12 +3779,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="29" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C23" s="32">
         <v>28</v>
@@ -3806,12 +3793,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="29" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C24" s="32">
         <v>6</v>
@@ -3820,12 +3807,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="29" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C25" s="32">
         <v>50</v>
@@ -3834,12 +3821,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="29" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C26" s="32">
         <v>63</v>
@@ -3848,15 +3835,15 @@
         <v>70</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="29" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C27" s="32">
         <v>143</v>
@@ -3865,12 +3852,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="29" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C28" s="32">
         <v>200</v>
@@ -3879,12 +3866,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="29" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C29" s="32">
         <v>142</v>
@@ -3893,12 +3880,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="29" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C30" s="32">
         <v>8</v>
@@ -3907,12 +3894,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="29" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C31" s="32">
         <v>1</v>
@@ -3921,12 +3908,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="29" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C32" s="32">
         <v>2</v>
@@ -3935,12 +3922,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="29" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C33" s="32">
         <v>2</v>
@@ -3949,12 +3936,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="29" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C34" s="32">
         <v>18</v>
@@ -3963,12 +3950,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="29" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C35" s="32">
         <v>8</v>
@@ -3977,12 +3964,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="29" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C36" s="32">
         <v>4</v>
@@ -3991,9 +3978,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="69" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B37" s="70"/>
       <c r="C37" s="97">
@@ -4005,9 +3992,9 @@
         <v>806</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="29" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="5"/>
@@ -4015,9 +4002,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="14" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="11"/>
@@ -4041,14 +4028,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>

--- a/Document Library/Bill Of Materials/V-Baby BOM.xlsx
+++ b/Document Library/Bill Of Materials/V-Baby BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roy\OneDrive\Document Library\GitHub\V-Baby CoreXY\Document Library\Bill Of Materials\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Document Library\GitHub\V-Baby CoreXY\Document Library\Bill Of Materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1763" documentId="11_2E462098BBA7632759C38D02185E4833A2B67484" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{37083877-C722-48A0-A3C5-D81F53578C01}"/>
+  <xr:revisionPtr revIDLastSave="1764" documentId="11_2E462098BBA7632759C38D02185E4833A2B67484" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1CF00118-D684-4048-8660-5E6F97288109}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OpenBuild Part List" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,14 @@
     <sheet name="Fasteners" sheetId="5" r:id="rId4"/>
     <sheet name="Cable Managment" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -364,9 +366,6 @@
     <t>Includes Stepper motor</t>
   </si>
   <si>
-    <t>Heat Bed Build Plate</t>
-  </si>
-  <si>
     <t>Aluminum Sheet 4/5mm</t>
   </si>
   <si>
@@ -677,6 +676,9 @@
   </si>
   <si>
     <t>Board Only</t>
+  </si>
+  <si>
+    <t>Heatbed Build Plate</t>
   </si>
 </sst>
 </file>
@@ -1989,19 +1991,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -2018,32 +2020,32 @@
         <v>4</v>
       </c>
       <c r="F1" s="52" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G1" s="50"/>
       <c r="H1" s="63" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I1" s="62"/>
       <c r="J1" s="64" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="53"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
       <c r="E2" s="23"/>
       <c r="F2" s="127" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G2" s="47"/>
       <c r="H2" s="57"/>
       <c r="I2" s="49"/>
       <c r="J2" s="65"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
         <v>7</v>
       </c>
@@ -2066,7 +2068,7 @@
       <c r="I3" s="18"/>
       <c r="J3" s="66"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="55" t="s">
         <v>10</v>
       </c>
@@ -2089,7 +2091,7 @@
       <c r="I4" s="49"/>
       <c r="J4" s="65"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="54" t="s">
         <v>13</v>
       </c>
@@ -2112,7 +2114,7 @@
       <c r="I5" s="18"/>
       <c r="J5" s="66"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="55" t="s">
         <v>16</v>
       </c>
@@ -2135,7 +2137,7 @@
       <c r="I6" s="49"/>
       <c r="J6" s="65"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="54"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -2147,7 +2149,7 @@
       <c r="I7" s="8"/>
       <c r="J7" s="66"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="55" t="s">
         <v>18</v>
       </c>
@@ -2170,7 +2172,7 @@
       <c r="I8" s="49"/>
       <c r="J8" s="65"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="54" t="s">
         <v>21</v>
       </c>
@@ -2193,7 +2195,7 @@
       <c r="I9" s="18"/>
       <c r="J9" s="66"/>
     </row>
-    <row r="10" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="55" t="s">
         <v>24</v>
       </c>
@@ -2214,13 +2216,13 @@
         <v>27</v>
       </c>
       <c r="I10" s="67" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J10" s="65">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="54"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -2236,7 +2238,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="55" t="s">
         <v>29</v>
       </c>
@@ -2256,13 +2258,13 @@
         <v>31</v>
       </c>
       <c r="I12" s="67" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J12" s="65">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="54"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -2274,7 +2276,7 @@
       <c r="I13" s="68"/>
       <c r="J13" s="66"/>
     </row>
-    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="55" t="s">
         <v>32</v>
       </c>
@@ -2294,13 +2296,13 @@
         <v>35</v>
       </c>
       <c r="I14" s="67" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J14" s="65">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>36</v>
       </c>
@@ -2319,11 +2321,11 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G16" s="17"/>
     </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="39" t="s">
         <v>37</v>
       </c>
@@ -2345,7 +2347,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>38</v>
       </c>
@@ -2367,7 +2369,7 @@
         <v>365.5</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
         <v>39</v>
       </c>
@@ -2387,7 +2389,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="40" t="s">
         <v>41</v>
       </c>
@@ -2396,7 +2398,7 @@
       <c r="D21" s="43"/>
       <c r="E21" s="43"/>
       <c r="F21" s="46" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G21" s="48"/>
       <c r="H21" s="29" t="s">
@@ -2408,9 +2410,9 @@
         <v>80.600000000000009</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="44" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B22" s="45"/>
       <c r="C22" s="45"/>
@@ -2453,16 +2455,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" style="100" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="100" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A1" s="102" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B1" s="103"/>
       <c r="C1" s="104"/>
@@ -2471,7 +2473,7 @@
       <c r="F1" s="103"/>
       <c r="G1" s="105"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="106"/>
       <c r="B2" s="8"/>
       <c r="C2" s="107"/>
@@ -2480,32 +2482,32 @@
       <c r="F2" s="8"/>
       <c r="G2" s="13"/>
     </row>
-    <row r="3" spans="1:7" s="101" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="101" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="108" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B3" s="109"/>
       <c r="C3" s="123" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D3" s="111" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E3" s="109"/>
       <c r="F3" s="111" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G3" s="112"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="106" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B4" s="8">
         <v>310</v>
       </c>
       <c r="C4" s="124" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D4" s="8">
         <f>B4+50</f>
@@ -2518,40 +2520,40 @@
       </c>
       <c r="G4" s="13"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="106" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B5" s="8">
         <v>350</v>
       </c>
       <c r="C5" s="124" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D5" s="8">
         <f>B5+50</f>
         <v>400</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F5" s="8">
         <f>B5+100</f>
         <v>450</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="106" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B6" s="8">
         <v>340</v>
       </c>
       <c r="C6" s="124" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D6" s="8">
         <f>B6+50</f>
@@ -2564,7 +2566,7 @@
       </c>
       <c r="G6" s="13"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="106" t="s">
         <v>18</v>
       </c>
@@ -2572,7 +2574,7 @@
         <v>290</v>
       </c>
       <c r="C7" s="124" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D7" s="8">
         <f t="shared" ref="D7:D9" si="0">B7+50</f>
@@ -2585,7 +2587,7 @@
       </c>
       <c r="G7" s="13"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="106" t="s">
         <v>21</v>
       </c>
@@ -2593,7 +2595,7 @@
         <v>350</v>
       </c>
       <c r="C8" s="124" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D8" s="8">
         <f t="shared" si="0"/>
@@ -2606,7 +2608,7 @@
       </c>
       <c r="G8" s="13"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="106" t="s">
         <v>16</v>
       </c>
@@ -2614,7 +2616,7 @@
         <v>295</v>
       </c>
       <c r="C9" s="124" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D9" s="8">
         <f t="shared" si="0"/>
@@ -2627,7 +2629,7 @@
       </c>
       <c r="G9" s="13"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="106"/>
       <c r="B10" s="8"/>
       <c r="C10" s="107"/>
@@ -2636,9 +2638,9 @@
       <c r="F10" s="8"/>
       <c r="G10" s="13"/>
     </row>
-    <row r="11" spans="1:7" s="101" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="101" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="108" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B11" s="109"/>
       <c r="C11" s="110"/>
@@ -2647,9 +2649,9 @@
       <c r="F11" s="109"/>
       <c r="G11" s="112"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="106" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="107"/>
@@ -2658,84 +2660,84 @@
       <c r="F12" s="8"/>
       <c r="G12" s="13"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="113" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B13" s="114"/>
       <c r="C13" s="115" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D13" s="116" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E13" s="116"/>
       <c r="F13" s="8"/>
       <c r="G13" s="13"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="106" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B14" s="114">
         <v>200</v>
       </c>
       <c r="C14" s="115" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D14" s="116">
         <f>B14+110</f>
         <v>310</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="13"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="106" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B15" s="114">
         <v>200</v>
       </c>
       <c r="C15" s="115" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D15" s="116">
         <f>B15+150</f>
         <v>350</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G15" s="13"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="106" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B16" s="114">
         <v>200</v>
       </c>
       <c r="C16" s="115" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D16" s="116">
         <f>B16+140</f>
         <v>340</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="13"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="106" t="s">
         <v>18</v>
       </c>
@@ -2746,12 +2748,12 @@
         <v>290</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="106" t="s">
         <v>21</v>
       </c>
@@ -2762,12 +2764,12 @@
         <v>350</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="117" t="s">
         <v>16</v>
       </c>
@@ -2778,12 +2780,12 @@
         <v>295</v>
       </c>
       <c r="E19" s="125" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F19" s="121"/>
       <c r="G19" s="122"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="107"/>
@@ -2792,19 +2794,19 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
         <v>189</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -2829,46 +2831,46 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.88671875" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" style="17" customWidth="1"/>
     <col min="8" max="8" width="7" customWidth="1"/>
-    <col min="9" max="9" width="8.5546875" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="73" customFormat="1" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="73" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="74" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="74" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="C1" s="75" t="s">
         <v>168</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="D1" s="76" t="s">
         <v>169</v>
       </c>
-      <c r="D1" s="76" t="s">
+      <c r="E1" s="89" t="s">
         <v>170</v>
       </c>
-      <c r="E1" s="89" t="s">
+      <c r="F1" s="82" t="s">
         <v>171</v>
       </c>
-      <c r="F1" s="82" t="s">
+      <c r="G1" s="82" t="s">
         <v>172</v>
       </c>
-      <c r="G1" s="82" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="77" t="s">
         <v>1</v>
       </c>
@@ -2891,7 +2893,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>44</v>
       </c>
@@ -2902,20 +2904,20 @@
         <v>1</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E3" s="81">
         <v>20</v>
       </c>
       <c r="F3" s="56" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G3" s="81">
         <v>25</v>
       </c>
       <c r="K3" s="7"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>46</v>
       </c>
@@ -2934,7 +2936,7 @@
       <c r="F4" s="29"/>
       <c r="G4" s="81"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>49</v>
       </c>
@@ -2945,19 +2947,19 @@
         <v>4</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E5" s="81">
         <v>24</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G5" s="81">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>51</v>
       </c>
@@ -2976,7 +2978,7 @@
       <c r="F6" s="56"/>
       <c r="G6" s="81"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>54</v>
       </c>
@@ -2995,7 +2997,7 @@
       <c r="F7" s="56"/>
       <c r="G7" s="81"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>57</v>
       </c>
@@ -3014,7 +3016,7 @@
       <c r="F8" s="84"/>
       <c r="G8" s="81"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>60</v>
       </c>
@@ -3033,7 +3035,7 @@
       <c r="F9" s="84"/>
       <c r="G9" s="81"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>63</v>
       </c>
@@ -3052,7 +3054,7 @@
       <c r="F10" s="85"/>
       <c r="G10" s="81"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>66</v>
       </c>
@@ -3069,13 +3071,13 @@
         <v>27</v>
       </c>
       <c r="F11" s="86" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G11" s="81">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>69</v>
       </c>
@@ -3094,7 +3096,7 @@
       <c r="F12" s="86"/>
       <c r="G12" s="81"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>72</v>
       </c>
@@ -3113,7 +3115,7 @@
       <c r="F13" s="86"/>
       <c r="G13" s="81"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>75</v>
       </c>
@@ -3132,7 +3134,7 @@
       <c r="F14" s="56"/>
       <c r="G14" s="81"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>78</v>
       </c>
@@ -3151,7 +3153,7 @@
       <c r="F15" s="56"/>
       <c r="G15" s="81"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>81</v>
       </c>
@@ -3170,7 +3172,7 @@
       <c r="F16" s="56"/>
       <c r="G16" s="81"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>84</v>
       </c>
@@ -3189,7 +3191,7 @@
       <c r="F17" s="56"/>
       <c r="G17" s="81"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>87</v>
       </c>
@@ -3208,7 +3210,7 @@
       <c r="F18" s="56"/>
       <c r="G18" s="81"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>90</v>
       </c>
@@ -3227,7 +3229,7 @@
       <c r="F19" s="56"/>
       <c r="G19" s="81"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>94</v>
       </c>
@@ -3246,7 +3248,7 @@
       <c r="F20" s="56"/>
       <c r="G20" s="81"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>97</v>
       </c>
@@ -3265,7 +3267,7 @@
       <c r="F21" s="56"/>
       <c r="G21" s="81"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>100</v>
       </c>
@@ -3276,7 +3278,7 @@
         <v>7</v>
       </c>
       <c r="D22" s="126" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E22" s="33">
         <v>25</v>
@@ -3284,7 +3286,7 @@
       <c r="F22" s="87"/>
       <c r="G22" s="33"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>102</v>
       </c>
@@ -3303,28 +3305,28 @@
       <c r="F23" s="88"/>
       <c r="G23" s="35"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>203</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>204</v>
       </c>
       <c r="C24" s="9">
         <v>70</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E24" s="35">
         <v>15</v>
       </c>
       <c r="F24" s="56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G24" s="35"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
         <v>105</v>
       </c>
@@ -3343,7 +3345,7 @@
       <c r="F25" s="56"/>
       <c r="G25" s="81"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
         <v>108</v>
       </c>
@@ -3354,42 +3356,42 @@
         <v>1</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E26" s="81">
         <v>37</v>
       </c>
       <c r="F26" s="56" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G26" s="81"/>
     </row>
-    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>110</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>111</v>
       </c>
       <c r="C27" s="9">
         <v>1</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E27" s="81">
         <v>16</v>
       </c>
       <c r="F27" s="90" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G27" s="91">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -3449,20 +3451,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -3473,7 +3475,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="94" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -3485,12 +3487,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>115</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>116</v>
       </c>
       <c r="C2" s="32">
         <v>2</v>
@@ -3499,12 +3501,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C3" s="32">
         <v>4</v>
@@ -3513,12 +3515,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>118</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>119</v>
       </c>
       <c r="C4" s="32">
         <v>4</v>
@@ -3527,12 +3529,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C5" s="32">
         <v>2</v>
@@ -3541,12 +3543,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>121</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>122</v>
       </c>
       <c r="C6" s="32">
         <v>2</v>
@@ -3555,12 +3557,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C7" s="32">
         <v>11</v>
@@ -3569,12 +3571,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>124</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>125</v>
       </c>
       <c r="C8" s="32">
         <v>15</v>
@@ -3583,12 +3585,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C9" s="32">
         <v>6</v>
@@ -3597,12 +3599,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C10" s="32">
         <v>9</v>
@@ -3611,12 +3613,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C11" s="32">
         <v>5</v>
@@ -3625,12 +3627,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C12" s="32">
         <v>8</v>
@@ -3639,12 +3641,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>174</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>175</v>
       </c>
       <c r="C13" s="32">
         <v>2</v>
@@ -3653,12 +3655,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>130</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>131</v>
       </c>
       <c r="C14" s="32">
         <v>5</v>
@@ -3667,12 +3669,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C15" s="32">
         <v>5</v>
@@ -3681,12 +3683,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C16" s="32">
         <v>13</v>
@@ -3695,12 +3697,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C17" s="32">
         <v>6</v>
@@ -3709,12 +3711,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C18" s="32">
         <v>2</v>
@@ -3723,12 +3725,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C19" s="32">
         <v>1</v>
@@ -3737,12 +3739,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C20" s="32">
         <v>3</v>
@@ -3751,12 +3753,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C21" s="32">
         <v>1</v>
@@ -3765,12 +3767,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C22" s="32">
         <v>1</v>
@@ -3779,12 +3781,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C23" s="32">
         <v>28</v>
@@ -3793,12 +3795,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C24" s="32">
         <v>6</v>
@@ -3807,12 +3809,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>142</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>143</v>
       </c>
       <c r="C25" s="32">
         <v>50</v>
@@ -3821,12 +3823,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C26" s="32">
         <v>63</v>
@@ -3835,15 +3837,15 @@
         <v>70</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>145</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>146</v>
       </c>
       <c r="C27" s="32">
         <v>143</v>
@@ -3852,12 +3854,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C28" s="32">
         <v>200</v>
@@ -3866,12 +3868,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C29" s="32">
         <v>142</v>
@@ -3880,12 +3882,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C30" s="32">
         <v>8</v>
@@ -3894,12 +3896,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C31" s="32">
         <v>1</v>
@@ -3908,12 +3910,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C32" s="32">
         <v>2</v>
@@ -3922,12 +3924,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C33" s="32">
         <v>2</v>
@@ -3936,12 +3938,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C34" s="32">
         <v>18</v>
@@ -3950,12 +3952,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="29" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C35" s="32">
         <v>8</v>
@@ -3964,12 +3966,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C36" s="32">
         <v>4</v>
@@ -3978,9 +3980,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="69" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B37" s="70"/>
       <c r="C37" s="97">
@@ -3992,9 +3994,9 @@
         <v>806</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="5"/>
@@ -4002,9 +4004,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="11"/>
@@ -4028,14 +4030,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>

--- a/Document Library/Bill Of Materials/V-Baby BOM.xlsx
+++ b/Document Library/Bill Of Materials/V-Baby BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Document Library\GitHub\V-Baby CoreXY\Document Library\Bill Of Materials\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/V-Baby CoreXY/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1764" documentId="11_2E462098BBA7632759C38D02185E4833A2B67484" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1CF00118-D684-4048-8660-5E6F97288109}"/>
+  <xr:revisionPtr revIDLastSave="1844" documentId="11_2E462098BBA7632759C38D02185E4833A2B67484" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{557D397D-6E27-4DD9-8C58-9C76D84B3D6B}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="212">
   <si>
     <t>Exstrusions</t>
   </si>
@@ -171,24 +171,6 @@
     <t>Controller Board</t>
   </si>
   <si>
-    <t>SKR 1.3 32Bit Controller</t>
-  </si>
-  <si>
-    <t>LCD Controller</t>
-  </si>
-  <si>
-    <t>Bique TFT24</t>
-  </si>
-  <si>
-    <t>TFT24 KIT</t>
-  </si>
-  <si>
-    <t>XY Stepper Drivers</t>
-  </si>
-  <si>
-    <t>TMC 2209 Stepper Drivers</t>
-  </si>
-  <si>
     <t>Layer Fan</t>
   </si>
   <si>
@@ -648,18 +630,9 @@
     <t>5x6x1 mm Precision Shim</t>
   </si>
   <si>
-    <t>NB! Choose the 30/1 gear</t>
-  </si>
-  <si>
-    <t>clever3d High End Option</t>
-  </si>
-  <si>
     <t>Keenovo Option</t>
   </si>
   <si>
-    <t>NB! 200 pcs option is same price</t>
-  </si>
-  <si>
     <t>(4x20) 6x5x1 Option Shim</t>
   </si>
   <si>
@@ -669,16 +642,34 @@
     <t>TMC2209 UART x4</t>
   </si>
   <si>
-    <t>TMC2208 UART x4</t>
-  </si>
-  <si>
     <t>SKR 1.4/1.4 Turbo</t>
   </si>
   <si>
-    <t>Board Only</t>
-  </si>
-  <si>
     <t>Heatbed Build Plate</t>
+  </si>
+  <si>
+    <t>Column10</t>
+  </si>
+  <si>
+    <t>200 pcs is same price</t>
+  </si>
+  <si>
+    <t>Choose the 30/1 gear</t>
+  </si>
+  <si>
+    <t>MKS DUET WIFI</t>
+  </si>
+  <si>
+    <t>Duet WIFI Clone w/TMC2660</t>
+  </si>
+  <si>
+    <t>LCD TFT24 KIT</t>
+  </si>
+  <si>
+    <t>V-Baby CoreXY Part List</t>
+  </si>
+  <si>
+    <t>Roy Berntsen</t>
   </si>
 </sst>
 </file>
@@ -688,7 +679,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -777,6 +768,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Freestyle Script"/>
+      <family val="4"/>
     </font>
   </fonts>
   <fills count="14">
@@ -1248,7 +1245,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1420,6 +1417,27 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="40% - Accent6" xfId="4" builtinId="51"/>
@@ -1429,7 +1447,10 @@
     <cellStyle name="Neutral" xfId="5" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -1650,17 +1671,73 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>723901</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBC55779-0585-41A3-9122-B8EACACCF42B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="1"/>
+          <a:ext cx="723900" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1070DF90-74AC-4245-AA46-2FAD63F74767}" name="Table1" displayName="Table1" ref="A1:G27" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6">
-  <autoFilter ref="A1:G27" xr:uid="{F74387CC-3A2A-4CC8-A8F2-631B4360BF85}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{AB8C8187-911D-4248-8608-1F70796FF7C8}" name="Column1" dataDxfId="5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1070DF90-74AC-4245-AA46-2FAD63F74767}" name="Table1" displayName="Table1" ref="A1:H30" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7">
+  <autoFilter ref="A1:H30" xr:uid="{F74387CC-3A2A-4CC8-A8F2-631B4360BF85}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{AB8C8187-911D-4248-8608-1F70796FF7C8}" name="Column1" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{129F7AE4-0D03-4AA3-A2BF-5181AA27AF31}" name="Column2"/>
-    <tableColumn id="3" xr3:uid="{34C25536-CCA4-454C-9FCE-0168DD2CC6CC}" name="Column3" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{2ABF818D-0A23-4468-A061-EB5B1AC04237}" name="Column4" dataDxfId="3" dataCellStyle="Hyperlink"/>
-    <tableColumn id="5" xr3:uid="{3DD38B84-FE10-46EA-8CEE-8542F56DCDD7}" name="Column5" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{E4DF9CF3-4A3D-433E-9BD0-F94DDCA192BB}" name="Column8" dataDxfId="1" dataCellStyle="Hyperlink"/>
-    <tableColumn id="7" xr3:uid="{4866A326-BBBA-4B58-BFBD-4D095130E124}" name="Column9" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{34C25536-CCA4-454C-9FCE-0168DD2CC6CC}" name="Column3" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{2ABF818D-0A23-4468-A061-EB5B1AC04237}" name="Column4" dataDxfId="4" dataCellStyle="Hyperlink"/>
+    <tableColumn id="5" xr3:uid="{3DD38B84-FE10-46EA-8CEE-8542F56DCDD7}" name="Column5" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{E4DF9CF3-4A3D-433E-9BD0-F94DDCA192BB}" name="Column8" dataDxfId="2" dataCellStyle="Hyperlink"/>
+    <tableColumn id="7" xr3:uid="{4866A326-BBBA-4B58-BFBD-4D095130E124}" name="Column9" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{BCC2F41B-A8C5-4565-9E8A-D5EEC7EF8FC3}" name="Column10" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2020,11 +2097,11 @@
         <v>4</v>
       </c>
       <c r="F1" s="52" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="G1" s="50"/>
       <c r="H1" s="63" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="I1" s="62"/>
       <c r="J1" s="64" t="s">
@@ -2038,7 +2115,7 @@
       <c r="D2" s="19"/>
       <c r="E2" s="23"/>
       <c r="F2" s="127" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G2" s="47"/>
       <c r="H2" s="57"/>
@@ -2216,7 +2293,7 @@
         <v>27</v>
       </c>
       <c r="I10" s="67" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="J10" s="65">
         <v>27</v>
@@ -2258,7 +2335,7 @@
         <v>31</v>
       </c>
       <c r="I12" s="67" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="J12" s="65">
         <v>15</v>
@@ -2296,7 +2373,7 @@
         <v>35</v>
       </c>
       <c r="I14" s="67" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="J14" s="65">
         <v>12</v>
@@ -2356,8 +2433,8 @@
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="37">
-        <f>'Component Part List'!$E$28</f>
-        <v>365.5</v>
+        <f>'Component Part List'!$E$31</f>
+        <v>366.5</v>
       </c>
       <c r="G19" s="48"/>
       <c r="H19" s="29" t="s">
@@ -2365,8 +2442,8 @@
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="37">
-        <f>'Component Part List'!$E$28</f>
-        <v>365.5</v>
+        <f>'Component Part List'!$E$31</f>
+        <v>366.5</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -2398,7 +2475,7 @@
       <c r="D21" s="43"/>
       <c r="E21" s="43"/>
       <c r="F21" s="46" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="G21" s="48"/>
       <c r="H21" s="29" t="s">
@@ -2412,7 +2489,7 @@
     </row>
     <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="44" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B22" s="45"/>
       <c r="C22" s="45"/>
@@ -2420,7 +2497,7 @@
       <c r="E22" s="45"/>
       <c r="F22" s="41">
         <f>SUM(F18:F21)</f>
-        <v>679.5</v>
+        <v>680.5</v>
       </c>
       <c r="G22" s="48"/>
       <c r="H22" s="59" t="s">
@@ -2429,7 +2506,7 @@
       <c r="I22" s="60"/>
       <c r="J22" s="61">
         <f>SUM(J18:J21)</f>
-        <v>550.1</v>
+        <v>551.1</v>
       </c>
     </row>
   </sheetData>
@@ -2464,7 +2541,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A1" s="102" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B1" s="103"/>
       <c r="C1" s="104"/>
@@ -2484,30 +2561,30 @@
     </row>
     <row r="3" spans="1:7" s="101" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="108" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B3" s="109"/>
       <c r="C3" s="123" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D3" s="111" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E3" s="109"/>
       <c r="F3" s="111" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="G3" s="112"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="106" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B4" s="8">
         <v>310</v>
       </c>
       <c r="C4" s="124" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D4" s="8">
         <f>B4+50</f>
@@ -2522,38 +2599,38 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="106" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B5" s="8">
         <v>350</v>
       </c>
       <c r="C5" s="124" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D5" s="8">
         <f>B5+50</f>
         <v>400</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F5" s="8">
         <f>B5+100</f>
         <v>450</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="106" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B6" s="8">
         <v>340</v>
       </c>
       <c r="C6" s="124" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D6" s="8">
         <f>B6+50</f>
@@ -2574,7 +2651,7 @@
         <v>290</v>
       </c>
       <c r="C7" s="124" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D7" s="8">
         <f t="shared" ref="D7:D9" si="0">B7+50</f>
@@ -2595,7 +2672,7 @@
         <v>350</v>
       </c>
       <c r="C8" s="124" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D8" s="8">
         <f t="shared" si="0"/>
@@ -2616,7 +2693,7 @@
         <v>295</v>
       </c>
       <c r="C9" s="124" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D9" s="8">
         <f t="shared" si="0"/>
@@ -2640,7 +2717,7 @@
     </row>
     <row r="11" spans="1:7" s="101" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="108" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B11" s="109"/>
       <c r="C11" s="110"/>
@@ -2651,7 +2728,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="106" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="107"/>
@@ -2662,14 +2739,14 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="113" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B13" s="114"/>
       <c r="C13" s="115" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D13" s="116" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E13" s="116"/>
       <c r="F13" s="8"/>
@@ -2677,62 +2754,62 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="106" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B14" s="114">
         <v>200</v>
       </c>
       <c r="C14" s="115" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D14" s="116">
         <f>B14+110</f>
         <v>310</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="13"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="106" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B15" s="114">
         <v>200</v>
       </c>
       <c r="C15" s="115" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D15" s="116">
         <f>B15+150</f>
         <v>350</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G15" s="13"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="106" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B16" s="114">
         <v>200</v>
       </c>
       <c r="C16" s="115" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D16" s="116">
         <f>B16+140</f>
         <v>340</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="13"/>
@@ -2748,7 +2825,7 @@
         <v>290</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="13"/>
@@ -2764,7 +2841,7 @@
         <v>350</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="13"/>
@@ -2780,7 +2857,7 @@
         <v>295</v>
       </c>
       <c r="E19" s="125" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F19" s="121"/>
       <c r="G19" s="122"/>
@@ -2796,17 +2873,17 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -2825,7 +2902,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2838,609 +2915,659 @@
     <col min="3" max="3" width="8.42578125" customWidth="1"/>
     <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" style="17" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.28515625" style="17" customWidth="1"/>
-    <col min="8" max="8" width="7" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="23.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="73" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="73" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="74" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" s="74" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" s="75" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" s="76" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1" s="89" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1" s="82" t="s">
+        <v>165</v>
+      </c>
+      <c r="G1" s="82" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="74" t="s">
-        <v>167</v>
-      </c>
-      <c r="C1" s="75" t="s">
-        <v>168</v>
-      </c>
-      <c r="D1" s="76" t="s">
-        <v>169</v>
-      </c>
-      <c r="E1" s="89" t="s">
-        <v>170</v>
-      </c>
-      <c r="F1" s="82" t="s">
-        <v>171</v>
-      </c>
-      <c r="G1" s="82" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="H1" s="82" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="129"/>
+      <c r="B2" s="129" t="s">
+        <v>210</v>
+      </c>
+      <c r="C2" s="130"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="134"/>
+    </row>
+    <row r="3" spans="1:9" s="73" customFormat="1" ht="27.75" x14ac:dyDescent="0.5">
+      <c r="A3" s="129"/>
+      <c r="B3" s="135" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" s="130"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="134"/>
+    </row>
+    <row r="4" spans="1:9" s="73" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="129"/>
+      <c r="B4" s="129"/>
+      <c r="C4" s="130"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="133"/>
+      <c r="G4" s="133"/>
+      <c r="H4" s="133"/>
+      <c r="I4" s="134"/>
+    </row>
+    <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="B5" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="C5" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="80" t="s">
+      <c r="D5" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="93" t="s">
+      <c r="E5" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="83" t="s">
+      <c r="F5" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="92" t="s">
+      <c r="G5" s="92" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="H5" s="79" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="29"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="56" t="s">
+        <v>202</v>
+      </c>
+      <c r="G6" s="81">
+        <v>25</v>
+      </c>
+      <c r="H6" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="9">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="E3" s="81">
-        <v>20</v>
-      </c>
-      <c r="F3" s="56" t="s">
-        <v>212</v>
-      </c>
-      <c r="G3" s="81">
-        <v>25</v>
-      </c>
-      <c r="K3" s="7"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="9">
-        <v>1</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="81">
-        <v>15</v>
-      </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="81"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="9">
-        <v>4</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="E5" s="81">
-        <v>24</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="G5" s="81">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="9">
-        <v>2</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="81">
-        <v>10</v>
-      </c>
-      <c r="F6" s="56"/>
-      <c r="G6" s="81"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
-        <v>54</v>
-      </c>
       <c r="B7" s="8" t="s">
-        <v>55</v>
+        <v>208</v>
       </c>
       <c r="C7" s="9">
         <v>1</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>56</v>
+      <c r="D7" s="56" t="s">
+        <v>207</v>
       </c>
       <c r="E7" s="81">
+        <v>60</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="G7" s="81">
+        <v>15</v>
+      </c>
+      <c r="H7" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="29"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="G8" s="81">
+        <v>24</v>
+      </c>
+      <c r="H8" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="9">
         <v>2</v>
       </c>
-      <c r="F7" s="56"/>
-      <c r="G7" s="81"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="9">
-        <v>2</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="81">
-        <v>3</v>
-      </c>
-      <c r="F8" s="84"/>
-      <c r="G8" s="81"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="9">
-        <v>3</v>
-      </c>
       <c r="D9" s="3" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="E9" s="81">
-        <v>4</v>
-      </c>
-      <c r="F9" s="84"/>
+        <v>10</v>
+      </c>
+      <c r="F9" s="56"/>
       <c r="G9" s="81"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H9"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>64</v>
+        <v>48</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="C10" s="9">
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="E10" s="81">
-        <v>14</v>
-      </c>
-      <c r="F10" s="85"/>
+        <v>2</v>
+      </c>
+      <c r="F10" s="56"/>
       <c r="G10" s="81"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H10"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="C11" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="E11" s="81">
-        <v>27</v>
-      </c>
-      <c r="F11" s="86" t="s">
-        <v>206</v>
-      </c>
-      <c r="G11" s="81">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="F11" s="84"/>
+      <c r="G11" s="81"/>
+      <c r="H11"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>70</v>
+        <v>54</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>55</v>
       </c>
       <c r="C12" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="E12" s="81">
-        <v>3.5</v>
-      </c>
-      <c r="F12" s="86"/>
+        <v>4</v>
+      </c>
+      <c r="F12" s="84"/>
       <c r="G12" s="81"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H12"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>73</v>
+        <v>57</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>58</v>
       </c>
       <c r="C13" s="9">
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="E13" s="81">
-        <v>2</v>
-      </c>
-      <c r="F13" s="86"/>
+        <v>14</v>
+      </c>
+      <c r="F13" s="85"/>
       <c r="G13" s="81"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H13"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C14" s="9">
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="E14" s="81">
-        <v>17</v>
-      </c>
-      <c r="F14" s="56"/>
-      <c r="G14" s="81"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="F14" s="86" t="s">
+        <v>198</v>
+      </c>
+      <c r="G14" s="81">
+        <v>40</v>
+      </c>
+      <c r="H14"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C15" s="9">
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="E15" s="81">
-        <v>20</v>
-      </c>
-      <c r="F15" s="56"/>
+        <v>3.5</v>
+      </c>
+      <c r="F15" s="86"/>
       <c r="G15" s="81"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H15"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="C16" s="9">
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="E16" s="81">
-        <v>2.5</v>
-      </c>
-      <c r="F16" s="56"/>
+        <v>2</v>
+      </c>
+      <c r="F16" s="86"/>
       <c r="G16" s="81"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C17" s="9">
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="E17" s="81">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F17" s="56"/>
       <c r="G17" s="81"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="C18" s="9">
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="E18" s="81">
-        <v>8.5</v>
+        <v>20</v>
       </c>
       <c r="F18" s="56"/>
       <c r="G18" s="81"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>92</v>
+        <v>76</v>
+      </c>
+      <c r="C19" s="9">
+        <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="E19" s="81">
-        <v>14</v>
+        <v>2.5</v>
       </c>
       <c r="F19" s="56"/>
       <c r="G19" s="81"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C20" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="E20" s="81">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F20" s="56"/>
       <c r="G20" s="81"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C21" s="9">
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="E21" s="81">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="F21" s="56"/>
       <c r="G21" s="81"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="81">
+        <v>14</v>
+      </c>
+      <c r="F22" s="56"/>
+      <c r="G22" s="81"/>
+      <c r="H22"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="9">
+        <v>2</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" s="81">
+        <v>8</v>
+      </c>
+      <c r="F23" s="56"/>
+      <c r="G23" s="81"/>
+      <c r="H23"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="9">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" s="81">
+        <v>6</v>
+      </c>
+      <c r="F24" s="56"/>
+      <c r="G24" s="81"/>
+      <c r="H24"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="9">
+        <v>7</v>
+      </c>
+      <c r="D25" s="126" t="s">
+        <v>194</v>
+      </c>
+      <c r="E25" s="33">
+        <v>25</v>
+      </c>
+      <c r="F25" s="87"/>
+      <c r="G25" s="33"/>
+      <c r="H25"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="9">
+        <v>6</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="E26" s="35">
+        <v>22</v>
+      </c>
+      <c r="F26" s="88"/>
+      <c r="G26" s="35"/>
+      <c r="H26"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C27" s="9">
+        <v>70</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E27" s="35">
+        <v>15</v>
+      </c>
+      <c r="F27" s="56" t="s">
+        <v>205</v>
+      </c>
+      <c r="G27" s="35"/>
+      <c r="H27"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="C28" s="9">
+        <v>3</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C22" s="9">
-        <v>7</v>
-      </c>
-      <c r="D22" s="126" t="s">
-        <v>200</v>
-      </c>
-      <c r="E22" s="33">
-        <v>25</v>
-      </c>
-      <c r="F22" s="87"/>
-      <c r="G22" s="33"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="29" t="s">
+      <c r="E28" s="81">
+        <v>30</v>
+      </c>
+      <c r="F28" s="56"/>
+      <c r="G28" s="81"/>
+      <c r="H28"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B29" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C23" s="9">
-        <v>6</v>
-      </c>
-      <c r="D23" s="34" t="s">
+      <c r="C29" s="9">
+        <v>1</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E29" s="81">
+        <v>37</v>
+      </c>
+      <c r="F29" s="56" t="s">
+        <v>206</v>
+      </c>
+      <c r="G29" s="81"/>
+      <c r="H29"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="E23" s="35">
-        <v>22</v>
-      </c>
-      <c r="F23" s="88"/>
-      <c r="G23" s="35"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="29" t="s">
-        <v>202</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="C24" s="9">
-        <v>70</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="E24" s="35">
-        <v>15</v>
-      </c>
-      <c r="F24" s="56" t="s">
-        <v>207</v>
-      </c>
-      <c r="G24" s="35"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="29" t="s">
+      <c r="C30" s="9">
+        <v>1</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="E30" s="81">
+        <v>16</v>
+      </c>
+      <c r="F30" s="90"/>
+      <c r="G30" s="91"/>
+      <c r="H30"/>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="C25" s="9">
-        <v>3</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E25" s="81">
-        <v>30</v>
-      </c>
-      <c r="F25" s="56"/>
-      <c r="G25" s="81"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C26" s="9">
-        <v>1</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="E26" s="81">
-        <v>37</v>
-      </c>
-      <c r="F26" s="56" t="s">
-        <v>204</v>
-      </c>
-      <c r="G26" s="81"/>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="29" t="s">
-        <v>214</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C27" s="9">
-        <v>1</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E27" s="81">
-        <v>16</v>
-      </c>
-      <c r="F27" s="90" t="s">
-        <v>205</v>
-      </c>
-      <c r="G27" s="91">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="72">
-        <f>SUM(E2:E27)</f>
-        <v>365.5</v>
-      </c>
-      <c r="F28" s="71"/>
-      <c r="G28" s="71"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="72">
+        <f>SUM(E2:E30)</f>
+        <v>366.5</v>
+      </c>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D27" r:id="rId1" display="5mm 220x220" xr:uid="{A5B2720F-8C3E-478A-BE06-E55BE0B574B4}"/>
-    <hyperlink ref="D11" r:id="rId2" xr:uid="{3773511A-F3AF-4897-B5BB-16FB39A0B508}"/>
-    <hyperlink ref="D8" r:id="rId3" xr:uid="{AFC120EB-E75F-4BB8-BC6D-4AA9408DD14D}"/>
-    <hyperlink ref="D17" r:id="rId4" display="Link" xr:uid="{401DDADA-DB79-4416-96CF-3B1D6329769B}"/>
-    <hyperlink ref="D6" r:id="rId5" display="24V Dual Ball" xr:uid="{98BCAD8D-1DD9-49E5-B60D-FB8A39108E71}"/>
-    <hyperlink ref="D7" r:id="rId6" xr:uid="{968A8156-5055-4A5F-97A2-06DF8EA0EB3D}"/>
-    <hyperlink ref="D19" r:id="rId7" display="5 Meter Gates LL" xr:uid="{9F0DE403-B0EC-4933-928F-2806FBCF603A}"/>
-    <hyperlink ref="D18" r:id="rId8" display="Link" xr:uid="{45531F32-6B6C-44D5-9B2A-FB1F259BC9F9}"/>
-    <hyperlink ref="F11" r:id="rId9" display="Keenovo" xr:uid="{C2A02BBB-B317-4856-A562-A30BE2CA0A6C}"/>
-    <hyperlink ref="D21" r:id="rId10" display="8 Bore" xr:uid="{4C50ADBB-FC9C-42E4-8421-5A0C1600DD46}"/>
-    <hyperlink ref="D20" r:id="rId11" display="5 BORE" xr:uid="{43C03DCA-7867-4C9F-B1D0-8588267A1C82}"/>
-    <hyperlink ref="D12" r:id="rId12" xr:uid="{A901DFE1-486C-4AC2-8672-C18618945E04}"/>
-    <hyperlink ref="D13" r:id="rId13" xr:uid="{BA467D2F-0948-4A82-B49C-B8DCBA7936A0}"/>
-    <hyperlink ref="D25" r:id="rId14" display="Link" xr:uid="{49178A12-AF45-4969-AC8E-49BA3EBADDA9}"/>
-    <hyperlink ref="D3" r:id="rId15" display="Board" xr:uid="{EC545E70-D1FC-4E65-A1EE-4669C3053F17}"/>
-    <hyperlink ref="D5" r:id="rId16" display="TMC2209x4" xr:uid="{66F0B115-3A28-4ECD-9CAD-3D7BD72D9C3F}"/>
-    <hyperlink ref="D15" r:id="rId17" xr:uid="{9689F2B7-24E0-4CC5-A39F-53D7E0370FC8}"/>
-    <hyperlink ref="D14" r:id="rId18" xr:uid="{537A3F3C-7C92-42A9-B8B2-F37129F7787F}"/>
-    <hyperlink ref="D4" r:id="rId19" display="Mini 12864" xr:uid="{56BAC9A8-6A57-4E69-944B-AE64A70C2A1E}"/>
-    <hyperlink ref="D16" r:id="rId20" xr:uid="{82909F8B-3A14-4248-8CB2-384756C6E8BE}"/>
-    <hyperlink ref="D26" r:id="rId21" xr:uid="{0D6A5659-9181-49D0-A7D8-101F63076C8A}"/>
-    <hyperlink ref="F27" r:id="rId22" display="CLEVER3D" xr:uid="{7B1D2EFC-9E0A-4BD0-B66C-2C091262564C}"/>
-    <hyperlink ref="D9" r:id="rId23" xr:uid="{4AEFCE09-28B7-4C24-82DE-ADAB9CAA43E1}"/>
-    <hyperlink ref="D10" r:id="rId24" xr:uid="{0ED2334F-09CF-437E-82F8-E81D86F288DC}"/>
-    <hyperlink ref="D22" r:id="rId25" xr:uid="{87CB364F-700B-4E81-BC67-3C859C1B7934}"/>
-    <hyperlink ref="D23" r:id="rId26" display="5X High End" xr:uid="{D4CB98E8-7A2B-495D-9E37-8208D21A6270}"/>
-    <hyperlink ref="D24" r:id="rId27" display="6x5x1 Option Shim" xr:uid="{A333F16C-7F8A-421A-B64A-B04B701B747A}"/>
-    <hyperlink ref="F24" r:id="rId28" xr:uid="{D98A7A59-4D4C-4589-8C00-1DCF83FFF3E6}"/>
-    <hyperlink ref="F5" r:id="rId29" display="TMC2209x4" xr:uid="{5A565AD2-589F-454F-8FE2-3DC1AA6ECAC6}"/>
-    <hyperlink ref="F3" r:id="rId30" xr:uid="{5B14FBB6-ADAD-4948-95D7-FBD8C9BC5BB5}"/>
+    <hyperlink ref="D30" r:id="rId1" display="5mm 220x220" xr:uid="{A5B2720F-8C3E-478A-BE06-E55BE0B574B4}"/>
+    <hyperlink ref="D14" r:id="rId2" xr:uid="{3773511A-F3AF-4897-B5BB-16FB39A0B508}"/>
+    <hyperlink ref="D11" r:id="rId3" xr:uid="{AFC120EB-E75F-4BB8-BC6D-4AA9408DD14D}"/>
+    <hyperlink ref="D20" r:id="rId4" display="Link" xr:uid="{401DDADA-DB79-4416-96CF-3B1D6329769B}"/>
+    <hyperlink ref="D9" r:id="rId5" display="24V Dual Ball" xr:uid="{98BCAD8D-1DD9-49E5-B60D-FB8A39108E71}"/>
+    <hyperlink ref="D10" r:id="rId6" xr:uid="{968A8156-5055-4A5F-97A2-06DF8EA0EB3D}"/>
+    <hyperlink ref="D22" r:id="rId7" display="5 Meter Gates LL" xr:uid="{9F0DE403-B0EC-4933-928F-2806FBCF603A}"/>
+    <hyperlink ref="D21" r:id="rId8" display="Link" xr:uid="{45531F32-6B6C-44D5-9B2A-FB1F259BC9F9}"/>
+    <hyperlink ref="F14" r:id="rId9" display="Keenovo" xr:uid="{C2A02BBB-B317-4856-A562-A30BE2CA0A6C}"/>
+    <hyperlink ref="D24" r:id="rId10" display="8 Bore" xr:uid="{4C50ADBB-FC9C-42E4-8421-5A0C1600DD46}"/>
+    <hyperlink ref="D23" r:id="rId11" display="5 BORE" xr:uid="{43C03DCA-7867-4C9F-B1D0-8588267A1C82}"/>
+    <hyperlink ref="D15" r:id="rId12" xr:uid="{A901DFE1-486C-4AC2-8672-C18618945E04}"/>
+    <hyperlink ref="D16" r:id="rId13" xr:uid="{BA467D2F-0948-4A82-B49C-B8DCBA7936A0}"/>
+    <hyperlink ref="D28" r:id="rId14" display="Link" xr:uid="{49178A12-AF45-4969-AC8E-49BA3EBADDA9}"/>
+    <hyperlink ref="D18" r:id="rId15" xr:uid="{9689F2B7-24E0-4CC5-A39F-53D7E0370FC8}"/>
+    <hyperlink ref="D17" r:id="rId16" xr:uid="{537A3F3C-7C92-42A9-B8B2-F37129F7787F}"/>
+    <hyperlink ref="D19" r:id="rId17" xr:uid="{82909F8B-3A14-4248-8CB2-384756C6E8BE}"/>
+    <hyperlink ref="D29" r:id="rId18" xr:uid="{0D6A5659-9181-49D0-A7D8-101F63076C8A}"/>
+    <hyperlink ref="D12" r:id="rId19" xr:uid="{4AEFCE09-28B7-4C24-82DE-ADAB9CAA43E1}"/>
+    <hyperlink ref="D13" r:id="rId20" xr:uid="{0ED2334F-09CF-437E-82F8-E81D86F288DC}"/>
+    <hyperlink ref="D25" r:id="rId21" xr:uid="{87CB364F-700B-4E81-BC67-3C859C1B7934}"/>
+    <hyperlink ref="D26" r:id="rId22" display="5X High End" xr:uid="{D4CB98E8-7A2B-495D-9E37-8208D21A6270}"/>
+    <hyperlink ref="D27" r:id="rId23" display="6x5x1 Option Shim" xr:uid="{A333F16C-7F8A-421A-B64A-B04B701B747A}"/>
+    <hyperlink ref="F27" r:id="rId24" display="NB! 200 pcs option is same price" xr:uid="{D98A7A59-4D4C-4589-8C00-1DCF83FFF3E6}"/>
+    <hyperlink ref="F6" r:id="rId25" xr:uid="{5B14FBB6-ADAD-4948-95D7-FBD8C9BC5BB5}"/>
+    <hyperlink ref="D7" r:id="rId26" xr:uid="{F52EB8DF-670A-4145-90A1-8A8DF8B4B7B2}"/>
+    <hyperlink ref="F8" r:id="rId27" display="TMC2209x4" xr:uid="{94AC3372-BF50-48D8-845E-F71522DA0595}"/>
+    <hyperlink ref="F7" r:id="rId28" display="Mini 12864" xr:uid="{321ACA62-20AB-45F9-A643-EE2EB664C961}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId31"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId29"/>
+  <drawing r:id="rId30"/>
   <tableParts count="1">
-    <tablePart r:id="rId32"/>
+    <tablePart r:id="rId31"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3475,7 +3602,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="94" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -3489,10 +3616,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C2" s="32">
         <v>2</v>
@@ -3503,10 +3630,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C3" s="32">
         <v>4</v>
@@ -3517,10 +3644,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C4" s="32">
         <v>4</v>
@@ -3531,10 +3658,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C5" s="32">
         <v>2</v>
@@ -3545,10 +3672,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C6" s="32">
         <v>2</v>
@@ -3559,10 +3686,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C7" s="32">
         <v>11</v>
@@ -3573,10 +3700,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C8" s="32">
         <v>15</v>
@@ -3587,10 +3714,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C9" s="32">
         <v>6</v>
@@ -3601,10 +3728,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C10" s="32">
         <v>9</v>
@@ -3615,10 +3742,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C11" s="32">
         <v>5</v>
@@ -3629,10 +3756,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C12" s="32">
         <v>8</v>
@@ -3643,10 +3770,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C13" s="32">
         <v>2</v>
@@ -3657,10 +3784,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C14" s="32">
         <v>5</v>
@@ -3671,10 +3798,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C15" s="32">
         <v>5</v>
@@ -3685,10 +3812,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C16" s="32">
         <v>13</v>
@@ -3699,10 +3826,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C17" s="32">
         <v>6</v>
@@ -3713,10 +3840,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C18" s="32">
         <v>2</v>
@@ -3727,10 +3854,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C19" s="32">
         <v>1</v>
@@ -3741,10 +3868,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C20" s="32">
         <v>3</v>
@@ -3755,10 +3882,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C21" s="32">
         <v>1</v>
@@ -3769,10 +3896,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C22" s="32">
         <v>1</v>
@@ -3783,10 +3910,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C23" s="32">
         <v>28</v>
@@ -3797,10 +3924,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C24" s="32">
         <v>6</v>
@@ -3811,10 +3938,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C25" s="32">
         <v>50</v>
@@ -3825,10 +3952,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C26" s="32">
         <v>63</v>
@@ -3837,15 +3964,15 @@
         <v>70</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C27" s="32">
         <v>143</v>
@@ -3856,10 +3983,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C28" s="32">
         <v>200</v>
@@ -3870,10 +3997,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C29" s="32">
         <v>142</v>
@@ -3884,10 +4011,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C30" s="32">
         <v>8</v>
@@ -3898,10 +4025,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C31" s="32">
         <v>1</v>
@@ -3912,10 +4039,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C32" s="32">
         <v>2</v>
@@ -3926,10 +4053,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="29" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C33" s="32">
         <v>2</v>
@@ -3940,10 +4067,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="29" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C34" s="32">
         <v>18</v>
@@ -3954,10 +4081,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="29" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C35" s="32">
         <v>8</v>
@@ -3968,10 +4095,10 @@
     </row>
     <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="29" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C36" s="32">
         <v>4</v>
@@ -3982,7 +4109,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="69" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B37" s="70"/>
       <c r="C37" s="97">
@@ -3996,7 +4123,7 @@
     </row>
     <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="29" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="5"/>
@@ -4006,7 +4133,7 @@
     </row>
     <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="11"/>

--- a/Document Library/Bill Of Materials/V-Baby BOM.xlsx
+++ b/Document Library/Bill Of Materials/V-Baby BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/V-Baby CoreXY/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1844" documentId="11_2E462098BBA7632759C38D02185E4833A2B67484" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{557D397D-6E27-4DD9-8C58-9C76D84B3D6B}"/>
+  <xr:revisionPtr revIDLastSave="1845" documentId="11_2E462098BBA7632759C38D02185E4833A2B67484" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F567E3C2-95BC-4C0F-88D2-8BB3095E1B70}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1411,12 +1411,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -1437,6 +1431,12 @@
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2114,7 +2114,7 @@
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
       <c r="E2" s="23"/>
-      <c r="F2" s="127" t="s">
+      <c r="F2" s="134" t="s">
         <v>153</v>
       </c>
       <c r="G2" s="47"/>
@@ -2139,7 +2139,7 @@
         <f>D3*310</f>
         <v>1240</v>
       </c>
-      <c r="F3" s="128"/>
+      <c r="F3" s="135"/>
       <c r="G3" s="47"/>
       <c r="H3" s="56"/>
       <c r="I3" s="18"/>
@@ -2162,7 +2162,7 @@
         <f>D4*350</f>
         <v>1400</v>
       </c>
-      <c r="F4" s="128"/>
+      <c r="F4" s="135"/>
       <c r="G4" s="47"/>
       <c r="H4" s="57"/>
       <c r="I4" s="49"/>
@@ -2185,7 +2185,7 @@
         <f>D5*340</f>
         <v>1700</v>
       </c>
-      <c r="F5" s="128"/>
+      <c r="F5" s="135"/>
       <c r="G5" s="47"/>
       <c r="H5" s="56"/>
       <c r="I5" s="18"/>
@@ -2208,7 +2208,7 @@
         <f>D6*295</f>
         <v>295</v>
       </c>
-      <c r="F6" s="128"/>
+      <c r="F6" s="135"/>
       <c r="G6" s="47"/>
       <c r="H6" s="57"/>
       <c r="I6" s="49"/>
@@ -2220,7 +2220,7 @@
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="13"/>
-      <c r="F7" s="128"/>
+      <c r="F7" s="135"/>
       <c r="G7" s="47"/>
       <c r="H7" s="29"/>
       <c r="I7" s="8"/>
@@ -2243,7 +2243,7 @@
         <f>D8*290</f>
         <v>290</v>
       </c>
-      <c r="F8" s="128"/>
+      <c r="F8" s="135"/>
       <c r="G8" s="47"/>
       <c r="H8" s="57"/>
       <c r="I8" s="49"/>
@@ -2266,7 +2266,7 @@
         <f>D9*350</f>
         <v>700</v>
       </c>
-      <c r="F9" s="128"/>
+      <c r="F9" s="135"/>
       <c r="G9" s="47"/>
       <c r="H9" s="56"/>
       <c r="I9" s="18"/>
@@ -2287,7 +2287,7 @@
         <f>SUM(E3:E9)</f>
         <v>5625</v>
       </c>
-      <c r="F10" s="128"/>
+      <c r="F10" s="135"/>
       <c r="G10" s="47"/>
       <c r="H10" s="58" t="s">
         <v>27</v>
@@ -2305,7 +2305,7 @@
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="13"/>
-      <c r="F11" s="128"/>
+      <c r="F11" s="135"/>
       <c r="G11" s="47"/>
       <c r="H11" s="29" t="s">
         <v>28</v>
@@ -2329,7 +2329,7 @@
         <v>18</v>
       </c>
       <c r="E12" s="24"/>
-      <c r="F12" s="128"/>
+      <c r="F12" s="135"/>
       <c r="G12" s="47"/>
       <c r="H12" s="58" t="s">
         <v>31</v>
@@ -2347,7 +2347,7 @@
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="13"/>
-      <c r="F13" s="128"/>
+      <c r="F13" s="135"/>
       <c r="G13" s="47"/>
       <c r="H13" s="29"/>
       <c r="I13" s="68"/>
@@ -2367,7 +2367,7 @@
         <v>30</v>
       </c>
       <c r="E14" s="24"/>
-      <c r="F14" s="128"/>
+      <c r="F14" s="135"/>
       <c r="G14" s="47"/>
       <c r="H14" s="58" t="s">
         <v>35</v>
@@ -2905,7 +2905,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2948,41 +2948,41 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="73" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="129"/>
-      <c r="B2" s="129" t="s">
+      <c r="A2" s="127"/>
+      <c r="B2" s="127" t="s">
         <v>210</v>
       </c>
-      <c r="C2" s="130"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="134"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="132"/>
     </row>
     <row r="3" spans="1:9" s="73" customFormat="1" ht="27.75" x14ac:dyDescent="0.5">
-      <c r="A3" s="129"/>
-      <c r="B3" s="135" t="s">
+      <c r="A3" s="127"/>
+      <c r="B3" s="133" t="s">
         <v>211</v>
       </c>
-      <c r="C3" s="130"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="133"/>
-      <c r="I3" s="134"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="132"/>
     </row>
     <row r="4" spans="1:9" s="73" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="129"/>
-      <c r="B4" s="129"/>
-      <c r="C4" s="130"/>
-      <c r="D4" s="131"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="133"/>
-      <c r="G4" s="133"/>
-      <c r="H4" s="133"/>
-      <c r="I4" s="134"/>
+      <c r="A4" s="127"/>
+      <c r="B4" s="127"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="131"/>
+      <c r="G4" s="131"/>
+      <c r="H4" s="131"/>
+      <c r="I4" s="132"/>
     </row>
     <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="77" t="s">

--- a/Document Library/Bill Of Materials/V-Baby BOM.xlsx
+++ b/Document Library/Bill Of Materials/V-Baby BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/V-Baby CoreXY/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1845" documentId="11_2E462098BBA7632759C38D02185E4833A2B67484" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F567E3C2-95BC-4C0F-88D2-8BB3095E1B70}"/>
+  <xr:revisionPtr revIDLastSave="1859" documentId="11_2E462098BBA7632759C38D02185E4833A2B67484" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6D88AEF0-4A98-4709-B1DF-70317EBF20DE}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="213">
   <si>
     <t>Exstrusions</t>
   </si>
@@ -348,12 +348,6 @@
     <t>Includes Stepper motor</t>
   </si>
   <si>
-    <t>Aluminum Sheet 4/5mm</t>
-  </si>
-  <si>
-    <t>5mm 220mmx220mm</t>
-  </si>
-  <si>
     <t>Component Total Price</t>
   </si>
   <si>
@@ -670,6 +664,15 @@
   </si>
   <si>
     <t>Roy Berntsen</t>
+  </si>
+  <si>
+    <t>Milled Cast Aluminum</t>
+  </si>
+  <si>
+    <t>6mm 210x210 mm</t>
+  </si>
+  <si>
+    <t>Rolled Aluminum 5mm</t>
   </si>
 </sst>
 </file>
@@ -2097,11 +2100,11 @@
         <v>4</v>
       </c>
       <c r="F1" s="52" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G1" s="50"/>
       <c r="H1" s="63" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I1" s="62"/>
       <c r="J1" s="64" t="s">
@@ -2115,7 +2118,7 @@
       <c r="D2" s="19"/>
       <c r="E2" s="23"/>
       <c r="F2" s="134" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G2" s="47"/>
       <c r="H2" s="57"/>
@@ -2293,7 +2296,7 @@
         <v>27</v>
       </c>
       <c r="I10" s="67" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J10" s="65">
         <v>27</v>
@@ -2335,7 +2338,7 @@
         <v>31</v>
       </c>
       <c r="I12" s="67" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J12" s="65">
         <v>15</v>
@@ -2373,7 +2376,7 @@
         <v>35</v>
       </c>
       <c r="I14" s="67" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J14" s="65">
         <v>12</v>
@@ -2434,7 +2437,7 @@
       <c r="E19" s="8"/>
       <c r="F19" s="37">
         <f>'Component Part List'!$E$31</f>
-        <v>366.5</v>
+        <v>380.5</v>
       </c>
       <c r="G19" s="48"/>
       <c r="H19" s="29" t="s">
@@ -2443,7 +2446,7 @@
       <c r="I19" s="8"/>
       <c r="J19" s="37">
         <f>'Component Part List'!$E$31</f>
-        <v>366.5</v>
+        <v>380.5</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -2475,7 +2478,7 @@
       <c r="D21" s="43"/>
       <c r="E21" s="43"/>
       <c r="F21" s="46" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G21" s="48"/>
       <c r="H21" s="29" t="s">
@@ -2489,7 +2492,7 @@
     </row>
     <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="44" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B22" s="45"/>
       <c r="C22" s="45"/>
@@ -2497,7 +2500,7 @@
       <c r="E22" s="45"/>
       <c r="F22" s="41">
         <f>SUM(F18:F21)</f>
-        <v>680.5</v>
+        <v>694.5</v>
       </c>
       <c r="G22" s="48"/>
       <c r="H22" s="59" t="s">
@@ -2506,7 +2509,7 @@
       <c r="I22" s="60"/>
       <c r="J22" s="61">
         <f>SUM(J18:J21)</f>
-        <v>551.1</v>
+        <v>565.1</v>
       </c>
     </row>
   </sheetData>
@@ -2541,7 +2544,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A1" s="102" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B1" s="103"/>
       <c r="C1" s="104"/>
@@ -2561,30 +2564,30 @@
     </row>
     <row r="3" spans="1:7" s="101" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="108" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B3" s="109"/>
       <c r="C3" s="123" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D3" s="111" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E3" s="109"/>
       <c r="F3" s="111" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G3" s="112"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="106" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B4" s="8">
         <v>310</v>
       </c>
       <c r="C4" s="124" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D4" s="8">
         <f>B4+50</f>
@@ -2599,38 +2602,38 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="106" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B5" s="8">
         <v>350</v>
       </c>
       <c r="C5" s="124" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D5" s="8">
         <f>B5+50</f>
         <v>400</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F5" s="8">
         <f>B5+100</f>
         <v>450</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="106" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B6" s="8">
         <v>340</v>
       </c>
       <c r="C6" s="124" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D6" s="8">
         <f>B6+50</f>
@@ -2651,7 +2654,7 @@
         <v>290</v>
       </c>
       <c r="C7" s="124" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D7" s="8">
         <f t="shared" ref="D7:D9" si="0">B7+50</f>
@@ -2672,7 +2675,7 @@
         <v>350</v>
       </c>
       <c r="C8" s="124" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D8" s="8">
         <f t="shared" si="0"/>
@@ -2693,7 +2696,7 @@
         <v>295</v>
       </c>
       <c r="C9" s="124" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D9" s="8">
         <f t="shared" si="0"/>
@@ -2717,7 +2720,7 @@
     </row>
     <row r="11" spans="1:7" s="101" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="108" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B11" s="109"/>
       <c r="C11" s="110"/>
@@ -2728,7 +2731,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="106" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="107"/>
@@ -2739,14 +2742,14 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="113" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B13" s="114"/>
       <c r="C13" s="115" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D13" s="116" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E13" s="116"/>
       <c r="F13" s="8"/>
@@ -2754,62 +2757,62 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="106" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B14" s="114">
         <v>200</v>
       </c>
       <c r="C14" s="115" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D14" s="116">
         <f>B14+110</f>
         <v>310</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="13"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="106" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B15" s="114">
         <v>200</v>
       </c>
       <c r="C15" s="115" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D15" s="116">
         <f>B15+150</f>
         <v>350</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G15" s="13"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="106" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B16" s="114">
         <v>200</v>
       </c>
       <c r="C16" s="115" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D16" s="116">
         <f>B16+140</f>
         <v>340</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="13"/>
@@ -2825,7 +2828,7 @@
         <v>290</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="13"/>
@@ -2841,7 +2844,7 @@
         <v>350</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="13"/>
@@ -2857,7 +2860,7 @@
         <v>295</v>
       </c>
       <c r="E19" s="125" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F19" s="121"/>
       <c r="G19" s="122"/>
@@ -2873,17 +2876,17 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -2905,7 +2908,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2915,7 +2918,7 @@
     <col min="3" max="3" width="8.42578125" customWidth="1"/>
     <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" style="17" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.28515625" style="17" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="17" customWidth="1"/>
     <col min="9" max="9" width="23.85546875" bestFit="1" customWidth="1"/>
@@ -2923,34 +2926,34 @@
   <sheetData>
     <row r="1" spans="1:9" s="73" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="74" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="74" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" s="75" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="D1" s="76" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="E1" s="89" t="s">
         <v>162</v>
       </c>
-      <c r="D1" s="76" t="s">
+      <c r="F1" s="82" t="s">
         <v>163</v>
       </c>
-      <c r="E1" s="89" t="s">
+      <c r="G1" s="82" t="s">
         <v>164</v>
       </c>
-      <c r="F1" s="82" t="s">
-        <v>165</v>
-      </c>
-      <c r="G1" s="82" t="s">
-        <v>166</v>
-      </c>
       <c r="H1" s="82" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="127"/>
       <c r="B2" s="127" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C2" s="128"/>
       <c r="D2" s="129"/>
@@ -2963,7 +2966,7 @@
     <row r="3" spans="1:9" s="73" customFormat="1" ht="27.75" x14ac:dyDescent="0.5">
       <c r="A3" s="127"/>
       <c r="B3" s="133" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C3" s="128"/>
       <c r="D3" s="129"/>
@@ -3017,7 +3020,7 @@
       <c r="D6" s="6"/>
       <c r="E6" s="81"/>
       <c r="F6" s="56" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G6" s="81">
         <v>25</v>
@@ -3031,19 +3034,19 @@
         <v>44</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C7" s="9">
         <v>1</v>
       </c>
       <c r="D7" s="56" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E7" s="81">
         <v>60</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G7" s="81">
         <v>15</v>
@@ -3059,7 +3062,7 @@
       <c r="D8" s="6"/>
       <c r="E8" s="81"/>
       <c r="F8" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G8" s="81">
         <v>24</v>
@@ -3185,7 +3188,7 @@
         <v>27</v>
       </c>
       <c r="F14" s="86" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G14" s="81">
         <v>40</v>
@@ -3403,7 +3406,7 @@
         <v>7</v>
       </c>
       <c r="D25" s="126" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E25" s="33">
         <v>25</v>
@@ -3434,22 +3437,22 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C27" s="9">
         <v>70</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E27" s="35">
         <v>15</v>
       </c>
       <c r="F27" s="56" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G27" s="35"/>
       <c r="H27"/>
@@ -3485,47 +3488,53 @@
         <v>1</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E29" s="81">
         <v>37</v>
       </c>
       <c r="F29" s="56" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G29" s="81"/>
       <c r="H29"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="29" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>104</v>
+        <v>210</v>
       </c>
       <c r="C30" s="9">
         <v>1</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>105</v>
+        <v>211</v>
       </c>
       <c r="E30" s="81">
+        <v>30</v>
+      </c>
+      <c r="F30" s="90" t="s">
+        <v>212</v>
+      </c>
+      <c r="G30" s="91">
         <v>16</v>
       </c>
-      <c r="F30" s="90"/>
-      <c r="G30" s="91"/>
-      <c r="H30"/>
+      <c r="H30">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="72">
         <f>SUM(E2:E30)</f>
-        <v>366.5</v>
+        <v>380.5</v>
       </c>
       <c r="F31" s="71"/>
       <c r="G31" s="71"/>
@@ -3534,40 +3543,41 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D30" r:id="rId1" display="5mm 220x220" xr:uid="{A5B2720F-8C3E-478A-BE06-E55BE0B574B4}"/>
-    <hyperlink ref="D14" r:id="rId2" xr:uid="{3773511A-F3AF-4897-B5BB-16FB39A0B508}"/>
-    <hyperlink ref="D11" r:id="rId3" xr:uid="{AFC120EB-E75F-4BB8-BC6D-4AA9408DD14D}"/>
-    <hyperlink ref="D20" r:id="rId4" display="Link" xr:uid="{401DDADA-DB79-4416-96CF-3B1D6329769B}"/>
-    <hyperlink ref="D9" r:id="rId5" display="24V Dual Ball" xr:uid="{98BCAD8D-1DD9-49E5-B60D-FB8A39108E71}"/>
-    <hyperlink ref="D10" r:id="rId6" xr:uid="{968A8156-5055-4A5F-97A2-06DF8EA0EB3D}"/>
-    <hyperlink ref="D22" r:id="rId7" display="5 Meter Gates LL" xr:uid="{9F0DE403-B0EC-4933-928F-2806FBCF603A}"/>
-    <hyperlink ref="D21" r:id="rId8" display="Link" xr:uid="{45531F32-6B6C-44D5-9B2A-FB1F259BC9F9}"/>
-    <hyperlink ref="F14" r:id="rId9" display="Keenovo" xr:uid="{C2A02BBB-B317-4856-A562-A30BE2CA0A6C}"/>
-    <hyperlink ref="D24" r:id="rId10" display="8 Bore" xr:uid="{4C50ADBB-FC9C-42E4-8421-5A0C1600DD46}"/>
-    <hyperlink ref="D23" r:id="rId11" display="5 BORE" xr:uid="{43C03DCA-7867-4C9F-B1D0-8588267A1C82}"/>
-    <hyperlink ref="D15" r:id="rId12" xr:uid="{A901DFE1-486C-4AC2-8672-C18618945E04}"/>
-    <hyperlink ref="D16" r:id="rId13" xr:uid="{BA467D2F-0948-4A82-B49C-B8DCBA7936A0}"/>
-    <hyperlink ref="D28" r:id="rId14" display="Link" xr:uid="{49178A12-AF45-4969-AC8E-49BA3EBADDA9}"/>
-    <hyperlink ref="D18" r:id="rId15" xr:uid="{9689F2B7-24E0-4CC5-A39F-53D7E0370FC8}"/>
-    <hyperlink ref="D17" r:id="rId16" xr:uid="{537A3F3C-7C92-42A9-B8B2-F37129F7787F}"/>
-    <hyperlink ref="D19" r:id="rId17" xr:uid="{82909F8B-3A14-4248-8CB2-384756C6E8BE}"/>
-    <hyperlink ref="D29" r:id="rId18" xr:uid="{0D6A5659-9181-49D0-A7D8-101F63076C8A}"/>
-    <hyperlink ref="D12" r:id="rId19" xr:uid="{4AEFCE09-28B7-4C24-82DE-ADAB9CAA43E1}"/>
-    <hyperlink ref="D13" r:id="rId20" xr:uid="{0ED2334F-09CF-437E-82F8-E81D86F288DC}"/>
-    <hyperlink ref="D25" r:id="rId21" xr:uid="{87CB364F-700B-4E81-BC67-3C859C1B7934}"/>
-    <hyperlink ref="D26" r:id="rId22" display="5X High End" xr:uid="{D4CB98E8-7A2B-495D-9E37-8208D21A6270}"/>
-    <hyperlink ref="D27" r:id="rId23" display="6x5x1 Option Shim" xr:uid="{A333F16C-7F8A-421A-B64A-B04B701B747A}"/>
-    <hyperlink ref="F27" r:id="rId24" display="NB! 200 pcs option is same price" xr:uid="{D98A7A59-4D4C-4589-8C00-1DCF83FFF3E6}"/>
-    <hyperlink ref="F6" r:id="rId25" xr:uid="{5B14FBB6-ADAD-4948-95D7-FBD8C9BC5BB5}"/>
-    <hyperlink ref="D7" r:id="rId26" xr:uid="{F52EB8DF-670A-4145-90A1-8A8DF8B4B7B2}"/>
-    <hyperlink ref="F8" r:id="rId27" display="TMC2209x4" xr:uid="{94AC3372-BF50-48D8-845E-F71522DA0595}"/>
-    <hyperlink ref="F7" r:id="rId28" display="Mini 12864" xr:uid="{321ACA62-20AB-45F9-A643-EE2EB664C961}"/>
+    <hyperlink ref="D14" r:id="rId1" xr:uid="{3773511A-F3AF-4897-B5BB-16FB39A0B508}"/>
+    <hyperlink ref="D11" r:id="rId2" xr:uid="{AFC120EB-E75F-4BB8-BC6D-4AA9408DD14D}"/>
+    <hyperlink ref="D20" r:id="rId3" display="Link" xr:uid="{401DDADA-DB79-4416-96CF-3B1D6329769B}"/>
+    <hyperlink ref="D9" r:id="rId4" display="24V Dual Ball" xr:uid="{98BCAD8D-1DD9-49E5-B60D-FB8A39108E71}"/>
+    <hyperlink ref="D10" r:id="rId5" xr:uid="{968A8156-5055-4A5F-97A2-06DF8EA0EB3D}"/>
+    <hyperlink ref="D22" r:id="rId6" display="5 Meter Gates LL" xr:uid="{9F0DE403-B0EC-4933-928F-2806FBCF603A}"/>
+    <hyperlink ref="D21" r:id="rId7" display="Link" xr:uid="{45531F32-6B6C-44D5-9B2A-FB1F259BC9F9}"/>
+    <hyperlink ref="F14" r:id="rId8" display="Keenovo" xr:uid="{C2A02BBB-B317-4856-A562-A30BE2CA0A6C}"/>
+    <hyperlink ref="D24" r:id="rId9" display="8 Bore" xr:uid="{4C50ADBB-FC9C-42E4-8421-5A0C1600DD46}"/>
+    <hyperlink ref="D23" r:id="rId10" display="5 BORE" xr:uid="{43C03DCA-7867-4C9F-B1D0-8588267A1C82}"/>
+    <hyperlink ref="D15" r:id="rId11" xr:uid="{A901DFE1-486C-4AC2-8672-C18618945E04}"/>
+    <hyperlink ref="D16" r:id="rId12" xr:uid="{BA467D2F-0948-4A82-B49C-B8DCBA7936A0}"/>
+    <hyperlink ref="D28" r:id="rId13" display="Link" xr:uid="{49178A12-AF45-4969-AC8E-49BA3EBADDA9}"/>
+    <hyperlink ref="D18" r:id="rId14" xr:uid="{9689F2B7-24E0-4CC5-A39F-53D7E0370FC8}"/>
+    <hyperlink ref="D17" r:id="rId15" xr:uid="{537A3F3C-7C92-42A9-B8B2-F37129F7787F}"/>
+    <hyperlink ref="D19" r:id="rId16" xr:uid="{82909F8B-3A14-4248-8CB2-384756C6E8BE}"/>
+    <hyperlink ref="D29" r:id="rId17" xr:uid="{0D6A5659-9181-49D0-A7D8-101F63076C8A}"/>
+    <hyperlink ref="D12" r:id="rId18" xr:uid="{4AEFCE09-28B7-4C24-82DE-ADAB9CAA43E1}"/>
+    <hyperlink ref="D13" r:id="rId19" xr:uid="{0ED2334F-09CF-437E-82F8-E81D86F288DC}"/>
+    <hyperlink ref="D25" r:id="rId20" xr:uid="{87CB364F-700B-4E81-BC67-3C859C1B7934}"/>
+    <hyperlink ref="D26" r:id="rId21" display="5X High End" xr:uid="{D4CB98E8-7A2B-495D-9E37-8208D21A6270}"/>
+    <hyperlink ref="D27" r:id="rId22" display="6x5x1 Option Shim" xr:uid="{A333F16C-7F8A-421A-B64A-B04B701B747A}"/>
+    <hyperlink ref="F27" r:id="rId23" display="NB! 200 pcs option is same price" xr:uid="{D98A7A59-4D4C-4589-8C00-1DCF83FFF3E6}"/>
+    <hyperlink ref="F6" r:id="rId24" xr:uid="{5B14FBB6-ADAD-4948-95D7-FBD8C9BC5BB5}"/>
+    <hyperlink ref="D7" r:id="rId25" xr:uid="{F52EB8DF-670A-4145-90A1-8A8DF8B4B7B2}"/>
+    <hyperlink ref="F8" r:id="rId26" display="TMC2209x4" xr:uid="{94AC3372-BF50-48D8-845E-F71522DA0595}"/>
+    <hyperlink ref="F7" r:id="rId27" display="Mini 12864" xr:uid="{321ACA62-20AB-45F9-A643-EE2EB664C961}"/>
+    <hyperlink ref="D30" r:id="rId28" xr:uid="{A5B2720F-8C3E-478A-BE06-E55BE0B574B4}"/>
+    <hyperlink ref="F30" r:id="rId29" xr:uid="{46CB3770-62A9-4C77-9E92-FD0ACDA22A9F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId29"/>
-  <drawing r:id="rId30"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId30"/>
+  <drawing r:id="rId31"/>
   <tableParts count="1">
-    <tablePart r:id="rId31"/>
+    <tablePart r:id="rId32"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3602,7 +3612,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="94" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -3616,10 +3626,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C2" s="32">
         <v>2</v>
@@ -3630,10 +3640,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C3" s="32">
         <v>4</v>
@@ -3644,10 +3654,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C4" s="32">
         <v>4</v>
@@ -3658,10 +3668,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C5" s="32">
         <v>2</v>
@@ -3672,10 +3682,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C6" s="32">
         <v>2</v>
@@ -3686,10 +3696,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C7" s="32">
         <v>11</v>
@@ -3700,10 +3710,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C8" s="32">
         <v>15</v>
@@ -3714,10 +3724,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C9" s="32">
         <v>6</v>
@@ -3728,10 +3738,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C10" s="32">
         <v>9</v>
@@ -3742,10 +3752,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C11" s="32">
         <v>5</v>
@@ -3756,10 +3766,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C12" s="32">
         <v>8</v>
@@ -3770,10 +3780,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C13" s="32">
         <v>2</v>
@@ -3784,10 +3794,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C14" s="32">
         <v>5</v>
@@ -3798,10 +3808,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C15" s="32">
         <v>5</v>
@@ -3812,10 +3822,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C16" s="32">
         <v>13</v>
@@ -3826,10 +3836,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C17" s="32">
         <v>6</v>
@@ -3840,10 +3850,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C18" s="32">
         <v>2</v>
@@ -3854,10 +3864,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C19" s="32">
         <v>1</v>
@@ -3868,10 +3878,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C20" s="32">
         <v>3</v>
@@ -3882,10 +3892,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C21" s="32">
         <v>1</v>
@@ -3896,10 +3906,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C22" s="32">
         <v>1</v>
@@ -3910,10 +3920,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C23" s="32">
         <v>28</v>
@@ -3924,10 +3934,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C24" s="32">
         <v>6</v>
@@ -3938,10 +3948,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C25" s="32">
         <v>50</v>
@@ -3952,10 +3962,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C26" s="32">
         <v>63</v>
@@ -3964,15 +3974,15 @@
         <v>70</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C27" s="32">
         <v>143</v>
@@ -3983,10 +3993,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C28" s="32">
         <v>200</v>
@@ -3997,10 +4007,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C29" s="32">
         <v>142</v>
@@ -4011,10 +4021,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C30" s="32">
         <v>8</v>
@@ -4025,10 +4035,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C31" s="32">
         <v>1</v>
@@ -4039,10 +4049,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C32" s="32">
         <v>2</v>
@@ -4053,10 +4063,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="29" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C33" s="32">
         <v>2</v>
@@ -4067,10 +4077,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="29" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C34" s="32">
         <v>18</v>
@@ -4081,10 +4091,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="29" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C35" s="32">
         <v>8</v>
@@ -4095,10 +4105,10 @@
     </row>
     <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="29" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C36" s="32">
         <v>4</v>
@@ -4109,7 +4119,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="69" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B37" s="70"/>
       <c r="C37" s="97">
@@ -4123,7 +4133,7 @@
     </row>
     <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="29" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="5"/>
@@ -4133,7 +4143,7 @@
     </row>
     <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="11"/>

--- a/Document Library/Bill Of Materials/V-Baby BOM.xlsx
+++ b/Document Library/Bill Of Materials/V-Baby BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/V-Baby CoreXY/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1859" documentId="11_2E462098BBA7632759C38D02185E4833A2B67484" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6D88AEF0-4A98-4709-B1DF-70317EBF20DE}"/>
+  <xr:revisionPtr revIDLastSave="1873" documentId="11_2E462098BBA7632759C38D02185E4833A2B67484" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C707CD43-2107-4F8B-B502-0A06C2C4FE84}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="212">
   <si>
     <t>Exstrusions</t>
   </si>
@@ -633,12 +633,6 @@
     <t>NB! See Component List</t>
   </si>
   <si>
-    <t>TMC2209 UART x4</t>
-  </si>
-  <si>
-    <t>SKR 1.4/1.4 Turbo</t>
-  </si>
-  <si>
     <t>Heatbed Build Plate</t>
   </si>
   <si>
@@ -651,9 +645,6 @@
     <t>Choose the 30/1 gear</t>
   </si>
   <si>
-    <t>MKS DUET WIFI</t>
-  </si>
-  <si>
     <t>Duet WIFI Clone w/TMC2660</t>
   </si>
   <si>
@@ -673,6 +664,12 @@
   </si>
   <si>
     <t>Rolled Aluminum 5mm</t>
+  </si>
+  <si>
+    <t>SKR 1.3 + TMC2209x5</t>
+  </si>
+  <si>
+    <t>BTT DUET WIFI Clone</t>
   </si>
 </sst>
 </file>
@@ -2947,13 +2944,13 @@
         <v>164</v>
       </c>
       <c r="H1" s="82" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="127"/>
       <c r="B2" s="127" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C2" s="128"/>
       <c r="D2" s="129"/>
@@ -2966,7 +2963,7 @@
     <row r="3" spans="1:9" s="73" customFormat="1" ht="27.75" x14ac:dyDescent="0.5">
       <c r="A3" s="127"/>
       <c r="B3" s="133" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C3" s="128"/>
       <c r="D3" s="129"/>
@@ -3020,10 +3017,10 @@
       <c r="D6" s="6"/>
       <c r="E6" s="81"/>
       <c r="F6" s="56" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="G6" s="81">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="H6" s="9">
         <v>1</v>
@@ -3034,19 +3031,19 @@
         <v>44</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C7" s="9">
         <v>1</v>
       </c>
       <c r="D7" s="56" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="E7" s="81">
         <v>60</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G7" s="81">
         <v>15</v>
@@ -3061,15 +3058,9 @@
       <c r="C8" s="9"/>
       <c r="D8" s="6"/>
       <c r="E8" s="81"/>
-      <c r="F8" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="G8" s="81">
-        <v>24</v>
-      </c>
-      <c r="H8" s="9">
-        <v>4</v>
-      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
@@ -3193,7 +3184,9 @@
       <c r="G14" s="81">
         <v>40</v>
       </c>
-      <c r="H14"/>
+      <c r="H14" s="100">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
@@ -3452,7 +3445,7 @@
         <v>15</v>
       </c>
       <c r="F27" s="56" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G27" s="35"/>
       <c r="H27"/>
@@ -3494,34 +3487,36 @@
         <v>37</v>
       </c>
       <c r="F29" s="56" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G29" s="81"/>
-      <c r="H29"/>
+      <c r="H29" s="100">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="29" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C30" s="9">
         <v>1</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E30" s="81">
         <v>30</v>
       </c>
       <c r="F30" s="90" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G30" s="91">
         <v>16</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="100">
         <v>1</v>
       </c>
     </row>
@@ -3533,7 +3528,7 @@
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="72">
-        <f>SUM(E2:E30)</f>
+        <f>SUM(E6:E30)</f>
         <v>380.5</v>
       </c>
       <c r="F31" s="71"/>
@@ -3567,17 +3562,16 @@
     <hyperlink ref="D27" r:id="rId22" display="6x5x1 Option Shim" xr:uid="{A333F16C-7F8A-421A-B64A-B04B701B747A}"/>
     <hyperlink ref="F27" r:id="rId23" display="NB! 200 pcs option is same price" xr:uid="{D98A7A59-4D4C-4589-8C00-1DCF83FFF3E6}"/>
     <hyperlink ref="F6" r:id="rId24" xr:uid="{5B14FBB6-ADAD-4948-95D7-FBD8C9BC5BB5}"/>
-    <hyperlink ref="D7" r:id="rId25" xr:uid="{F52EB8DF-670A-4145-90A1-8A8DF8B4B7B2}"/>
-    <hyperlink ref="F8" r:id="rId26" display="TMC2209x4" xr:uid="{94AC3372-BF50-48D8-845E-F71522DA0595}"/>
-    <hyperlink ref="F7" r:id="rId27" display="Mini 12864" xr:uid="{321ACA62-20AB-45F9-A643-EE2EB664C961}"/>
-    <hyperlink ref="D30" r:id="rId28" xr:uid="{A5B2720F-8C3E-478A-BE06-E55BE0B574B4}"/>
-    <hyperlink ref="F30" r:id="rId29" xr:uid="{46CB3770-62A9-4C77-9E92-FD0ACDA22A9F}"/>
+    <hyperlink ref="D7" r:id="rId25" display="MKS DUET WIFI" xr:uid="{F52EB8DF-670A-4145-90A1-8A8DF8B4B7B2}"/>
+    <hyperlink ref="F7" r:id="rId26" display="Mini 12864" xr:uid="{321ACA62-20AB-45F9-A643-EE2EB664C961}"/>
+    <hyperlink ref="D30" r:id="rId27" xr:uid="{A5B2720F-8C3E-478A-BE06-E55BE0B574B4}"/>
+    <hyperlink ref="F30" r:id="rId28" xr:uid="{46CB3770-62A9-4C77-9E92-FD0ACDA22A9F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId30"/>
-  <drawing r:id="rId31"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId29"/>
+  <drawing r:id="rId30"/>
   <tableParts count="1">
-    <tablePart r:id="rId32"/>
+    <tablePart r:id="rId31"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Document Library/Bill Of Materials/V-Baby BOM.xlsx
+++ b/Document Library/Bill Of Materials/V-Baby BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/V-Baby CoreXY/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1873" documentId="11_2E462098BBA7632759C38D02185E4833A2B67484" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C707CD43-2107-4F8B-B502-0A06C2C4FE84}"/>
+  <xr:revisionPtr revIDLastSave="1894" documentId="11_2E462098BBA7632759C38D02185E4833A2B67484" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{432D8196-1397-41F7-9E75-FB4967A0B700}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OpenBuild Part List" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="215">
   <si>
     <t>Exstrusions</t>
   </si>
@@ -162,9 +162,6 @@
     <t>Fasteners Part Price</t>
   </si>
   <si>
-    <t>Option</t>
-  </si>
-  <si>
     <t>Price2</t>
   </si>
   <si>
@@ -642,9 +639,6 @@
     <t>200 pcs is same price</t>
   </si>
   <si>
-    <t>Choose the 30/1 gear</t>
-  </si>
-  <si>
     <t>Duet WIFI Clone w/TMC2660</t>
   </si>
   <si>
@@ -670,6 +664,21 @@
   </si>
   <si>
     <t>BTT DUET WIFI Clone</t>
+  </si>
+  <si>
+    <t>AliExpress Link</t>
+  </si>
+  <si>
+    <t>Optional Component</t>
+  </si>
+  <si>
+    <t>20mmx1m  Cable Loom</t>
+  </si>
+  <si>
+    <t>Sleeve for cables to hotend</t>
+  </si>
+  <si>
+    <t>Cable Loom Tube</t>
   </si>
 </sst>
 </file>
@@ -1245,7 +1254,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1438,6 +1447,7 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="40% - Accent6" xfId="4" builtinId="51"/>
@@ -2097,11 +2107,11 @@
         <v>4</v>
       </c>
       <c r="F1" s="52" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G1" s="50"/>
       <c r="H1" s="63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I1" s="62"/>
       <c r="J1" s="64" t="s">
@@ -2115,7 +2125,7 @@
       <c r="D2" s="19"/>
       <c r="E2" s="23"/>
       <c r="F2" s="134" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G2" s="47"/>
       <c r="H2" s="57"/>
@@ -2293,7 +2303,7 @@
         <v>27</v>
       </c>
       <c r="I10" s="67" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J10" s="65">
         <v>27</v>
@@ -2335,7 +2345,7 @@
         <v>31</v>
       </c>
       <c r="I12" s="67" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J12" s="65">
         <v>15</v>
@@ -2373,7 +2383,7 @@
         <v>35</v>
       </c>
       <c r="I14" s="67" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J14" s="65">
         <v>12</v>
@@ -2434,7 +2444,7 @@
       <c r="E19" s="8"/>
       <c r="F19" s="37">
         <f>'Component Part List'!$E$31</f>
-        <v>380.5</v>
+        <v>383</v>
       </c>
       <c r="G19" s="48"/>
       <c r="H19" s="29" t="s">
@@ -2443,7 +2453,7 @@
       <c r="I19" s="8"/>
       <c r="J19" s="37">
         <f>'Component Part List'!$E$31</f>
-        <v>380.5</v>
+        <v>383</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -2475,7 +2485,7 @@
       <c r="D21" s="43"/>
       <c r="E21" s="43"/>
       <c r="F21" s="46" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G21" s="48"/>
       <c r="H21" s="29" t="s">
@@ -2489,7 +2499,7 @@
     </row>
     <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="44" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B22" s="45"/>
       <c r="C22" s="45"/>
@@ -2497,7 +2507,7 @@
       <c r="E22" s="45"/>
       <c r="F22" s="41">
         <f>SUM(F18:F21)</f>
-        <v>694.5</v>
+        <v>697</v>
       </c>
       <c r="G22" s="48"/>
       <c r="H22" s="59" t="s">
@@ -2506,7 +2516,7 @@
       <c r="I22" s="60"/>
       <c r="J22" s="61">
         <f>SUM(J18:J21)</f>
-        <v>565.1</v>
+        <v>567.6</v>
       </c>
     </row>
   </sheetData>
@@ -2541,7 +2551,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A1" s="102" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B1" s="103"/>
       <c r="C1" s="104"/>
@@ -2561,30 +2571,30 @@
     </row>
     <row r="3" spans="1:7" s="101" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="108" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B3" s="109"/>
       <c r="C3" s="123" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D3" s="111" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E3" s="109"/>
       <c r="F3" s="111" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G3" s="112"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="106" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B4" s="8">
         <v>310</v>
       </c>
       <c r="C4" s="124" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D4" s="8">
         <f>B4+50</f>
@@ -2599,38 +2609,38 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="106" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B5" s="8">
         <v>350</v>
       </c>
       <c r="C5" s="124" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D5" s="8">
         <f>B5+50</f>
         <v>400</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F5" s="8">
         <f>B5+100</f>
         <v>450</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="106" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B6" s="8">
         <v>340</v>
       </c>
       <c r="C6" s="124" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D6" s="8">
         <f>B6+50</f>
@@ -2651,7 +2661,7 @@
         <v>290</v>
       </c>
       <c r="C7" s="124" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D7" s="8">
         <f t="shared" ref="D7:D9" si="0">B7+50</f>
@@ -2672,7 +2682,7 @@
         <v>350</v>
       </c>
       <c r="C8" s="124" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D8" s="8">
         <f t="shared" si="0"/>
@@ -2693,7 +2703,7 @@
         <v>295</v>
       </c>
       <c r="C9" s="124" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D9" s="8">
         <f t="shared" si="0"/>
@@ -2717,7 +2727,7 @@
     </row>
     <row r="11" spans="1:7" s="101" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="108" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B11" s="109"/>
       <c r="C11" s="110"/>
@@ -2728,7 +2738,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="106" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="107"/>
@@ -2739,14 +2749,14 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="113" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B13" s="114"/>
       <c r="C13" s="115" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D13" s="116" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E13" s="116"/>
       <c r="F13" s="8"/>
@@ -2754,62 +2764,62 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="106" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B14" s="114">
         <v>200</v>
       </c>
       <c r="C14" s="115" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D14" s="116">
         <f>B14+110</f>
         <v>310</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="13"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="106" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B15" s="114">
         <v>200</v>
       </c>
       <c r="C15" s="115" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D15" s="116">
         <f>B15+150</f>
         <v>350</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G15" s="13"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="106" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B16" s="114">
         <v>200</v>
       </c>
       <c r="C16" s="115" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D16" s="116">
         <f>B16+140</f>
         <v>340</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="13"/>
@@ -2825,7 +2835,7 @@
         <v>290</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="13"/>
@@ -2841,7 +2851,7 @@
         <v>350</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="13"/>
@@ -2857,7 +2867,7 @@
         <v>295</v>
       </c>
       <c r="E19" s="125" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F19" s="121"/>
       <c r="G19" s="122"/>
@@ -2873,17 +2883,17 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -2923,34 +2933,34 @@
   <sheetData>
     <row r="1" spans="1:9" s="73" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="74" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="C1" s="75" t="s">
         <v>159</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="D1" s="76" t="s">
         <v>160</v>
       </c>
-      <c r="D1" s="76" t="s">
+      <c r="E1" s="89" t="s">
         <v>161</v>
       </c>
-      <c r="E1" s="89" t="s">
+      <c r="F1" s="82" t="s">
         <v>162</v>
       </c>
-      <c r="F1" s="82" t="s">
+      <c r="G1" s="82" t="s">
         <v>163</v>
       </c>
-      <c r="G1" s="82" t="s">
-        <v>164</v>
-      </c>
       <c r="H1" s="82" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="127"/>
       <c r="B2" s="127" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C2" s="128"/>
       <c r="D2" s="129"/>
@@ -2963,7 +2973,7 @@
     <row r="3" spans="1:9" s="73" customFormat="1" ht="27.75" x14ac:dyDescent="0.5">
       <c r="A3" s="127"/>
       <c r="B3" s="133" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C3" s="128"/>
       <c r="D3" s="129"/>
@@ -2995,16 +3005,16 @@
         <v>3</v>
       </c>
       <c r="D5" s="80" t="s">
-        <v>5</v>
+        <v>210</v>
       </c>
       <c r="E5" s="93" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="83" t="s">
+        <v>211</v>
+      </c>
+      <c r="G5" s="92" t="s">
         <v>42</v>
-      </c>
-      <c r="G5" s="92" t="s">
-        <v>43</v>
       </c>
       <c r="H5" s="79" t="s">
         <v>3</v>
@@ -3017,7 +3027,7 @@
       <c r="D6" s="6"/>
       <c r="E6" s="81"/>
       <c r="F6" s="56" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G6" s="81">
         <v>45</v>
@@ -3028,22 +3038,22 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C7" s="9">
         <v>1</v>
       </c>
       <c r="D7" s="56" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E7" s="81">
         <v>60</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G7" s="81">
         <v>15</v>
@@ -3053,30 +3063,40 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="6"/>
+      <c r="A8" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="9">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="81">
+        <v>10</v>
+      </c>
+      <c r="F8" s="56"/>
       <c r="G8" s="81"/>
-      <c r="H8" s="9"/>
+      <c r="H8"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C9" s="9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="81">
         <v>2</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="81">
-        <v>10</v>
       </c>
       <c r="F9" s="56"/>
       <c r="G9" s="81"/>
@@ -3084,39 +3104,39 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C10" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E10" s="81">
-        <v>2</v>
-      </c>
-      <c r="F10" s="56"/>
+        <v>3</v>
+      </c>
+      <c r="F10" s="84"/>
       <c r="G10" s="81"/>
       <c r="H10"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>54</v>
       </c>
       <c r="C11" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E11" s="81">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F11" s="84"/>
       <c r="G11" s="81"/>
@@ -3124,85 +3144,85 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C12" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E12" s="81">
-        <v>4</v>
-      </c>
-      <c r="F12" s="84"/>
+        <v>14</v>
+      </c>
+      <c r="F12" s="85"/>
       <c r="G12" s="81"/>
       <c r="H12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="C13" s="9">
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E13" s="81">
-        <v>14</v>
-      </c>
-      <c r="F13" s="85"/>
-      <c r="G13" s="81"/>
-      <c r="H13"/>
+        <v>27</v>
+      </c>
+      <c r="F13" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="G13" s="81">
+        <v>40</v>
+      </c>
+      <c r="H13" s="100">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C14" s="9">
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E14" s="81">
-        <v>27</v>
-      </c>
-      <c r="F14" s="86" t="s">
-        <v>196</v>
-      </c>
-      <c r="G14" s="81">
-        <v>40</v>
-      </c>
-      <c r="H14" s="100">
-        <v>1</v>
-      </c>
+        <v>3.5</v>
+      </c>
+      <c r="F14" s="86"/>
+      <c r="G14" s="81"/>
+      <c r="H14"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C15" s="9">
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E15" s="81">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="F15" s="86"/>
       <c r="G15" s="81"/>
@@ -3210,39 +3230,39 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C16" s="9">
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E16" s="81">
-        <v>2</v>
-      </c>
-      <c r="F16" s="86"/>
+        <v>17</v>
+      </c>
+      <c r="F16" s="56"/>
       <c r="G16" s="81"/>
       <c r="H16"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C17" s="9">
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E17" s="81">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F17" s="56"/>
       <c r="G17" s="81"/>
@@ -3250,19 +3270,19 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C18" s="9">
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E18" s="81">
-        <v>20</v>
+        <v>2.5</v>
       </c>
       <c r="F18" s="56"/>
       <c r="G18" s="81"/>
@@ -3270,19 +3290,19 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C19" s="9">
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E19" s="81">
-        <v>2.5</v>
+        <v>20</v>
       </c>
       <c r="F19" s="56"/>
       <c r="G19" s="81"/>
@@ -3290,19 +3310,19 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C20" s="9">
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E20" s="81">
-        <v>20</v>
+        <v>8.5</v>
       </c>
       <c r="F20" s="56"/>
       <c r="G20" s="81"/>
@@ -3310,19 +3330,19 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" s="9">
-        <v>1</v>
+        <v>84</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>85</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E21" s="81">
-        <v>8.5</v>
+        <v>14</v>
       </c>
       <c r="F21" s="56"/>
       <c r="G21" s="81"/>
@@ -3330,19 +3350,19 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>86</v>
+        <v>88</v>
+      </c>
+      <c r="C22" s="9">
+        <v>2</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E22" s="81">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F22" s="56"/>
       <c r="G22" s="81"/>
@@ -3350,19 +3370,19 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C23" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E23" s="81">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F23" s="56"/>
       <c r="G23" s="81"/>
@@ -3370,166 +3390,164 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C24" s="9">
-        <v>1</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E24" s="81">
-        <v>6</v>
-      </c>
-      <c r="F24" s="56"/>
-      <c r="G24" s="81"/>
+        <v>7</v>
+      </c>
+      <c r="D24" s="126" t="s">
+        <v>191</v>
+      </c>
+      <c r="E24" s="33">
+        <v>25</v>
+      </c>
+      <c r="F24" s="87"/>
+      <c r="G24" s="33"/>
       <c r="H24"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C25" s="9">
-        <v>7</v>
-      </c>
-      <c r="D25" s="126" t="s">
-        <v>192</v>
-      </c>
-      <c r="E25" s="33">
-        <v>25</v>
-      </c>
-      <c r="F25" s="87"/>
-      <c r="G25" s="33"/>
+        <v>6</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" s="35">
+        <v>22</v>
+      </c>
+      <c r="F25" s="88"/>
+      <c r="G25" s="35"/>
       <c r="H25"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
-        <v>96</v>
+        <v>193</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>97</v>
+        <v>194</v>
       </c>
       <c r="C26" s="9">
-        <v>6</v>
-      </c>
-      <c r="D26" s="34" t="s">
-        <v>98</v>
+        <v>70</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>196</v>
       </c>
       <c r="E26" s="35">
-        <v>22</v>
-      </c>
-      <c r="F26" s="88"/>
+        <v>15</v>
+      </c>
+      <c r="F26" s="56" t="s">
+        <v>200</v>
+      </c>
       <c r="G26" s="35"/>
       <c r="H26"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
-        <v>194</v>
+        <v>98</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>195</v>
+        <v>99</v>
       </c>
       <c r="C27" s="9">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E27" s="35">
-        <v>15</v>
-      </c>
-      <c r="F27" s="56" t="s">
-        <v>201</v>
-      </c>
-      <c r="G27" s="35"/>
+        <v>100</v>
+      </c>
+      <c r="E27" s="81">
+        <v>30</v>
+      </c>
+      <c r="F27" s="56"/>
+      <c r="G27" s="81"/>
       <c r="H27"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C28" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>101</v>
+        <v>190</v>
       </c>
       <c r="E28" s="81">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F28" s="56"/>
       <c r="G28" s="81"/>
-      <c r="H28"/>
+      <c r="H28" s="100">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
-        <v>102</v>
+        <v>198</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>103</v>
+        <v>205</v>
       </c>
       <c r="C29" s="9">
         <v>1</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E29" s="81">
-        <v>37</v>
+        <v>206</v>
+      </c>
+      <c r="E29" s="136">
+        <v>30</v>
       </c>
       <c r="F29" s="56" t="s">
-        <v>202</v>
-      </c>
-      <c r="G29" s="81"/>
-      <c r="H29" s="100">
-        <v>1</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="G29" s="81">
+        <v>16</v>
+      </c>
+      <c r="H29" s="100"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>207</v>
+      <c r="A30" s="56" t="s">
+        <v>214</v>
+      </c>
+      <c r="B30" t="s">
+        <v>213</v>
       </c>
       <c r="C30" s="9">
         <v>1</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>208</v>
+      <c r="D30" s="56" t="s">
+        <v>212</v>
       </c>
       <c r="E30" s="81">
-        <v>30</v>
-      </c>
-      <c r="F30" s="90" t="s">
-        <v>209</v>
-      </c>
-      <c r="G30" s="91">
-        <v>16</v>
-      </c>
+        <v>2.5</v>
+      </c>
+      <c r="F30" s="90"/>
+      <c r="G30" s="91"/>
       <c r="H30" s="100">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="72">
         <f>SUM(E6:E30)</f>
-        <v>380.5</v>
+        <v>383</v>
       </c>
       <c r="F31" s="71"/>
       <c r="G31" s="71"/>
@@ -3538,40 +3556,42 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D14" r:id="rId1" xr:uid="{3773511A-F3AF-4897-B5BB-16FB39A0B508}"/>
-    <hyperlink ref="D11" r:id="rId2" xr:uid="{AFC120EB-E75F-4BB8-BC6D-4AA9408DD14D}"/>
-    <hyperlink ref="D20" r:id="rId3" display="Link" xr:uid="{401DDADA-DB79-4416-96CF-3B1D6329769B}"/>
-    <hyperlink ref="D9" r:id="rId4" display="24V Dual Ball" xr:uid="{98BCAD8D-1DD9-49E5-B60D-FB8A39108E71}"/>
-    <hyperlink ref="D10" r:id="rId5" xr:uid="{968A8156-5055-4A5F-97A2-06DF8EA0EB3D}"/>
-    <hyperlink ref="D22" r:id="rId6" display="5 Meter Gates LL" xr:uid="{9F0DE403-B0EC-4933-928F-2806FBCF603A}"/>
-    <hyperlink ref="D21" r:id="rId7" display="Link" xr:uid="{45531F32-6B6C-44D5-9B2A-FB1F259BC9F9}"/>
-    <hyperlink ref="F14" r:id="rId8" display="Keenovo" xr:uid="{C2A02BBB-B317-4856-A562-A30BE2CA0A6C}"/>
-    <hyperlink ref="D24" r:id="rId9" display="8 Bore" xr:uid="{4C50ADBB-FC9C-42E4-8421-5A0C1600DD46}"/>
-    <hyperlink ref="D23" r:id="rId10" display="5 BORE" xr:uid="{43C03DCA-7867-4C9F-B1D0-8588267A1C82}"/>
-    <hyperlink ref="D15" r:id="rId11" xr:uid="{A901DFE1-486C-4AC2-8672-C18618945E04}"/>
-    <hyperlink ref="D16" r:id="rId12" xr:uid="{BA467D2F-0948-4A82-B49C-B8DCBA7936A0}"/>
-    <hyperlink ref="D28" r:id="rId13" display="Link" xr:uid="{49178A12-AF45-4969-AC8E-49BA3EBADDA9}"/>
-    <hyperlink ref="D18" r:id="rId14" xr:uid="{9689F2B7-24E0-4CC5-A39F-53D7E0370FC8}"/>
-    <hyperlink ref="D17" r:id="rId15" xr:uid="{537A3F3C-7C92-42A9-B8B2-F37129F7787F}"/>
-    <hyperlink ref="D19" r:id="rId16" xr:uid="{82909F8B-3A14-4248-8CB2-384756C6E8BE}"/>
-    <hyperlink ref="D29" r:id="rId17" xr:uid="{0D6A5659-9181-49D0-A7D8-101F63076C8A}"/>
-    <hyperlink ref="D12" r:id="rId18" xr:uid="{4AEFCE09-28B7-4C24-82DE-ADAB9CAA43E1}"/>
-    <hyperlink ref="D13" r:id="rId19" xr:uid="{0ED2334F-09CF-437E-82F8-E81D86F288DC}"/>
-    <hyperlink ref="D25" r:id="rId20" xr:uid="{87CB364F-700B-4E81-BC67-3C859C1B7934}"/>
-    <hyperlink ref="D26" r:id="rId21" display="5X High End" xr:uid="{D4CB98E8-7A2B-495D-9E37-8208D21A6270}"/>
-    <hyperlink ref="D27" r:id="rId22" display="6x5x1 Option Shim" xr:uid="{A333F16C-7F8A-421A-B64A-B04B701B747A}"/>
-    <hyperlink ref="F27" r:id="rId23" display="NB! 200 pcs option is same price" xr:uid="{D98A7A59-4D4C-4589-8C00-1DCF83FFF3E6}"/>
+    <hyperlink ref="D13" r:id="rId1" xr:uid="{3773511A-F3AF-4897-B5BB-16FB39A0B508}"/>
+    <hyperlink ref="D10" r:id="rId2" xr:uid="{AFC120EB-E75F-4BB8-BC6D-4AA9408DD14D}"/>
+    <hyperlink ref="D19" r:id="rId3" display="Link" xr:uid="{401DDADA-DB79-4416-96CF-3B1D6329769B}"/>
+    <hyperlink ref="D8" r:id="rId4" display="24V Dual Ball" xr:uid="{98BCAD8D-1DD9-49E5-B60D-FB8A39108E71}"/>
+    <hyperlink ref="D9" r:id="rId5" xr:uid="{968A8156-5055-4A5F-97A2-06DF8EA0EB3D}"/>
+    <hyperlink ref="D21" r:id="rId6" display="5 Meter Gates LL" xr:uid="{9F0DE403-B0EC-4933-928F-2806FBCF603A}"/>
+    <hyperlink ref="D20" r:id="rId7" display="Link" xr:uid="{45531F32-6B6C-44D5-9B2A-FB1F259BC9F9}"/>
+    <hyperlink ref="F13" r:id="rId8" display="Keenovo" xr:uid="{C2A02BBB-B317-4856-A562-A30BE2CA0A6C}"/>
+    <hyperlink ref="D23" r:id="rId9" display="8 Bore" xr:uid="{4C50ADBB-FC9C-42E4-8421-5A0C1600DD46}"/>
+    <hyperlink ref="D22" r:id="rId10" display="5 BORE" xr:uid="{43C03DCA-7867-4C9F-B1D0-8588267A1C82}"/>
+    <hyperlink ref="D14" r:id="rId11" xr:uid="{A901DFE1-486C-4AC2-8672-C18618945E04}"/>
+    <hyperlink ref="D15" r:id="rId12" xr:uid="{BA467D2F-0948-4A82-B49C-B8DCBA7936A0}"/>
+    <hyperlink ref="D27" r:id="rId13" display="Link" xr:uid="{49178A12-AF45-4969-AC8E-49BA3EBADDA9}"/>
+    <hyperlink ref="D17" r:id="rId14" xr:uid="{9689F2B7-24E0-4CC5-A39F-53D7E0370FC8}"/>
+    <hyperlink ref="D16" r:id="rId15" xr:uid="{537A3F3C-7C92-42A9-B8B2-F37129F7787F}"/>
+    <hyperlink ref="D18" r:id="rId16" xr:uid="{82909F8B-3A14-4248-8CB2-384756C6E8BE}"/>
+    <hyperlink ref="D28" r:id="rId17" xr:uid="{0D6A5659-9181-49D0-A7D8-101F63076C8A}"/>
+    <hyperlink ref="D11" r:id="rId18" xr:uid="{4AEFCE09-28B7-4C24-82DE-ADAB9CAA43E1}"/>
+    <hyperlink ref="D12" r:id="rId19" xr:uid="{0ED2334F-09CF-437E-82F8-E81D86F288DC}"/>
+    <hyperlink ref="D24" r:id="rId20" xr:uid="{87CB364F-700B-4E81-BC67-3C859C1B7934}"/>
+    <hyperlink ref="D25" r:id="rId21" display="5X High End" xr:uid="{D4CB98E8-7A2B-495D-9E37-8208D21A6270}"/>
+    <hyperlink ref="D26" r:id="rId22" display="6x5x1 Option Shim" xr:uid="{A333F16C-7F8A-421A-B64A-B04B701B747A}"/>
+    <hyperlink ref="F26" r:id="rId23" display="NB! 200 pcs option is same price" xr:uid="{D98A7A59-4D4C-4589-8C00-1DCF83FFF3E6}"/>
     <hyperlink ref="F6" r:id="rId24" xr:uid="{5B14FBB6-ADAD-4948-95D7-FBD8C9BC5BB5}"/>
     <hyperlink ref="D7" r:id="rId25" display="MKS DUET WIFI" xr:uid="{F52EB8DF-670A-4145-90A1-8A8DF8B4B7B2}"/>
     <hyperlink ref="F7" r:id="rId26" display="Mini 12864" xr:uid="{321ACA62-20AB-45F9-A643-EE2EB664C961}"/>
-    <hyperlink ref="D30" r:id="rId27" xr:uid="{A5B2720F-8C3E-478A-BE06-E55BE0B574B4}"/>
-    <hyperlink ref="F30" r:id="rId28" xr:uid="{46CB3770-62A9-4C77-9E92-FD0ACDA22A9F}"/>
+    <hyperlink ref="D29" r:id="rId27" xr:uid="{53A16D3E-EBE4-45B6-9E87-70111D7D2FFE}"/>
+    <hyperlink ref="F29" r:id="rId28" xr:uid="{2E01C49B-F943-468C-B222-27E06F7C15FC}"/>
+    <hyperlink ref="A30" r:id="rId29" display="Cable Loom - Bowden Path" xr:uid="{73998A44-7105-4A13-A714-12369DB7FB93}"/>
+    <hyperlink ref="D30" r:id="rId30" display="Cable Loom - Bowden Path" xr:uid="{5DD23B84-72DC-46EC-A740-B82AFAD09C94}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId29"/>
-  <drawing r:id="rId30"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId31"/>
+  <drawing r:id="rId32"/>
   <tableParts count="1">
-    <tablePart r:id="rId31"/>
+    <tablePart r:id="rId33"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3606,7 +3626,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="94" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -3620,10 +3640,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>106</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>107</v>
       </c>
       <c r="C2" s="32">
         <v>2</v>
@@ -3634,10 +3654,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C3" s="32">
         <v>4</v>
@@ -3648,10 +3668,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>109</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>110</v>
       </c>
       <c r="C4" s="32">
         <v>4</v>
@@ -3662,10 +3682,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C5" s="32">
         <v>2</v>
@@ -3676,10 +3696,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>112</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>113</v>
       </c>
       <c r="C6" s="32">
         <v>2</v>
@@ -3690,10 +3710,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C7" s="32">
         <v>11</v>
@@ -3704,10 +3724,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>115</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>116</v>
       </c>
       <c r="C8" s="32">
         <v>15</v>
@@ -3718,10 +3738,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C9" s="32">
         <v>6</v>
@@ -3732,10 +3752,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C10" s="32">
         <v>9</v>
@@ -3746,10 +3766,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C11" s="32">
         <v>5</v>
@@ -3760,10 +3780,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C12" s="32">
         <v>8</v>
@@ -3774,10 +3794,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>165</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>166</v>
       </c>
       <c r="C13" s="32">
         <v>2</v>
@@ -3788,10 +3808,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>121</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>122</v>
       </c>
       <c r="C14" s="32">
         <v>5</v>
@@ -3802,10 +3822,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C15" s="32">
         <v>5</v>
@@ -3816,10 +3836,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C16" s="32">
         <v>13</v>
@@ -3830,10 +3850,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C17" s="32">
         <v>6</v>
@@ -3844,10 +3864,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C18" s="32">
         <v>2</v>
@@ -3858,10 +3878,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C19" s="32">
         <v>1</v>
@@ -3872,10 +3892,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C20" s="32">
         <v>3</v>
@@ -3886,10 +3906,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C21" s="32">
         <v>1</v>
@@ -3900,10 +3920,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C22" s="32">
         <v>1</v>
@@ -3914,10 +3934,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C23" s="32">
         <v>28</v>
@@ -3928,10 +3948,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C24" s="32">
         <v>6</v>
@@ -3942,10 +3962,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>133</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>134</v>
       </c>
       <c r="C25" s="32">
         <v>50</v>
@@ -3956,10 +3976,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C26" s="32">
         <v>63</v>
@@ -3968,15 +3988,15 @@
         <v>70</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>136</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>137</v>
       </c>
       <c r="C27" s="32">
         <v>143</v>
@@ -3987,10 +4007,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C28" s="32">
         <v>200</v>
@@ -4001,10 +4021,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C29" s="32">
         <v>142</v>
@@ -4015,10 +4035,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C30" s="32">
         <v>8</v>
@@ -4029,10 +4049,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C31" s="32">
         <v>1</v>
@@ -4043,10 +4063,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C32" s="32">
         <v>2</v>
@@ -4057,10 +4077,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C33" s="32">
         <v>2</v>
@@ -4071,10 +4091,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C34" s="32">
         <v>18</v>
@@ -4085,10 +4105,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C35" s="32">
         <v>8</v>
@@ -4099,10 +4119,10 @@
     </row>
     <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C36" s="32">
         <v>4</v>
@@ -4113,7 +4133,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="69" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B37" s="70"/>
       <c r="C37" s="97">
@@ -4127,7 +4147,7 @@
     </row>
     <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="5"/>
@@ -4137,7 +4157,7 @@
     </row>
     <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="11"/>

--- a/Document Library/Bill Of Materials/V-Baby BOM.xlsx
+++ b/Document Library/Bill Of Materials/V-Baby BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/V-Baby CoreXY/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1894" documentId="11_2E462098BBA7632759C38D02185E4833A2B67484" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{432D8196-1397-41F7-9E75-FB4967A0B700}"/>
+  <xr:revisionPtr revIDLastSave="1908" documentId="11_2E462098BBA7632759C38D02185E4833A2B67484" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D72271CF-579D-4894-A17A-3CF834891BA1}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OpenBuild Part List" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="218">
   <si>
     <t>Exstrusions</t>
   </si>
@@ -675,10 +675,19 @@
     <t>20mmx1m  Cable Loom</t>
   </si>
   <si>
-    <t>Sleeve for cables to hotend</t>
-  </si>
-  <si>
     <t>Cable Loom Tube</t>
+  </si>
+  <si>
+    <t>Sleeve for Heatbed cables</t>
+  </si>
+  <si>
+    <t>Nylon Cable Sleeve</t>
+  </si>
+  <si>
+    <t>Tube for Hotend Cables</t>
+  </si>
+  <si>
+    <t>10 mm Sleeve</t>
   </si>
 </sst>
 </file>
@@ -1441,13 +1450,13 @@
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="40% - Accent6" xfId="4" builtinId="51"/>
@@ -1737,8 +1746,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1070DF90-74AC-4245-AA46-2FAD63F74767}" name="Table1" displayName="Table1" ref="A1:H30" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7">
-  <autoFilter ref="A1:H30" xr:uid="{F74387CC-3A2A-4CC8-A8F2-631B4360BF85}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1070DF90-74AC-4245-AA46-2FAD63F74767}" name="Table1" displayName="Table1" ref="A1:H31" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7">
+  <autoFilter ref="A1:H31" xr:uid="{F74387CC-3A2A-4CC8-A8F2-631B4360BF85}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{AB8C8187-911D-4248-8608-1F70796FF7C8}" name="Column1" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{129F7AE4-0D03-4AA3-A2BF-5181AA27AF31}" name="Column2"/>
@@ -2124,7 +2133,7 @@
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
       <c r="E2" s="23"/>
-      <c r="F2" s="134" t="s">
+      <c r="F2" s="135" t="s">
         <v>150</v>
       </c>
       <c r="G2" s="47"/>
@@ -2149,7 +2158,7 @@
         <f>D3*310</f>
         <v>1240</v>
       </c>
-      <c r="F3" s="135"/>
+      <c r="F3" s="136"/>
       <c r="G3" s="47"/>
       <c r="H3" s="56"/>
       <c r="I3" s="18"/>
@@ -2172,7 +2181,7 @@
         <f>D4*350</f>
         <v>1400</v>
       </c>
-      <c r="F4" s="135"/>
+      <c r="F4" s="136"/>
       <c r="G4" s="47"/>
       <c r="H4" s="57"/>
       <c r="I4" s="49"/>
@@ -2195,7 +2204,7 @@
         <f>D5*340</f>
         <v>1700</v>
       </c>
-      <c r="F5" s="135"/>
+      <c r="F5" s="136"/>
       <c r="G5" s="47"/>
       <c r="H5" s="56"/>
       <c r="I5" s="18"/>
@@ -2218,7 +2227,7 @@
         <f>D6*295</f>
         <v>295</v>
       </c>
-      <c r="F6" s="135"/>
+      <c r="F6" s="136"/>
       <c r="G6" s="47"/>
       <c r="H6" s="57"/>
       <c r="I6" s="49"/>
@@ -2230,7 +2239,7 @@
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="13"/>
-      <c r="F7" s="135"/>
+      <c r="F7" s="136"/>
       <c r="G7" s="47"/>
       <c r="H7" s="29"/>
       <c r="I7" s="8"/>
@@ -2253,7 +2262,7 @@
         <f>D8*290</f>
         <v>290</v>
       </c>
-      <c r="F8" s="135"/>
+      <c r="F8" s="136"/>
       <c r="G8" s="47"/>
       <c r="H8" s="57"/>
       <c r="I8" s="49"/>
@@ -2276,7 +2285,7 @@
         <f>D9*350</f>
         <v>700</v>
       </c>
-      <c r="F9" s="135"/>
+      <c r="F9" s="136"/>
       <c r="G9" s="47"/>
       <c r="H9" s="56"/>
       <c r="I9" s="18"/>
@@ -2297,7 +2306,7 @@
         <f>SUM(E3:E9)</f>
         <v>5625</v>
       </c>
-      <c r="F10" s="135"/>
+      <c r="F10" s="136"/>
       <c r="G10" s="47"/>
       <c r="H10" s="58" t="s">
         <v>27</v>
@@ -2315,7 +2324,7 @@
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="13"/>
-      <c r="F11" s="135"/>
+      <c r="F11" s="136"/>
       <c r="G11" s="47"/>
       <c r="H11" s="29" t="s">
         <v>28</v>
@@ -2339,7 +2348,7 @@
         <v>18</v>
       </c>
       <c r="E12" s="24"/>
-      <c r="F12" s="135"/>
+      <c r="F12" s="136"/>
       <c r="G12" s="47"/>
       <c r="H12" s="58" t="s">
         <v>31</v>
@@ -2357,7 +2366,7 @@
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="13"/>
-      <c r="F13" s="135"/>
+      <c r="F13" s="136"/>
       <c r="G13" s="47"/>
       <c r="H13" s="29"/>
       <c r="I13" s="68"/>
@@ -2377,7 +2386,7 @@
         <v>30</v>
       </c>
       <c r="E14" s="24"/>
-      <c r="F14" s="135"/>
+      <c r="F14" s="136"/>
       <c r="G14" s="47"/>
       <c r="H14" s="58" t="s">
         <v>35</v>
@@ -2443,8 +2452,8 @@
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="37">
-        <f>'Component Part List'!$E$31</f>
-        <v>383</v>
+        <f>'Component Part List'!$E$32</f>
+        <v>394</v>
       </c>
       <c r="G19" s="48"/>
       <c r="H19" s="29" t="s">
@@ -2452,8 +2461,8 @@
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="37">
-        <f>'Component Part List'!$E$31</f>
-        <v>383</v>
+        <f>'Component Part List'!$E$32</f>
+        <v>394</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -2507,7 +2516,7 @@
       <c r="E22" s="45"/>
       <c r="F22" s="41">
         <f>SUM(F18:F21)</f>
-        <v>697</v>
+        <v>708</v>
       </c>
       <c r="G22" s="48"/>
       <c r="H22" s="59" t="s">
@@ -2516,7 +2525,7 @@
       <c r="I22" s="60"/>
       <c r="J22" s="61">
         <f>SUM(J18:J21)</f>
-        <v>567.6</v>
+        <v>578.6</v>
       </c>
     </row>
   </sheetData>
@@ -2912,7 +2921,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2959,11 +2968,10 @@
     </row>
     <row r="2" spans="1:9" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="127"/>
-      <c r="B2" s="127" t="s">
+      <c r="C2" s="128"/>
+      <c r="D2" s="127" t="s">
         <v>203</v>
       </c>
-      <c r="C2" s="128"/>
-      <c r="D2" s="129"/>
       <c r="E2" s="130"/>
       <c r="F2" s="131"/>
       <c r="G2" s="131"/>
@@ -3176,7 +3184,7 @@
         <v>61</v>
       </c>
       <c r="E13" s="81">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F13" s="86" t="s">
         <v>195</v>
@@ -3505,7 +3513,7 @@
       <c r="D29" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="E29" s="136">
+      <c r="E29" s="134">
         <v>30</v>
       </c>
       <c r="F29" s="56" t="s">
@@ -3516,42 +3524,62 @@
       </c>
       <c r="H29" s="100"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="56" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>214</v>
-      </c>
-      <c r="B30" t="s">
-        <v>213</v>
       </c>
       <c r="C30" s="9">
         <v>1</v>
       </c>
-      <c r="D30" s="56" t="s">
+      <c r="D30" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E30" s="134">
+        <v>8</v>
+      </c>
+      <c r="F30" s="56"/>
+      <c r="G30" s="81"/>
+      <c r="H30" s="100"/>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="B31" t="s">
+        <v>216</v>
+      </c>
+      <c r="C31" s="9">
+        <v>1</v>
+      </c>
+      <c r="D31" s="56" t="s">
         <v>212</v>
       </c>
-      <c r="E30" s="81">
+      <c r="E31" s="81">
         <v>2.5</v>
       </c>
-      <c r="F30" s="90"/>
-      <c r="G30" s="91"/>
-      <c r="H30" s="100">
+      <c r="F31" s="90"/>
+      <c r="G31" s="91"/>
+      <c r="H31" s="100">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="12" t="s">
+    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="72">
-        <f>SUM(E6:E30)</f>
-        <v>383</v>
-      </c>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="72">
+        <f>SUM(E6:E31)</f>
+        <v>394</v>
+      </c>
+      <c r="F32" s="71"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="71"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -3584,14 +3612,15 @@
     <hyperlink ref="F7" r:id="rId26" display="Mini 12864" xr:uid="{321ACA62-20AB-45F9-A643-EE2EB664C961}"/>
     <hyperlink ref="D29" r:id="rId27" xr:uid="{53A16D3E-EBE4-45B6-9E87-70111D7D2FFE}"/>
     <hyperlink ref="F29" r:id="rId28" xr:uid="{2E01C49B-F943-468C-B222-27E06F7C15FC}"/>
-    <hyperlink ref="A30" r:id="rId29" display="Cable Loom - Bowden Path" xr:uid="{73998A44-7105-4A13-A714-12369DB7FB93}"/>
-    <hyperlink ref="D30" r:id="rId30" display="Cable Loom - Bowden Path" xr:uid="{5DD23B84-72DC-46EC-A740-B82AFAD09C94}"/>
+    <hyperlink ref="A31" r:id="rId29" display="Cable Loom - Bowden Path" xr:uid="{73998A44-7105-4A13-A714-12369DB7FB93}"/>
+    <hyperlink ref="D31" r:id="rId30" display="Cable Loom - Bowden Path" xr:uid="{5DD23B84-72DC-46EC-A740-B82AFAD09C94}"/>
+    <hyperlink ref="D30" r:id="rId31" xr:uid="{0C6F2C79-ACBB-4C55-AC21-4895BA685D6B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId31"/>
-  <drawing r:id="rId32"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId32"/>
+  <drawing r:id="rId33"/>
   <tableParts count="1">
-    <tablePart r:id="rId33"/>
+    <tablePart r:id="rId34"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Document Library/Bill Of Materials/V-Baby BOM.xlsx
+++ b/Document Library/Bill Of Materials/V-Baby BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/V-Baby CoreXY/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1908" documentId="11_2E462098BBA7632759C38D02185E4833A2B67484" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D72271CF-579D-4894-A17A-3CF834891BA1}"/>
+  <xr:revisionPtr revIDLastSave="1955" documentId="11_2E462098BBA7632759C38D02185E4833A2B67484" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FB102730-A57A-4165-89BD-8C428997DB2C}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OpenBuild Part List" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="222">
   <si>
     <t>Exstrusions</t>
   </si>
@@ -525,9 +525,6 @@
     <t>Column8</t>
   </si>
   <si>
-    <t>Column9</t>
-  </si>
-  <si>
     <t>M3x30 HEX</t>
   </si>
   <si>
@@ -633,9 +630,6 @@
     <t>Heatbed Build Plate</t>
   </si>
   <si>
-    <t>Column10</t>
-  </si>
-  <si>
     <t>200 pcs is same price</t>
   </si>
   <si>
@@ -681,13 +675,31 @@
     <t>Sleeve for Heatbed cables</t>
   </si>
   <si>
-    <t>Nylon Cable Sleeve</t>
-  </si>
-  <si>
     <t>Tube for Hotend Cables</t>
   </si>
   <si>
     <t>10 mm Sleeve</t>
+  </si>
+  <si>
+    <t>Cable Sleeve Nylon</t>
+  </si>
+  <si>
+    <t>SKR Option -&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>--- &gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>Controller Option</t>
+  </si>
+  <si>
+    <t>Column6</t>
+  </si>
+  <si>
+    <t>Column7</t>
   </si>
 </sst>
 </file>
@@ -871,7 +883,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -909,21 +921,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1104,19 +1101,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -1125,17 +1109,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1187,32 +1160,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1245,6 +1192,43 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -1263,56 +1247,48 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1322,27 +1298,26 @@
     <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="13" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="21" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="12" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -1355,47 +1330,32 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="21" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="28" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="29" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="29" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1413,29 +1373,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1451,12 +1404,75 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="3" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="40% - Accent6" xfId="4" builtinId="51"/>
@@ -1702,8 +1718,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>723901</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171452</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1746,17 +1762,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1070DF90-74AC-4245-AA46-2FAD63F74767}" name="Table1" displayName="Table1" ref="A1:H31" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7">
-  <autoFilter ref="A1:H31" xr:uid="{F74387CC-3A2A-4CC8-A8F2-631B4360BF85}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1070DF90-74AC-4245-AA46-2FAD63F74767}" name="Table1" displayName="Table1" ref="A1:H30" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7">
+  <autoFilter ref="A1:H30" xr:uid="{F74387CC-3A2A-4CC8-A8F2-631B4360BF85}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H30">
+    <sortCondition ref="A5:A30"/>
+  </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{AB8C8187-911D-4248-8608-1F70796FF7C8}" name="Column1" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{129F7AE4-0D03-4AA3-A2BF-5181AA27AF31}" name="Column2"/>
     <tableColumn id="3" xr3:uid="{34C25536-CCA4-454C-9FCE-0168DD2CC6CC}" name="Column3" dataDxfId="5"/>
     <tableColumn id="4" xr3:uid="{2ABF818D-0A23-4468-A061-EB5B1AC04237}" name="Column4" dataDxfId="4" dataCellStyle="Hyperlink"/>
     <tableColumn id="5" xr3:uid="{3DD38B84-FE10-46EA-8CEE-8542F56DCDD7}" name="Column5" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{E4DF9CF3-4A3D-433E-9BD0-F94DDCA192BB}" name="Column8" dataDxfId="2" dataCellStyle="Hyperlink"/>
-    <tableColumn id="7" xr3:uid="{4866A326-BBBA-4B58-BFBD-4D095130E124}" name="Column9" dataDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{BCC2F41B-A8C5-4565-9E8A-D5EEC7EF8FC3}" name="Column10" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{E4DF9CF3-4A3D-433E-9BD0-F94DDCA192BB}" name="Column6" dataDxfId="2" dataCellStyle="Hyperlink"/>
+    <tableColumn id="7" xr3:uid="{4866A326-BBBA-4B58-BFBD-4D095130E124}" name="Column7" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{BCC2F41B-A8C5-4565-9E8A-D5EEC7EF8FC3}" name="Column8" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2100,430 +2119,430 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="46" t="s">
         <v>151</v>
       </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="63" t="s">
+      <c r="G1" s="44"/>
+      <c r="H1" s="57" t="s">
         <v>152</v>
       </c>
-      <c r="I1" s="62"/>
-      <c r="J1" s="64" t="s">
+      <c r="I1" s="56"/>
+      <c r="J1" s="58" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="135" t="s">
+      <c r="A2" s="47"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="114" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="65"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="59"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="6">
         <v>4</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="10">
         <f>D3*310</f>
         <v>1240</v>
       </c>
-      <c r="F3" s="136"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="66"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="60"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="24">
         <v>4</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="23">
         <f>D4*350</f>
         <v>1400</v>
       </c>
-      <c r="F4" s="136"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="65"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="59"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="6">
         <v>5</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="10">
         <f>D5*340</f>
         <v>1700</v>
       </c>
-      <c r="F5" s="136"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="66"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="60"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="24">
         <v>1</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="23">
         <f>D6*295</f>
         <v>295</v>
       </c>
-      <c r="F6" s="136"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="65"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="59"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="54"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="66"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="60"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="24">
         <v>1</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="23">
         <f>D8*290</f>
         <v>290</v>
       </c>
-      <c r="F8" s="136"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="65"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="59"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="6">
         <v>2</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="10">
         <f>D9*350</f>
         <v>700</v>
       </c>
-      <c r="F9" s="136"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="66"/>
-    </row>
-    <row r="10" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="55" t="s">
+      <c r="F9" s="115"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="60"/>
+    </row>
+    <row r="10" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="25">
+      <c r="D10" s="24"/>
+      <c r="E10" s="22">
         <f>SUM(E3:E9)</f>
         <v>5625</v>
       </c>
-      <c r="F10" s="136"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="58" t="s">
+      <c r="F10" s="115"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="67" t="s">
+      <c r="I10" s="61" t="s">
         <v>154</v>
       </c>
-      <c r="J10" s="65">
+      <c r="J10" s="59">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="54"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="136"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="29" t="s">
+      <c r="A11" s="48"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="115"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="68"/>
-      <c r="J11" s="66">
+      <c r="I11" s="62"/>
+      <c r="J11" s="60">
         <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="24">
         <v>18</v>
       </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="136"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="58" t="s">
+      <c r="E12" s="21"/>
+      <c r="F12" s="115"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="67" t="s">
+      <c r="I12" s="61" t="s">
         <v>155</v>
       </c>
-      <c r="J12" s="65">
+      <c r="J12" s="59">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="54"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="136"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="66"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="60"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="24">
         <v>30</v>
       </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="136"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="58" t="s">
+      <c r="E14" s="21"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="67" t="s">
+      <c r="I14" s="61" t="s">
         <v>156</v>
       </c>
-      <c r="J14" s="65">
+      <c r="J14" s="59">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="28">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="25">
         <v>314</v>
       </c>
-      <c r="G15" s="51"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="28">
+      <c r="G15" s="45"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="25">
         <f>SUM(J2:J14)</f>
         <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G16" s="17"/>
+      <c r="G16" s="14"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="36">
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="30">
         <f>F15</f>
         <v>314</v>
       </c>
-      <c r="G18" s="48"/>
-      <c r="H18" s="39" t="s">
+      <c r="G18" s="42"/>
+      <c r="H18" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="I18" s="42"/>
-      <c r="J18" s="36">
+      <c r="I18" s="36"/>
+      <c r="J18" s="30">
         <f>J15</f>
         <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="37">
-        <f>'Component Part List'!$E$32</f>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="31">
+        <f>'Component Part List'!$E$31</f>
         <v>394</v>
       </c>
-      <c r="G19" s="48"/>
-      <c r="H19" s="29" t="s">
+      <c r="G19" s="42"/>
+      <c r="H19" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="I19" s="8"/>
-      <c r="J19" s="37">
-        <f>'Component Part List'!$E$32</f>
+      <c r="I19" s="6"/>
+      <c r="J19" s="31">
+        <f>'Component Part List'!$E$31</f>
         <v>394</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="38" t="s">
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G20" s="48"/>
-      <c r="H20" s="30" t="s">
+      <c r="G20" s="42"/>
+      <c r="H20" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="I20" s="27"/>
-      <c r="J20" s="38" t="s">
+      <c r="I20" s="24"/>
+      <c r="J20" s="32" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="46" t="s">
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="G21" s="48"/>
-      <c r="H21" s="29" t="s">
+      <c r="G21" s="42"/>
+      <c r="H21" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="I21" s="8"/>
-      <c r="J21" s="37">
+      <c r="I21" s="6"/>
+      <c r="J21" s="31">
         <f>Fasteners!D39</f>
         <v>80.600000000000009</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="41">
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="35">
         <f>SUM(F18:F21)</f>
         <v>708</v>
       </c>
-      <c r="G22" s="48"/>
-      <c r="H22" s="59" t="s">
+      <c r="G22" s="42"/>
+      <c r="H22" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="I22" s="60"/>
-      <c r="J22" s="61">
+      <c r="I22" s="54"/>
+      <c r="J22" s="55">
         <f>SUM(J18:J21)</f>
         <v>578.6</v>
       </c>
@@ -2554,355 +2573,355 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="100" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="82" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="84" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="85"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="87"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="88"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="1:7" s="83" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="90" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="105"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="106"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="13"/>
-    </row>
-    <row r="3" spans="1:7" s="101" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="108" t="s">
-        <v>167</v>
-      </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="123" t="s">
-        <v>188</v>
-      </c>
-      <c r="D3" s="111" t="s">
+      <c r="B3" s="91"/>
+      <c r="C3" s="105" t="s">
+        <v>187</v>
+      </c>
+      <c r="D3" s="93" t="s">
+        <v>170</v>
+      </c>
+      <c r="E3" s="91"/>
+      <c r="F3" s="93" t="s">
         <v>171</v>
       </c>
-      <c r="E3" s="109"/>
-      <c r="F3" s="111" t="s">
-        <v>172</v>
-      </c>
-      <c r="G3" s="112"/>
+      <c r="G3" s="94"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="106" t="s">
-        <v>181</v>
-      </c>
-      <c r="B4" s="8">
+      <c r="A4" s="88" t="s">
+        <v>180</v>
+      </c>
+      <c r="B4" s="6">
         <v>310</v>
       </c>
-      <c r="C4" s="124" t="s">
-        <v>184</v>
-      </c>
-      <c r="D4" s="8">
+      <c r="C4" s="106" t="s">
+        <v>183</v>
+      </c>
+      <c r="D4" s="6">
         <f>B4+50</f>
         <v>360</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8">
+      <c r="E4" s="6"/>
+      <c r="F4" s="6">
         <f>B4+100</f>
         <v>410</v>
       </c>
-      <c r="G4" s="13"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="106" t="s">
-        <v>182</v>
-      </c>
-      <c r="B5" s="8">
+      <c r="A5" s="88" t="s">
+        <v>181</v>
+      </c>
+      <c r="B5" s="6">
         <v>350</v>
       </c>
-      <c r="C5" s="124" t="s">
-        <v>184</v>
-      </c>
-      <c r="D5" s="8">
+      <c r="C5" s="106" t="s">
+        <v>183</v>
+      </c>
+      <c r="D5" s="6">
         <f>B5+50</f>
         <v>400</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="F5" s="8">
+      <c r="E5" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="F5" s="6">
         <f>B5+100</f>
         <v>450</v>
       </c>
-      <c r="G5" s="13" t="s">
-        <v>189</v>
+      <c r="G5" s="10" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="106" t="s">
-        <v>183</v>
-      </c>
-      <c r="B6" s="8">
+      <c r="A6" s="88" t="s">
+        <v>182</v>
+      </c>
+      <c r="B6" s="6">
         <v>340</v>
       </c>
-      <c r="C6" s="124" t="s">
-        <v>185</v>
-      </c>
-      <c r="D6" s="8">
+      <c r="C6" s="106" t="s">
+        <v>184</v>
+      </c>
+      <c r="D6" s="6">
         <f>B6+50</f>
         <v>390</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8">
+      <c r="E6" s="6"/>
+      <c r="F6" s="6">
         <f>B6+100</f>
         <v>440</v>
       </c>
-      <c r="G6" s="13"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="106" t="s">
+      <c r="A7" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="14">
         <v>290</v>
       </c>
-      <c r="C7" s="124" t="s">
-        <v>186</v>
-      </c>
-      <c r="D7" s="8">
+      <c r="C7" s="106" t="s">
+        <v>185</v>
+      </c>
+      <c r="D7" s="6">
         <f t="shared" ref="D7:D9" si="0">B7+50</f>
         <v>340</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8">
+      <c r="E7" s="6"/>
+      <c r="F7" s="6">
         <f t="shared" ref="F7:F9" si="1">B7+100</f>
         <v>390</v>
       </c>
-      <c r="G7" s="13"/>
+      <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="106" t="s">
+      <c r="A8" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="14">
         <v>350</v>
       </c>
-      <c r="C8" s="124" t="s">
-        <v>187</v>
-      </c>
-      <c r="D8" s="8">
+      <c r="C8" s="106" t="s">
+        <v>186</v>
+      </c>
+      <c r="D8" s="6">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8">
+      <c r="E8" s="6"/>
+      <c r="F8" s="6">
         <f t="shared" si="1"/>
         <v>450</v>
       </c>
-      <c r="G8" s="13"/>
+      <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="106" t="s">
+      <c r="A9" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="14">
         <v>295</v>
       </c>
-      <c r="C9" s="124" t="s">
-        <v>186</v>
-      </c>
-      <c r="D9" s="8">
+      <c r="C9" s="106" t="s">
+        <v>185</v>
+      </c>
+      <c r="D9" s="6">
         <f t="shared" si="0"/>
         <v>345</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8">
+      <c r="E9" s="6"/>
+      <c r="F9" s="6">
         <f t="shared" si="1"/>
         <v>395</v>
       </c>
-      <c r="G9" s="13"/>
+      <c r="G9" s="10"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="106"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="107"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="13"/>
-    </row>
-    <row r="11" spans="1:7" s="101" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="108" t="s">
+      <c r="A10" s="88"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:7" s="83" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="90" t="s">
+        <v>173</v>
+      </c>
+      <c r="B11" s="91"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="94"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="88" t="s">
+        <v>172</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="95" t="s">
         <v>174</v>
       </c>
-      <c r="B11" s="109"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="109"/>
-      <c r="E11" s="109"/>
-      <c r="F11" s="109"/>
-      <c r="G11" s="112"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="106" t="s">
-        <v>173</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="107"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="13"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="113" t="s">
+      <c r="B13" s="96"/>
+      <c r="C13" s="97" t="s">
+        <v>176</v>
+      </c>
+      <c r="D13" s="98" t="s">
         <v>175</v>
       </c>
-      <c r="B13" s="114"/>
-      <c r="C13" s="115" t="s">
-        <v>177</v>
-      </c>
-      <c r="D13" s="116" t="s">
-        <v>176</v>
-      </c>
-      <c r="E13" s="116"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="13"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="106" t="s">
-        <v>181</v>
-      </c>
-      <c r="B14" s="114">
+      <c r="A14" s="88" t="s">
+        <v>180</v>
+      </c>
+      <c r="B14" s="96">
         <v>200</v>
       </c>
-      <c r="C14" s="115" t="s">
-        <v>168</v>
-      </c>
-      <c r="D14" s="116">
+      <c r="C14" s="97" t="s">
+        <v>167</v>
+      </c>
+      <c r="D14" s="98">
         <f>B14+110</f>
         <v>310</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="13"/>
+      <c r="E14" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="10"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="106" t="s">
-        <v>182</v>
-      </c>
-      <c r="B15" s="114">
+      <c r="A15" s="88" t="s">
+        <v>181</v>
+      </c>
+      <c r="B15" s="96">
         <v>200</v>
       </c>
-      <c r="C15" s="115" t="s">
-        <v>169</v>
-      </c>
-      <c r="D15" s="116">
+      <c r="C15" s="97" t="s">
+        <v>168</v>
+      </c>
+      <c r="D15" s="98">
         <f>B15+150</f>
         <v>350</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="G15" s="13"/>
+      <c r="E15" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="G15" s="10"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="106" t="s">
-        <v>183</v>
-      </c>
-      <c r="B16" s="114">
+      <c r="A16" s="88" t="s">
+        <v>182</v>
+      </c>
+      <c r="B16" s="96">
         <v>200</v>
       </c>
-      <c r="C16" s="115" t="s">
-        <v>170</v>
-      </c>
-      <c r="D16" s="116">
+      <c r="C16" s="97" t="s">
+        <v>169</v>
+      </c>
+      <c r="D16" s="98">
         <f>B16+140</f>
         <v>340</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="13"/>
+      <c r="E16" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="106" t="s">
+      <c r="A17" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="114"/>
-      <c r="C17" s="115"/>
-      <c r="D17" s="116">
+      <c r="B17" s="96"/>
+      <c r="C17" s="97"/>
+      <c r="D17" s="98">
         <f>B14+90</f>
         <v>290</v>
       </c>
-      <c r="E17" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="13"/>
+      <c r="E17" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="10"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="106" t="s">
+      <c r="A18" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="114"/>
-      <c r="C18" s="115"/>
-      <c r="D18" s="116">
+      <c r="B18" s="96"/>
+      <c r="C18" s="97"/>
+      <c r="D18" s="98">
         <f>B15+150</f>
         <v>350</v>
       </c>
-      <c r="E18" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="13"/>
+      <c r="E18" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="10"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="117" t="s">
+      <c r="A19" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="118"/>
-      <c r="C19" s="119"/>
-      <c r="D19" s="120">
+      <c r="B19" s="100"/>
+      <c r="C19" s="101"/>
+      <c r="D19" s="102">
         <f>B14+95</f>
         <v>295</v>
       </c>
-      <c r="E19" s="125" t="s">
-        <v>186</v>
-      </c>
-      <c r="F19" s="121"/>
-      <c r="G19" s="122"/>
+      <c r="E19" s="107" t="s">
+        <v>185</v>
+      </c>
+      <c r="F19" s="103"/>
+      <c r="G19" s="104"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="107"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>179</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -2921,11 +2940,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2934,693 +2951,691 @@
     <col min="3" max="3" width="8.42578125" customWidth="1"/>
     <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" style="17" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" style="14" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="14" customWidth="1"/>
     <col min="9" max="9" width="23.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="73" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="74" t="s">
+    <row r="1" spans="1:9" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="67" t="s">
         <v>157</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="67" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="68" t="s">
         <v>159</v>
       </c>
-      <c r="D1" s="76" t="s">
+      <c r="D1" s="69" t="s">
         <v>160</v>
       </c>
-      <c r="E1" s="89" t="s">
+      <c r="E1" s="75" t="s">
         <v>161</v>
       </c>
-      <c r="F1" s="82" t="s">
+      <c r="F1" s="70" t="s">
+        <v>220</v>
+      </c>
+      <c r="G1" s="70" t="s">
+        <v>221</v>
+      </c>
+      <c r="H1" s="70" t="s">
         <v>162</v>
       </c>
-      <c r="G1" s="82" t="s">
-        <v>163</v>
-      </c>
-      <c r="H1" s="82" t="s">
+    </row>
+    <row r="2" spans="1:9" s="66" customFormat="1" ht="27.75" x14ac:dyDescent="0.5">
+      <c r="A2" s="135"/>
+      <c r="B2" s="112" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2" s="136"/>
+      <c r="D2" s="108" t="s">
+        <v>201</v>
+      </c>
+      <c r="E2" s="137"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="139"/>
+    </row>
+    <row r="3" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="118"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="124"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="133" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="134" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="119" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="134" t="s">
+        <v>208</v>
+      </c>
+      <c r="E4" s="134" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="119" t="s">
+        <v>209</v>
+      </c>
+      <c r="G4" s="119" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="148" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C5" s="141">
+        <v>80</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="E5" s="143">
+        <v>15</v>
+      </c>
+      <c r="F5" s="149" t="s">
+        <v>198</v>
+      </c>
+      <c r="G5" s="150"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="111"/>
+    </row>
+    <row r="6" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="120">
+        <v>6</v>
+      </c>
+      <c r="D6" s="123" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="144">
+        <v>22</v>
+      </c>
+      <c r="F6" s="74"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="111"/>
+    </row>
+    <row r="7" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="120">
+        <v>7</v>
+      </c>
+      <c r="D7" s="140" t="s">
+        <v>190</v>
+      </c>
+      <c r="E7" s="145">
+        <v>25</v>
+      </c>
+      <c r="F7" s="73"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="111"/>
+    </row>
+    <row r="8" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="120">
+        <v>1</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="146">
+        <v>2.5</v>
+      </c>
+      <c r="F8" s="50"/>
+      <c r="G8" s="113"/>
+      <c r="H8" s="31"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="120">
+        <v>2</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="146">
+        <v>3</v>
+      </c>
+      <c r="F9" s="71"/>
+      <c r="G9" s="113"/>
+      <c r="H9" s="31"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="130" t="s">
+        <v>211</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C10" s="120">
+        <v>1</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="E10" s="146">
+        <v>2.5</v>
+      </c>
+      <c r="F10" s="50"/>
+      <c r="G10" s="113"/>
+      <c r="H10" s="131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C11" s="120">
+        <v>1</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="E11" s="146">
+        <v>8</v>
+      </c>
+      <c r="F11" s="50"/>
+      <c r="G11" s="113"/>
+      <c r="H11" s="131"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" s="73" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="127"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="127" t="s">
+      <c r="C12" s="120">
+        <v>1</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="E12" s="146">
+        <v>60</v>
+      </c>
+      <c r="F12" s="71" t="s">
+        <v>200</v>
+      </c>
+      <c r="G12" s="113">
+        <v>15</v>
+      </c>
+      <c r="H12" s="132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C13" s="120" t="s">
+        <v>217</v>
+      </c>
+      <c r="D13" s="128" t="s">
+        <v>218</v>
+      </c>
+      <c r="E13" s="146"/>
+      <c r="F13" s="50" t="s">
+        <v>206</v>
+      </c>
+      <c r="G13" s="113">
+        <v>45</v>
+      </c>
+      <c r="H13" s="132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="120">
+        <v>1</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="146">
+        <v>20</v>
+      </c>
+      <c r="F14" s="50"/>
+      <c r="G14" s="113"/>
+      <c r="H14" s="31"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="E2" s="130"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="132"/>
-    </row>
-    <row r="3" spans="1:9" s="73" customFormat="1" ht="27.75" x14ac:dyDescent="0.5">
-      <c r="A3" s="127"/>
-      <c r="B3" s="133" t="s">
+      <c r="C15" s="120">
+        <v>1</v>
+      </c>
+      <c r="D15" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="C3" s="128"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="132"/>
-    </row>
-    <row r="4" spans="1:9" s="73" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="127"/>
-      <c r="B4" s="127"/>
-      <c r="C4" s="128"/>
-      <c r="D4" s="129"/>
-      <c r="E4" s="130"/>
-      <c r="F4" s="131"/>
-      <c r="G4" s="131"/>
-      <c r="H4" s="131"/>
-      <c r="I4" s="132"/>
-    </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77" t="s">
+      <c r="E15" s="146">
+        <v>30</v>
+      </c>
+      <c r="F15" s="50" t="s">
+        <v>205</v>
+      </c>
+      <c r="G15" s="113">
+        <v>16</v>
+      </c>
+      <c r="H15" s="131"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="120">
         <v>1</v>
       </c>
-      <c r="B5" s="78" t="s">
+      <c r="D16" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="146">
         <v>2</v>
       </c>
-      <c r="C5" s="79" t="s">
+      <c r="F16" s="50"/>
+      <c r="G16" s="113"/>
+      <c r="H16" s="31"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="120">
+        <v>2</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="146">
+        <v>10</v>
+      </c>
+      <c r="F17" s="50"/>
+      <c r="G17" s="113"/>
+      <c r="H17" s="31"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="120">
+        <v>2</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="146">
+        <v>8</v>
+      </c>
+      <c r="F18" s="50"/>
+      <c r="G18" s="113"/>
+      <c r="H18" s="31"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="120">
+        <v>1</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="146">
+        <v>6</v>
+      </c>
+      <c r="F19" s="50"/>
+      <c r="G19" s="113"/>
+      <c r="H19" s="31"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="120">
         <v>3</v>
       </c>
-      <c r="D5" s="80" t="s">
-        <v>210</v>
-      </c>
-      <c r="E5" s="93" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="83" t="s">
-        <v>211</v>
-      </c>
-      <c r="G5" s="92" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="79" t="s">
+      <c r="D20" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" s="146">
+        <v>30</v>
+      </c>
+      <c r="F20" s="50"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="31"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="120">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="56" t="s">
-        <v>208</v>
-      </c>
-      <c r="G6" s="81">
-        <v>45</v>
-      </c>
-      <c r="H6" s="9">
+      <c r="D21" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="146">
+        <v>4</v>
+      </c>
+      <c r="F21" s="71"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="31"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="120">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="C7" s="9">
+      <c r="D22" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="146">
+        <v>8.5</v>
+      </c>
+      <c r="F22" s="50"/>
+      <c r="G22" s="113"/>
+      <c r="H22" s="31"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="120">
         <v>1</v>
       </c>
-      <c r="D7" s="56" t="s">
-        <v>209</v>
-      </c>
-      <c r="E7" s="81">
+      <c r="D23" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="146">
+        <v>20</v>
+      </c>
+      <c r="F23" s="50"/>
+      <c r="G23" s="113"/>
+      <c r="H23" s="31"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="120">
+        <v>1</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="146">
+        <v>2</v>
+      </c>
+      <c r="F24" s="72"/>
+      <c r="G24" s="113"/>
+      <c r="H24" s="31"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="G7" s="81">
-        <v>15</v>
-      </c>
-      <c r="H7" s="9">
+      <c r="C25" s="120">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="9">
-        <v>2</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="81">
-        <v>10</v>
-      </c>
-      <c r="F8" s="56"/>
-      <c r="G8" s="81"/>
-      <c r="H8"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="9">
+      <c r="D25" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="146">
+        <v>30</v>
+      </c>
+      <c r="F25" s="72" t="s">
+        <v>194</v>
+      </c>
+      <c r="G25" s="113">
+        <v>40</v>
+      </c>
+      <c r="H25" s="131">
         <v>1</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="81">
-        <v>2</v>
-      </c>
-      <c r="F9" s="56"/>
-      <c r="G9" s="81"/>
-      <c r="H9"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="9">
-        <v>2</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="81">
-        <v>3</v>
-      </c>
-      <c r="F10" s="84"/>
-      <c r="G10" s="81"/>
-      <c r="H10"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="9">
-        <v>3</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="81">
-        <v>4</v>
-      </c>
-      <c r="F11" s="84"/>
-      <c r="G11" s="81"/>
-      <c r="H11"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="120">
+        <v>1</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="146">
+        <v>3.5</v>
+      </c>
+      <c r="F26" s="72"/>
+      <c r="G26" s="113"/>
+      <c r="H26" s="31"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="120" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="146">
+        <v>14</v>
+      </c>
+      <c r="F27" s="50"/>
+      <c r="G27" s="113"/>
+      <c r="H27" s="31"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="120">
+        <v>1</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="146">
+        <v>17</v>
+      </c>
+      <c r="F28" s="50"/>
+      <c r="G28" s="113"/>
+      <c r="H28" s="31"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="120">
+        <v>1</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="E29" s="146">
+        <v>37</v>
+      </c>
+      <c r="F29" s="50"/>
+      <c r="G29" s="113"/>
+      <c r="H29" s="131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B30" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C30" s="142">
         <v>1</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D30" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="81">
+      <c r="E30" s="147">
         <v>14</v>
       </c>
-      <c r="F12" s="85"/>
-      <c r="G12" s="81"/>
-      <c r="H12"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="9">
-        <v>1</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="81">
-        <v>30</v>
-      </c>
-      <c r="F13" s="86" t="s">
-        <v>195</v>
-      </c>
-      <c r="G13" s="81">
-        <v>40</v>
-      </c>
-      <c r="H13" s="100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="9">
-        <v>1</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="81">
-        <v>3.5</v>
-      </c>
-      <c r="F14" s="86"/>
-      <c r="G14" s="81"/>
-      <c r="H14"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="9">
-        <v>1</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="81">
-        <v>2</v>
-      </c>
-      <c r="F15" s="86"/>
-      <c r="G15" s="81"/>
-      <c r="H15"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" s="9">
-        <v>1</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" s="81">
-        <v>17</v>
-      </c>
-      <c r="F16" s="56"/>
-      <c r="G16" s="81"/>
-      <c r="H16"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="9">
-        <v>1</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E17" s="81">
-        <v>20</v>
-      </c>
-      <c r="F17" s="56"/>
-      <c r="G17" s="81"/>
-      <c r="H17"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="9">
-        <v>1</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E18" s="81">
-        <v>2.5</v>
-      </c>
-      <c r="F18" s="56"/>
-      <c r="G18" s="81"/>
-      <c r="H18"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="9">
-        <v>1</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E19" s="81">
-        <v>20</v>
-      </c>
-      <c r="F19" s="56"/>
-      <c r="G19" s="81"/>
-      <c r="H19"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" s="9">
-        <v>1</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E20" s="81">
-        <v>8.5</v>
-      </c>
-      <c r="F20" s="56"/>
-      <c r="G20" s="81"/>
-      <c r="H20"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E21" s="81">
-        <v>14</v>
-      </c>
-      <c r="F21" s="56"/>
-      <c r="G21" s="81"/>
-      <c r="H21"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" s="9">
-        <v>2</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E22" s="81">
-        <v>8</v>
-      </c>
-      <c r="F22" s="56"/>
-      <c r="G22" s="81"/>
-      <c r="H22"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C23" s="9">
-        <v>1</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E23" s="81">
-        <v>6</v>
-      </c>
-      <c r="F23" s="56"/>
-      <c r="G23" s="81"/>
-      <c r="H23"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C24" s="9">
-        <v>7</v>
-      </c>
-      <c r="D24" s="126" t="s">
-        <v>191</v>
-      </c>
-      <c r="E24" s="33">
-        <v>25</v>
-      </c>
-      <c r="F24" s="87"/>
-      <c r="G24" s="33"/>
-      <c r="H24"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C25" s="9">
-        <v>6</v>
-      </c>
-      <c r="D25" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="E25" s="35">
-        <v>22</v>
-      </c>
-      <c r="F25" s="88"/>
-      <c r="G25" s="35"/>
-      <c r="H25"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="C26" s="9">
-        <v>70</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="E26" s="35">
-        <v>15</v>
-      </c>
-      <c r="F26" s="56" t="s">
-        <v>200</v>
-      </c>
-      <c r="G26" s="35"/>
-      <c r="H26"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C27" s="9">
-        <v>3</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E27" s="81">
-        <v>30</v>
-      </c>
-      <c r="F27" s="56"/>
-      <c r="G27" s="81"/>
-      <c r="H27"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C28" s="9">
-        <v>1</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="E28" s="81">
-        <v>37</v>
-      </c>
-      <c r="F28" s="56"/>
-      <c r="G28" s="81"/>
-      <c r="H28" s="100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="C29" s="9">
-        <v>1</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="E29" s="134">
-        <v>30</v>
-      </c>
-      <c r="F29" s="56" t="s">
-        <v>207</v>
-      </c>
-      <c r="G29" s="81">
-        <v>16</v>
-      </c>
-      <c r="H29" s="100"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="29" t="s">
-        <v>215</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="C30" s="9">
-        <v>1</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="E30" s="134">
-        <v>8</v>
-      </c>
-      <c r="F30" s="56"/>
-      <c r="G30" s="81"/>
-      <c r="H30" s="100"/>
+      <c r="F30" s="151"/>
+      <c r="G30" s="152"/>
+      <c r="H30" s="117"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="B31" t="s">
-        <v>216</v>
-      </c>
-      <c r="C31" s="9">
-        <v>1</v>
-      </c>
-      <c r="D31" s="56" t="s">
-        <v>212</v>
-      </c>
-      <c r="E31" s="81">
-        <v>2.5</v>
-      </c>
-      <c r="F31" s="90"/>
-      <c r="G31" s="91"/>
-      <c r="H31" s="100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="12" t="s">
+      <c r="A31" s="125" t="s">
         <v>103</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="72">
-        <f>SUM(E6:E31)</f>
+      <c r="B31" s="126"/>
+      <c r="C31" s="126"/>
+      <c r="D31" s="126"/>
+      <c r="E31" s="127">
+        <f>SUM(E5:E30)</f>
         <v>394</v>
       </c>
-      <c r="F32" s="71"/>
-      <c r="G32" s="71"/>
-      <c r="H32" s="71"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="65"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D13" r:id="rId1" xr:uid="{3773511A-F3AF-4897-B5BB-16FB39A0B508}"/>
-    <hyperlink ref="D10" r:id="rId2" xr:uid="{AFC120EB-E75F-4BB8-BC6D-4AA9408DD14D}"/>
-    <hyperlink ref="D19" r:id="rId3" display="Link" xr:uid="{401DDADA-DB79-4416-96CF-3B1D6329769B}"/>
-    <hyperlink ref="D8" r:id="rId4" display="24V Dual Ball" xr:uid="{98BCAD8D-1DD9-49E5-B60D-FB8A39108E71}"/>
-    <hyperlink ref="D9" r:id="rId5" xr:uid="{968A8156-5055-4A5F-97A2-06DF8EA0EB3D}"/>
-    <hyperlink ref="D21" r:id="rId6" display="5 Meter Gates LL" xr:uid="{9F0DE403-B0EC-4933-928F-2806FBCF603A}"/>
-    <hyperlink ref="D20" r:id="rId7" display="Link" xr:uid="{45531F32-6B6C-44D5-9B2A-FB1F259BC9F9}"/>
-    <hyperlink ref="F13" r:id="rId8" display="Keenovo" xr:uid="{C2A02BBB-B317-4856-A562-A30BE2CA0A6C}"/>
-    <hyperlink ref="D23" r:id="rId9" display="8 Bore" xr:uid="{4C50ADBB-FC9C-42E4-8421-5A0C1600DD46}"/>
-    <hyperlink ref="D22" r:id="rId10" display="5 BORE" xr:uid="{43C03DCA-7867-4C9F-B1D0-8588267A1C82}"/>
-    <hyperlink ref="D14" r:id="rId11" xr:uid="{A901DFE1-486C-4AC2-8672-C18618945E04}"/>
-    <hyperlink ref="D15" r:id="rId12" xr:uid="{BA467D2F-0948-4A82-B49C-B8DCBA7936A0}"/>
-    <hyperlink ref="D27" r:id="rId13" display="Link" xr:uid="{49178A12-AF45-4969-AC8E-49BA3EBADDA9}"/>
-    <hyperlink ref="D17" r:id="rId14" xr:uid="{9689F2B7-24E0-4CC5-A39F-53D7E0370FC8}"/>
-    <hyperlink ref="D16" r:id="rId15" xr:uid="{537A3F3C-7C92-42A9-B8B2-F37129F7787F}"/>
-    <hyperlink ref="D18" r:id="rId16" xr:uid="{82909F8B-3A14-4248-8CB2-384756C6E8BE}"/>
-    <hyperlink ref="D28" r:id="rId17" xr:uid="{0D6A5659-9181-49D0-A7D8-101F63076C8A}"/>
-    <hyperlink ref="D11" r:id="rId18" xr:uid="{4AEFCE09-28B7-4C24-82DE-ADAB9CAA43E1}"/>
-    <hyperlink ref="D12" r:id="rId19" xr:uid="{0ED2334F-09CF-437E-82F8-E81D86F288DC}"/>
-    <hyperlink ref="D24" r:id="rId20" xr:uid="{87CB364F-700B-4E81-BC67-3C859C1B7934}"/>
-    <hyperlink ref="D25" r:id="rId21" display="5X High End" xr:uid="{D4CB98E8-7A2B-495D-9E37-8208D21A6270}"/>
-    <hyperlink ref="D26" r:id="rId22" display="6x5x1 Option Shim" xr:uid="{A333F16C-7F8A-421A-B64A-B04B701B747A}"/>
-    <hyperlink ref="F26" r:id="rId23" display="NB! 200 pcs option is same price" xr:uid="{D98A7A59-4D4C-4589-8C00-1DCF83FFF3E6}"/>
-    <hyperlink ref="F6" r:id="rId24" xr:uid="{5B14FBB6-ADAD-4948-95D7-FBD8C9BC5BB5}"/>
-    <hyperlink ref="D7" r:id="rId25" display="MKS DUET WIFI" xr:uid="{F52EB8DF-670A-4145-90A1-8A8DF8B4B7B2}"/>
-    <hyperlink ref="F7" r:id="rId26" display="Mini 12864" xr:uid="{321ACA62-20AB-45F9-A643-EE2EB664C961}"/>
-    <hyperlink ref="D29" r:id="rId27" xr:uid="{53A16D3E-EBE4-45B6-9E87-70111D7D2FFE}"/>
-    <hyperlink ref="F29" r:id="rId28" xr:uid="{2E01C49B-F943-468C-B222-27E06F7C15FC}"/>
-    <hyperlink ref="A31" r:id="rId29" display="Cable Loom - Bowden Path" xr:uid="{73998A44-7105-4A13-A714-12369DB7FB93}"/>
-    <hyperlink ref="D31" r:id="rId30" display="Cable Loom - Bowden Path" xr:uid="{5DD23B84-72DC-46EC-A740-B82AFAD09C94}"/>
-    <hyperlink ref="D30" r:id="rId31" xr:uid="{0C6F2C79-ACBB-4C55-AC21-4895BA685D6B}"/>
+    <hyperlink ref="D25" r:id="rId1" xr:uid="{3773511A-F3AF-4897-B5BB-16FB39A0B508}"/>
+    <hyperlink ref="D9" r:id="rId2" xr:uid="{AFC120EB-E75F-4BB8-BC6D-4AA9408DD14D}"/>
+    <hyperlink ref="D23" r:id="rId3" display="Link" xr:uid="{401DDADA-DB79-4416-96CF-3B1D6329769B}"/>
+    <hyperlink ref="D17" r:id="rId4" display="24V Dual Ball" xr:uid="{98BCAD8D-1DD9-49E5-B60D-FB8A39108E71}"/>
+    <hyperlink ref="D16" r:id="rId5" xr:uid="{968A8156-5055-4A5F-97A2-06DF8EA0EB3D}"/>
+    <hyperlink ref="D27" r:id="rId6" display="5 Meter Gates LL" xr:uid="{9F0DE403-B0EC-4933-928F-2806FBCF603A}"/>
+    <hyperlink ref="D22" r:id="rId7" display="Link" xr:uid="{45531F32-6B6C-44D5-9B2A-FB1F259BC9F9}"/>
+    <hyperlink ref="F25" r:id="rId8" display="Keenovo" xr:uid="{C2A02BBB-B317-4856-A562-A30BE2CA0A6C}"/>
+    <hyperlink ref="D19" r:id="rId9" display="8 Bore" xr:uid="{4C50ADBB-FC9C-42E4-8421-5A0C1600DD46}"/>
+    <hyperlink ref="D18" r:id="rId10" display="5 BORE" xr:uid="{43C03DCA-7867-4C9F-B1D0-8588267A1C82}"/>
+    <hyperlink ref="D26" r:id="rId11" xr:uid="{A901DFE1-486C-4AC2-8672-C18618945E04}"/>
+    <hyperlink ref="D24" r:id="rId12" xr:uid="{BA467D2F-0948-4A82-B49C-B8DCBA7936A0}"/>
+    <hyperlink ref="D20" r:id="rId13" display="Link" xr:uid="{49178A12-AF45-4969-AC8E-49BA3EBADDA9}"/>
+    <hyperlink ref="D14" r:id="rId14" xr:uid="{9689F2B7-24E0-4CC5-A39F-53D7E0370FC8}"/>
+    <hyperlink ref="D28" r:id="rId15" xr:uid="{537A3F3C-7C92-42A9-B8B2-F37129F7787F}"/>
+    <hyperlink ref="D8" r:id="rId16" xr:uid="{82909F8B-3A14-4248-8CB2-384756C6E8BE}"/>
+    <hyperlink ref="D29" r:id="rId17" xr:uid="{0D6A5659-9181-49D0-A7D8-101F63076C8A}"/>
+    <hyperlink ref="D21" r:id="rId18" xr:uid="{4AEFCE09-28B7-4C24-82DE-ADAB9CAA43E1}"/>
+    <hyperlink ref="D30" r:id="rId19" xr:uid="{0ED2334F-09CF-437E-82F8-E81D86F288DC}"/>
+    <hyperlink ref="D7" r:id="rId20" xr:uid="{87CB364F-700B-4E81-BC67-3C859C1B7934}"/>
+    <hyperlink ref="D6" r:id="rId21" display="5X High End" xr:uid="{D4CB98E8-7A2B-495D-9E37-8208D21A6270}"/>
+    <hyperlink ref="D5" r:id="rId22" display="6x5x1 Option Shim" xr:uid="{A333F16C-7F8A-421A-B64A-B04B701B747A}"/>
+    <hyperlink ref="F5" r:id="rId23" display="NB! 200 pcs option is same price" xr:uid="{D98A7A59-4D4C-4589-8C00-1DCF83FFF3E6}"/>
+    <hyperlink ref="F13" r:id="rId24" xr:uid="{5B14FBB6-ADAD-4948-95D7-FBD8C9BC5BB5}"/>
+    <hyperlink ref="D12" r:id="rId25" display="MKS DUET WIFI" xr:uid="{F52EB8DF-670A-4145-90A1-8A8DF8B4B7B2}"/>
+    <hyperlink ref="F12" r:id="rId26" display="Mini 12864" xr:uid="{321ACA62-20AB-45F9-A643-EE2EB664C961}"/>
+    <hyperlink ref="D15" r:id="rId27" xr:uid="{53A16D3E-EBE4-45B6-9E87-70111D7D2FFE}"/>
+    <hyperlink ref="F15" r:id="rId28" xr:uid="{2E01C49B-F943-468C-B222-27E06F7C15FC}"/>
+    <hyperlink ref="D10" r:id="rId29" display="Cable Loom - Bowden Path" xr:uid="{5DD23B84-72DC-46EC-A740-B82AFAD09C94}"/>
+    <hyperlink ref="D11" r:id="rId30" xr:uid="{0C6F2C79-ACBB-4C55-AC21-4895BA685D6B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId32"/>
-  <drawing r:id="rId33"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId31"/>
+  <drawing r:id="rId32"/>
   <tableParts count="1">
-    <tablePart r:id="rId34"/>
+    <tablePart r:id="rId33"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3644,17 +3659,17 @@
     <col min="10" max="10" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="96" t="s">
+      <c r="C1" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="94" t="s">
+      <c r="D1" s="76" t="s">
         <v>104</v>
       </c>
       <c r="F1" t="s">
@@ -3668,529 +3683,529 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="32">
+      <c r="C2" s="29">
         <v>2</v>
       </c>
-      <c r="D2" s="95">
+      <c r="D2" s="77">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="32">
+      <c r="C3" s="29">
         <v>4</v>
       </c>
-      <c r="D3" s="95">
+      <c r="D3" s="77">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="29">
         <v>4</v>
       </c>
-      <c r="D4" s="95">
+      <c r="D4" s="77">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="29">
         <v>2</v>
       </c>
-      <c r="D5" s="95">
+      <c r="D5" s="77">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="29">
         <v>2</v>
       </c>
-      <c r="D6" s="95">
+      <c r="D6" s="77">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="29">
         <v>11</v>
       </c>
-      <c r="D7" s="95">
+      <c r="D7" s="77">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="29">
         <v>15</v>
       </c>
-      <c r="D8" s="95">
+      <c r="D8" s="77">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="29">
         <v>6</v>
       </c>
-      <c r="D9" s="95">
+      <c r="D9" s="77">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C10" s="32">
+      <c r="C10" s="29">
         <v>9</v>
       </c>
-      <c r="D10" s="95">
+      <c r="D10" s="77">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C11" s="32">
+      <c r="C11" s="29">
         <v>5</v>
       </c>
-      <c r="D11" s="95">
+      <c r="D11" s="77">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="29">
         <v>8</v>
       </c>
-      <c r="D12" s="95">
+      <c r="D12" s="77">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="C13" s="32">
+      <c r="C13" s="29">
         <v>2</v>
       </c>
-      <c r="D13" s="95">
+      <c r="D13" s="77">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C14" s="32">
+      <c r="C14" s="29">
         <v>5</v>
       </c>
-      <c r="D14" s="95">
+      <c r="D14" s="77">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="32">
+      <c r="C15" s="29">
         <v>5</v>
       </c>
-      <c r="D15" s="95">
+      <c r="D15" s="77">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C16" s="32">
+      <c r="C16" s="29">
         <v>13</v>
       </c>
-      <c r="D16" s="95">
+      <c r="D16" s="77">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C17" s="32">
+      <c r="C17" s="29">
         <v>6</v>
       </c>
-      <c r="D17" s="95">
+      <c r="D17" s="77">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C18" s="32">
+      <c r="C18" s="29">
         <v>2</v>
       </c>
-      <c r="D18" s="95">
+      <c r="D18" s="77">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C19" s="32">
+      <c r="C19" s="29">
         <v>1</v>
       </c>
-      <c r="D19" s="95">
+      <c r="D19" s="77">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="C20" s="32">
+      <c r="B20" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C20" s="29">
         <v>3</v>
       </c>
-      <c r="D20" s="95">
+      <c r="D20" s="77">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="C21" s="32">
+      <c r="B21" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C21" s="29">
         <v>1</v>
       </c>
-      <c r="D21" s="95">
+      <c r="D21" s="77">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="32">
+      <c r="C22" s="29">
         <v>1</v>
       </c>
-      <c r="D22" s="95">
+      <c r="D22" s="77">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C23" s="32">
+      <c r="C23" s="29">
         <v>28</v>
       </c>
-      <c r="D23" s="95">
+      <c r="D23" s="77">
         <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C24" s="32">
+      <c r="C24" s="29">
         <v>6</v>
       </c>
-      <c r="D24" s="95">
+      <c r="D24" s="77">
         <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C25" s="32">
+      <c r="C25" s="29">
         <v>50</v>
       </c>
-      <c r="D25" s="95">
+      <c r="D25" s="77">
         <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="B26" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="C26" s="32">
+      <c r="B26" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="C26" s="29">
         <v>63</v>
       </c>
-      <c r="D26" s="95">
+      <c r="D26" s="77">
         <v>70</v>
       </c>
-      <c r="E26" s="4" t="s">
-        <v>197</v>
+      <c r="E26" s="3" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C27" s="32">
+      <c r="C27" s="29">
         <v>143</v>
       </c>
-      <c r="D27" s="95">
+      <c r="D27" s="77">
         <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C28" s="32">
+      <c r="C28" s="29">
         <v>200</v>
       </c>
-      <c r="D28" s="95">
+      <c r="D28" s="77">
         <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C29" s="32">
+      <c r="C29" s="29">
         <v>142</v>
       </c>
-      <c r="D29" s="95">
+      <c r="D29" s="77">
         <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="29" t="s">
+      <c r="A30" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C30" s="32">
+      <c r="C30" s="29">
         <v>8</v>
       </c>
-      <c r="D30" s="95">
+      <c r="D30" s="77">
         <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C31" s="32">
+      <c r="C31" s="29">
         <v>1</v>
       </c>
-      <c r="D31" s="95">
+      <c r="D31" s="77">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C32" s="32">
+      <c r="C32" s="29">
         <v>2</v>
       </c>
-      <c r="D32" s="95">
+      <c r="D32" s="77">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="29" t="s">
+      <c r="A33" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C33" s="32">
+      <c r="C33" s="29">
         <v>2</v>
       </c>
-      <c r="D33" s="95">
+      <c r="D33" s="77">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="29" t="s">
+      <c r="A34" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C34" s="32">
+      <c r="C34" s="29">
         <v>18</v>
       </c>
-      <c r="D34" s="95">
+      <c r="D34" s="77">
         <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C35" s="32">
+      <c r="C35" s="29">
         <v>8</v>
       </c>
-      <c r="D35" s="95">
+      <c r="D35" s="77">
         <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="29" t="s">
+      <c r="A36" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="B36" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="C36" s="32">
+      <c r="B36" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C36" s="29">
         <v>4</v>
       </c>
-      <c r="D36" s="95">
+      <c r="D36" s="77">
         <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="69" t="s">
+      <c r="A37" s="63" t="s">
         <v>146</v>
       </c>
-      <c r="B37" s="70"/>
-      <c r="C37" s="97">
+      <c r="B37" s="64"/>
+      <c r="C37" s="79">
         <f>SUM(C2:C36)</f>
         <v>782</v>
       </c>
-      <c r="D37" s="98">
+      <c r="D37" s="80">
         <f>SUM(D2:D36)</f>
         <v>806</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="99">
+      <c r="B38" s="6"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="81">
         <v>0.1</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="28">
+      <c r="B39" s="7"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="25">
         <f>D37*D38</f>
         <v>80.600000000000009</v>
       </c>

--- a/Document Library/Bill Of Materials/V-Baby BOM.xlsx
+++ b/Document Library/Bill Of Materials/V-Baby BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/V-Baby CoreXY/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1955" documentId="11_2E462098BBA7632759C38D02185E4833A2B67484" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FB102730-A57A-4165-89BD-8C428997DB2C}"/>
+  <xr:revisionPtr revIDLastSave="1960" documentId="11_2E462098BBA7632759C38D02185E4833A2B67484" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{34BF0CA1-6A61-4947-B8E0-1C768E9500D1}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -615,15 +615,9 @@
     <t>Belt Idler Precision Shim</t>
   </si>
   <si>
-    <t>5x6x1 mm Precision Shim</t>
-  </si>
-  <si>
     <t>Keenovo Option</t>
   </si>
   <si>
-    <t>(4x20) 6x5x1 Option Shim</t>
-  </si>
-  <si>
     <t>NB! See Component List</t>
   </si>
   <si>
@@ -657,9 +651,6 @@
     <t>SKR 1.3 + TMC2209x5</t>
   </si>
   <si>
-    <t>BTT DUET WIFI Clone</t>
-  </si>
-  <si>
     <t>AliExpress Link</t>
   </si>
   <si>
@@ -700,6 +691,15 @@
   </si>
   <si>
     <t>Column7</t>
+  </si>
+  <si>
+    <t>MKS DUET WIFI Clone</t>
+  </si>
+  <si>
+    <t>(4x20) 6.5x5x1 Option Shim</t>
+  </si>
+  <si>
+    <t>6.5x5x1 mm Precision Shim</t>
   </si>
 </sst>
 </file>
@@ -1404,12 +1404,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -1473,6 +1467,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="40% - Accent6" xfId="4" builtinId="51"/>
@@ -2152,7 +2152,7 @@
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
       <c r="E2" s="20"/>
-      <c r="F2" s="114" t="s">
+      <c r="F2" s="151" t="s">
         <v>150</v>
       </c>
       <c r="G2" s="41"/>
@@ -2177,7 +2177,7 @@
         <f>D3*310</f>
         <v>1240</v>
       </c>
-      <c r="F3" s="115"/>
+      <c r="F3" s="152"/>
       <c r="G3" s="41"/>
       <c r="H3" s="50"/>
       <c r="I3" s="15"/>
@@ -2200,7 +2200,7 @@
         <f>D4*350</f>
         <v>1400</v>
       </c>
-      <c r="F4" s="115"/>
+      <c r="F4" s="152"/>
       <c r="G4" s="41"/>
       <c r="H4" s="51"/>
       <c r="I4" s="43"/>
@@ -2223,7 +2223,7 @@
         <f>D5*340</f>
         <v>1700</v>
       </c>
-      <c r="F5" s="115"/>
+      <c r="F5" s="152"/>
       <c r="G5" s="41"/>
       <c r="H5" s="50"/>
       <c r="I5" s="15"/>
@@ -2246,7 +2246,7 @@
         <f>D6*295</f>
         <v>295</v>
       </c>
-      <c r="F6" s="115"/>
+      <c r="F6" s="152"/>
       <c r="G6" s="41"/>
       <c r="H6" s="51"/>
       <c r="I6" s="43"/>
@@ -2258,7 +2258,7 @@
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="10"/>
-      <c r="F7" s="115"/>
+      <c r="F7" s="152"/>
       <c r="G7" s="41"/>
       <c r="H7" s="26"/>
       <c r="I7" s="6"/>
@@ -2281,7 +2281,7 @@
         <f>D8*290</f>
         <v>290</v>
       </c>
-      <c r="F8" s="115"/>
+      <c r="F8" s="152"/>
       <c r="G8" s="41"/>
       <c r="H8" s="51"/>
       <c r="I8" s="43"/>
@@ -2304,7 +2304,7 @@
         <f>D9*350</f>
         <v>700</v>
       </c>
-      <c r="F9" s="115"/>
+      <c r="F9" s="152"/>
       <c r="G9" s="41"/>
       <c r="H9" s="50"/>
       <c r="I9" s="15"/>
@@ -2325,7 +2325,7 @@
         <f>SUM(E3:E9)</f>
         <v>5625</v>
       </c>
-      <c r="F10" s="115"/>
+      <c r="F10" s="152"/>
       <c r="G10" s="41"/>
       <c r="H10" s="52" t="s">
         <v>27</v>
@@ -2343,7 +2343,7 @@
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="10"/>
-      <c r="F11" s="115"/>
+      <c r="F11" s="152"/>
       <c r="G11" s="41"/>
       <c r="H11" s="26" t="s">
         <v>28</v>
@@ -2367,7 +2367,7 @@
         <v>18</v>
       </c>
       <c r="E12" s="21"/>
-      <c r="F12" s="115"/>
+      <c r="F12" s="152"/>
       <c r="G12" s="41"/>
       <c r="H12" s="52" t="s">
         <v>31</v>
@@ -2385,7 +2385,7 @@
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="10"/>
-      <c r="F13" s="115"/>
+      <c r="F13" s="152"/>
       <c r="G13" s="41"/>
       <c r="H13" s="26"/>
       <c r="I13" s="62"/>
@@ -2405,7 +2405,7 @@
         <v>30</v>
       </c>
       <c r="E14" s="21"/>
-      <c r="F14" s="115"/>
+      <c r="F14" s="152"/>
       <c r="G14" s="41"/>
       <c r="H14" s="52" t="s">
         <v>35</v>
@@ -2974,62 +2974,62 @@
         <v>161</v>
       </c>
       <c r="F1" s="70" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G1" s="70" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H1" s="70" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="66" customFormat="1" ht="27.75" x14ac:dyDescent="0.5">
-      <c r="A2" s="135"/>
+      <c r="A2" s="133"/>
       <c r="B2" s="112" t="s">
-        <v>202</v>
-      </c>
-      <c r="C2" s="136"/>
+        <v>200</v>
+      </c>
+      <c r="C2" s="134"/>
       <c r="D2" s="108" t="s">
-        <v>201</v>
-      </c>
-      <c r="E2" s="137"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="139"/>
+        <v>199</v>
+      </c>
+      <c r="E2" s="135"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="137"/>
     </row>
     <row r="3" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="118"/>
+      <c r="A3" s="116"/>
       <c r="B3" s="108"/>
-      <c r="C3" s="129"/>
+      <c r="C3" s="127"/>
       <c r="D3" s="109"/>
       <c r="E3" s="109"/>
       <c r="F3" s="110"/>
       <c r="G3" s="110"/>
-      <c r="H3" s="124"/>
+      <c r="H3" s="122"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="133" t="s">
+      <c r="A4" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="134" t="s">
+      <c r="B4" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="119" t="s">
+      <c r="C4" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="134" t="s">
-        <v>208</v>
-      </c>
-      <c r="E4" s="134" t="s">
+      <c r="D4" s="132" t="s">
+        <v>205</v>
+      </c>
+      <c r="E4" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="119" t="s">
-        <v>209</v>
-      </c>
-      <c r="G4" s="119" t="s">
+      <c r="F4" s="117" t="s">
+        <v>206</v>
+      </c>
+      <c r="G4" s="117" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="148" t="s">
+      <c r="H4" s="146" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3038,22 +3038,22 @@
         <v>192</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="C5" s="141">
+        <v>221</v>
+      </c>
+      <c r="C5" s="139">
         <v>80</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="E5" s="143">
+        <v>220</v>
+      </c>
+      <c r="E5" s="141">
         <v>15</v>
       </c>
-      <c r="F5" s="149" t="s">
-        <v>198</v>
-      </c>
-      <c r="G5" s="150"/>
-      <c r="H5" s="116"/>
+      <c r="F5" s="147" t="s">
+        <v>196</v>
+      </c>
+      <c r="G5" s="148"/>
+      <c r="H5" s="114"/>
       <c r="I5" s="111"/>
     </row>
     <row r="6" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
@@ -3063,17 +3063,17 @@
       <c r="B6" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="120">
+      <c r="C6" s="118">
         <v>6</v>
       </c>
-      <c r="D6" s="123" t="s">
+      <c r="D6" s="121" t="s">
         <v>97</v>
       </c>
-      <c r="E6" s="144">
+      <c r="E6" s="142">
         <v>22</v>
       </c>
       <c r="F6" s="74"/>
-      <c r="G6" s="121"/>
+      <c r="G6" s="119"/>
       <c r="H6" s="31"/>
       <c r="I6" s="111"/>
     </row>
@@ -3084,17 +3084,17 @@
       <c r="B7" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="120">
+      <c r="C7" s="118">
         <v>7</v>
       </c>
-      <c r="D7" s="140" t="s">
+      <c r="D7" s="138" t="s">
         <v>190</v>
       </c>
-      <c r="E7" s="145">
+      <c r="E7" s="143">
         <v>25</v>
       </c>
       <c r="F7" s="73"/>
-      <c r="G7" s="122"/>
+      <c r="G7" s="120"/>
       <c r="H7" s="31"/>
       <c r="I7" s="111"/>
     </row>
@@ -3105,13 +3105,13 @@
       <c r="B8" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="120">
+      <c r="C8" s="118">
         <v>1</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="E8" s="146">
+      <c r="E8" s="144">
         <v>2.5</v>
       </c>
       <c r="F8" s="50"/>
@@ -3125,13 +3125,13 @@
       <c r="B9" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="120">
+      <c r="C9" s="118">
         <v>2</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="146">
+      <c r="E9" s="144">
         <v>3</v>
       </c>
       <c r="F9" s="71"/>
@@ -3139,94 +3139,94 @@
       <c r="H9" s="31"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="130" t="s">
-        <v>211</v>
+      <c r="A10" s="128" t="s">
+        <v>208</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="C10" s="120">
+        <v>210</v>
+      </c>
+      <c r="C10" s="118">
         <v>1</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="E10" s="146">
+        <v>207</v>
+      </c>
+      <c r="E10" s="144">
         <v>2.5</v>
       </c>
       <c r="F10" s="50"/>
       <c r="G10" s="113"/>
-      <c r="H10" s="131">
+      <c r="H10" s="129">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C11" s="120">
+        <v>209</v>
+      </c>
+      <c r="C11" s="118">
         <v>1</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="E11" s="146">
+        <v>211</v>
+      </c>
+      <c r="E11" s="144">
         <v>8</v>
       </c>
       <c r="F11" s="50"/>
       <c r="G11" s="113"/>
-      <c r="H11" s="131"/>
+      <c r="H11" s="129"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="C12" s="120">
+        <v>197</v>
+      </c>
+      <c r="C12" s="118">
         <v>1</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="E12" s="146">
+        <v>219</v>
+      </c>
+      <c r="E12" s="144">
         <v>60</v>
       </c>
       <c r="F12" s="71" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G12" s="113">
         <v>15</v>
       </c>
-      <c r="H12" s="132">
+      <c r="H12" s="130">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="C13" s="120" t="s">
-        <v>217</v>
-      </c>
-      <c r="D13" s="128" t="s">
-        <v>218</v>
-      </c>
-      <c r="E13" s="146"/>
+        <v>213</v>
+      </c>
+      <c r="C13" s="118" t="s">
+        <v>214</v>
+      </c>
+      <c r="D13" s="126" t="s">
+        <v>215</v>
+      </c>
+      <c r="E13" s="144"/>
       <c r="F13" s="50" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G13" s="113">
         <v>45</v>
       </c>
-      <c r="H13" s="132">
+      <c r="H13" s="130">
         <v>1</v>
       </c>
     </row>
@@ -3237,13 +3237,13 @@
       <c r="B14" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="120">
+      <c r="C14" s="118">
         <v>1</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="146">
+      <c r="E14" s="144">
         <v>20</v>
       </c>
       <c r="F14" s="50"/>
@@ -3252,27 +3252,27 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C15" s="118">
+        <v>1</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="E15" s="144">
+        <v>30</v>
+      </c>
+      <c r="F15" s="50" t="s">
         <v>203</v>
-      </c>
-      <c r="C15" s="120">
-        <v>1</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="E15" s="146">
-        <v>30</v>
-      </c>
-      <c r="F15" s="50" t="s">
-        <v>205</v>
       </c>
       <c r="G15" s="113">
         <v>16</v>
       </c>
-      <c r="H15" s="131"/>
+      <c r="H15" s="129"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
@@ -3281,13 +3281,13 @@
       <c r="B16" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="120">
+      <c r="C16" s="118">
         <v>1</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="146">
+      <c r="E16" s="144">
         <v>2</v>
       </c>
       <c r="F16" s="50"/>
@@ -3301,13 +3301,13 @@
       <c r="B17" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="120">
+      <c r="C17" s="118">
         <v>2</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="146">
+      <c r="E17" s="144">
         <v>10</v>
       </c>
       <c r="F17" s="50"/>
@@ -3321,13 +3321,13 @@
       <c r="B18" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="120">
+      <c r="C18" s="118">
         <v>2</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="E18" s="146">
+      <c r="E18" s="144">
         <v>8</v>
       </c>
       <c r="F18" s="50"/>
@@ -3341,13 +3341,13 @@
       <c r="B19" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C19" s="120">
+      <c r="C19" s="118">
         <v>1</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="E19" s="146">
+      <c r="E19" s="144">
         <v>6</v>
       </c>
       <c r="F19" s="50"/>
@@ -3361,13 +3361,13 @@
       <c r="B20" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C20" s="120">
+      <c r="C20" s="118">
         <v>3</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="E20" s="146">
+      <c r="E20" s="144">
         <v>30</v>
       </c>
       <c r="F20" s="50"/>
@@ -3381,13 +3381,13 @@
       <c r="B21" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="120">
+      <c r="C21" s="118">
         <v>3</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="146">
+      <c r="E21" s="144">
         <v>4</v>
       </c>
       <c r="F21" s="71"/>
@@ -3401,13 +3401,13 @@
       <c r="B22" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C22" s="120">
+      <c r="C22" s="118">
         <v>1</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="E22" s="146">
+      <c r="E22" s="144">
         <v>8.5</v>
       </c>
       <c r="F22" s="50"/>
@@ -3421,13 +3421,13 @@
       <c r="B23" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="120">
+      <c r="C23" s="118">
         <v>1</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="E23" s="146">
+      <c r="E23" s="144">
         <v>20</v>
       </c>
       <c r="F23" s="50"/>
@@ -3441,13 +3441,13 @@
       <c r="B24" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="120">
+      <c r="C24" s="118">
         <v>1</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="146">
+      <c r="E24" s="144">
         <v>2</v>
       </c>
       <c r="F24" s="72"/>
@@ -3461,22 +3461,22 @@
       <c r="B25" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="120">
+      <c r="C25" s="118">
         <v>1</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="146">
+      <c r="E25" s="144">
         <v>30</v>
       </c>
       <c r="F25" s="72" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G25" s="113">
         <v>40</v>
       </c>
-      <c r="H25" s="131">
+      <c r="H25" s="129">
         <v>1</v>
       </c>
     </row>
@@ -3487,13 +3487,13 @@
       <c r="B26" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="120">
+      <c r="C26" s="118">
         <v>1</v>
       </c>
       <c r="D26" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="146">
+      <c r="E26" s="144">
         <v>3.5</v>
       </c>
       <c r="F26" s="72"/>
@@ -3507,13 +3507,13 @@
       <c r="B27" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="120" t="s">
+      <c r="C27" s="118" t="s">
         <v>85</v>
       </c>
       <c r="D27" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E27" s="146">
+      <c r="E27" s="144">
         <v>14</v>
       </c>
       <c r="F27" s="50"/>
@@ -3527,13 +3527,13 @@
       <c r="B28" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="120">
+      <c r="C28" s="118">
         <v>1</v>
       </c>
       <c r="D28" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="E28" s="146">
+      <c r="E28" s="144">
         <v>17</v>
       </c>
       <c r="F28" s="50"/>
@@ -3547,18 +3547,18 @@
       <c r="B29" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C29" s="120">
+      <c r="C29" s="118">
         <v>1</v>
       </c>
       <c r="D29" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="E29" s="146">
+      <c r="E29" s="144">
         <v>37</v>
       </c>
       <c r="F29" s="50"/>
       <c r="G29" s="113"/>
-      <c r="H29" s="131">
+      <c r="H29" s="129">
         <v>1</v>
       </c>
     </row>
@@ -3569,27 +3569,27 @@
       <c r="B30" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="142">
+      <c r="C30" s="140">
         <v>1</v>
       </c>
       <c r="D30" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="E30" s="147">
+      <c r="E30" s="145">
         <v>14</v>
       </c>
-      <c r="F30" s="151"/>
-      <c r="G30" s="152"/>
-      <c r="H30" s="117"/>
+      <c r="F30" s="149"/>
+      <c r="G30" s="150"/>
+      <c r="H30" s="115"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="125" t="s">
+      <c r="A31" s="123" t="s">
         <v>103</v>
       </c>
-      <c r="B31" s="126"/>
-      <c r="C31" s="126"/>
-      <c r="D31" s="126"/>
-      <c r="E31" s="127">
+      <c r="B31" s="124"/>
+      <c r="C31" s="124"/>
+      <c r="D31" s="124"/>
+      <c r="E31" s="125">
         <f>SUM(E5:E30)</f>
         <v>394</v>
       </c>
@@ -3624,7 +3624,7 @@
     <hyperlink ref="D5" r:id="rId22" display="6x5x1 Option Shim" xr:uid="{A333F16C-7F8A-421A-B64A-B04B701B747A}"/>
     <hyperlink ref="F5" r:id="rId23" display="NB! 200 pcs option is same price" xr:uid="{D98A7A59-4D4C-4589-8C00-1DCF83FFF3E6}"/>
     <hyperlink ref="F13" r:id="rId24" xr:uid="{5B14FBB6-ADAD-4948-95D7-FBD8C9BC5BB5}"/>
-    <hyperlink ref="D12" r:id="rId25" display="MKS DUET WIFI" xr:uid="{F52EB8DF-670A-4145-90A1-8A8DF8B4B7B2}"/>
+    <hyperlink ref="D12" r:id="rId25" display="BTT DUET WIFI Clone" xr:uid="{F52EB8DF-670A-4145-90A1-8A8DF8B4B7B2}"/>
     <hyperlink ref="F12" r:id="rId26" display="Mini 12864" xr:uid="{321ACA62-20AB-45F9-A643-EE2EB664C961}"/>
     <hyperlink ref="D15" r:id="rId27" xr:uid="{53A16D3E-EBE4-45B6-9E87-70111D7D2FFE}"/>
     <hyperlink ref="F15" r:id="rId28" xr:uid="{2E01C49B-F943-468C-B222-27E06F7C15FC}"/>
@@ -4032,7 +4032,7 @@
         <v>70</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">

--- a/Document Library/Bill Of Materials/V-Baby BOM.xlsx
+++ b/Document Library/Bill Of Materials/V-Baby BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/V-Baby CoreXY/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1960" documentId="11_2E462098BBA7632759C38D02185E4833A2B67484" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{34BF0CA1-6A61-4947-B8E0-1C768E9500D1}"/>
+  <xr:revisionPtr revIDLastSave="2087" documentId="11_2E462098BBA7632759C38D02185E4833A2B67484" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{DE62A0DF-03CB-4643-A9C9-49C7A4EC3BBB}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OpenBuild Part List" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="210">
   <si>
     <t>Exstrusions</t>
   </si>
@@ -201,9 +201,6 @@
     <t>XY(Z) Endstops</t>
   </si>
   <si>
-    <t>6Pcs Endstops</t>
-  </si>
-  <si>
     <t>Z Leveling Probe</t>
   </si>
   <si>
@@ -240,24 +237,9 @@
     <t>135 Deg Fuse</t>
   </si>
   <si>
-    <t>V6 Hotend</t>
-  </si>
-  <si>
-    <t>E3d V6 Type Hotend</t>
-  </si>
-  <si>
-    <t>1,75 24V All Metal V6</t>
-  </si>
-  <si>
     <t>Extruder</t>
   </si>
   <si>
-    <t>Titan Filament Extruder</t>
-  </si>
-  <si>
-    <t>TriangleLab</t>
-  </si>
-  <si>
     <t>Bowden Tube</t>
   </si>
   <si>
@@ -507,24 +489,6 @@
     <t>Brackets</t>
   </si>
   <si>
-    <t>Column1</t>
-  </si>
-  <si>
-    <t>Column2</t>
-  </si>
-  <si>
-    <t>Column3</t>
-  </si>
-  <si>
-    <t>Column4</t>
-  </si>
-  <si>
-    <t>Column5</t>
-  </si>
-  <si>
-    <t>Column8</t>
-  </si>
-  <si>
     <t>M3x30 HEX</t>
   </si>
   <si>
@@ -603,9 +567,6 @@
     <t>Tapped</t>
   </si>
   <si>
-    <t>1/30 Worm Stepper</t>
-  </si>
-  <si>
     <t>8Pcs 7mm With T</t>
   </si>
   <si>
@@ -630,15 +591,9 @@
     <t>Duet WIFI Clone w/TMC2660</t>
   </si>
   <si>
-    <t>LCD TFT24 KIT</t>
-  </si>
-  <si>
     <t>V-Baby CoreXY Part List</t>
   </si>
   <si>
-    <t>Roy Berntsen</t>
-  </si>
-  <si>
     <t>Milled Cast Aluminum</t>
   </si>
   <si>
@@ -648,9 +603,6 @@
     <t>Rolled Aluminum 5mm</t>
   </si>
   <si>
-    <t>SKR 1.3 + TMC2209x5</t>
-  </si>
-  <si>
     <t>AliExpress Link</t>
   </si>
   <si>
@@ -675,24 +627,6 @@
     <t>Cable Sleeve Nylon</t>
   </si>
   <si>
-    <t>SKR Option -&gt;&gt;</t>
-  </si>
-  <si>
-    <t>&gt;</t>
-  </si>
-  <si>
-    <t>--- &gt;&gt;&gt;</t>
-  </si>
-  <si>
-    <t>Controller Option</t>
-  </si>
-  <si>
-    <t>Column6</t>
-  </si>
-  <si>
-    <t>Column7</t>
-  </si>
-  <si>
     <t>MKS DUET WIFI Clone</t>
   </si>
   <si>
@@ -700,14 +634,45 @@
   </si>
   <si>
     <t>6.5x5x1 mm Precision Shim</t>
+  </si>
+  <si>
+    <t>Hotend</t>
+  </si>
+  <si>
+    <t>Dragon Hotend</t>
+  </si>
+  <si>
+    <t>TriangleLab Dragon</t>
+  </si>
+  <si>
+    <t>6Pack Endstops</t>
+  </si>
+  <si>
+    <t>BMG Type Filament Extruder</t>
+  </si>
+  <si>
+    <t>TriangleLab BMG</t>
+  </si>
+  <si>
+    <t>1/17 Worm Stepper</t>
+  </si>
+  <si>
+    <t>MakerSupplies Mechanical Kit</t>
+  </si>
+  <si>
+    <t>&lt;&lt;-- ALL HARDWARE KIT HERE</t>
+  </si>
+  <si>
+    <t>Price inclusive mech kit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="[$USD]\ #,##0.00"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -806,7 +771,7 @@
       <family val="4"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -854,12 +819,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor theme="0" tint="-0.14999847407452621"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -883,7 +842,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -1202,10 +1161,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -1216,23 +1177,34 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1247,7 +1219,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1321,25 +1293,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="5" applyBorder="1"/>
@@ -1367,24 +1320,24 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1404,21 +1357,11 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1426,53 +1369,56 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="3" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="3" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="40% - Accent6" xfId="4" builtinId="51"/>
@@ -1482,38 +1428,179 @@
     <cellStyle name="Neutral" xfId="5" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="15">
     <dxf>
       <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
           <color indexed="64"/>
         </right>
+        <top/>
+        <bottom/>
         <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
         <right/>
-        <vertical/>
+        <top/>
+        <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
-          <color auto="1"/>
+          <color indexed="64"/>
         </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
         <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top/>
         <bottom/>
         <vertical/>
@@ -1537,38 +1624,67 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
         </left>
         <right/>
         <top/>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
+        <left style="thin">
           <color indexed="64"/>
         </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
+        <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="medium">
+        <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="medium">
+        <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
@@ -1581,6 +1697,14 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="0" hidden="0"/>
     </dxf>
   </dxfs>
@@ -1711,22 +1835,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>723901</xdr:colOff>
+      <xdr:colOff>723900</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>171452</xdr:rowOff>
+      <xdr:rowOff>177801</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBC55779-0585-41A3-9122-B8EACACCF42B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9045C511-9464-4B3B-9D1C-EACC6070C369}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1748,8 +1872,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1" y="1"/>
-          <a:ext cx="723900" cy="723900"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="723900" cy="704851"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1758,24 +1882,133 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>895350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4253242" cy="661304"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{040ADF7B-925B-4418-8C31-80D88861FAFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="895350" y="6350"/>
+          <a:ext cx="4253242" cy="661304"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Research, Development &amp; Design by:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1" i="1" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Rage Italic" panose="03070502040507070304" pitchFamily="66" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Roy Berntsen</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Rage Italic" panose="03070502040507070304" pitchFamily="66" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>M.Sc. Engineering Designer</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1070DF90-74AC-4245-AA46-2FAD63F74767}" name="Table1" displayName="Table1" ref="A1:H30" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7">
-  <autoFilter ref="A1:H30" xr:uid="{F74387CC-3A2A-4CC8-A8F2-631B4360BF85}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H30">
-    <sortCondition ref="A5:A30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1070DF90-74AC-4245-AA46-2FAD63F74767}" name="Table1" displayName="Table1" ref="A6:G30" headerRowCount="0" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" headerRowCellStyle="Accent1">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:G30">
+    <sortCondition ref="A9:A30"/>
   </sortState>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{AB8C8187-911D-4248-8608-1F70796FF7C8}" name="Column1" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{129F7AE4-0D03-4AA3-A2BF-5181AA27AF31}" name="Column2"/>
-    <tableColumn id="3" xr3:uid="{34C25536-CCA4-454C-9FCE-0168DD2CC6CC}" name="Column3" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{2ABF818D-0A23-4468-A061-EB5B1AC04237}" name="Column4" dataDxfId="4" dataCellStyle="Hyperlink"/>
-    <tableColumn id="5" xr3:uid="{3DD38B84-FE10-46EA-8CEE-8542F56DCDD7}" name="Column5" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{E4DF9CF3-4A3D-433E-9BD0-F94DDCA192BB}" name="Column6" dataDxfId="2" dataCellStyle="Hyperlink"/>
-    <tableColumn id="7" xr3:uid="{4866A326-BBBA-4B58-BFBD-4D095130E124}" name="Column7" dataDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{BCC2F41B-A8C5-4565-9E8A-D5EEC7EF8FC3}" name="Column8" dataDxfId="0"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{AB8C8187-911D-4248-8608-1F70796FF7C8}" name="Column1" headerRowDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{129F7AE4-0D03-4AA3-A2BF-5181AA27AF31}" name="Column2" headerRowDxfId="10" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{34C25536-CCA4-454C-9FCE-0168DD2CC6CC}" name="Column3" headerRowDxfId="8" dataDxfId="7" headerRowCellStyle="40% - Accent6"/>
+    <tableColumn id="4" xr3:uid="{2ABF818D-0A23-4468-A061-EB5B1AC04237}" name="Column4" headerRowDxfId="6" dataDxfId="5" headerRowCellStyle="Good" dataCellStyle="Hyperlink"/>
+    <tableColumn id="5" xr3:uid="{3DD38B84-FE10-46EA-8CEE-8542F56DCDD7}" name="Column5" headerRowDxfId="4" dataDxfId="3" headerRowCellStyle="Good"/>
+    <tableColumn id="6" xr3:uid="{E4DF9CF3-4A3D-433E-9BD0-F94DDCA192BB}" name="Column6" headerRowDxfId="2" headerRowCellStyle="Accent1" dataCellStyle="Hyperlink"/>
+    <tableColumn id="7" xr3:uid="{4866A326-BBBA-4B58-BFBD-4D095130E124}" name="Column7" headerRowDxfId="1" dataDxfId="0" headerRowCellStyle="Accent1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2106,19 +2339,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.54296875" customWidth="1"/>
+    <col min="2" max="2" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.54296875" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -2135,32 +2368,32 @@
         <v>4</v>
       </c>
       <c r="F1" s="46" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="G1" s="44"/>
       <c r="H1" s="57" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="I1" s="56"/>
       <c r="J1" s="58" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="47"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
       <c r="E2" s="20"/>
-      <c r="F2" s="151" t="s">
-        <v>150</v>
+      <c r="F2" s="133" t="s">
+        <v>144</v>
       </c>
       <c r="G2" s="41"/>
       <c r="H2" s="51"/>
       <c r="I2" s="43"/>
       <c r="J2" s="59"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="48" t="s">
         <v>7</v>
       </c>
@@ -2177,13 +2410,13 @@
         <f>D3*310</f>
         <v>1240</v>
       </c>
-      <c r="F3" s="152"/>
+      <c r="F3" s="134"/>
       <c r="G3" s="41"/>
       <c r="H3" s="50"/>
       <c r="I3" s="15"/>
       <c r="J3" s="60"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="49" t="s">
         <v>10</v>
       </c>
@@ -2200,13 +2433,13 @@
         <f>D4*350</f>
         <v>1400</v>
       </c>
-      <c r="F4" s="152"/>
+      <c r="F4" s="134"/>
       <c r="G4" s="41"/>
       <c r="H4" s="51"/>
       <c r="I4" s="43"/>
       <c r="J4" s="59"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="48" t="s">
         <v>13</v>
       </c>
@@ -2223,13 +2456,13 @@
         <f>D5*340</f>
         <v>1700</v>
       </c>
-      <c r="F5" s="152"/>
+      <c r="F5" s="134"/>
       <c r="G5" s="41"/>
       <c r="H5" s="50"/>
       <c r="I5" s="15"/>
       <c r="J5" s="60"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="49" t="s">
         <v>16</v>
       </c>
@@ -2246,25 +2479,25 @@
         <f>D6*295</f>
         <v>295</v>
       </c>
-      <c r="F6" s="152"/>
+      <c r="F6" s="134"/>
       <c r="G6" s="41"/>
       <c r="H6" s="51"/>
       <c r="I6" s="43"/>
       <c r="J6" s="59"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="48"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="10"/>
-      <c r="F7" s="152"/>
+      <c r="F7" s="134"/>
       <c r="G7" s="41"/>
       <c r="H7" s="26"/>
       <c r="I7" s="6"/>
       <c r="J7" s="60"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="49" t="s">
         <v>18</v>
       </c>
@@ -2281,13 +2514,13 @@
         <f>D8*290</f>
         <v>290</v>
       </c>
-      <c r="F8" s="152"/>
+      <c r="F8" s="134"/>
       <c r="G8" s="41"/>
       <c r="H8" s="51"/>
       <c r="I8" s="43"/>
       <c r="J8" s="59"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="48" t="s">
         <v>21</v>
       </c>
@@ -2304,13 +2537,13 @@
         <f>D9*350</f>
         <v>700</v>
       </c>
-      <c r="F9" s="152"/>
+      <c r="F9" s="134"/>
       <c r="G9" s="41"/>
       <c r="H9" s="50"/>
       <c r="I9" s="15"/>
       <c r="J9" s="60"/>
     </row>
-    <row r="10" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="49" t="s">
         <v>24</v>
       </c>
@@ -2325,25 +2558,25 @@
         <f>SUM(E3:E9)</f>
         <v>5625</v>
       </c>
-      <c r="F10" s="152"/>
+      <c r="F10" s="134"/>
       <c r="G10" s="41"/>
       <c r="H10" s="52" t="s">
         <v>27</v>
       </c>
       <c r="I10" s="61" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="J10" s="59">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="48"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="10"/>
-      <c r="F11" s="152"/>
+      <c r="F11" s="134"/>
       <c r="G11" s="41"/>
       <c r="H11" s="26" t="s">
         <v>28</v>
@@ -2353,7 +2586,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="49" t="s">
         <v>29</v>
       </c>
@@ -2367,31 +2600,31 @@
         <v>18</v>
       </c>
       <c r="E12" s="21"/>
-      <c r="F12" s="152"/>
+      <c r="F12" s="134"/>
       <c r="G12" s="41"/>
       <c r="H12" s="52" t="s">
         <v>31</v>
       </c>
       <c r="I12" s="61" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="J12" s="59">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="48"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="10"/>
-      <c r="F13" s="152"/>
+      <c r="F13" s="134"/>
       <c r="G13" s="41"/>
       <c r="H13" s="26"/>
       <c r="I13" s="62"/>
       <c r="J13" s="60"/>
     </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="49" t="s">
         <v>32</v>
       </c>
@@ -2405,19 +2638,19 @@
         <v>30</v>
       </c>
       <c r="E14" s="21"/>
-      <c r="F14" s="152"/>
+      <c r="F14" s="134"/>
       <c r="G14" s="41"/>
       <c r="H14" s="52" t="s">
         <v>35</v>
       </c>
       <c r="I14" s="61" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="J14" s="59">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="9" t="s">
         <v>36</v>
       </c>
@@ -2436,11 +2669,11 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="G16" s="14"/>
     </row>
-    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="33" t="s">
         <v>37</v>
       </c>
@@ -2462,7 +2695,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="26" t="s">
         <v>38</v>
       </c>
@@ -2472,7 +2705,7 @@
       <c r="E19" s="6"/>
       <c r="F19" s="31">
         <f>'Component Part List'!$E$31</f>
-        <v>394</v>
+        <v>461</v>
       </c>
       <c r="G19" s="42"/>
       <c r="H19" s="26" t="s">
@@ -2481,10 +2714,10 @@
       <c r="I19" s="6"/>
       <c r="J19" s="31">
         <f>'Component Part List'!$E$31</f>
-        <v>394</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="27" t="s">
         <v>39</v>
       </c>
@@ -2504,7 +2737,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="34" t="s">
         <v>41</v>
       </c>
@@ -2513,7 +2746,7 @@
       <c r="D21" s="37"/>
       <c r="E21" s="37"/>
       <c r="F21" s="40" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="G21" s="42"/>
       <c r="H21" s="26" t="s">
@@ -2525,9 +2758,9 @@
         <v>80.600000000000009</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="38" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B22" s="39"/>
       <c r="C22" s="39"/>
@@ -2535,7 +2768,7 @@
       <c r="E22" s="39"/>
       <c r="F22" s="35">
         <f>SUM(F18:F21)</f>
-        <v>708</v>
+        <v>775</v>
       </c>
       <c r="G22" s="42"/>
       <c r="H22" s="53" t="s">
@@ -2544,7 +2777,7 @@
       <c r="I22" s="54"/>
       <c r="J22" s="55">
         <f>SUM(J18:J21)</f>
-        <v>578.6</v>
+        <v>645.6</v>
       </c>
     </row>
   </sheetData>
@@ -2570,59 +2803,59 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="82" customWidth="1"/>
+    <col min="1" max="1" width="15.7265625" customWidth="1"/>
+    <col min="3" max="3" width="6.26953125" style="73" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
-        <v>165</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="87"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="88"/>
+    <row r="1" spans="1:7" ht="22.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="75" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="76"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="78"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="79"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="89"/>
+      <c r="C2" s="80"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:7" s="83" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="90" t="s">
-        <v>166</v>
-      </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="105" t="s">
-        <v>187</v>
-      </c>
-      <c r="D3" s="93" t="s">
-        <v>170</v>
-      </c>
-      <c r="E3" s="91"/>
-      <c r="F3" s="93" t="s">
-        <v>171</v>
-      </c>
-      <c r="G3" s="94"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="88" t="s">
-        <v>180</v>
+    <row r="3" spans="1:7" s="74" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="81" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" s="82"/>
+      <c r="C3" s="96" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" s="84" t="s">
+        <v>158</v>
+      </c>
+      <c r="E3" s="82"/>
+      <c r="F3" s="84" t="s">
+        <v>159</v>
+      </c>
+      <c r="G3" s="85"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="79" t="s">
+        <v>168</v>
       </c>
       <c r="B4" s="6">
         <v>310</v>
       </c>
-      <c r="C4" s="106" t="s">
-        <v>183</v>
+      <c r="C4" s="97" t="s">
+        <v>171</v>
       </c>
       <c r="D4" s="6">
         <f>B4+50</f>
@@ -2635,40 +2868,40 @@
       </c>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="88" t="s">
-        <v>181</v>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="79" t="s">
+        <v>169</v>
       </c>
       <c r="B5" s="6">
         <v>350</v>
       </c>
-      <c r="C5" s="106" t="s">
-        <v>183</v>
+      <c r="C5" s="97" t="s">
+        <v>171</v>
       </c>
       <c r="D5" s="6">
         <f>B5+50</f>
         <v>400</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="F5" s="6">
         <f>B5+100</f>
         <v>450</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="88" t="s">
-        <v>182</v>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="79" t="s">
+        <v>170</v>
       </c>
       <c r="B6" s="6">
         <v>340</v>
       </c>
-      <c r="C6" s="106" t="s">
-        <v>184</v>
+      <c r="C6" s="97" t="s">
+        <v>172</v>
       </c>
       <c r="D6" s="6">
         <f>B6+50</f>
@@ -2681,15 +2914,15 @@
       </c>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="88" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="79" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="14">
         <v>290</v>
       </c>
-      <c r="C7" s="106" t="s">
-        <v>185</v>
+      <c r="C7" s="97" t="s">
+        <v>173</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" ref="D7:D9" si="0">B7+50</f>
@@ -2702,15 +2935,15 @@
       </c>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="88" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="79" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="14">
         <v>350</v>
       </c>
-      <c r="C8" s="106" t="s">
-        <v>186</v>
+      <c r="C8" s="97" t="s">
+        <v>174</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="0"/>
@@ -2723,15 +2956,15 @@
       </c>
       <c r="G8" s="10"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="88" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="79" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="14">
         <v>295</v>
       </c>
-      <c r="C9" s="106" t="s">
-        <v>185</v>
+      <c r="C9" s="97" t="s">
+        <v>173</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="0"/>
@@ -2744,184 +2977,184 @@
       </c>
       <c r="G9" s="10"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="88"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="79"/>
       <c r="B10" s="6"/>
-      <c r="C10" s="89"/>
+      <c r="C10" s="80"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="1:7" s="83" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="90" t="s">
-        <v>173</v>
-      </c>
-      <c r="B11" s="91"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="94"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="88" t="s">
-        <v>172</v>
+    <row r="11" spans="1:7" s="74" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="81" t="s">
+        <v>161</v>
+      </c>
+      <c r="B11" s="82"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="85"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="79" t="s">
+        <v>160</v>
       </c>
       <c r="B12" s="6"/>
-      <c r="C12" s="89"/>
+      <c r="C12" s="80"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="10"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="95" t="s">
-        <v>174</v>
-      </c>
-      <c r="B13" s="96"/>
-      <c r="C13" s="97" t="s">
-        <v>176</v>
-      </c>
-      <c r="D13" s="98" t="s">
-        <v>175</v>
-      </c>
-      <c r="E13" s="98"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="86" t="s">
+        <v>162</v>
+      </c>
+      <c r="B13" s="87"/>
+      <c r="C13" s="88" t="s">
+        <v>164</v>
+      </c>
+      <c r="D13" s="89" t="s">
+        <v>163</v>
+      </c>
+      <c r="E13" s="89"/>
       <c r="F13" s="6"/>
       <c r="G13" s="10"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="88" t="s">
-        <v>180</v>
-      </c>
-      <c r="B14" s="96">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="79" t="s">
+        <v>168</v>
+      </c>
+      <c r="B14" s="87">
         <v>200</v>
       </c>
-      <c r="C14" s="97" t="s">
-        <v>167</v>
-      </c>
-      <c r="D14" s="98">
+      <c r="C14" s="88" t="s">
+        <v>155</v>
+      </c>
+      <c r="D14" s="89">
         <f>B14+110</f>
         <v>310</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="10"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="88" t="s">
-        <v>181</v>
-      </c>
-      <c r="B15" s="96">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="79" t="s">
+        <v>169</v>
+      </c>
+      <c r="B15" s="87">
         <v>200</v>
       </c>
-      <c r="C15" s="97" t="s">
-        <v>168</v>
-      </c>
-      <c r="D15" s="98">
+      <c r="C15" s="88" t="s">
+        <v>156</v>
+      </c>
+      <c r="D15" s="89">
         <f>B15+150</f>
         <v>350</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="G15" s="10"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="88" t="s">
-        <v>182</v>
-      </c>
-      <c r="B16" s="96">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="79" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" s="87">
         <v>200</v>
       </c>
-      <c r="C16" s="97" t="s">
-        <v>169</v>
-      </c>
-      <c r="D16" s="98">
+      <c r="C16" s="88" t="s">
+        <v>157</v>
+      </c>
+      <c r="D16" s="89">
         <f>B16+140</f>
         <v>340</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="10"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="88" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="96"/>
-      <c r="C17" s="97"/>
-      <c r="D17" s="98">
+      <c r="B17" s="87"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="89">
         <f>B14+90</f>
         <v>290</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="10"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="88" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="96"/>
-      <c r="C18" s="97"/>
-      <c r="D18" s="98">
+      <c r="B18" s="87"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="89">
         <f>B15+150</f>
         <v>350</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="10"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="99" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="100"/>
-      <c r="C19" s="101"/>
-      <c r="D19" s="102">
+      <c r="B19" s="91"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="93">
         <f>B14+95</f>
         <v>295</v>
       </c>
-      <c r="E19" s="107" t="s">
-        <v>185</v>
-      </c>
-      <c r="F19" s="103"/>
-      <c r="G19" s="104"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E19" s="98" t="s">
+        <v>173</v>
+      </c>
+      <c r="F19" s="94"/>
+      <c r="G19" s="95"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
-      <c r="C20" s="89"/>
+      <c r="C20" s="80"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -2940,702 +3173,642 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" style="14" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="14" customWidth="1"/>
-    <col min="9" max="9" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.453125" customWidth="1"/>
+    <col min="4" max="4" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7265625" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" style="14" customWidth="1"/>
+    <col min="8" max="8" width="23.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="67" t="s">
-        <v>157</v>
-      </c>
-      <c r="B1" s="67" t="s">
-        <v>158</v>
-      </c>
-      <c r="C1" s="68" t="s">
-        <v>159</v>
-      </c>
-      <c r="D1" s="69" t="s">
-        <v>160</v>
-      </c>
-      <c r="E1" s="75" t="s">
-        <v>161</v>
-      </c>
-      <c r="F1" s="70" t="s">
-        <v>217</v>
-      </c>
-      <c r="G1" s="70" t="s">
-        <v>218</v>
-      </c>
-      <c r="H1" s="70" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="66" customFormat="1" ht="27.75" x14ac:dyDescent="0.5">
-      <c r="A2" s="133"/>
-      <c r="B2" s="112" t="s">
+    <row r="1" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="126"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="129"/>
+    </row>
+    <row r="2" spans="1:8" ht="27" x14ac:dyDescent="0.7">
+      <c r="A2" s="130"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="99" t="s">
+        <v>185</v>
+      </c>
+      <c r="E2" s="100"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="131"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="79"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="132"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="138" t="s">
+        <v>207</v>
+      </c>
+      <c r="B4" s="139"/>
+      <c r="C4" s="139" t="s">
+        <v>208</v>
+      </c>
+      <c r="D4" s="140"/>
+      <c r="E4" s="141">
+        <v>334</v>
+      </c>
+      <c r="G4" s="135"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="136" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="137" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="137" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="137" t="s">
+        <v>189</v>
+      </c>
+      <c r="E5" s="137" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="113" t="s">
+        <v>190</v>
+      </c>
+      <c r="G5" s="114" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="C6" s="105">
+        <v>80</v>
+      </c>
+      <c r="D6" s="120" t="s">
+        <v>198</v>
+      </c>
+      <c r="E6" s="117">
+        <v>15</v>
+      </c>
+      <c r="F6" s="111" t="s">
+        <v>183</v>
+      </c>
+      <c r="G6" s="104"/>
+    </row>
+    <row r="7" spans="1:8" s="66" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="105">
+        <v>6</v>
+      </c>
+      <c r="D7" s="121" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="117">
+        <v>22</v>
+      </c>
+      <c r="F7" s="107"/>
+      <c r="G7" s="106"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="105">
+        <v>7</v>
+      </c>
+      <c r="D8" s="120" t="s">
+        <v>177</v>
+      </c>
+      <c r="E8" s="117">
+        <v>25</v>
+      </c>
+      <c r="F8" s="111"/>
+      <c r="G8" s="104"/>
+    </row>
+    <row r="9" spans="1:8" s="66" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="105">
+        <v>1</v>
+      </c>
+      <c r="D9" s="120" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="118">
+        <v>2.5</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="102"/>
+    </row>
+    <row r="10" spans="1:8" s="66" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="105">
+        <v>2</v>
+      </c>
+      <c r="D10" s="120" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="118">
+        <v>3</v>
+      </c>
+      <c r="F10" s="111"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="102"/>
+    </row>
+    <row r="11" spans="1:8" s="66" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="C11" s="105">
+        <v>1</v>
+      </c>
+      <c r="D11" s="120" t="s">
+        <v>191</v>
+      </c>
+      <c r="E11" s="118">
+        <v>2.5</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="102"/>
+    </row>
+    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="C12" s="105">
+        <v>1</v>
+      </c>
+      <c r="D12" s="120" t="s">
+        <v>195</v>
+      </c>
+      <c r="E12" s="118">
+        <v>8</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="104"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="C13" s="105">
+        <v>1</v>
+      </c>
+      <c r="D13" s="120" t="s">
+        <v>197</v>
+      </c>
+      <c r="E13" s="118">
+        <v>60</v>
+      </c>
+      <c r="F13" s="111"/>
+      <c r="G13" s="104"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="C14" s="105">
+        <v>1</v>
+      </c>
+      <c r="D14" s="120" t="s">
+        <v>205</v>
+      </c>
+      <c r="E14" s="118">
+        <v>31</v>
+      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="104"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="C15" s="105">
+        <v>1</v>
+      </c>
+      <c r="D15" s="120" t="s">
+        <v>187</v>
+      </c>
+      <c r="E15" s="118">
+        <v>30</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="G15" s="104">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C2" s="134"/>
-      <c r="D2" s="108" t="s">
-        <v>199</v>
-      </c>
-      <c r="E2" s="135"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="137"/>
-    </row>
-    <row r="3" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="116"/>
-      <c r="B3" s="108"/>
-      <c r="C3" s="127"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="122"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="131" t="s">
+      <c r="B16" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="C16" s="105">
         <v>1</v>
       </c>
-      <c r="B4" s="132" t="s">
+      <c r="D16" s="120" t="s">
+        <v>202</v>
+      </c>
+      <c r="E16" s="118">
+        <v>73</v>
+      </c>
+      <c r="F16" s="15"/>
+      <c r="G16" s="104"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="105">
+        <v>1</v>
+      </c>
+      <c r="D17" s="120" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="118">
         <v>2</v>
       </c>
-      <c r="C4" s="117" t="s">
+      <c r="F17" s="15"/>
+      <c r="G17" s="104"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="105">
+        <v>2</v>
+      </c>
+      <c r="D18" s="120" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="118">
+        <v>10</v>
+      </c>
+      <c r="F18" s="15"/>
+      <c r="G18" s="104"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="105">
+        <v>2</v>
+      </c>
+      <c r="D19" s="120" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="118">
+        <v>8</v>
+      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="104"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="105">
+        <v>1</v>
+      </c>
+      <c r="D20" s="120" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="118">
+        <v>6</v>
+      </c>
+      <c r="F20" s="15"/>
+      <c r="G20" s="104"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="105">
         <v>3</v>
       </c>
-      <c r="D4" s="132" t="s">
-        <v>205</v>
-      </c>
-      <c r="E4" s="132" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="117" t="s">
+      <c r="D21" s="120" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" s="118">
+        <v>30</v>
+      </c>
+      <c r="F21" s="15"/>
+      <c r="G21" s="104"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="124" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="105">
+        <v>3</v>
+      </c>
+      <c r="D22" s="120" t="s">
+        <v>203</v>
+      </c>
+      <c r="E22" s="118">
+        <v>4</v>
+      </c>
+      <c r="F22" s="111"/>
+      <c r="G22" s="104"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="105">
+        <v>1</v>
+      </c>
+      <c r="D23" s="120" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="118">
+        <v>8.5</v>
+      </c>
+      <c r="F23" s="15"/>
+      <c r="G23" s="104"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="105">
+        <v>1</v>
+      </c>
+      <c r="D24" s="120" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="118">
+        <v>20</v>
+      </c>
+      <c r="F24" s="15"/>
+      <c r="G24" s="104"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="105">
+        <v>1</v>
+      </c>
+      <c r="D25" s="120" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="118">
+        <v>2</v>
+      </c>
+      <c r="F25" s="115"/>
+      <c r="G25" s="104"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="105">
+        <v>1</v>
+      </c>
+      <c r="D26" s="120" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="118">
+        <v>30</v>
+      </c>
+      <c r="F26" s="115" t="s">
+        <v>180</v>
+      </c>
+      <c r="G26" s="104">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="105">
+        <v>1</v>
+      </c>
+      <c r="D27" s="120" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="118">
+        <v>3.5</v>
+      </c>
+      <c r="F27" s="115"/>
+      <c r="G27" s="104"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="105" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="120" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" s="118">
+        <v>14</v>
+      </c>
+      <c r="F28" s="15"/>
+      <c r="G28" s="104"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" s="105">
+        <v>1</v>
+      </c>
+      <c r="D29" s="120" t="s">
         <v>206</v>
       </c>
-      <c r="G4" s="117" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" s="146" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="C5" s="139">
-        <v>80</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="E5" s="141">
-        <v>15</v>
-      </c>
-      <c r="F5" s="147" t="s">
-        <v>196</v>
-      </c>
-      <c r="G5" s="148"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="111"/>
-    </row>
-    <row r="6" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" s="118">
-        <v>6</v>
-      </c>
-      <c r="D6" s="121" t="s">
+      <c r="E29" s="118">
+        <v>37</v>
+      </c>
+      <c r="F29" s="15"/>
+      <c r="G29" s="104"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="125" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="123">
+        <v>1</v>
+      </c>
+      <c r="D30" s="122" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="119">
+        <v>14</v>
+      </c>
+      <c r="F30" s="116"/>
+      <c r="G30" s="104"/>
+    </row>
+    <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="108" t="s">
         <v>97</v>
       </c>
-      <c r="E6" s="142">
-        <v>22</v>
-      </c>
-      <c r="F6" s="74"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="111"/>
-    </row>
-    <row r="7" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="118">
-        <v>7</v>
-      </c>
-      <c r="D7" s="138" t="s">
-        <v>190</v>
-      </c>
-      <c r="E7" s="143">
-        <v>25</v>
-      </c>
-      <c r="F7" s="73"/>
-      <c r="G7" s="120"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="111"/>
-    </row>
-    <row r="8" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="118">
-        <v>1</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8" s="144">
-        <v>2.5</v>
-      </c>
-      <c r="F8" s="50"/>
-      <c r="G8" s="113"/>
-      <c r="H8" s="31"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="118">
-        <v>2</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="144">
-        <v>3</v>
-      </c>
-      <c r="F9" s="71"/>
-      <c r="G9" s="113"/>
-      <c r="H9" s="31"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="C10" s="118">
-        <v>1</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="E10" s="144">
-        <v>2.5</v>
-      </c>
-      <c r="F10" s="50"/>
-      <c r="G10" s="113"/>
-      <c r="H10" s="129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="C11" s="118">
-        <v>1</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="E11" s="144">
-        <v>8</v>
-      </c>
-      <c r="F11" s="50"/>
-      <c r="G11" s="113"/>
-      <c r="H11" s="129"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="C12" s="118">
-        <v>1</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="E12" s="144">
-        <v>60</v>
-      </c>
-      <c r="F12" s="71" t="s">
-        <v>198</v>
-      </c>
-      <c r="G12" s="113">
-        <v>15</v>
-      </c>
-      <c r="H12" s="130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
-        <v>216</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="C13" s="118" t="s">
-        <v>214</v>
-      </c>
-      <c r="D13" s="126" t="s">
-        <v>215</v>
-      </c>
-      <c r="E13" s="144"/>
-      <c r="F13" s="50" t="s">
-        <v>204</v>
-      </c>
-      <c r="G13" s="113">
-        <v>45</v>
-      </c>
-      <c r="H13" s="130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="118">
-        <v>1</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="E14" s="144">
-        <v>20</v>
-      </c>
-      <c r="F14" s="50"/>
-      <c r="G14" s="113"/>
-      <c r="H14" s="31"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="C15" s="118">
-        <v>1</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="E15" s="144">
-        <v>30</v>
-      </c>
-      <c r="F15" s="50" t="s">
-        <v>203</v>
-      </c>
-      <c r="G15" s="113">
-        <v>16</v>
-      </c>
-      <c r="H15" s="129"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="118">
-        <v>1</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="144">
-        <v>2</v>
-      </c>
-      <c r="F16" s="50"/>
-      <c r="G16" s="113"/>
-      <c r="H16" s="31"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="118">
-        <v>2</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="144">
-        <v>10</v>
-      </c>
-      <c r="F17" s="50"/>
-      <c r="G17" s="113"/>
-      <c r="H17" s="31"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C18" s="118">
-        <v>2</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="E18" s="144">
-        <v>8</v>
-      </c>
-      <c r="F18" s="50"/>
-      <c r="G18" s="113"/>
-      <c r="H18" s="31"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" s="118">
-        <v>1</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="E19" s="144">
-        <v>6</v>
-      </c>
-      <c r="F19" s="50"/>
-      <c r="G19" s="113"/>
-      <c r="H19" s="31"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C20" s="118">
-        <v>3</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="E20" s="144">
-        <v>30</v>
-      </c>
-      <c r="F20" s="50"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="31"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="118">
-        <v>3</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="144">
-        <v>4</v>
-      </c>
-      <c r="F21" s="71"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="31"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" s="118">
-        <v>1</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="E22" s="144">
-        <v>8.5</v>
-      </c>
-      <c r="F22" s="50"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="31"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" s="118">
-        <v>1</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="E23" s="144">
-        <v>20</v>
-      </c>
-      <c r="F23" s="50"/>
-      <c r="G23" s="113"/>
-      <c r="H23" s="31"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="118">
-        <v>1</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" s="144">
-        <v>2</v>
-      </c>
-      <c r="F24" s="72"/>
-      <c r="G24" s="113"/>
-      <c r="H24" s="31"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="118">
-        <v>1</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="E25" s="144">
-        <v>30</v>
-      </c>
-      <c r="F25" s="72" t="s">
-        <v>193</v>
-      </c>
-      <c r="G25" s="113">
-        <v>40</v>
-      </c>
-      <c r="H25" s="129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="118">
-        <v>1</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="E26" s="144">
-        <v>3.5</v>
-      </c>
-      <c r="F26" s="72"/>
-      <c r="G26" s="113"/>
-      <c r="H26" s="31"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C27" s="118" t="s">
-        <v>85</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="E27" s="144">
-        <v>14</v>
-      </c>
-      <c r="F27" s="50"/>
-      <c r="G27" s="113"/>
-      <c r="H27" s="31"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28" s="118">
-        <v>1</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E28" s="144">
-        <v>17</v>
-      </c>
-      <c r="F28" s="50"/>
-      <c r="G28" s="113"/>
-      <c r="H28" s="31"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C29" s="118">
-        <v>1</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="E29" s="144">
-        <v>37</v>
-      </c>
-      <c r="F29" s="50"/>
-      <c r="G29" s="113"/>
-      <c r="H29" s="129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" s="140">
-        <v>1</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="E30" s="145">
-        <v>14</v>
-      </c>
-      <c r="F30" s="149"/>
-      <c r="G30" s="150"/>
-      <c r="H30" s="115"/>
-    </row>
-    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="123" t="s">
-        <v>103</v>
-      </c>
-      <c r="B31" s="124"/>
-      <c r="C31" s="124"/>
-      <c r="D31" s="124"/>
-      <c r="E31" s="125">
-        <f>SUM(E5:E30)</f>
-        <v>394</v>
+      <c r="B31" s="109"/>
+      <c r="C31" s="109"/>
+      <c r="D31" s="109"/>
+      <c r="E31" s="110">
+        <f>SUBTOTAL(109,Table1[[#All],[Column5]])</f>
+        <v>461</v>
       </c>
       <c r="F31" s="65"/>
       <c r="G31" s="65"/>
-      <c r="H31" s="65"/>
+    </row>
+    <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="142" t="s">
+        <v>209</v>
+      </c>
+      <c r="B32" s="143"/>
+      <c r="C32" s="143"/>
+      <c r="D32" s="143"/>
+      <c r="E32" s="144">
+        <f>E4+E31</f>
+        <v>795</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D25" r:id="rId1" xr:uid="{3773511A-F3AF-4897-B5BB-16FB39A0B508}"/>
-    <hyperlink ref="D9" r:id="rId2" xr:uid="{AFC120EB-E75F-4BB8-BC6D-4AA9408DD14D}"/>
-    <hyperlink ref="D23" r:id="rId3" display="Link" xr:uid="{401DDADA-DB79-4416-96CF-3B1D6329769B}"/>
-    <hyperlink ref="D17" r:id="rId4" display="24V Dual Ball" xr:uid="{98BCAD8D-1DD9-49E5-B60D-FB8A39108E71}"/>
-    <hyperlink ref="D16" r:id="rId5" xr:uid="{968A8156-5055-4A5F-97A2-06DF8EA0EB3D}"/>
-    <hyperlink ref="D27" r:id="rId6" display="5 Meter Gates LL" xr:uid="{9F0DE403-B0EC-4933-928F-2806FBCF603A}"/>
-    <hyperlink ref="D22" r:id="rId7" display="Link" xr:uid="{45531F32-6B6C-44D5-9B2A-FB1F259BC9F9}"/>
-    <hyperlink ref="F25" r:id="rId8" display="Keenovo" xr:uid="{C2A02BBB-B317-4856-A562-A30BE2CA0A6C}"/>
-    <hyperlink ref="D19" r:id="rId9" display="8 Bore" xr:uid="{4C50ADBB-FC9C-42E4-8421-5A0C1600DD46}"/>
-    <hyperlink ref="D18" r:id="rId10" display="5 BORE" xr:uid="{43C03DCA-7867-4C9F-B1D0-8588267A1C82}"/>
-    <hyperlink ref="D26" r:id="rId11" xr:uid="{A901DFE1-486C-4AC2-8672-C18618945E04}"/>
-    <hyperlink ref="D24" r:id="rId12" xr:uid="{BA467D2F-0948-4A82-B49C-B8DCBA7936A0}"/>
-    <hyperlink ref="D20" r:id="rId13" display="Link" xr:uid="{49178A12-AF45-4969-AC8E-49BA3EBADDA9}"/>
-    <hyperlink ref="D14" r:id="rId14" xr:uid="{9689F2B7-24E0-4CC5-A39F-53D7E0370FC8}"/>
-    <hyperlink ref="D28" r:id="rId15" xr:uid="{537A3F3C-7C92-42A9-B8B2-F37129F7787F}"/>
-    <hyperlink ref="D8" r:id="rId16" xr:uid="{82909F8B-3A14-4248-8CB2-384756C6E8BE}"/>
-    <hyperlink ref="D29" r:id="rId17" xr:uid="{0D6A5659-9181-49D0-A7D8-101F63076C8A}"/>
-    <hyperlink ref="D21" r:id="rId18" xr:uid="{4AEFCE09-28B7-4C24-82DE-ADAB9CAA43E1}"/>
-    <hyperlink ref="D30" r:id="rId19" xr:uid="{0ED2334F-09CF-437E-82F8-E81D86F288DC}"/>
-    <hyperlink ref="D7" r:id="rId20" xr:uid="{87CB364F-700B-4E81-BC67-3C859C1B7934}"/>
-    <hyperlink ref="D6" r:id="rId21" display="5X High End" xr:uid="{D4CB98E8-7A2B-495D-9E37-8208D21A6270}"/>
-    <hyperlink ref="D5" r:id="rId22" display="6x5x1 Option Shim" xr:uid="{A333F16C-7F8A-421A-B64A-B04B701B747A}"/>
-    <hyperlink ref="F5" r:id="rId23" display="NB! 200 pcs option is same price" xr:uid="{D98A7A59-4D4C-4589-8C00-1DCF83FFF3E6}"/>
-    <hyperlink ref="F13" r:id="rId24" xr:uid="{5B14FBB6-ADAD-4948-95D7-FBD8C9BC5BB5}"/>
-    <hyperlink ref="D12" r:id="rId25" display="BTT DUET WIFI Clone" xr:uid="{F52EB8DF-670A-4145-90A1-8A8DF8B4B7B2}"/>
-    <hyperlink ref="F12" r:id="rId26" display="Mini 12864" xr:uid="{321ACA62-20AB-45F9-A643-EE2EB664C961}"/>
-    <hyperlink ref="D15" r:id="rId27" xr:uid="{53A16D3E-EBE4-45B6-9E87-70111D7D2FFE}"/>
-    <hyperlink ref="F15" r:id="rId28" xr:uid="{2E01C49B-F943-468C-B222-27E06F7C15FC}"/>
-    <hyperlink ref="D10" r:id="rId29" display="Cable Loom - Bowden Path" xr:uid="{5DD23B84-72DC-46EC-A740-B82AFAD09C94}"/>
-    <hyperlink ref="D11" r:id="rId30" xr:uid="{0C6F2C79-ACBB-4C55-AC21-4895BA685D6B}"/>
+    <hyperlink ref="D26" r:id="rId1" xr:uid="{3773511A-F3AF-4897-B5BB-16FB39A0B508}"/>
+    <hyperlink ref="D10" r:id="rId2" xr:uid="{AFC120EB-E75F-4BB8-BC6D-4AA9408DD14D}"/>
+    <hyperlink ref="D24" r:id="rId3" display="Link" xr:uid="{401DDADA-DB79-4416-96CF-3B1D6329769B}"/>
+    <hyperlink ref="D18" r:id="rId4" display="24V Dual Ball" xr:uid="{98BCAD8D-1DD9-49E5-B60D-FB8A39108E71}"/>
+    <hyperlink ref="D17" r:id="rId5" xr:uid="{968A8156-5055-4A5F-97A2-06DF8EA0EB3D}"/>
+    <hyperlink ref="D28" r:id="rId6" display="5 Meter Gates LL" xr:uid="{9F0DE403-B0EC-4933-928F-2806FBCF603A}"/>
+    <hyperlink ref="D23" r:id="rId7" display="Link" xr:uid="{45531F32-6B6C-44D5-9B2A-FB1F259BC9F9}"/>
+    <hyperlink ref="F26" r:id="rId8" display="Keenovo" xr:uid="{C2A02BBB-B317-4856-A562-A30BE2CA0A6C}"/>
+    <hyperlink ref="D20" r:id="rId9" display="8 Bore" xr:uid="{4C50ADBB-FC9C-42E4-8421-5A0C1600DD46}"/>
+    <hyperlink ref="D19" r:id="rId10" display="5 BORE" xr:uid="{43C03DCA-7867-4C9F-B1D0-8588267A1C82}"/>
+    <hyperlink ref="D27" r:id="rId11" xr:uid="{A901DFE1-486C-4AC2-8672-C18618945E04}"/>
+    <hyperlink ref="D25" r:id="rId12" xr:uid="{BA467D2F-0948-4A82-B49C-B8DCBA7936A0}"/>
+    <hyperlink ref="D21" r:id="rId13" display="Link" xr:uid="{49178A12-AF45-4969-AC8E-49BA3EBADDA9}"/>
+    <hyperlink ref="D16" r:id="rId14" xr:uid="{537A3F3C-7C92-42A9-B8B2-F37129F7787F}"/>
+    <hyperlink ref="D9" r:id="rId15" xr:uid="{82909F8B-3A14-4248-8CB2-384756C6E8BE}"/>
+    <hyperlink ref="D29" r:id="rId16" display="1/30 Worm Stepper" xr:uid="{0D6A5659-9181-49D0-A7D8-101F63076C8A}"/>
+    <hyperlink ref="D22" r:id="rId17" display="6Pcs Endstops" xr:uid="{4AEFCE09-28B7-4C24-82DE-ADAB9CAA43E1}"/>
+    <hyperlink ref="D30" r:id="rId18" xr:uid="{0ED2334F-09CF-437E-82F8-E81D86F288DC}"/>
+    <hyperlink ref="D8" r:id="rId19" xr:uid="{87CB364F-700B-4E81-BC67-3C859C1B7934}"/>
+    <hyperlink ref="D7" r:id="rId20" display="5X High End" xr:uid="{D4CB98E8-7A2B-495D-9E37-8208D21A6270}"/>
+    <hyperlink ref="D6" r:id="rId21" display="6x5x1 Option Shim" xr:uid="{A333F16C-7F8A-421A-B64A-B04B701B747A}"/>
+    <hyperlink ref="F6" r:id="rId22" display="NB! 200 pcs option is same price" xr:uid="{D98A7A59-4D4C-4589-8C00-1DCF83FFF3E6}"/>
+    <hyperlink ref="D13" r:id="rId23" display="BTT DUET WIFI Clone" xr:uid="{F52EB8DF-670A-4145-90A1-8A8DF8B4B7B2}"/>
+    <hyperlink ref="D15" r:id="rId24" xr:uid="{53A16D3E-EBE4-45B6-9E87-70111D7D2FFE}"/>
+    <hyperlink ref="F15" r:id="rId25" xr:uid="{2E01C49B-F943-468C-B222-27E06F7C15FC}"/>
+    <hyperlink ref="D11" r:id="rId26" display="Cable Loom - Bowden Path" xr:uid="{5DD23B84-72DC-46EC-A740-B82AFAD09C94}"/>
+    <hyperlink ref="D12" r:id="rId27" xr:uid="{0C6F2C79-ACBB-4C55-AC21-4895BA685D6B}"/>
+    <hyperlink ref="D14" r:id="rId28" xr:uid="{9689F2B7-24E0-4CC5-A39F-53D7E0370FC8}"/>
+    <hyperlink ref="A4" r:id="rId29" xr:uid="{42E8AC4D-928E-4528-A3B8-EB12C0061FC4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId31"/>
-  <drawing r:id="rId32"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId30"/>
+  <drawing r:id="rId31"/>
   <tableParts count="1">
-    <tablePart r:id="rId33"/>
+    <tablePart r:id="rId32"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3646,31 +3819,31 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.26953125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="78" t="s">
+      <c r="C1" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="76" t="s">
-        <v>104</v>
+      <c r="D1" s="67" t="s">
+        <v>98</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -3682,526 +3855,526 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C2" s="29">
         <v>2</v>
       </c>
-      <c r="D2" s="77">
+      <c r="D2" s="68">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="26" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C3" s="29">
         <v>4</v>
       </c>
-      <c r="D3" s="77">
+      <c r="D3" s="68">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="26" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C4" s="29">
         <v>4</v>
       </c>
-      <c r="D4" s="77">
+      <c r="D4" s="68">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="26" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C5" s="29">
         <v>2</v>
       </c>
-      <c r="D5" s="77">
+      <c r="D5" s="68">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="26" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C6" s="29">
         <v>2</v>
       </c>
-      <c r="D6" s="77">
+      <c r="D6" s="68">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="26" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C7" s="29">
         <v>11</v>
       </c>
-      <c r="D7" s="77">
+      <c r="D7" s="68">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="26" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C8" s="29">
         <v>15</v>
       </c>
-      <c r="D8" s="77">
+      <c r="D8" s="68">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="26" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C9" s="29">
         <v>6</v>
       </c>
-      <c r="D9" s="77">
+      <c r="D9" s="68">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="26" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C10" s="29">
         <v>9</v>
       </c>
-      <c r="D10" s="77">
+      <c r="D10" s="68">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="26" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C11" s="29">
         <v>5</v>
       </c>
-      <c r="D11" s="77">
+      <c r="D11" s="68">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="26" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C12" s="29">
         <v>8</v>
       </c>
-      <c r="D12" s="77">
+      <c r="D12" s="68">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="26" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="C13" s="29">
         <v>2</v>
       </c>
-      <c r="D13" s="77">
+      <c r="D13" s="68">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="26" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C14" s="29">
         <v>5</v>
       </c>
-      <c r="D14" s="77">
+      <c r="D14" s="68">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="26" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C15" s="29">
         <v>5</v>
       </c>
-      <c r="D15" s="77">
+      <c r="D15" s="68">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="26" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C16" s="29">
         <v>13</v>
       </c>
-      <c r="D16" s="77">
+      <c r="D16" s="68">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="26" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C17" s="29">
         <v>6</v>
       </c>
-      <c r="D17" s="77">
+      <c r="D17" s="68">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="26" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C18" s="29">
         <v>2</v>
       </c>
-      <c r="D18" s="77">
+      <c r="D18" s="68">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="26" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C19" s="29">
         <v>1</v>
       </c>
-      <c r="D19" s="77">
+      <c r="D19" s="68">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="26" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="C20" s="29">
         <v>3</v>
       </c>
-      <c r="D20" s="77">
+      <c r="D20" s="68">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="26" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="C21" s="29">
         <v>1</v>
       </c>
-      <c r="D21" s="77">
+      <c r="D21" s="68">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="26" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C22" s="29">
         <v>1</v>
       </c>
-      <c r="D22" s="77">
+      <c r="D22" s="68">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="26" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C23" s="29">
         <v>28</v>
       </c>
-      <c r="D23" s="77">
+      <c r="D23" s="68">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="26" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C24" s="29">
         <v>6</v>
       </c>
-      <c r="D24" s="77">
+      <c r="D24" s="68">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="26" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C25" s="29">
         <v>50</v>
       </c>
-      <c r="D25" s="77">
+      <c r="D25" s="68">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="26" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="C26" s="29">
         <v>63</v>
       </c>
-      <c r="D26" s="77">
+      <c r="D26" s="68">
         <v>70</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="26" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C27" s="29">
         <v>143</v>
       </c>
-      <c r="D27" s="77">
+      <c r="D27" s="68">
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="26" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C28" s="29">
         <v>200</v>
       </c>
-      <c r="D28" s="77">
+      <c r="D28" s="68">
         <v>200</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="26" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C29" s="29">
         <v>142</v>
       </c>
-      <c r="D29" s="77">
+      <c r="D29" s="68">
         <v>150</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="26" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C30" s="29">
         <v>8</v>
       </c>
-      <c r="D30" s="77">
+      <c r="D30" s="68">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="26" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C31" s="29">
         <v>1</v>
       </c>
-      <c r="D31" s="77">
+      <c r="D31" s="68">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="26" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C32" s="29">
         <v>2</v>
       </c>
-      <c r="D32" s="77">
+      <c r="D32" s="68">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="26" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C33" s="29">
         <v>2</v>
       </c>
-      <c r="D33" s="77">
+      <c r="D33" s="68">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="26" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C34" s="29">
         <v>18</v>
       </c>
-      <c r="D34" s="77">
+      <c r="D34" s="68">
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="26" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C35" s="29">
         <v>8</v>
       </c>
-      <c r="D35" s="77">
+      <c r="D35" s="68">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="26" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="C36" s="29">
         <v>4</v>
       </c>
-      <c r="D36" s="77">
+      <c r="D36" s="68">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="63" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B37" s="64"/>
-      <c r="C37" s="79">
+      <c r="C37" s="70">
         <f>SUM(C2:C36)</f>
         <v>782</v>
       </c>
-      <c r="D37" s="80">
+      <c r="D37" s="71">
         <f>SUM(D2:D36)</f>
         <v>806</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="26" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="4"/>
-      <c r="D38" s="81">
+      <c r="D38" s="72">
         <v>0.1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="8"/>
@@ -4225,14 +4398,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>

--- a/Document Library/Bill Of Materials/V-Baby BOM.xlsx
+++ b/Document Library/Bill Of Materials/V-Baby BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/V-Baby CoreXY/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2087" documentId="11_2E462098BBA7632759C38D02185E4833A2B67484" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{DE62A0DF-03CB-4643-A9C9-49C7A4EC3BBB}"/>
+  <xr:revisionPtr revIDLastSave="2089" documentId="11_2E462098BBA7632759C38D02185E4833A2B67484" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{EAC3A91D-58C3-4C27-9FED-5B6BD30E5502}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OpenBuild Part List" sheetId="1" r:id="rId1"/>
@@ -1403,12 +1403,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1419,6 +1413,12 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="40% - Accent6" xfId="4" builtinId="51"/>
@@ -2339,19 +2339,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.54296875" customWidth="1"/>
-    <col min="2" max="2" width="22.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.54296875" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -2379,13 +2379,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="47"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
       <c r="E2" s="20"/>
-      <c r="F2" s="133" t="s">
+      <c r="F2" s="143" t="s">
         <v>144</v>
       </c>
       <c r="G2" s="41"/>
@@ -2393,7 +2393,7 @@
       <c r="I2" s="43"/>
       <c r="J2" s="59"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
         <v>7</v>
       </c>
@@ -2410,13 +2410,13 @@
         <f>D3*310</f>
         <v>1240</v>
       </c>
-      <c r="F3" s="134"/>
+      <c r="F3" s="144"/>
       <c r="G3" s="41"/>
       <c r="H3" s="50"/>
       <c r="I3" s="15"/>
       <c r="J3" s="60"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="49" t="s">
         <v>10</v>
       </c>
@@ -2433,13 +2433,13 @@
         <f>D4*350</f>
         <v>1400</v>
       </c>
-      <c r="F4" s="134"/>
+      <c r="F4" s="144"/>
       <c r="G4" s="41"/>
       <c r="H4" s="51"/>
       <c r="I4" s="43"/>
       <c r="J4" s="59"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="48" t="s">
         <v>13</v>
       </c>
@@ -2456,13 +2456,13 @@
         <f>D5*340</f>
         <v>1700</v>
       </c>
-      <c r="F5" s="134"/>
+      <c r="F5" s="144"/>
       <c r="G5" s="41"/>
       <c r="H5" s="50"/>
       <c r="I5" s="15"/>
       <c r="J5" s="60"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="49" t="s">
         <v>16</v>
       </c>
@@ -2479,25 +2479,25 @@
         <f>D6*295</f>
         <v>295</v>
       </c>
-      <c r="F6" s="134"/>
+      <c r="F6" s="144"/>
       <c r="G6" s="41"/>
       <c r="H6" s="51"/>
       <c r="I6" s="43"/>
       <c r="J6" s="59"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="48"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="10"/>
-      <c r="F7" s="134"/>
+      <c r="F7" s="144"/>
       <c r="G7" s="41"/>
       <c r="H7" s="26"/>
       <c r="I7" s="6"/>
       <c r="J7" s="60"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="49" t="s">
         <v>18</v>
       </c>
@@ -2514,13 +2514,13 @@
         <f>D8*290</f>
         <v>290</v>
       </c>
-      <c r="F8" s="134"/>
+      <c r="F8" s="144"/>
       <c r="G8" s="41"/>
       <c r="H8" s="51"/>
       <c r="I8" s="43"/>
       <c r="J8" s="59"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="48" t="s">
         <v>21</v>
       </c>
@@ -2537,13 +2537,13 @@
         <f>D9*350</f>
         <v>700</v>
       </c>
-      <c r="F9" s="134"/>
+      <c r="F9" s="144"/>
       <c r="G9" s="41"/>
       <c r="H9" s="50"/>
       <c r="I9" s="15"/>
       <c r="J9" s="60"/>
     </row>
-    <row r="10" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="49" t="s">
         <v>24</v>
       </c>
@@ -2558,7 +2558,7 @@
         <f>SUM(E3:E9)</f>
         <v>5625</v>
       </c>
-      <c r="F10" s="134"/>
+      <c r="F10" s="144"/>
       <c r="G10" s="41"/>
       <c r="H10" s="52" t="s">
         <v>27</v>
@@ -2570,13 +2570,13 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="48"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="10"/>
-      <c r="F11" s="134"/>
+      <c r="F11" s="144"/>
       <c r="G11" s="41"/>
       <c r="H11" s="26" t="s">
         <v>28</v>
@@ -2586,7 +2586,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
         <v>29</v>
       </c>
@@ -2600,7 +2600,7 @@
         <v>18</v>
       </c>
       <c r="E12" s="21"/>
-      <c r="F12" s="134"/>
+      <c r="F12" s="144"/>
       <c r="G12" s="41"/>
       <c r="H12" s="52" t="s">
         <v>31</v>
@@ -2612,19 +2612,19 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="48"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="10"/>
-      <c r="F13" s="134"/>
+      <c r="F13" s="144"/>
       <c r="G13" s="41"/>
       <c r="H13" s="26"/>
       <c r="I13" s="62"/>
       <c r="J13" s="60"/>
     </row>
-    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="49" t="s">
         <v>32</v>
       </c>
@@ -2638,7 +2638,7 @@
         <v>30</v>
       </c>
       <c r="E14" s="21"/>
-      <c r="F14" s="134"/>
+      <c r="F14" s="144"/>
       <c r="G14" s="41"/>
       <c r="H14" s="52" t="s">
         <v>35</v>
@@ -2650,7 +2650,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>36</v>
       </c>
@@ -2669,11 +2669,11 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G16" s="14"/>
     </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
         <v>37</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
         <v>38</v>
       </c>
@@ -2717,7 +2717,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
         <v>39</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="34" t="s">
         <v>41</v>
       </c>
@@ -2758,7 +2758,7 @@
         <v>80.600000000000009</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="38" t="s">
         <v>147</v>
       </c>
@@ -2803,14 +2803,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7265625" customWidth="1"/>
-    <col min="3" max="3" width="6.26953125" style="73" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="73" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="22.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A1" s="75" t="s">
         <v>153</v>
       </c>
@@ -2821,7 +2821,7 @@
       <c r="F1" s="76"/>
       <c r="G1" s="78"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="79"/>
       <c r="B2" s="6"/>
       <c r="C2" s="80"/>
@@ -2830,7 +2830,7 @@
       <c r="F2" s="6"/>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:7" s="74" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" s="74" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="81" t="s">
         <v>154</v>
       </c>
@@ -2847,7 +2847,7 @@
       </c>
       <c r="G3" s="85"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="79" t="s">
         <v>168</v>
       </c>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="79" t="s">
         <v>169</v>
       </c>
@@ -2893,7 +2893,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="79" t="s">
         <v>170</v>
       </c>
@@ -2914,7 +2914,7 @@
       </c>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="79" t="s">
         <v>18</v>
       </c>
@@ -2935,7 +2935,7 @@
       </c>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="79" t="s">
         <v>21</v>
       </c>
@@ -2956,7 +2956,7 @@
       </c>
       <c r="G8" s="10"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="79" t="s">
         <v>16</v>
       </c>
@@ -2977,7 +2977,7 @@
       </c>
       <c r="G9" s="10"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="79"/>
       <c r="B10" s="6"/>
       <c r="C10" s="80"/>
@@ -2986,7 +2986,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="1:7" s="74" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" s="74" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="81" t="s">
         <v>161</v>
       </c>
@@ -2997,7 +2997,7 @@
       <c r="F11" s="82"/>
       <c r="G11" s="85"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="79" t="s">
         <v>160</v>
       </c>
@@ -3008,7 +3008,7 @@
       <c r="F12" s="6"/>
       <c r="G12" s="10"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="86" t="s">
         <v>162</v>
       </c>
@@ -3023,7 +3023,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="10"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="79" t="s">
         <v>168</v>
       </c>
@@ -3043,7 +3043,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="10"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="79" t="s">
         <v>169</v>
       </c>
@@ -3065,7 +3065,7 @@
       </c>
       <c r="G15" s="10"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="79" t="s">
         <v>170</v>
       </c>
@@ -3085,7 +3085,7 @@
       <c r="F16" s="6"/>
       <c r="G16" s="10"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="79" t="s">
         <v>18</v>
       </c>
@@ -3101,7 +3101,7 @@
       <c r="F17" s="6"/>
       <c r="G17" s="10"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="79" t="s">
         <v>21</v>
       </c>
@@ -3117,7 +3117,7 @@
       <c r="F18" s="6"/>
       <c r="G18" s="10"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="90" t="s">
         <v>16</v>
       </c>
@@ -3133,7 +3133,7 @@
       <c r="F19" s="94"/>
       <c r="G19" s="95"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="80"/>
@@ -3142,17 +3142,17 @@
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>167</v>
       </c>
@@ -3175,23 +3175,21 @@
   </sheetPr>
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" customWidth="1"/>
-    <col min="4" max="4" width="23.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.7265625" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.26953125" style="14" customWidth="1"/>
-    <col min="8" max="8" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" style="14" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="126"/>
       <c r="B1" s="76"/>
       <c r="C1" s="76"/>
@@ -3200,7 +3198,7 @@
       <c r="F1" s="128"/>
       <c r="G1" s="129"/>
     </row>
-    <row r="2" spans="1:8" ht="27" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:8" ht="27.75" x14ac:dyDescent="0.5">
       <c r="A2" s="130"/>
       <c r="B2" s="103"/>
       <c r="C2" s="112"/>
@@ -3211,7 +3209,7 @@
       <c r="F2" s="101"/>
       <c r="G2" s="131"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="79"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -3220,34 +3218,34 @@
       <c r="F3" s="98"/>
       <c r="G3" s="132"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="138" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="136" t="s">
         <v>207</v>
       </c>
-      <c r="B4" s="139"/>
-      <c r="C4" s="139" t="s">
+      <c r="B4" s="137"/>
+      <c r="C4" s="137" t="s">
         <v>208</v>
       </c>
-      <c r="D4" s="140"/>
-      <c r="E4" s="141">
+      <c r="D4" s="138"/>
+      <c r="E4" s="139">
         <v>334</v>
       </c>
-      <c r="G4" s="135"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="136" t="s">
+      <c r="G4" s="133"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="137" t="s">
+      <c r="B5" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="137" t="s">
+      <c r="C5" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="137" t="s">
+      <c r="D5" s="135" t="s">
         <v>189</v>
       </c>
-      <c r="E5" s="137" t="s">
+      <c r="E5" s="135" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="113" t="s">
@@ -3257,7 +3255,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>179</v>
       </c>
@@ -3278,7 +3276,7 @@
       </c>
       <c r="G6" s="104"/>
     </row>
-    <row r="7" spans="1:8" s="66" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>89</v>
       </c>
@@ -3297,7 +3295,7 @@
       <c r="F7" s="107"/>
       <c r="G7" s="106"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>87</v>
       </c>
@@ -3316,7 +3314,7 @@
       <c r="F8" s="111"/>
       <c r="G8" s="104"/>
     </row>
-    <row r="9" spans="1:8" s="66" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>68</v>
       </c>
@@ -3336,7 +3334,7 @@
       <c r="G9" s="104"/>
       <c r="H9" s="102"/>
     </row>
-    <row r="10" spans="1:8" s="66" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>50</v>
       </c>
@@ -3356,7 +3354,7 @@
       <c r="G10" s="104"/>
       <c r="H10" s="102"/>
     </row>
-    <row r="11" spans="1:8" s="66" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>192</v>
       </c>
@@ -3376,7 +3374,7 @@
       <c r="G11" s="104"/>
       <c r="H11" s="102"/>
     </row>
-    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>196</v>
       </c>
@@ -3395,7 +3393,7 @@
       <c r="F12" s="15"/>
       <c r="G12" s="104"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>43</v>
       </c>
@@ -3414,7 +3412,7 @@
       <c r="F13" s="111"/>
       <c r="G13" s="104"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>67</v>
       </c>
@@ -3433,7 +3431,7 @@
       <c r="F14" s="15"/>
       <c r="G14" s="104"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>182</v>
       </c>
@@ -3456,7 +3454,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>200</v>
       </c>
@@ -3475,7 +3473,7 @@
       <c r="F16" s="15"/>
       <c r="G16" s="104"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>47</v>
       </c>
@@ -3494,7 +3492,7 @@
       <c r="F17" s="15"/>
       <c r="G17" s="104"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>44</v>
       </c>
@@ -3513,7 +3511,7 @@
       <c r="F18" s="15"/>
       <c r="G18" s="104"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>81</v>
       </c>
@@ -3532,7 +3530,7 @@
       <c r="F19" s="15"/>
       <c r="G19" s="104"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>84</v>
       </c>
@@ -3551,7 +3549,7 @@
       <c r="F20" s="15"/>
       <c r="G20" s="104"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>92</v>
       </c>
@@ -3570,7 +3568,7 @@
       <c r="F21" s="15"/>
       <c r="G21" s="104"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>53</v>
       </c>
@@ -3589,7 +3587,7 @@
       <c r="F22" s="111"/>
       <c r="G22" s="104"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>74</v>
       </c>
@@ -3608,7 +3606,7 @@
       <c r="F23" s="15"/>
       <c r="G23" s="104"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>71</v>
       </c>
@@ -3627,7 +3625,7 @@
       <c r="F24" s="15"/>
       <c r="G24" s="104"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>64</v>
       </c>
@@ -3646,7 +3644,7 @@
       <c r="F25" s="115"/>
       <c r="G25" s="104"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>58</v>
       </c>
@@ -3669,7 +3667,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>61</v>
       </c>
@@ -3688,7 +3686,7 @@
       <c r="F27" s="115"/>
       <c r="G27" s="104"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>77</v>
       </c>
@@ -3707,7 +3705,7 @@
       <c r="F28" s="15"/>
       <c r="G28" s="104"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>95</v>
       </c>
@@ -3726,7 +3724,7 @@
       <c r="F29" s="15"/>
       <c r="G29" s="104"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>55</v>
       </c>
@@ -3745,7 +3743,7 @@
       <c r="F30" s="116"/>
       <c r="G30" s="104"/>
     </row>
-    <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="108" t="s">
         <v>97</v>
       </c>
@@ -3759,14 +3757,14 @@
       <c r="F31" s="65"/>
       <c r="G31" s="65"/>
     </row>
-    <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="142" t="s">
+    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="140" t="s">
         <v>209</v>
       </c>
-      <c r="B32" s="143"/>
-      <c r="C32" s="143"/>
-      <c r="D32" s="143"/>
-      <c r="E32" s="144">
+      <c r="B32" s="141"/>
+      <c r="C32" s="141"/>
+      <c r="D32" s="141"/>
+      <c r="E32" s="142">
         <f>E4+E31</f>
         <v>795</v>
       </c>
@@ -3819,20 +3817,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
@@ -3855,7 +3853,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>99</v>
       </c>
@@ -3869,7 +3867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>101</v>
       </c>
@@ -3883,7 +3881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>102</v>
       </c>
@@ -3897,7 +3895,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>104</v>
       </c>
@@ -3911,7 +3909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>105</v>
       </c>
@@ -3925,7 +3923,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>107</v>
       </c>
@@ -3939,7 +3937,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>108</v>
       </c>
@@ -3953,7 +3951,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>110</v>
       </c>
@@ -3967,7 +3965,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>111</v>
       </c>
@@ -3981,7 +3979,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>112</v>
       </c>
@@ -3995,7 +3993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>113</v>
       </c>
@@ -4009,7 +4007,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>151</v>
       </c>
@@ -4023,7 +4021,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>114</v>
       </c>
@@ -4037,7 +4035,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>116</v>
       </c>
@@ -4051,7 +4049,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
         <v>117</v>
       </c>
@@ -4065,7 +4063,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
         <v>118</v>
       </c>
@@ -4079,7 +4077,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>119</v>
       </c>
@@ -4093,7 +4091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
         <v>120</v>
       </c>
@@ -4107,7 +4105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
         <v>121</v>
       </c>
@@ -4121,7 +4119,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
         <v>122</v>
       </c>
@@ -4135,7 +4133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
         <v>123</v>
       </c>
@@ -4149,7 +4147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
         <v>124</v>
       </c>
@@ -4163,7 +4161,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
         <v>125</v>
       </c>
@@ -4177,7 +4175,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
         <v>126</v>
       </c>
@@ -4191,7 +4189,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
         <v>128</v>
       </c>
@@ -4208,7 +4206,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
         <v>129</v>
       </c>
@@ -4222,7 +4220,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
         <v>131</v>
       </c>
@@ -4236,7 +4234,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
         <v>132</v>
       </c>
@@ -4250,7 +4248,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
         <v>133</v>
       </c>
@@ -4264,7 +4262,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
         <v>134</v>
       </c>
@@ -4278,7 +4276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
         <v>135</v>
       </c>
@@ -4292,7 +4290,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
         <v>136</v>
       </c>
@@ -4306,7 +4304,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
         <v>137</v>
       </c>
@@ -4320,7 +4318,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="s">
         <v>138</v>
       </c>
@@ -4334,7 +4332,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="26" t="s">
         <v>139</v>
       </c>
@@ -4348,7 +4346,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="63" t="s">
         <v>140</v>
       </c>
@@ -4362,7 +4360,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="26" t="s">
         <v>141</v>
       </c>
@@ -4372,7 +4370,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
         <v>142</v>
       </c>
@@ -4398,14 +4396,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>

--- a/Document Library/Bill Of Materials/V-Baby BOM.xlsx
+++ b/Document Library/Bill Of Materials/V-Baby BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/V-Baby CoreXY/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2089" documentId="11_2E462098BBA7632759C38D02185E4833A2B67484" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{EAC3A91D-58C3-4C27-9FED-5B6BD30E5502}"/>
+  <xr:revisionPtr revIDLastSave="2155" documentId="11_2E462098BBA7632759C38D02185E4833A2B67484" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D1922C25-CC9B-432B-BD44-6A1F471EFB3B}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OpenBuild Part List" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="220">
   <si>
     <t>Exstrusions</t>
   </si>
@@ -267,18 +267,6 @@
     <t>10A Fused Switch</t>
   </si>
   <si>
-    <t>Timing Belt 6mm</t>
-  </si>
-  <si>
-    <t>2GT Timing Belt 6W 5 Meter</t>
-  </si>
-  <si>
-    <t>5 meter</t>
-  </si>
-  <si>
-    <t>5M-6MM-2GT</t>
-  </si>
-  <si>
     <t>Motor Pulley 5Bore</t>
   </si>
   <si>
@@ -297,21 +285,6 @@
     <t>1 x 8 BORE</t>
   </si>
   <si>
-    <t>Belt Idler Thoothed</t>
-  </si>
-  <si>
-    <t>GT2 20T Thoothed Idler</t>
-  </si>
-  <si>
-    <t>Belt Idler Smooth</t>
-  </si>
-  <si>
-    <t>GT2 20T Smooth Idler</t>
-  </si>
-  <si>
-    <t>6Pcs 7mm Without T</t>
-  </si>
-  <si>
     <t>Nema 17 1.5 A</t>
   </si>
   <si>
@@ -567,9 +540,6 @@
     <t>Tapped</t>
   </si>
   <si>
-    <t>8Pcs 7mm With T</t>
-  </si>
-  <si>
     <t>5X6X1 Precision Shim</t>
   </si>
   <si>
@@ -664,6 +634,66 @@
   </si>
   <si>
     <t>Price inclusive mech kit</t>
+  </si>
+  <si>
+    <t>Belt Idler Smooth 7mm</t>
+  </si>
+  <si>
+    <t>Belt Idler Smooth 11mm</t>
+  </si>
+  <si>
+    <t>2Pcs 7mm Without T</t>
+  </si>
+  <si>
+    <t>4Pcs 11mm Without T</t>
+  </si>
+  <si>
+    <t>Belt Idler Thoothed 7mm</t>
+  </si>
+  <si>
+    <t>Belt Idler Thoothed 11mm</t>
+  </si>
+  <si>
+    <t>Smooth Idler for 6mm belt</t>
+  </si>
+  <si>
+    <t>Smooth Idler for 10mm belt</t>
+  </si>
+  <si>
+    <t>Thoothed Idler for 6mm belt</t>
+  </si>
+  <si>
+    <t>Thoothed Idler for 10mm belt</t>
+  </si>
+  <si>
+    <t>6Pcs 7mm With T</t>
+  </si>
+  <si>
+    <t>2Pcs 7mm With T</t>
+  </si>
+  <si>
+    <t>Belt Timing Belt 6mm</t>
+  </si>
+  <si>
+    <t>Belt Timing Belt 10mm</t>
+  </si>
+  <si>
+    <t>4 meter</t>
+  </si>
+  <si>
+    <t>4M-6MM-2GT</t>
+  </si>
+  <si>
+    <t>2 meter</t>
+  </si>
+  <si>
+    <t>2GT Timing Belt 10W 2 Meter</t>
+  </si>
+  <si>
+    <t>2GT Timing Belt 6W 4 Meter</t>
+  </si>
+  <si>
+    <t>2M-6MM-2GT</t>
   </si>
 </sst>
 </file>
@@ -1219,7 +1249,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1377,7 +1407,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="3" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1997,9 +2026,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1070DF90-74AC-4245-AA46-2FAD63F74767}" name="Table1" displayName="Table1" ref="A6:G30" headerRowCount="0" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" headerRowCellStyle="Accent1">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:G30">
-    <sortCondition ref="A9:A30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1070DF90-74AC-4245-AA46-2FAD63F74767}" name="Table1" displayName="Table1" ref="A6:G33" headerRowCount="0" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" headerRowCellStyle="Accent1">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:G33">
+    <sortCondition ref="A6:A33"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{AB8C8187-911D-4248-8608-1F70796FF7C8}" name="Column1" headerRowDxfId="11"/>
@@ -2368,11 +2397,11 @@
         <v>4</v>
       </c>
       <c r="F1" s="46" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="G1" s="44"/>
       <c r="H1" s="57" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="I1" s="56"/>
       <c r="J1" s="58" t="s">
@@ -2385,8 +2414,8 @@
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
       <c r="E2" s="20"/>
-      <c r="F2" s="143" t="s">
-        <v>144</v>
+      <c r="F2" s="142" t="s">
+        <v>135</v>
       </c>
       <c r="G2" s="41"/>
       <c r="H2" s="51"/>
@@ -2410,7 +2439,7 @@
         <f>D3*310</f>
         <v>1240</v>
       </c>
-      <c r="F3" s="144"/>
+      <c r="F3" s="143"/>
       <c r="G3" s="41"/>
       <c r="H3" s="50"/>
       <c r="I3" s="15"/>
@@ -2433,7 +2462,7 @@
         <f>D4*350</f>
         <v>1400</v>
       </c>
-      <c r="F4" s="144"/>
+      <c r="F4" s="143"/>
       <c r="G4" s="41"/>
       <c r="H4" s="51"/>
       <c r="I4" s="43"/>
@@ -2456,7 +2485,7 @@
         <f>D5*340</f>
         <v>1700</v>
       </c>
-      <c r="F5" s="144"/>
+      <c r="F5" s="143"/>
       <c r="G5" s="41"/>
       <c r="H5" s="50"/>
       <c r="I5" s="15"/>
@@ -2479,7 +2508,7 @@
         <f>D6*295</f>
         <v>295</v>
       </c>
-      <c r="F6" s="144"/>
+      <c r="F6" s="143"/>
       <c r="G6" s="41"/>
       <c r="H6" s="51"/>
       <c r="I6" s="43"/>
@@ -2491,7 +2520,7 @@
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="10"/>
-      <c r="F7" s="144"/>
+      <c r="F7" s="143"/>
       <c r="G7" s="41"/>
       <c r="H7" s="26"/>
       <c r="I7" s="6"/>
@@ -2514,7 +2543,7 @@
         <f>D8*290</f>
         <v>290</v>
       </c>
-      <c r="F8" s="144"/>
+      <c r="F8" s="143"/>
       <c r="G8" s="41"/>
       <c r="H8" s="51"/>
       <c r="I8" s="43"/>
@@ -2537,7 +2566,7 @@
         <f>D9*350</f>
         <v>700</v>
       </c>
-      <c r="F9" s="144"/>
+      <c r="F9" s="143"/>
       <c r="G9" s="41"/>
       <c r="H9" s="50"/>
       <c r="I9" s="15"/>
@@ -2558,13 +2587,13 @@
         <f>SUM(E3:E9)</f>
         <v>5625</v>
       </c>
-      <c r="F10" s="144"/>
+      <c r="F10" s="143"/>
       <c r="G10" s="41"/>
       <c r="H10" s="52" t="s">
         <v>27</v>
       </c>
       <c r="I10" s="61" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="J10" s="59">
         <v>27</v>
@@ -2576,7 +2605,7 @@
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="10"/>
-      <c r="F11" s="144"/>
+      <c r="F11" s="143"/>
       <c r="G11" s="41"/>
       <c r="H11" s="26" t="s">
         <v>28</v>
@@ -2600,13 +2629,13 @@
         <v>18</v>
       </c>
       <c r="E12" s="21"/>
-      <c r="F12" s="144"/>
+      <c r="F12" s="143"/>
       <c r="G12" s="41"/>
       <c r="H12" s="52" t="s">
         <v>31</v>
       </c>
       <c r="I12" s="61" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="J12" s="59">
         <v>15</v>
@@ -2618,7 +2647,7 @@
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="10"/>
-      <c r="F13" s="144"/>
+      <c r="F13" s="143"/>
       <c r="G13" s="41"/>
       <c r="H13" s="26"/>
       <c r="I13" s="62"/>
@@ -2638,13 +2667,13 @@
         <v>30</v>
       </c>
       <c r="E14" s="21"/>
-      <c r="F14" s="144"/>
+      <c r="F14" s="143"/>
       <c r="G14" s="41"/>
       <c r="H14" s="52" t="s">
         <v>35</v>
       </c>
       <c r="I14" s="61" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="J14" s="59">
         <v>12</v>
@@ -2704,8 +2733,8 @@
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="31">
-        <f>'Component Part List'!$E$31</f>
-        <v>461</v>
+        <f>'Component Part List'!$E$34</f>
+        <v>513</v>
       </c>
       <c r="G19" s="42"/>
       <c r="H19" s="26" t="s">
@@ -2713,8 +2742,8 @@
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="31">
-        <f>'Component Part List'!$E$31</f>
-        <v>461</v>
+        <f>'Component Part List'!$E$34</f>
+        <v>513</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -2746,7 +2775,7 @@
       <c r="D21" s="37"/>
       <c r="E21" s="37"/>
       <c r="F21" s="40" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="G21" s="42"/>
       <c r="H21" s="26" t="s">
@@ -2760,7 +2789,7 @@
     </row>
     <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="38" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B22" s="39"/>
       <c r="C22" s="39"/>
@@ -2768,7 +2797,7 @@
       <c r="E22" s="39"/>
       <c r="F22" s="35">
         <f>SUM(F18:F21)</f>
-        <v>775</v>
+        <v>827</v>
       </c>
       <c r="G22" s="42"/>
       <c r="H22" s="53" t="s">
@@ -2777,7 +2806,7 @@
       <c r="I22" s="54"/>
       <c r="J22" s="55">
         <f>SUM(J18:J21)</f>
-        <v>645.6</v>
+        <v>697.6</v>
       </c>
     </row>
   </sheetData>
@@ -2812,7 +2841,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A1" s="75" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B1" s="76"/>
       <c r="C1" s="77"/>
@@ -2832,30 +2861,30 @@
     </row>
     <row r="3" spans="1:7" s="74" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="81" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="B3" s="82"/>
       <c r="C3" s="96" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="D3" s="84" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="E3" s="82"/>
       <c r="F3" s="84" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="G3" s="85"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="79" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="B4" s="6">
         <v>310</v>
       </c>
       <c r="C4" s="97" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="D4" s="6">
         <f>B4+50</f>
@@ -2870,38 +2899,38 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="79" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B5" s="6">
         <v>350</v>
       </c>
       <c r="C5" s="97" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="D5" s="6">
         <f>B5+50</f>
         <v>400</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="F5" s="6">
         <f>B5+100</f>
         <v>450</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="79" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B6" s="6">
         <v>340</v>
       </c>
       <c r="C6" s="97" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D6" s="6">
         <f>B6+50</f>
@@ -2922,7 +2951,7 @@
         <v>290</v>
       </c>
       <c r="C7" s="97" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" ref="D7:D9" si="0">B7+50</f>
@@ -2943,7 +2972,7 @@
         <v>350</v>
       </c>
       <c r="C8" s="97" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="0"/>
@@ -2964,7 +2993,7 @@
         <v>295</v>
       </c>
       <c r="C9" s="97" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="0"/>
@@ -2988,7 +3017,7 @@
     </row>
     <row r="11" spans="1:7" s="74" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="81" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B11" s="82"/>
       <c r="C11" s="83"/>
@@ -2999,7 +3028,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="79" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="80"/>
@@ -3010,14 +3039,14 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="86" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B13" s="87"/>
       <c r="C13" s="88" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="D13" s="89" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="E13" s="89"/>
       <c r="F13" s="6"/>
@@ -3025,62 +3054,62 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="79" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="B14" s="87">
         <v>200</v>
       </c>
       <c r="C14" s="88" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D14" s="89">
         <f>B14+110</f>
         <v>310</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="10"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="79" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B15" s="87">
         <v>200</v>
       </c>
       <c r="C15" s="88" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D15" s="89">
         <f>B15+150</f>
         <v>350</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="G15" s="10"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="79" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B16" s="87">
         <v>200</v>
       </c>
       <c r="C16" s="88" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="D16" s="89">
         <f>B16+140</f>
         <v>340</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="10"/>
@@ -3096,7 +3125,7 @@
         <v>290</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="10"/>
@@ -3112,7 +3141,7 @@
         <v>350</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="10"/>
@@ -3128,7 +3157,7 @@
         <v>295</v>
       </c>
       <c r="E19" s="98" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="F19" s="94"/>
       <c r="G19" s="95"/>
@@ -3144,17 +3173,17 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -3173,7 +3202,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -3190,24 +3219,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="126"/>
+      <c r="A1" s="125"/>
       <c r="B1" s="76"/>
       <c r="C1" s="76"/>
       <c r="D1" s="76"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="129"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="128"/>
     </row>
     <row r="2" spans="1:8" ht="27.75" x14ac:dyDescent="0.5">
-      <c r="A2" s="130"/>
+      <c r="A2" s="129"/>
       <c r="B2" s="103"/>
       <c r="C2" s="112"/>
       <c r="D2" s="99" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="E2" s="100"/>
       <c r="F2" s="101"/>
-      <c r="G2" s="131"/>
+      <c r="G2" s="130"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="79"/>
@@ -3216,40 +3245,40 @@
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="98"/>
-      <c r="G3" s="132"/>
+      <c r="G3" s="131"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="136" t="s">
-        <v>207</v>
-      </c>
-      <c r="B4" s="137"/>
-      <c r="C4" s="137" t="s">
-        <v>208</v>
-      </c>
-      <c r="D4" s="138"/>
-      <c r="E4" s="139">
+      <c r="A4" s="135" t="s">
+        <v>197</v>
+      </c>
+      <c r="B4" s="136"/>
+      <c r="C4" s="136" t="s">
+        <v>198</v>
+      </c>
+      <c r="D4" s="137"/>
+      <c r="E4" s="138">
         <v>334</v>
       </c>
-      <c r="G4" s="133"/>
+      <c r="G4" s="132"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="134" t="s">
+      <c r="A5" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="135" t="s">
+      <c r="B5" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="135" t="s">
+      <c r="C5" s="134" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="135" t="s">
-        <v>189</v>
-      </c>
-      <c r="E5" s="135" t="s">
+      <c r="D5" s="134" t="s">
+        <v>179</v>
+      </c>
+      <c r="E5" s="134" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="113" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="G5" s="114" t="s">
         <v>42</v>
@@ -3257,556 +3286,617 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="C6" s="105">
         <v>80</v>
       </c>
       <c r="D6" s="120" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="E6" s="117">
         <v>15</v>
       </c>
       <c r="F6" s="111" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="G6" s="104"/>
     </row>
     <row r="7" spans="1:8" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>89</v>
+        <v>201</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>90</v>
+        <v>207</v>
       </c>
       <c r="C7" s="105">
-        <v>6</v>
-      </c>
-      <c r="D7" s="121" t="s">
-        <v>91</v>
+        <v>4</v>
+      </c>
+      <c r="D7" s="120" t="s">
+        <v>203</v>
       </c>
       <c r="E7" s="117">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F7" s="107"/>
       <c r="G7" s="106"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>87</v>
+        <v>200</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>88</v>
+        <v>206</v>
       </c>
       <c r="C8" s="105">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D8" s="120" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="E8" s="117">
+        <v>10</v>
+      </c>
+      <c r="F8" s="107"/>
+      <c r="G8" s="106"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="C9" s="105">
+        <v>2</v>
+      </c>
+      <c r="D9" s="120" t="s">
+        <v>211</v>
+      </c>
+      <c r="E9" s="117">
         <v>25</v>
       </c>
-      <c r="F8" s="111"/>
-      <c r="G8" s="104"/>
-    </row>
-    <row r="9" spans="1:8" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="105">
-        <v>1</v>
-      </c>
-      <c r="D9" s="120" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="118">
-        <v>2.5</v>
-      </c>
-      <c r="F9" s="15"/>
+      <c r="F9" s="111"/>
       <c r="G9" s="104"/>
-      <c r="H9" s="102"/>
-    </row>
-    <row r="10" spans="1:8" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>50</v>
+        <v>204</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>51</v>
+        <v>208</v>
       </c>
       <c r="C10" s="105">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D10" s="120" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="118">
-        <v>3</v>
+        <v>210</v>
+      </c>
+      <c r="E10" s="117">
+        <v>25</v>
       </c>
       <c r="F10" s="111"/>
       <c r="G10" s="104"/>
-      <c r="H10" s="102"/>
     </row>
     <row r="11" spans="1:8" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>192</v>
+      <c r="A11" s="6" t="s">
+        <v>212</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="C11" s="105">
-        <v>1</v>
+        <v>218</v>
+      </c>
+      <c r="C11" s="105" t="s">
+        <v>214</v>
       </c>
       <c r="D11" s="120" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E11" s="118">
-        <v>2.5</v>
+        <v>19</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="104"/>
       <c r="H11" s="102"/>
     </row>
-    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="C12" s="105">
-        <v>1</v>
+        <v>217</v>
+      </c>
+      <c r="C12" s="105" t="s">
+        <v>216</v>
       </c>
       <c r="D12" s="120" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="E12" s="118">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="104"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H12" s="102"/>
+    </row>
+    <row r="13" spans="1:8" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>184</v>
+        <v>69</v>
       </c>
       <c r="C13" s="105">
         <v>1</v>
       </c>
       <c r="D13" s="120" t="s">
-        <v>197</v>
+        <v>70</v>
       </c>
       <c r="E13" s="118">
-        <v>60</v>
-      </c>
-      <c r="F13" s="111"/>
+        <v>2.5</v>
+      </c>
+      <c r="F13" s="15"/>
       <c r="G13" s="104"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H13" s="102"/>
+    </row>
+    <row r="14" spans="1:8" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>204</v>
+        <v>51</v>
       </c>
       <c r="C14" s="105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" s="120" t="s">
-        <v>205</v>
+        <v>52</v>
       </c>
       <c r="E14" s="118">
-        <v>31</v>
-      </c>
-      <c r="F14" s="15"/>
+        <v>3</v>
+      </c>
+      <c r="F14" s="111"/>
       <c r="G14" s="104"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="H14" s="102"/>
+    </row>
+    <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
         <v>182</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C15" s="105">
         <v>1</v>
       </c>
       <c r="D15" s="120" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E15" s="118">
-        <v>30</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="G15" s="104">
-        <v>16</v>
-      </c>
+        <v>2.5</v>
+      </c>
+      <c r="F15" s="15"/>
+      <c r="G15" s="104"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="C16" s="105">
         <v>1</v>
       </c>
       <c r="D16" s="120" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="E16" s="118">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="F16" s="15"/>
       <c r="G16" s="104"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>48</v>
+        <v>174</v>
       </c>
       <c r="C17" s="105">
         <v>1</v>
       </c>
       <c r="D17" s="120" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="E17" s="118">
-        <v>2</v>
-      </c>
-      <c r="F17" s="15"/>
+        <v>60</v>
+      </c>
+      <c r="F17" s="111"/>
       <c r="G17" s="104"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>45</v>
+        <v>194</v>
       </c>
       <c r="C18" s="105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" s="120" t="s">
-        <v>46</v>
+        <v>195</v>
       </c>
       <c r="E18" s="118">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F18" s="15"/>
       <c r="G18" s="104"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>82</v>
+        <v>176</v>
       </c>
       <c r="C19" s="105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" s="120" t="s">
-        <v>83</v>
+        <v>177</v>
       </c>
       <c r="E19" s="118">
-        <v>8</v>
-      </c>
-      <c r="F19" s="15"/>
-      <c r="G19" s="104"/>
+        <v>30</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="G19" s="104">
+        <v>16</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>84</v>
+        <v>190</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>85</v>
+        <v>191</v>
       </c>
       <c r="C20" s="105">
         <v>1</v>
       </c>
       <c r="D20" s="120" t="s">
-        <v>86</v>
+        <v>192</v>
       </c>
       <c r="E20" s="118">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="F20" s="15"/>
       <c r="G20" s="104"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="C21" s="105">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D21" s="120" t="s">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="E21" s="118">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="F21" s="15"/>
       <c r="G21" s="104"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="124" t="s">
-        <v>54</v>
+        <v>44</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>45</v>
       </c>
       <c r="C22" s="105">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" s="120" t="s">
-        <v>203</v>
+        <v>46</v>
       </c>
       <c r="E22" s="118">
-        <v>4</v>
-      </c>
-      <c r="F22" s="111"/>
+        <v>10</v>
+      </c>
+      <c r="F22" s="15"/>
       <c r="G22" s="104"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C23" s="105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" s="120" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E23" s="118">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="F23" s="15"/>
       <c r="G23" s="104"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C24" s="105">
         <v>1</v>
       </c>
       <c r="D24" s="120" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E24" s="118">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F24" s="15"/>
       <c r="G24" s="104"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="C25" s="105">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D25" s="120" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="E25" s="118">
-        <v>2</v>
-      </c>
-      <c r="F25" s="115"/>
+        <v>30</v>
+      </c>
+      <c r="F25" s="15"/>
       <c r="G25" s="104"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>59</v>
+        <v>53</v>
+      </c>
+      <c r="B26" s="123" t="s">
+        <v>54</v>
       </c>
       <c r="C26" s="105">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D26" s="120" t="s">
-        <v>60</v>
+        <v>193</v>
       </c>
       <c r="E26" s="118">
-        <v>30</v>
-      </c>
-      <c r="F26" s="115" t="s">
-        <v>180</v>
-      </c>
-      <c r="G26" s="104">
-        <v>40</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F26" s="111"/>
+      <c r="G26" s="104"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="C27" s="105">
         <v>1</v>
       </c>
       <c r="D27" s="120" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="E27" s="118">
-        <v>3.5</v>
-      </c>
-      <c r="F27" s="115"/>
+        <v>8.5</v>
+      </c>
+      <c r="F27" s="15"/>
       <c r="G27" s="104"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" s="105" t="s">
-        <v>79</v>
+        <v>72</v>
+      </c>
+      <c r="C28" s="105">
+        <v>1</v>
       </c>
       <c r="D28" s="120" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E28" s="118">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F28" s="15"/>
       <c r="G28" s="104"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="C29" s="105">
         <v>1</v>
       </c>
       <c r="D29" s="120" t="s">
-        <v>206</v>
+        <v>66</v>
       </c>
       <c r="E29" s="118">
-        <v>37</v>
-      </c>
-      <c r="F29" s="15"/>
+        <v>2</v>
+      </c>
+      <c r="F29" s="115"/>
       <c r="G29" s="104"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="105">
+        <v>1</v>
+      </c>
+      <c r="D30" s="120" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" s="118">
+        <v>30</v>
+      </c>
+      <c r="F30" s="115" t="s">
+        <v>170</v>
+      </c>
+      <c r="G30" s="104">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="105">
+        <v>1</v>
+      </c>
+      <c r="D31" s="120" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" s="118">
+        <v>3.5</v>
+      </c>
+      <c r="F31" s="115"/>
+      <c r="G31" s="104"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="105">
+        <v>1</v>
+      </c>
+      <c r="D32" s="120" t="s">
+        <v>196</v>
+      </c>
+      <c r="E32" s="118">
+        <v>37</v>
+      </c>
+      <c r="F32" s="15"/>
+      <c r="G32" s="104"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="125" t="s">
+      <c r="B33" s="124" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="123">
+      <c r="C33" s="122">
         <v>1</v>
       </c>
-      <c r="D30" s="122" t="s">
+      <c r="D33" s="121" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="119">
+      <c r="E33" s="119">
         <v>14</v>
       </c>
-      <c r="F30" s="116"/>
-      <c r="G30" s="104"/>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="108" t="s">
-        <v>97</v>
-      </c>
-      <c r="B31" s="109"/>
-      <c r="C31" s="109"/>
-      <c r="D31" s="109"/>
-      <c r="E31" s="110">
+      <c r="F33" s="116"/>
+      <c r="G33" s="104"/>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="108" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" s="109"/>
+      <c r="C34" s="109"/>
+      <c r="D34" s="109"/>
+      <c r="E34" s="110">
         <f>SUBTOTAL(109,Table1[[#All],[Column5]])</f>
-        <v>461</v>
-      </c>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
-    </row>
-    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="140" t="s">
-        <v>209</v>
-      </c>
-      <c r="B32" s="141"/>
-      <c r="C32" s="141"/>
-      <c r="D32" s="141"/>
-      <c r="E32" s="142">
-        <f>E4+E31</f>
-        <v>795</v>
+        <v>513</v>
+      </c>
+      <c r="F34" s="65"/>
+      <c r="G34" s="65"/>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="139" t="s">
+        <v>199</v>
+      </c>
+      <c r="B35" s="140"/>
+      <c r="C35" s="140"/>
+      <c r="D35" s="140"/>
+      <c r="E35" s="141">
+        <f>E4+E34</f>
+        <v>847</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D26" r:id="rId1" xr:uid="{3773511A-F3AF-4897-B5BB-16FB39A0B508}"/>
-    <hyperlink ref="D10" r:id="rId2" xr:uid="{AFC120EB-E75F-4BB8-BC6D-4AA9408DD14D}"/>
-    <hyperlink ref="D24" r:id="rId3" display="Link" xr:uid="{401DDADA-DB79-4416-96CF-3B1D6329769B}"/>
-    <hyperlink ref="D18" r:id="rId4" display="24V Dual Ball" xr:uid="{98BCAD8D-1DD9-49E5-B60D-FB8A39108E71}"/>
-    <hyperlink ref="D17" r:id="rId5" xr:uid="{968A8156-5055-4A5F-97A2-06DF8EA0EB3D}"/>
-    <hyperlink ref="D28" r:id="rId6" display="5 Meter Gates LL" xr:uid="{9F0DE403-B0EC-4933-928F-2806FBCF603A}"/>
-    <hyperlink ref="D23" r:id="rId7" display="Link" xr:uid="{45531F32-6B6C-44D5-9B2A-FB1F259BC9F9}"/>
-    <hyperlink ref="F26" r:id="rId8" display="Keenovo" xr:uid="{C2A02BBB-B317-4856-A562-A30BE2CA0A6C}"/>
-    <hyperlink ref="D20" r:id="rId9" display="8 Bore" xr:uid="{4C50ADBB-FC9C-42E4-8421-5A0C1600DD46}"/>
-    <hyperlink ref="D19" r:id="rId10" display="5 BORE" xr:uid="{43C03DCA-7867-4C9F-B1D0-8588267A1C82}"/>
-    <hyperlink ref="D27" r:id="rId11" xr:uid="{A901DFE1-486C-4AC2-8672-C18618945E04}"/>
-    <hyperlink ref="D25" r:id="rId12" xr:uid="{BA467D2F-0948-4A82-B49C-B8DCBA7936A0}"/>
-    <hyperlink ref="D21" r:id="rId13" display="Link" xr:uid="{49178A12-AF45-4969-AC8E-49BA3EBADDA9}"/>
-    <hyperlink ref="D16" r:id="rId14" xr:uid="{537A3F3C-7C92-42A9-B8B2-F37129F7787F}"/>
-    <hyperlink ref="D9" r:id="rId15" xr:uid="{82909F8B-3A14-4248-8CB2-384756C6E8BE}"/>
-    <hyperlink ref="D29" r:id="rId16" display="1/30 Worm Stepper" xr:uid="{0D6A5659-9181-49D0-A7D8-101F63076C8A}"/>
-    <hyperlink ref="D22" r:id="rId17" display="6Pcs Endstops" xr:uid="{4AEFCE09-28B7-4C24-82DE-ADAB9CAA43E1}"/>
-    <hyperlink ref="D30" r:id="rId18" xr:uid="{0ED2334F-09CF-437E-82F8-E81D86F288DC}"/>
-    <hyperlink ref="D8" r:id="rId19" xr:uid="{87CB364F-700B-4E81-BC67-3C859C1B7934}"/>
-    <hyperlink ref="D7" r:id="rId20" display="5X High End" xr:uid="{D4CB98E8-7A2B-495D-9E37-8208D21A6270}"/>
+    <hyperlink ref="D30" r:id="rId1" xr:uid="{3773511A-F3AF-4897-B5BB-16FB39A0B508}"/>
+    <hyperlink ref="D14" r:id="rId2" xr:uid="{AFC120EB-E75F-4BB8-BC6D-4AA9408DD14D}"/>
+    <hyperlink ref="D28" r:id="rId3" display="Link" xr:uid="{401DDADA-DB79-4416-96CF-3B1D6329769B}"/>
+    <hyperlink ref="D22" r:id="rId4" display="24V Dual Ball" xr:uid="{98BCAD8D-1DD9-49E5-B60D-FB8A39108E71}"/>
+    <hyperlink ref="D21" r:id="rId5" xr:uid="{968A8156-5055-4A5F-97A2-06DF8EA0EB3D}"/>
+    <hyperlink ref="D11" r:id="rId6" xr:uid="{9F0DE403-B0EC-4933-928F-2806FBCF603A}"/>
+    <hyperlink ref="D27" r:id="rId7" display="Link" xr:uid="{45531F32-6B6C-44D5-9B2A-FB1F259BC9F9}"/>
+    <hyperlink ref="F30" r:id="rId8" display="Keenovo" xr:uid="{C2A02BBB-B317-4856-A562-A30BE2CA0A6C}"/>
+    <hyperlink ref="D24" r:id="rId9" display="8 Bore" xr:uid="{4C50ADBB-FC9C-42E4-8421-5A0C1600DD46}"/>
+    <hyperlink ref="D23" r:id="rId10" display="5 BORE" xr:uid="{43C03DCA-7867-4C9F-B1D0-8588267A1C82}"/>
+    <hyperlink ref="D31" r:id="rId11" xr:uid="{A901DFE1-486C-4AC2-8672-C18618945E04}"/>
+    <hyperlink ref="D29" r:id="rId12" xr:uid="{BA467D2F-0948-4A82-B49C-B8DCBA7936A0}"/>
+    <hyperlink ref="D25" r:id="rId13" display="Link" xr:uid="{49178A12-AF45-4969-AC8E-49BA3EBADDA9}"/>
+    <hyperlink ref="D20" r:id="rId14" xr:uid="{537A3F3C-7C92-42A9-B8B2-F37129F7787F}"/>
+    <hyperlink ref="D13" r:id="rId15" xr:uid="{82909F8B-3A14-4248-8CB2-384756C6E8BE}"/>
+    <hyperlink ref="D32" r:id="rId16" display="1/30 Worm Stepper" xr:uid="{0D6A5659-9181-49D0-A7D8-101F63076C8A}"/>
+    <hyperlink ref="D26" r:id="rId17" display="6Pcs Endstops" xr:uid="{4AEFCE09-28B7-4C24-82DE-ADAB9CAA43E1}"/>
+    <hyperlink ref="D33" r:id="rId18" xr:uid="{0ED2334F-09CF-437E-82F8-E81D86F288DC}"/>
+    <hyperlink ref="D10" r:id="rId19" display="8Pcs 7mm With T" xr:uid="{87CB364F-700B-4E81-BC67-3C859C1B7934}"/>
+    <hyperlink ref="D8" r:id="rId20" xr:uid="{D4CB98E8-7A2B-495D-9E37-8208D21A6270}"/>
     <hyperlink ref="D6" r:id="rId21" display="6x5x1 Option Shim" xr:uid="{A333F16C-7F8A-421A-B64A-B04B701B747A}"/>
     <hyperlink ref="F6" r:id="rId22" display="NB! 200 pcs option is same price" xr:uid="{D98A7A59-4D4C-4589-8C00-1DCF83FFF3E6}"/>
-    <hyperlink ref="D13" r:id="rId23" display="BTT DUET WIFI Clone" xr:uid="{F52EB8DF-670A-4145-90A1-8A8DF8B4B7B2}"/>
-    <hyperlink ref="D15" r:id="rId24" xr:uid="{53A16D3E-EBE4-45B6-9E87-70111D7D2FFE}"/>
-    <hyperlink ref="F15" r:id="rId25" xr:uid="{2E01C49B-F943-468C-B222-27E06F7C15FC}"/>
-    <hyperlink ref="D11" r:id="rId26" display="Cable Loom - Bowden Path" xr:uid="{5DD23B84-72DC-46EC-A740-B82AFAD09C94}"/>
-    <hyperlink ref="D12" r:id="rId27" xr:uid="{0C6F2C79-ACBB-4C55-AC21-4895BA685D6B}"/>
-    <hyperlink ref="D14" r:id="rId28" xr:uid="{9689F2B7-24E0-4CC5-A39F-53D7E0370FC8}"/>
+    <hyperlink ref="D17" r:id="rId23" display="BTT DUET WIFI Clone" xr:uid="{F52EB8DF-670A-4145-90A1-8A8DF8B4B7B2}"/>
+    <hyperlink ref="D19" r:id="rId24" xr:uid="{53A16D3E-EBE4-45B6-9E87-70111D7D2FFE}"/>
+    <hyperlink ref="F19" r:id="rId25" xr:uid="{2E01C49B-F943-468C-B222-27E06F7C15FC}"/>
+    <hyperlink ref="D15" r:id="rId26" display="Cable Loom - Bowden Path" xr:uid="{5DD23B84-72DC-46EC-A740-B82AFAD09C94}"/>
+    <hyperlink ref="D16" r:id="rId27" xr:uid="{0C6F2C79-ACBB-4C55-AC21-4895BA685D6B}"/>
+    <hyperlink ref="D18" r:id="rId28" xr:uid="{9689F2B7-24E0-4CC5-A39F-53D7E0370FC8}"/>
     <hyperlink ref="A4" r:id="rId29" xr:uid="{42E8AC4D-928E-4528-A3B8-EB12C0061FC4}"/>
+    <hyperlink ref="D7" r:id="rId30" xr:uid="{DC8F7F14-CA2A-4482-8C1E-5173C4B8D9AD}"/>
+    <hyperlink ref="D9" r:id="rId31" display="8Pcs 7mm With T" xr:uid="{9AED87BC-5BEC-4990-87E4-DE18B0259F70}"/>
+    <hyperlink ref="D12" r:id="rId32" xr:uid="{3BB9CD36-EAAE-4CDD-91A2-546DD9AEE97B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId30"/>
-  <drawing r:id="rId31"/>
+  <pageSetup paperSize="9" scale="92" orientation="landscape" r:id="rId33"/>
+  <drawing r:id="rId34"/>
   <tableParts count="1">
-    <tablePart r:id="rId32"/>
+    <tablePart r:id="rId35"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3841,7 +3931,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="67" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -3855,10 +3945,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C2" s="29">
         <v>2</v>
@@ -3869,10 +3959,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C3" s="29">
         <v>4</v>
@@ -3883,10 +3973,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C4" s="29">
         <v>4</v>
@@ -3897,10 +3987,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C5" s="29">
         <v>2</v>
@@ -3911,10 +4001,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C6" s="29">
         <v>2</v>
@@ -3925,10 +4015,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C7" s="29">
         <v>11</v>
@@ -3939,10 +4029,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C8" s="29">
         <v>15</v>
@@ -3953,10 +4043,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C9" s="29">
         <v>6</v>
@@ -3967,10 +4057,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C10" s="29">
         <v>9</v>
@@ -3981,10 +4071,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C11" s="29">
         <v>5</v>
@@ -3995,10 +4085,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C12" s="29">
         <v>8</v>
@@ -4009,10 +4099,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C13" s="29">
         <v>2</v>
@@ -4023,10 +4113,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C14" s="29">
         <v>5</v>
@@ -4037,10 +4127,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C15" s="29">
         <v>5</v>
@@ -4051,10 +4141,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C16" s="29">
         <v>13</v>
@@ -4065,10 +4155,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C17" s="29">
         <v>6</v>
@@ -4079,10 +4169,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C18" s="29">
         <v>2</v>
@@ -4093,10 +4183,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C19" s="29">
         <v>1</v>
@@ -4107,10 +4197,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C20" s="29">
         <v>3</v>
@@ -4121,10 +4211,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C21" s="29">
         <v>1</v>
@@ -4135,10 +4225,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C22" s="29">
         <v>1</v>
@@ -4149,10 +4239,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C23" s="29">
         <v>28</v>
@@ -4163,10 +4253,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C24" s="29">
         <v>6</v>
@@ -4177,10 +4267,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C25" s="29">
         <v>50</v>
@@ -4191,10 +4281,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C26" s="29">
         <v>63</v>
@@ -4203,15 +4293,15 @@
         <v>70</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C27" s="29">
         <v>143</v>
@@ -4222,10 +4312,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C28" s="29">
         <v>200</v>
@@ -4236,10 +4326,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C29" s="29">
         <v>142</v>
@@ -4250,10 +4340,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C30" s="29">
         <v>8</v>
@@ -4264,10 +4354,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C31" s="29">
         <v>1</v>
@@ -4278,10 +4368,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C32" s="29">
         <v>2</v>
@@ -4292,10 +4382,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C33" s="29">
         <v>2</v>
@@ -4306,10 +4396,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C34" s="29">
         <v>18</v>
@@ -4320,10 +4410,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C35" s="29">
         <v>8</v>
@@ -4334,10 +4424,10 @@
     </row>
     <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="26" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C36" s="29">
         <v>4</v>
@@ -4348,7 +4438,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="63" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B37" s="64"/>
       <c r="C37" s="70">
@@ -4362,7 +4452,7 @@
     </row>
     <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="26" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="4"/>
@@ -4372,7 +4462,7 @@
     </row>
     <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="8"/>

--- a/Document Library/Bill Of Materials/V-Baby BOM.xlsx
+++ b/Document Library/Bill Of Materials/V-Baby BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/V-Baby CoreXY/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2155" documentId="11_2E462098BBA7632759C38D02185E4833A2B67484" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D1922C25-CC9B-432B-BD44-6A1F471EFB3B}"/>
+  <xr:revisionPtr revIDLastSave="2159" documentId="11_2E462098BBA7632759C38D02185E4833A2B67484" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{55FBB4D5-59EB-44CA-9516-0E6DC65F150C}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2734,7 +2734,7 @@
       <c r="E19" s="6"/>
       <c r="F19" s="31">
         <f>'Component Part List'!$E$34</f>
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="G19" s="42"/>
       <c r="H19" s="26" t="s">
@@ -2743,7 +2743,7 @@
       <c r="I19" s="6"/>
       <c r="J19" s="31">
         <f>'Component Part List'!$E$34</f>
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -2797,7 +2797,7 @@
       <c r="E22" s="39"/>
       <c r="F22" s="35">
         <f>SUM(F18:F21)</f>
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="G22" s="42"/>
       <c r="H22" s="53" t="s">
@@ -2806,7 +2806,7 @@
       <c r="I22" s="54"/>
       <c r="J22" s="55">
         <f>SUM(J18:J21)</f>
-        <v>697.6</v>
+        <v>699.6</v>
       </c>
     </row>
   </sheetData>
@@ -3631,7 +3631,7 @@
         <v>79</v>
       </c>
       <c r="E23" s="118">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F23" s="15"/>
       <c r="G23" s="104"/>
@@ -3650,7 +3650,7 @@
         <v>82</v>
       </c>
       <c r="E24" s="118">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F24" s="15"/>
       <c r="G24" s="104"/>
@@ -3839,7 +3839,7 @@
       <c r="D34" s="109"/>
       <c r="E34" s="110">
         <f>SUBTOTAL(109,Table1[[#All],[Column5]])</f>
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="F34" s="65"/>
       <c r="G34" s="65"/>
@@ -3853,7 +3853,7 @@
       <c r="D35" s="140"/>
       <c r="E35" s="141">
         <f>E4+E34</f>
-        <v>847</v>
+        <v>849</v>
       </c>
     </row>
   </sheetData>
@@ -3867,7 +3867,7 @@
     <hyperlink ref="D11" r:id="rId6" xr:uid="{9F0DE403-B0EC-4933-928F-2806FBCF603A}"/>
     <hyperlink ref="D27" r:id="rId7" display="Link" xr:uid="{45531F32-6B6C-44D5-9B2A-FB1F259BC9F9}"/>
     <hyperlink ref="F30" r:id="rId8" display="Keenovo" xr:uid="{C2A02BBB-B317-4856-A562-A30BE2CA0A6C}"/>
-    <hyperlink ref="D24" r:id="rId9" display="8 Bore" xr:uid="{4C50ADBB-FC9C-42E4-8421-5A0C1600DD46}"/>
+    <hyperlink ref="D24" r:id="rId9" xr:uid="{4C50ADBB-FC9C-42E4-8421-5A0C1600DD46}"/>
     <hyperlink ref="D23" r:id="rId10" display="5 BORE" xr:uid="{43C03DCA-7867-4C9F-B1D0-8588267A1C82}"/>
     <hyperlink ref="D31" r:id="rId11" xr:uid="{A901DFE1-486C-4AC2-8672-C18618945E04}"/>
     <hyperlink ref="D29" r:id="rId12" xr:uid="{BA467D2F-0948-4A82-B49C-B8DCBA7936A0}"/>

--- a/Document Library/Bill Of Materials/V-Baby BOM.xlsx
+++ b/Document Library/Bill Of Materials/V-Baby BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/V-Baby CoreXY/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2159" documentId="11_2E462098BBA7632759C38D02185E4833A2B67484" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{55FBB4D5-59EB-44CA-9516-0E6DC65F150C}"/>
+  <xr:revisionPtr revIDLastSave="2220" documentId="11_2E462098BBA7632759C38D02185E4833A2B67484" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{79312CF6-B23F-4959-ADB0-87B667B91D53}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OpenBuild Part List" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="221">
   <si>
     <t>Exstrusions</t>
   </si>
@@ -117,9 +117,6 @@
     <t>V-Slot in Meter</t>
   </si>
   <si>
-    <t>6 X 1000 mm</t>
-  </si>
-  <si>
     <t>Shipping</t>
   </si>
   <si>
@@ -694,6 +691,12 @@
   </si>
   <si>
     <t>2M-6MM-2GT</t>
+  </si>
+  <si>
+    <t>17x350</t>
+  </si>
+  <si>
+    <t>No cuts - No tapps</t>
   </si>
 </sst>
 </file>
@@ -872,7 +875,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1240,6 +1243,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1249,7 +1280,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1281,7 +1312,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
@@ -1348,28 +1378,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -1448,6 +1459,38 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="40% - Accent6" xfId="4" builtinId="51"/>
@@ -1753,16 +1796,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1200150</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1791,8 +1834,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3552825" y="4391025"/>
-          <a:ext cx="1866900" cy="1866900"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1104900" cy="1104900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1808,16 +1851,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>497205</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>960120</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1846,8 +1889,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2781300" y="3710940"/>
-          <a:ext cx="1945005" cy="1790700"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="960120" cy="933450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2364,9 +2407,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A6:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2375,450 +2418,453 @@
     <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="4.28515625" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B7" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C7" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D7" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E7" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F7" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="G7" s="43"/>
+      <c r="H7" s="56" t="s">
         <v>136</v>
       </c>
-      <c r="G1" s="44"/>
-      <c r="H1" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="I1" s="56"/>
-      <c r="J1" s="58" t="s">
+      <c r="I7" s="55"/>
+      <c r="J7" s="57" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="142" t="s">
-        <v>135</v>
-      </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="59"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="46"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="130" t="s">
+        <v>134</v>
+      </c>
+      <c r="G8" s="40"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="58"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D9" s="6">
         <v>4</v>
       </c>
-      <c r="E3" s="10">
-        <f>D3*310</f>
+      <c r="E9" s="10">
+        <f>D9*310</f>
         <v>1240</v>
       </c>
-      <c r="F3" s="143"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="60"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+      <c r="F9" s="131"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="59"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B10" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C10" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D10" s="24">
         <v>4</v>
       </c>
-      <c r="E4" s="23">
-        <f>D4*350</f>
+      <c r="E10" s="23">
+        <f>D10*350</f>
         <v>1400</v>
       </c>
-      <c r="F4" s="143"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="59"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
+      <c r="F10" s="131"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="58"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D11" s="6">
         <v>5</v>
       </c>
-      <c r="E5" s="10">
-        <f>D5*340</f>
+      <c r="E11" s="10">
+        <f>D11*340</f>
         <v>1700</v>
       </c>
-      <c r="F5" s="143"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="60"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
+      <c r="F11" s="131"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="59"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B12" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C12" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D12" s="24">
         <v>1</v>
       </c>
-      <c r="E6" s="23">
-        <f>D6*295</f>
+      <c r="E12" s="23">
+        <f>D12*295</f>
         <v>295</v>
       </c>
-      <c r="F6" s="143"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="59"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="48"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="143"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="60"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="24">
-        <v>1</v>
-      </c>
-      <c r="E8" s="23">
-        <f>D8*290</f>
-        <v>290</v>
-      </c>
-      <c r="F8" s="143"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="59"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="6">
-        <v>2</v>
-      </c>
-      <c r="E9" s="10">
-        <f>D9*350</f>
-        <v>700</v>
-      </c>
-      <c r="F9" s="143"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="60"/>
-    </row>
-    <row r="10" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="22">
-        <f>SUM(E3:E9)</f>
-        <v>5625</v>
-      </c>
-      <c r="F10" s="143"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="61" t="s">
-        <v>139</v>
-      </c>
-      <c r="J10" s="59">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="48"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="143"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="62"/>
-      <c r="J11" s="60">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="24">
-        <v>18</v>
-      </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="143"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" s="61" t="s">
-        <v>140</v>
-      </c>
-      <c r="J12" s="59">
-        <v>15</v>
-      </c>
+      <c r="F12" s="131"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="58"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="48"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="10"/>
-      <c r="F13" s="143"/>
-      <c r="G13" s="41"/>
+      <c r="F13" s="131"/>
+      <c r="G13" s="40"/>
       <c r="H13" s="26"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="60"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="49" t="s">
-        <v>32</v>
+      <c r="I13" s="6"/>
+      <c r="J13" s="59"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="48" t="s">
+        <v>18</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D14" s="24">
+        <v>1</v>
+      </c>
+      <c r="E14" s="23">
+        <f>D14*290</f>
+        <v>290</v>
+      </c>
+      <c r="F14" s="131"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="58"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="6">
+        <v>2</v>
+      </c>
+      <c r="E15" s="10">
+        <f>D15*350</f>
+        <v>700</v>
+      </c>
+      <c r="F15" s="131"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="49" t="s">
+        <v>220</v>
+      </c>
+      <c r="I15" s="15"/>
+      <c r="J15" s="59"/>
+    </row>
+    <row r="16" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="24"/>
+      <c r="E16" s="22">
+        <f>SUM(E9:E15)</f>
+        <v>5625</v>
+      </c>
+      <c r="F16" s="131"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="51" t="s">
+        <v>219</v>
+      </c>
+      <c r="I16" s="60" t="s">
+        <v>138</v>
+      </c>
+      <c r="J16" s="58">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="47"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="131"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="61"/>
+      <c r="J17" s="59">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="24">
+        <v>18</v>
+      </c>
+      <c r="E18" s="21"/>
+      <c r="F18" s="131"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="143"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14" s="61" t="s">
-        <v>141</v>
-      </c>
-      <c r="J14" s="59">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="25">
-        <v>314</v>
-      </c>
-      <c r="G15" s="45"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="25">
-        <f>SUM(J2:J14)</f>
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G16" s="14"/>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="30">
-        <f>F15</f>
-        <v>314</v>
-      </c>
-      <c r="G18" s="42"/>
-      <c r="H18" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" s="36"/>
-      <c r="J18" s="30">
-        <f>J15</f>
-        <v>104</v>
+      <c r="I18" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="J18" s="58">
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
-        <v>38</v>
-      </c>
+      <c r="A19" s="47"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="31">
+      <c r="E19" s="10"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="59"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="24">
+        <v>30</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="131"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" s="60" t="s">
+        <v>140</v>
+      </c>
+      <c r="J20" s="58">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="25">
+        <v>360</v>
+      </c>
+      <c r="G21" s="44"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="25">
+        <f>SUM(J8:J20)</f>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G22" s="14"/>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="30">
+        <f>F21</f>
+        <v>360</v>
+      </c>
+      <c r="G24" s="41"/>
+      <c r="H24" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="35"/>
+      <c r="J24" s="30">
+        <f>J21</f>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="151">
         <f>'Component Part List'!$E$34</f>
         <v>515</v>
       </c>
-      <c r="G19" s="42"/>
-      <c r="H19" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="I19" s="6"/>
-      <c r="J19" s="31">
+      <c r="G25" s="41"/>
+      <c r="H25" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="I25" s="6"/>
+      <c r="J25" s="151">
         <f>'Component Part List'!$E$34</f>
         <v>515</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="32" t="s">
+      <c r="G26" s="41"/>
+      <c r="H26" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="I26" s="24"/>
+      <c r="J26" s="31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="G20" s="42"/>
-      <c r="H20" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="I20" s="24"/>
-      <c r="J20" s="32" t="s">
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="G27" s="41"/>
+      <c r="H27" s="26" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="40" t="s">
-        <v>134</v>
-      </c>
-      <c r="G21" s="42"/>
-      <c r="H21" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="I21" s="6"/>
-      <c r="J21" s="31">
+      <c r="I27" s="6"/>
+      <c r="J27" s="151">
         <f>Fasteners!D39</f>
         <v>80.600000000000009</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="35">
-        <f>SUM(F18:F21)</f>
-        <v>829</v>
-      </c>
-      <c r="G22" s="42"/>
-      <c r="H22" s="53" t="s">
+    <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="34">
+        <f>SUM(F24:F27)</f>
+        <v>875</v>
+      </c>
+      <c r="G28" s="41"/>
+      <c r="H28" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="I22" s="54"/>
-      <c r="J22" s="55">
-        <f>SUM(J18:J21)</f>
-        <v>699.6</v>
+      <c r="I28" s="53"/>
+      <c r="J28" s="54">
+        <f>SUM(J24:J27)</f>
+        <v>753.6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F2:F14"/>
+    <mergeCell ref="F8:F20"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H12" r:id="rId1" display="Link" xr:uid="{C3256A92-D2BC-4747-8CF4-9700582E1D6A}"/>
-    <hyperlink ref="H14" r:id="rId2" display="Link" xr:uid="{F8D58AE2-0062-41E4-8ED4-FF3B61A2197F}"/>
-    <hyperlink ref="F2:F14" r:id="rId3" display="Frame, Wheels &amp; Brackets" xr:uid="{88E85C19-8B6B-448A-938B-C81E333DE1C3}"/>
-    <hyperlink ref="H10" r:id="rId4" display="Link" xr:uid="{1B499213-8A92-4621-AE06-76155BA112E2}"/>
-    <hyperlink ref="F5" r:id="rId5" display="Frame, Wheels &amp; Brackets" xr:uid="{84030306-CB00-462C-945A-70C189C89E61}"/>
+    <hyperlink ref="H18" r:id="rId1" display="Link" xr:uid="{C3256A92-D2BC-4747-8CF4-9700582E1D6A}"/>
+    <hyperlink ref="H20" r:id="rId2" display="Link" xr:uid="{F8D58AE2-0062-41E4-8ED4-FF3B61A2197F}"/>
+    <hyperlink ref="F8:F20" r:id="rId3" display="Frame, Wheels &amp; Brackets" xr:uid="{88E85C19-8B6B-448A-938B-C81E333DE1C3}"/>
+    <hyperlink ref="H16" r:id="rId4" xr:uid="{1B499213-8A92-4621-AE06-76155BA112E2}"/>
+    <hyperlink ref="F11" r:id="rId5" display="Frame, Wheels &amp; Brackets" xr:uid="{84030306-CB00-462C-945A-70C189C89E61}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0" orientation="landscape" r:id="rId6"/>
@@ -2828,368 +2874,363 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F218652C-84FF-410D-B4A3-3D58858A2DC6}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A6:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:C13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="73" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="72" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+    <row r="6" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="74" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" s="75"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="77"/>
+    </row>
+    <row r="7" spans="1:7" s="73" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="133" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="78"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="79"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="10"/>
-    </row>
-    <row r="3" spans="1:7" s="74" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="81" t="s">
-        <v>145</v>
-      </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="96" t="s">
+      <c r="B7" s="134"/>
+      <c r="C7" s="135" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" s="133" t="s">
+        <v>148</v>
+      </c>
+      <c r="E7" s="134"/>
+      <c r="F7" s="133" t="s">
+        <v>149</v>
+      </c>
+      <c r="G7" s="134"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="78" t="s">
+        <v>158</v>
+      </c>
+      <c r="B8" s="10">
+        <v>310</v>
+      </c>
+      <c r="C8" s="136" t="s">
+        <v>161</v>
+      </c>
+      <c r="D8" s="78">
+        <f>B8+50</f>
+        <v>360</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="78">
+        <f>B8+100</f>
+        <v>410</v>
+      </c>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="78" t="s">
+        <v>159</v>
+      </c>
+      <c r="B9" s="10">
+        <v>350</v>
+      </c>
+      <c r="C9" s="136" t="s">
+        <v>161</v>
+      </c>
+      <c r="D9" s="78">
+        <f>B9+50</f>
+        <v>400</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="D3" s="84" t="s">
-        <v>149</v>
-      </c>
-      <c r="E3" s="82"/>
-      <c r="F3" s="84" t="s">
-        <v>150</v>
-      </c>
-      <c r="G3" s="85"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
-        <v>159</v>
-      </c>
-      <c r="B4" s="6">
-        <v>310</v>
-      </c>
-      <c r="C4" s="97" t="s">
+      <c r="F9" s="78">
+        <f>B9+100</f>
+        <v>450</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="78" t="s">
+        <v>160</v>
+      </c>
+      <c r="B10" s="10">
+        <v>340</v>
+      </c>
+      <c r="C10" s="136" t="s">
         <v>162</v>
       </c>
-      <c r="D4" s="6">
-        <f>B4+50</f>
-        <v>360</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6">
-        <f>B4+100</f>
-        <v>410</v>
-      </c>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="79" t="s">
-        <v>160</v>
-      </c>
-      <c r="B5" s="6">
+      <c r="D10" s="78">
+        <f>B10+50</f>
+        <v>390</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="78">
+        <f>B10+100</f>
+        <v>440</v>
+      </c>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="120">
+        <v>290</v>
+      </c>
+      <c r="C11" s="136" t="s">
+        <v>163</v>
+      </c>
+      <c r="D11" s="78">
+        <f t="shared" ref="D11:D13" si="0">B11+50</f>
+        <v>340</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="78">
+        <f t="shared" ref="F11:F13" si="1">B11+100</f>
+        <v>390</v>
+      </c>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="78" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="120">
         <v>350</v>
       </c>
-      <c r="C5" s="97" t="s">
-        <v>162</v>
-      </c>
-      <c r="D5" s="6">
-        <f>B5+50</f>
-        <v>400</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="F5" s="6">
-        <f>B5+100</f>
-        <v>450</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="79" t="s">
-        <v>161</v>
-      </c>
-      <c r="B6" s="6">
-        <v>340</v>
-      </c>
-      <c r="C6" s="97" t="s">
-        <v>163</v>
-      </c>
-      <c r="D6" s="6">
-        <f>B6+50</f>
-        <v>390</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6">
-        <f>B6+100</f>
-        <v>440</v>
-      </c>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="79" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="14">
-        <v>290</v>
-      </c>
-      <c r="C7" s="97" t="s">
+      <c r="C12" s="136" t="s">
         <v>164</v>
       </c>
-      <c r="D7" s="6">
-        <f t="shared" ref="D7:D9" si="0">B7+50</f>
-        <v>340</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6">
-        <f t="shared" ref="F7:F9" si="1">B7+100</f>
-        <v>390</v>
-      </c>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="14">
-        <v>350</v>
-      </c>
-      <c r="C8" s="97" t="s">
-        <v>165</v>
-      </c>
-      <c r="D8" s="6">
+      <c r="D12" s="78">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6">
+      <c r="E12" s="10"/>
+      <c r="F12" s="78">
         <f t="shared" si="1"/>
         <v>450</v>
       </c>
-      <c r="G8" s="10"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="79" t="s">
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B13" s="119">
         <v>295</v>
       </c>
-      <c r="C9" s="97" t="s">
-        <v>164</v>
-      </c>
-      <c r="D9" s="6">
+      <c r="C13" s="137" t="s">
+        <v>163</v>
+      </c>
+      <c r="D13" s="84">
         <f t="shared" si="0"/>
         <v>345</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6">
+      <c r="E13" s="85"/>
+      <c r="F13" s="84">
         <f t="shared" si="1"/>
         <v>395</v>
       </c>
-      <c r="G9" s="10"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="79"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="10"/>
-    </row>
-    <row r="11" spans="1:7" s="74" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="81" t="s">
-        <v>152</v>
-      </c>
-      <c r="B11" s="82"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="85"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="79" t="s">
-        <v>151</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="10"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="86" t="s">
-        <v>153</v>
-      </c>
-      <c r="B13" s="87"/>
-      <c r="C13" s="88" t="s">
-        <v>155</v>
-      </c>
-      <c r="D13" s="89" t="s">
-        <v>154</v>
-      </c>
-      <c r="E13" s="89"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="10"/>
+      <c r="G13" s="85"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="79" t="s">
-        <v>159</v>
-      </c>
-      <c r="B14" s="87">
-        <v>200</v>
-      </c>
-      <c r="C14" s="88" t="s">
-        <v>146</v>
-      </c>
-      <c r="D14" s="89">
-        <f>B14+110</f>
-        <v>310</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>162</v>
-      </c>
+      <c r="A14" s="78"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="10"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="79" t="s">
-        <v>160</v>
-      </c>
-      <c r="B15" s="87">
-        <v>200</v>
-      </c>
-      <c r="C15" s="88" t="s">
-        <v>147</v>
-      </c>
-      <c r="D15" s="89">
-        <f>B15+150</f>
-        <v>350</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="G15" s="10"/>
+    <row r="15" spans="1:7" s="73" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="80" t="s">
+        <v>151</v>
+      </c>
+      <c r="B15" s="81"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="83"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="79" t="s">
-        <v>161</v>
-      </c>
-      <c r="B16" s="87">
-        <v>200</v>
-      </c>
-      <c r="C16" s="88" t="s">
-        <v>148</v>
-      </c>
-      <c r="D16" s="89">
-        <f>B16+140</f>
-        <v>340</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>163</v>
-      </c>
+      <c r="A16" s="78" t="s">
+        <v>150</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="79" t="s">
+      <c r="A17" s="145" t="s">
+        <v>152</v>
+      </c>
+      <c r="B17" s="146"/>
+      <c r="C17" s="140" t="s">
+        <v>154</v>
+      </c>
+      <c r="D17" s="149" t="s">
+        <v>153</v>
+      </c>
+      <c r="E17" s="150"/>
+      <c r="F17" s="132" t="s">
+        <v>165</v>
+      </c>
+      <c r="G17" s="77"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="78" t="s">
+        <v>158</v>
+      </c>
+      <c r="B18" s="143">
+        <v>350</v>
+      </c>
+      <c r="C18" s="141" t="s">
+        <v>145</v>
+      </c>
+      <c r="D18" s="147">
+        <f>B18+110</f>
+        <v>460</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="78" t="s">
+        <v>159</v>
+      </c>
+      <c r="B19" s="143">
+        <v>350</v>
+      </c>
+      <c r="C19" s="141" t="s">
+        <v>146</v>
+      </c>
+      <c r="D19" s="147">
+        <f>B19+150</f>
+        <v>500</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="78" t="s">
+        <v>160</v>
+      </c>
+      <c r="B20" s="143">
+        <v>350</v>
+      </c>
+      <c r="C20" s="141" t="s">
+        <v>147</v>
+      </c>
+      <c r="D20" s="147">
+        <f>B20+140</f>
+        <v>490</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="78" t="s">
+        <v>162</v>
+      </c>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="87"/>
-      <c r="C17" s="88"/>
-      <c r="D17" s="89">
-        <f>B14+90</f>
-        <v>290</v>
-      </c>
-      <c r="E17" s="14" t="s">
+      <c r="B21" s="143"/>
+      <c r="C21" s="141"/>
+      <c r="D21" s="147">
+        <f>B18+90</f>
+        <v>440</v>
+      </c>
+      <c r="E21" s="120"/>
+      <c r="F21" s="138" t="s">
+        <v>163</v>
+      </c>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="78" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="143"/>
+      <c r="C22" s="141"/>
+      <c r="D22" s="147">
+        <f>B19+150</f>
+        <v>500</v>
+      </c>
+      <c r="E22" s="120"/>
+      <c r="F22" s="138" t="s">
         <v>164</v>
       </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="10"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="87"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="89">
-        <f>B15+150</f>
-        <v>350</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="10"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="90" t="s">
+      <c r="G22" s="10"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="91"/>
-      <c r="C19" s="92"/>
-      <c r="D19" s="93">
-        <f>B14+95</f>
-        <v>295</v>
-      </c>
-      <c r="E19" s="98" t="s">
-        <v>164</v>
-      </c>
-      <c r="F19" s="94"/>
-      <c r="G19" s="95"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B23" s="144"/>
+      <c r="C23" s="142"/>
+      <c r="D23" s="148">
+        <f>B18+95</f>
+        <v>445</v>
+      </c>
+      <c r="E23" s="119"/>
+      <c r="F23" s="139" t="s">
+        <v>163</v>
+      </c>
+      <c r="G23" s="85"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
         <v>157</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>158</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A23" r:id="rId1" xr:uid="{82CE5886-BC2F-4406-ADB2-C316B29905F2}"/>
-    <hyperlink ref="A24" r:id="rId2" xr:uid="{B44D397D-7187-458A-B083-3D9FD5C5F9E0}"/>
+    <hyperlink ref="A27" r:id="rId1" xr:uid="{82CE5886-BC2F-4406-ADB2-C316B29905F2}"/>
+    <hyperlink ref="A28" r:id="rId2" xr:uid="{B44D397D-7187-458A-B083-3D9FD5C5F9E0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" orientation="landscape" r:id="rId3"/>
@@ -3204,7 +3245,9 @@
   </sheetPr>
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3219,639 +3262,639 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="125"/>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="128"/>
+      <c r="A1" s="113"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="116"/>
     </row>
     <row r="2" spans="1:8" ht="27.75" x14ac:dyDescent="0.5">
-      <c r="A2" s="129"/>
-      <c r="B2" s="103"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="99" t="s">
-        <v>175</v>
-      </c>
-      <c r="E2" s="100"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="130"/>
+      <c r="A2" s="117"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="87" t="s">
+        <v>174</v>
+      </c>
+      <c r="E2" s="88"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="118"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="79"/>
+      <c r="A3" s="78"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="131"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="119"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="135" t="s">
+      <c r="A4" s="123" t="s">
+        <v>196</v>
+      </c>
+      <c r="B4" s="124"/>
+      <c r="C4" s="124" t="s">
         <v>197</v>
       </c>
-      <c r="B4" s="136"/>
-      <c r="C4" s="136" t="s">
-        <v>198</v>
-      </c>
-      <c r="D4" s="137"/>
-      <c r="E4" s="138">
+      <c r="D4" s="125"/>
+      <c r="E4" s="126">
         <v>334</v>
       </c>
-      <c r="G4" s="132"/>
+      <c r="G4" s="120"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="133" t="s">
+      <c r="A5" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="134" t="s">
+      <c r="B5" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="134" t="s">
+      <c r="C5" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="134" t="s">
+      <c r="D5" s="122" t="s">
+        <v>178</v>
+      </c>
+      <c r="E5" s="122" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="101" t="s">
         <v>179</v>
       </c>
-      <c r="E5" s="134" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="113" t="s">
-        <v>180</v>
-      </c>
-      <c r="G5" s="114" t="s">
-        <v>42</v>
+      <c r="G5" s="102" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="C6" s="105">
+        <v>188</v>
+      </c>
+      <c r="C6" s="93">
         <v>80</v>
       </c>
-      <c r="D6" s="120" t="s">
-        <v>188</v>
-      </c>
-      <c r="E6" s="117">
+      <c r="D6" s="108" t="s">
+        <v>187</v>
+      </c>
+      <c r="E6" s="105">
         <v>15</v>
       </c>
-      <c r="F6" s="111" t="s">
-        <v>173</v>
-      </c>
-      <c r="G6" s="104"/>
-    </row>
-    <row r="7" spans="1:8" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F6" s="99" t="s">
+        <v>172</v>
+      </c>
+      <c r="G6" s="92"/>
+    </row>
+    <row r="7" spans="1:8" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="C7" s="93">
+        <v>4</v>
+      </c>
+      <c r="D7" s="108" t="s">
+        <v>202</v>
+      </c>
+      <c r="E7" s="105">
+        <v>17</v>
+      </c>
+      <c r="F7" s="95"/>
+      <c r="G7" s="94"/>
+    </row>
+    <row r="8" spans="1:8" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="C8" s="93">
+        <v>2</v>
+      </c>
+      <c r="D8" s="108" t="s">
         <v>201</v>
       </c>
-      <c r="B7" s="29" t="s">
-        <v>207</v>
-      </c>
-      <c r="C7" s="105">
-        <v>4</v>
-      </c>
-      <c r="D7" s="120" t="s">
-        <v>203</v>
-      </c>
-      <c r="E7" s="117">
-        <v>17</v>
-      </c>
-      <c r="F7" s="107"/>
-      <c r="G7" s="106"/>
-    </row>
-    <row r="8" spans="1:8" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>206</v>
-      </c>
-      <c r="C8" s="105">
-        <v>2</v>
-      </c>
-      <c r="D8" s="120" t="s">
-        <v>202</v>
-      </c>
-      <c r="E8" s="117">
+      <c r="E8" s="105">
         <v>10</v>
       </c>
-      <c r="F8" s="107"/>
-      <c r="G8" s="106"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="94"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>209</v>
-      </c>
-      <c r="C9" s="105">
+        <v>208</v>
+      </c>
+      <c r="C9" s="93">
         <v>2</v>
       </c>
-      <c r="D9" s="120" t="s">
-        <v>211</v>
-      </c>
-      <c r="E9" s="117">
+      <c r="D9" s="108" t="s">
+        <v>210</v>
+      </c>
+      <c r="E9" s="105">
         <v>25</v>
       </c>
-      <c r="F9" s="111"/>
-      <c r="G9" s="104"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="92"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>208</v>
-      </c>
-      <c r="C10" s="105">
+        <v>207</v>
+      </c>
+      <c r="C10" s="93">
         <v>6</v>
       </c>
-      <c r="D10" s="120" t="s">
-        <v>210</v>
-      </c>
-      <c r="E10" s="117">
+      <c r="D10" s="108" t="s">
+        <v>209</v>
+      </c>
+      <c r="E10" s="105">
         <v>25</v>
       </c>
-      <c r="F10" s="111"/>
-      <c r="G10" s="104"/>
-    </row>
-    <row r="11" spans="1:8" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F10" s="99"/>
+      <c r="G10" s="92"/>
+    </row>
+    <row r="11" spans="1:8" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="C11" s="93" t="s">
+        <v>213</v>
+      </c>
+      <c r="D11" s="108" t="s">
+        <v>214</v>
+      </c>
+      <c r="E11" s="106">
+        <v>19</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="90"/>
+    </row>
+    <row r="12" spans="1:8" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B12" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="C12" s="93" t="s">
+        <v>215</v>
+      </c>
+      <c r="D12" s="108" t="s">
         <v>218</v>
       </c>
-      <c r="C11" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="D11" s="120" t="s">
-        <v>215</v>
-      </c>
-      <c r="E11" s="118">
-        <v>19</v>
-      </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="102"/>
-    </row>
-    <row r="12" spans="1:8" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="C12" s="105" t="s">
-        <v>216</v>
-      </c>
-      <c r="D12" s="120" t="s">
-        <v>219</v>
-      </c>
-      <c r="E12" s="118">
+      <c r="E12" s="106">
         <v>17</v>
       </c>
       <c r="F12" s="15"/>
-      <c r="G12" s="104"/>
-      <c r="H12" s="102"/>
-    </row>
-    <row r="13" spans="1:8" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="92"/>
+      <c r="H12" s="90"/>
+    </row>
+    <row r="13" spans="1:8" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="C13" s="93">
+        <v>1</v>
+      </c>
+      <c r="D13" s="108" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="105">
-        <v>1</v>
-      </c>
-      <c r="D13" s="120" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" s="118">
+      <c r="E13" s="106">
         <v>2.5</v>
       </c>
       <c r="F13" s="15"/>
-      <c r="G13" s="104"/>
-      <c r="H13" s="102"/>
-    </row>
-    <row r="14" spans="1:8" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G13" s="92"/>
+      <c r="H13" s="90"/>
+    </row>
+    <row r="14" spans="1:8" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="C14" s="93">
+        <v>2</v>
+      </c>
+      <c r="D14" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="105">
-        <v>2</v>
-      </c>
-      <c r="D14" s="120" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="118">
+      <c r="E14" s="106">
         <v>3</v>
       </c>
-      <c r="F14" s="111"/>
-      <c r="G14" s="104"/>
-      <c r="H14" s="102"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="90"/>
     </row>
     <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="C15" s="105">
+        <v>183</v>
+      </c>
+      <c r="C15" s="93">
         <v>1</v>
       </c>
-      <c r="D15" s="120" t="s">
-        <v>181</v>
-      </c>
-      <c r="E15" s="118">
+      <c r="D15" s="108" t="s">
+        <v>180</v>
+      </c>
+      <c r="E15" s="106">
         <v>2.5</v>
       </c>
       <c r="F15" s="15"/>
-      <c r="G15" s="104"/>
+      <c r="G15" s="92"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="C16" s="105">
+        <v>182</v>
+      </c>
+      <c r="C16" s="93">
         <v>1</v>
       </c>
-      <c r="D16" s="120" t="s">
-        <v>185</v>
-      </c>
-      <c r="E16" s="118">
+      <c r="D16" s="108" t="s">
+        <v>184</v>
+      </c>
+      <c r="E16" s="106">
         <v>8</v>
       </c>
       <c r="F16" s="15"/>
-      <c r="G16" s="104"/>
+      <c r="G16" s="92"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="C17" s="105">
+        <v>173</v>
+      </c>
+      <c r="C17" s="93">
         <v>1</v>
       </c>
-      <c r="D17" s="120" t="s">
-        <v>187</v>
-      </c>
-      <c r="E17" s="118">
+      <c r="D17" s="108" t="s">
+        <v>186</v>
+      </c>
+      <c r="E17" s="106">
         <v>60</v>
       </c>
-      <c r="F17" s="111"/>
-      <c r="G17" s="104"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="92"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B18" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="C18" s="93">
+        <v>1</v>
+      </c>
+      <c r="D18" s="108" t="s">
         <v>194</v>
       </c>
-      <c r="C18" s="105">
-        <v>1</v>
-      </c>
-      <c r="D18" s="120" t="s">
-        <v>195</v>
-      </c>
-      <c r="E18" s="118">
+      <c r="E18" s="106">
         <v>31</v>
       </c>
       <c r="F18" s="15"/>
-      <c r="G18" s="104"/>
+      <c r="G18" s="92"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B19" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="C19" s="93">
+        <v>1</v>
+      </c>
+      <c r="D19" s="108" t="s">
         <v>176</v>
       </c>
-      <c r="C19" s="105">
-        <v>1</v>
-      </c>
-      <c r="D19" s="120" t="s">
+      <c r="E19" s="106">
+        <v>30</v>
+      </c>
+      <c r="F19" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="E19" s="118">
-        <v>30</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="G19" s="104">
+      <c r="G19" s="92">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B20" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="C20" s="93">
+        <v>1</v>
+      </c>
+      <c r="D20" s="108" t="s">
         <v>191</v>
       </c>
-      <c r="C20" s="105">
-        <v>1</v>
-      </c>
-      <c r="D20" s="120" t="s">
-        <v>192</v>
-      </c>
-      <c r="E20" s="118">
+      <c r="E20" s="106">
         <v>73</v>
       </c>
       <c r="F20" s="15"/>
-      <c r="G20" s="104"/>
+      <c r="G20" s="92"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="C21" s="93">
+        <v>1</v>
+      </c>
+      <c r="D21" s="108" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="105">
-        <v>1</v>
-      </c>
-      <c r="D21" s="120" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="118">
+      <c r="E21" s="106">
         <v>2</v>
       </c>
       <c r="F21" s="15"/>
-      <c r="G21" s="104"/>
+      <c r="G21" s="92"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="C22" s="93">
+        <v>2</v>
+      </c>
+      <c r="D22" s="108" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="105">
-        <v>2</v>
-      </c>
-      <c r="D22" s="120" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="118">
+      <c r="E22" s="106">
         <v>10</v>
       </c>
       <c r="F22" s="15"/>
-      <c r="G22" s="104"/>
+      <c r="G22" s="92"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="C23" s="93">
+        <v>2</v>
+      </c>
+      <c r="D23" s="108" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="105">
-        <v>2</v>
-      </c>
-      <c r="D23" s="120" t="s">
-        <v>79</v>
-      </c>
-      <c r="E23" s="118">
+      <c r="E23" s="106">
         <v>9</v>
       </c>
       <c r="F23" s="15"/>
-      <c r="G23" s="104"/>
+      <c r="G23" s="92"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="C24" s="93">
+        <v>1</v>
+      </c>
+      <c r="D24" s="108" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="105">
-        <v>1</v>
-      </c>
-      <c r="D24" s="120" t="s">
-        <v>82</v>
-      </c>
-      <c r="E24" s="118">
+      <c r="E24" s="106">
         <v>7</v>
       </c>
       <c r="F24" s="15"/>
-      <c r="G24" s="104"/>
+      <c r="G24" s="92"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="B25" s="29" t="s">
+      <c r="C25" s="93">
+        <v>3</v>
+      </c>
+      <c r="D25" s="108" t="s">
         <v>84</v>
       </c>
-      <c r="C25" s="105">
-        <v>3</v>
-      </c>
-      <c r="D25" s="120" t="s">
-        <v>85</v>
-      </c>
-      <c r="E25" s="118">
+      <c r="E25" s="106">
         <v>30</v>
       </c>
       <c r="F25" s="15"/>
-      <c r="G25" s="104"/>
+      <c r="G25" s="92"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="111" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="123" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" s="105">
+      <c r="C26" s="93">
         <v>3</v>
       </c>
-      <c r="D26" s="120" t="s">
-        <v>193</v>
-      </c>
-      <c r="E26" s="118">
+      <c r="D26" s="108" t="s">
+        <v>192</v>
+      </c>
+      <c r="E26" s="106">
         <v>4</v>
       </c>
-      <c r="F26" s="111"/>
-      <c r="G26" s="104"/>
+      <c r="F26" s="99"/>
+      <c r="G26" s="92"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="B27" s="29" t="s">
+      <c r="C27" s="93">
+        <v>1</v>
+      </c>
+      <c r="D27" s="108" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="105">
-        <v>1</v>
-      </c>
-      <c r="D27" s="120" t="s">
-        <v>76</v>
-      </c>
-      <c r="E27" s="118">
+      <c r="E27" s="106">
         <v>8.5</v>
       </c>
       <c r="F27" s="15"/>
-      <c r="G27" s="104"/>
+      <c r="G27" s="92"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="C28" s="93">
+        <v>1</v>
+      </c>
+      <c r="D28" s="108" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="105">
-        <v>1</v>
-      </c>
-      <c r="D28" s="120" t="s">
-        <v>73</v>
-      </c>
-      <c r="E28" s="118">
+      <c r="E28" s="106">
         <v>20</v>
       </c>
       <c r="F28" s="15"/>
-      <c r="G28" s="104"/>
+      <c r="G28" s="92"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="C29" s="93">
+        <v>1</v>
+      </c>
+      <c r="D29" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="105">
-        <v>1</v>
-      </c>
-      <c r="D29" s="120" t="s">
-        <v>66</v>
-      </c>
-      <c r="E29" s="118">
+      <c r="E29" s="106">
         <v>2</v>
       </c>
-      <c r="F29" s="115"/>
-      <c r="G29" s="104"/>
+      <c r="F29" s="103"/>
+      <c r="G29" s="92"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="29" t="s">
+      <c r="C30" s="93">
+        <v>1</v>
+      </c>
+      <c r="D30" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="105">
-        <v>1</v>
-      </c>
-      <c r="D30" s="120" t="s">
-        <v>60</v>
-      </c>
-      <c r="E30" s="118">
+      <c r="E30" s="106">
         <v>30</v>
       </c>
-      <c r="F30" s="115" t="s">
-        <v>170</v>
-      </c>
-      <c r="G30" s="104">
+      <c r="F30" s="103" t="s">
+        <v>169</v>
+      </c>
+      <c r="G30" s="92">
         <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="B31" s="29" t="s">
+      <c r="C31" s="93">
+        <v>1</v>
+      </c>
+      <c r="D31" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="105">
-        <v>1</v>
-      </c>
-      <c r="D31" s="120" t="s">
-        <v>63</v>
-      </c>
-      <c r="E31" s="118">
+      <c r="E31" s="106">
         <v>3.5</v>
       </c>
-      <c r="F31" s="115"/>
-      <c r="G31" s="104"/>
+      <c r="F31" s="103"/>
+      <c r="G31" s="92"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="B32" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="C32" s="105">
+      <c r="C32" s="93">
         <v>1</v>
       </c>
-      <c r="D32" s="120" t="s">
-        <v>196</v>
-      </c>
-      <c r="E32" s="118">
+      <c r="D32" s="108" t="s">
+        <v>195</v>
+      </c>
+      <c r="E32" s="106">
         <v>37</v>
       </c>
       <c r="F32" s="15"/>
-      <c r="G32" s="104"/>
+      <c r="G32" s="92"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" s="112" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="124" t="s">
+      <c r="C33" s="110">
+        <v>1</v>
+      </c>
+      <c r="D33" s="109" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="122">
-        <v>1</v>
-      </c>
-      <c r="D33" s="121" t="s">
-        <v>57</v>
-      </c>
-      <c r="E33" s="119">
+      <c r="E33" s="107">
         <v>14</v>
       </c>
-      <c r="F33" s="116"/>
-      <c r="G33" s="104"/>
+      <c r="F33" s="104"/>
+      <c r="G33" s="92"/>
     </row>
     <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="108" t="s">
-        <v>88</v>
-      </c>
-      <c r="B34" s="109"/>
-      <c r="C34" s="109"/>
-      <c r="D34" s="109"/>
-      <c r="E34" s="110">
+      <c r="A34" s="96" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" s="97"/>
+      <c r="C34" s="97"/>
+      <c r="D34" s="97"/>
+      <c r="E34" s="98">
         <f>SUBTOTAL(109,Table1[[#All],[Column5]])</f>
         <v>515</v>
       </c>
-      <c r="F34" s="65"/>
-      <c r="G34" s="65"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="64"/>
     </row>
     <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="139" t="s">
-        <v>199</v>
-      </c>
-      <c r="B35" s="140"/>
-      <c r="C35" s="140"/>
-      <c r="D35" s="140"/>
-      <c r="E35" s="141">
+      <c r="A35" s="127" t="s">
+        <v>198</v>
+      </c>
+      <c r="B35" s="128"/>
+      <c r="C35" s="128"/>
+      <c r="D35" s="128"/>
+      <c r="E35" s="129">
         <f>E4+E34</f>
         <v>849</v>
       </c>
@@ -3927,11 +3970,11 @@
       <c r="B1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="67" t="s">
-        <v>89</v>
+      <c r="D1" s="66" t="s">
+        <v>88</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -3945,524 +3988,524 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="C2" s="29">
         <v>2</v>
       </c>
-      <c r="D2" s="68">
+      <c r="D2" s="67">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C3" s="29">
         <v>4</v>
       </c>
-      <c r="D3" s="68">
+      <c r="D3" s="67">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="C4" s="29">
         <v>4</v>
       </c>
-      <c r="D4" s="68">
+      <c r="D4" s="67">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C5" s="29">
         <v>2</v>
       </c>
-      <c r="D5" s="68">
+      <c r="D5" s="67">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="C6" s="29">
         <v>2</v>
       </c>
-      <c r="D6" s="68">
+      <c r="D6" s="67">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C7" s="29">
         <v>11</v>
       </c>
-      <c r="D7" s="68">
+      <c r="D7" s="67">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>100</v>
       </c>
       <c r="C8" s="29">
         <v>15</v>
       </c>
-      <c r="D8" s="68">
+      <c r="D8" s="67">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C9" s="29">
         <v>6</v>
       </c>
-      <c r="D9" s="68">
+      <c r="D9" s="67">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C10" s="29">
         <v>9</v>
       </c>
-      <c r="D10" s="68">
+      <c r="D10" s="67">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C11" s="29">
         <v>5</v>
       </c>
-      <c r="D11" s="68">
+      <c r="D11" s="67">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C12" s="29">
         <v>8</v>
       </c>
-      <c r="D12" s="68">
+      <c r="D12" s="67">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>143</v>
       </c>
       <c r="C13" s="29">
         <v>2</v>
       </c>
-      <c r="D13" s="68">
+      <c r="D13" s="67">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="C14" s="29">
         <v>5</v>
       </c>
-      <c r="D14" s="68">
+      <c r="D14" s="67">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C15" s="29">
         <v>5</v>
       </c>
-      <c r="D15" s="68">
+      <c r="D15" s="67">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C16" s="29">
         <v>13</v>
       </c>
-      <c r="D16" s="68">
+      <c r="D16" s="67">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C17" s="29">
         <v>6</v>
       </c>
-      <c r="D17" s="68">
+      <c r="D17" s="67">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C18" s="29">
         <v>2</v>
       </c>
-      <c r="D18" s="68">
+      <c r="D18" s="67">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C19" s="29">
         <v>1</v>
       </c>
-      <c r="D19" s="68">
+      <c r="D19" s="67">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C20" s="29">
         <v>3</v>
       </c>
-      <c r="D20" s="68">
+      <c r="D20" s="67">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C21" s="29">
         <v>1</v>
       </c>
-      <c r="D21" s="68">
+      <c r="D21" s="67">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C22" s="29">
         <v>1</v>
       </c>
-      <c r="D22" s="68">
+      <c r="D22" s="67">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C23" s="29">
         <v>28</v>
       </c>
-      <c r="D23" s="68">
+      <c r="D23" s="67">
         <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C24" s="29">
         <v>6</v>
       </c>
-      <c r="D24" s="68">
+      <c r="D24" s="67">
         <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>117</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>118</v>
       </c>
       <c r="C25" s="29">
         <v>50</v>
       </c>
-      <c r="D25" s="68">
+      <c r="D25" s="67">
         <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C26" s="29">
         <v>63</v>
       </c>
-      <c r="D26" s="68">
+      <c r="D26" s="67">
         <v>70</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>120</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>121</v>
       </c>
       <c r="C27" s="29">
         <v>143</v>
       </c>
-      <c r="D27" s="68">
+      <c r="D27" s="67">
         <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C28" s="29">
         <v>200</v>
       </c>
-      <c r="D28" s="68">
+      <c r="D28" s="67">
         <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C29" s="29">
         <v>142</v>
       </c>
-      <c r="D29" s="68">
+      <c r="D29" s="67">
         <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C30" s="29">
         <v>8</v>
       </c>
-      <c r="D30" s="68">
+      <c r="D30" s="67">
         <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C31" s="29">
         <v>1</v>
       </c>
-      <c r="D31" s="68">
+      <c r="D31" s="67">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C32" s="29">
         <v>2</v>
       </c>
-      <c r="D32" s="68">
+      <c r="D32" s="67">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C33" s="29">
         <v>2</v>
       </c>
-      <c r="D33" s="68">
+      <c r="D33" s="67">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C34" s="29">
         <v>18</v>
       </c>
-      <c r="D34" s="68">
+      <c r="D34" s="67">
         <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C35" s="29">
         <v>8</v>
       </c>
-      <c r="D35" s="68">
+      <c r="D35" s="67">
         <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C36" s="29">
         <v>4</v>
       </c>
-      <c r="D36" s="68">
+      <c r="D36" s="67">
         <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="63" t="s">
-        <v>131</v>
-      </c>
-      <c r="B37" s="64"/>
-      <c r="C37" s="70">
+      <c r="A37" s="62" t="s">
+        <v>130</v>
+      </c>
+      <c r="B37" s="63"/>
+      <c r="C37" s="69">
         <f>SUM(C2:C36)</f>
         <v>782</v>
       </c>
-      <c r="D37" s="71">
+      <c r="D37" s="70">
         <f>SUM(D2:D36)</f>
         <v>806</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="4"/>
-      <c r="D38" s="72">
+      <c r="D38" s="71">
         <v>0.1</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="8"/>

--- a/Document Library/Bill Of Materials/V-Baby BOM.xlsx
+++ b/Document Library/Bill Of Materials/V-Baby BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/V-Baby CoreXY/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2220" documentId="11_2E462098BBA7632759C38D02185E4833A2B67484" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{79312CF6-B23F-4959-ADB0-87B667B91D53}"/>
+  <xr:revisionPtr revIDLastSave="2227" documentId="11_2E462098BBA7632759C38D02185E4833A2B67484" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E4DE46BE-AE9F-44A5-A7BB-848511CF3C21}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1453,12 +1453,6 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1491,6 +1485,12 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="40% - Accent6" xfId="4" builtinId="51"/>
@@ -2409,7 +2409,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A6:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2458,7 +2460,7 @@
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
       <c r="E8" s="20"/>
-      <c r="F8" s="130" t="s">
+      <c r="F8" s="150" t="s">
         <v>134</v>
       </c>
       <c r="G8" s="40"/>
@@ -2483,7 +2485,7 @@
         <f>D9*310</f>
         <v>1240</v>
       </c>
-      <c r="F9" s="131"/>
+      <c r="F9" s="151"/>
       <c r="G9" s="40"/>
       <c r="H9" s="49"/>
       <c r="I9" s="15"/>
@@ -2506,7 +2508,7 @@
         <f>D10*350</f>
         <v>1400</v>
       </c>
-      <c r="F10" s="131"/>
+      <c r="F10" s="151"/>
       <c r="G10" s="40"/>
       <c r="H10" s="50"/>
       <c r="I10" s="42"/>
@@ -2529,7 +2531,7 @@
         <f>D11*340</f>
         <v>1700</v>
       </c>
-      <c r="F11" s="131"/>
+      <c r="F11" s="151"/>
       <c r="G11" s="40"/>
       <c r="H11" s="49"/>
       <c r="I11" s="15"/>
@@ -2552,7 +2554,7 @@
         <f>D12*295</f>
         <v>295</v>
       </c>
-      <c r="F12" s="131"/>
+      <c r="F12" s="151"/>
       <c r="G12" s="40"/>
       <c r="H12" s="50"/>
       <c r="I12" s="42"/>
@@ -2564,7 +2566,7 @@
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="10"/>
-      <c r="F13" s="131"/>
+      <c r="F13" s="151"/>
       <c r="G13" s="40"/>
       <c r="H13" s="26"/>
       <c r="I13" s="6"/>
@@ -2587,7 +2589,7 @@
         <f>D14*290</f>
         <v>290</v>
       </c>
-      <c r="F14" s="131"/>
+      <c r="F14" s="151"/>
       <c r="G14" s="40"/>
       <c r="H14" s="50"/>
       <c r="I14" s="42"/>
@@ -2610,7 +2612,7 @@
         <f>D15*350</f>
         <v>700</v>
       </c>
-      <c r="F15" s="131"/>
+      <c r="F15" s="151"/>
       <c r="G15" s="40"/>
       <c r="H15" s="49" t="s">
         <v>220</v>
@@ -2633,7 +2635,7 @@
         <f>SUM(E9:E15)</f>
         <v>5625</v>
       </c>
-      <c r="F16" s="131"/>
+      <c r="F16" s="151"/>
       <c r="G16" s="40"/>
       <c r="H16" s="51" t="s">
         <v>219</v>
@@ -2651,7 +2653,7 @@
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="10"/>
-      <c r="F17" s="131"/>
+      <c r="F17" s="151"/>
       <c r="G17" s="40"/>
       <c r="H17" s="26" t="s">
         <v>27</v>
@@ -2675,7 +2677,7 @@
         <v>18</v>
       </c>
       <c r="E18" s="21"/>
-      <c r="F18" s="131"/>
+      <c r="F18" s="151"/>
       <c r="G18" s="40"/>
       <c r="H18" s="51" t="s">
         <v>30</v>
@@ -2693,7 +2695,7 @@
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="10"/>
-      <c r="F19" s="131"/>
+      <c r="F19" s="151"/>
       <c r="G19" s="40"/>
       <c r="H19" s="26"/>
       <c r="I19" s="61"/>
@@ -2713,7 +2715,7 @@
         <v>30</v>
       </c>
       <c r="E20" s="21"/>
-      <c r="F20" s="131"/>
+      <c r="F20" s="151"/>
       <c r="G20" s="40"/>
       <c r="H20" s="51" t="s">
         <v>34</v>
@@ -2778,7 +2780,7 @@
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="151">
+      <c r="F25" s="149">
         <f>'Component Part List'!$E$34</f>
         <v>515</v>
       </c>
@@ -2787,7 +2789,7 @@
         <v>37</v>
       </c>
       <c r="I25" s="6"/>
-      <c r="J25" s="151">
+      <c r="J25" s="149">
         <f>'Component Part List'!$E$34</f>
         <v>515</v>
       </c>
@@ -2828,7 +2830,7 @@
         <v>40</v>
       </c>
       <c r="I27" s="6"/>
-      <c r="J27" s="151">
+      <c r="J27" s="149">
         <f>Fasteners!D39</f>
         <v>80.600000000000009</v>
       </c>
@@ -2876,9 +2878,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F218652C-84FF-410D-B4A3-3D58858A2DC6}">
   <dimension ref="A6:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:C13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2899,21 +2899,21 @@
       <c r="G6" s="77"/>
     </row>
     <row r="7" spans="1:7" s="73" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="133" t="s">
+      <c r="A7" s="131" t="s">
         <v>144</v>
       </c>
-      <c r="B7" s="134"/>
-      <c r="C7" s="135" t="s">
+      <c r="B7" s="132"/>
+      <c r="C7" s="133" t="s">
         <v>165</v>
       </c>
-      <c r="D7" s="133" t="s">
+      <c r="D7" s="131" t="s">
         <v>148</v>
       </c>
-      <c r="E7" s="134"/>
-      <c r="F7" s="133" t="s">
+      <c r="E7" s="132"/>
+      <c r="F7" s="131" t="s">
         <v>149</v>
       </c>
-      <c r="G7" s="134"/>
+      <c r="G7" s="132"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="78" t="s">
@@ -2922,7 +2922,7 @@
       <c r="B8" s="10">
         <v>310</v>
       </c>
-      <c r="C8" s="136" t="s">
+      <c r="C8" s="134" t="s">
         <v>161</v>
       </c>
       <c r="D8" s="78">
@@ -2943,7 +2943,7 @@
       <c r="B9" s="10">
         <v>350</v>
       </c>
-      <c r="C9" s="136" t="s">
+      <c r="C9" s="134" t="s">
         <v>161</v>
       </c>
       <c r="D9" s="78">
@@ -2968,7 +2968,7 @@
       <c r="B10" s="10">
         <v>340</v>
       </c>
-      <c r="C10" s="136" t="s">
+      <c r="C10" s="134" t="s">
         <v>162</v>
       </c>
       <c r="D10" s="78">
@@ -2989,7 +2989,7 @@
       <c r="B11" s="120">
         <v>290</v>
       </c>
-      <c r="C11" s="136" t="s">
+      <c r="C11" s="134" t="s">
         <v>163</v>
       </c>
       <c r="D11" s="78">
@@ -3010,7 +3010,7 @@
       <c r="B12" s="120">
         <v>350</v>
       </c>
-      <c r="C12" s="136" t="s">
+      <c r="C12" s="134" t="s">
         <v>164</v>
       </c>
       <c r="D12" s="78">
@@ -3031,7 +3031,7 @@
       <c r="B13" s="119">
         <v>295</v>
       </c>
-      <c r="C13" s="137" t="s">
+      <c r="C13" s="135" t="s">
         <v>163</v>
       </c>
       <c r="D13" s="84">
@@ -3077,18 +3077,18 @@
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="145" t="s">
+      <c r="A17" s="143" t="s">
         <v>152</v>
       </c>
-      <c r="B17" s="146"/>
-      <c r="C17" s="140" t="s">
+      <c r="B17" s="144"/>
+      <c r="C17" s="138" t="s">
         <v>154</v>
       </c>
-      <c r="D17" s="149" t="s">
+      <c r="D17" s="147" t="s">
         <v>153</v>
       </c>
-      <c r="E17" s="150"/>
-      <c r="F17" s="132" t="s">
+      <c r="E17" s="148"/>
+      <c r="F17" s="130" t="s">
         <v>165</v>
       </c>
       <c r="G17" s="77"/>
@@ -3097,15 +3097,15 @@
       <c r="A18" s="78" t="s">
         <v>158</v>
       </c>
-      <c r="B18" s="143">
-        <v>350</v>
-      </c>
-      <c r="C18" s="141" t="s">
+      <c r="B18" s="141">
+        <v>390</v>
+      </c>
+      <c r="C18" s="139" t="s">
         <v>145</v>
       </c>
-      <c r="D18" s="147">
+      <c r="D18" s="145">
         <f>B18+110</f>
-        <v>460</v>
+        <v>500</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="78" t="s">
@@ -3117,13 +3117,13 @@
       <c r="A19" s="78" t="s">
         <v>159</v>
       </c>
-      <c r="B19" s="143">
+      <c r="B19" s="141">
         <v>350</v>
       </c>
-      <c r="C19" s="141" t="s">
+      <c r="C19" s="139" t="s">
         <v>146</v>
       </c>
-      <c r="D19" s="147">
+      <c r="D19" s="145">
         <f>B19+150</f>
         <v>500</v>
       </c>
@@ -3139,15 +3139,15 @@
       <c r="A20" s="78" t="s">
         <v>160</v>
       </c>
-      <c r="B20" s="143">
-        <v>350</v>
-      </c>
-      <c r="C20" s="141" t="s">
+      <c r="B20" s="141">
+        <v>360</v>
+      </c>
+      <c r="C20" s="139" t="s">
         <v>147</v>
       </c>
-      <c r="D20" s="147">
+      <c r="D20" s="145">
         <f>B20+140</f>
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="78" t="s">
@@ -3159,14 +3159,14 @@
       <c r="A21" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="143"/>
-      <c r="C21" s="141"/>
-      <c r="D21" s="147">
+      <c r="B21" s="141"/>
+      <c r="C21" s="139"/>
+      <c r="D21" s="145">
         <f>B18+90</f>
-        <v>440</v>
+        <v>480</v>
       </c>
       <c r="E21" s="120"/>
-      <c r="F21" s="138" t="s">
+      <c r="F21" s="136" t="s">
         <v>163</v>
       </c>
       <c r="G21" s="10"/>
@@ -3175,14 +3175,14 @@
       <c r="A22" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="143"/>
-      <c r="C22" s="141"/>
-      <c r="D22" s="147">
+      <c r="B22" s="141"/>
+      <c r="C22" s="139"/>
+      <c r="D22" s="145">
         <f>B19+150</f>
         <v>500</v>
       </c>
       <c r="E22" s="120"/>
-      <c r="F22" s="138" t="s">
+      <c r="F22" s="136" t="s">
         <v>164</v>
       </c>
       <c r="G22" s="10"/>
@@ -3191,14 +3191,14 @@
       <c r="A23" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="144"/>
-      <c r="C23" s="142"/>
-      <c r="D23" s="148">
+      <c r="B23" s="142"/>
+      <c r="C23" s="140"/>
+      <c r="D23" s="146">
         <f>B18+95</f>
-        <v>445</v>
+        <v>485</v>
       </c>
       <c r="E23" s="119"/>
-      <c r="F23" s="139" t="s">
+      <c r="F23" s="137" t="s">
         <v>163</v>
       </c>
       <c r="G23" s="85"/>

--- a/Document Library/Bill Of Materials/V-Baby BOM.xlsx
+++ b/Document Library/Bill Of Materials/V-Baby BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/V-Baby CoreXY/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2227" documentId="11_2E462098BBA7632759C38D02185E4833A2B67484" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E4DE46BE-AE9F-44A5-A7BB-848511CF3C21}"/>
+  <xr:revisionPtr revIDLastSave="2228" documentId="11_2E462098BBA7632759C38D02185E4833A2B67484" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{07B600EE-DBB2-4D61-A886-1D1A4F73372A}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OpenBuild Part List" sheetId="1" r:id="rId1"/>
@@ -2409,7 +2409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A6:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
@@ -3245,8 +3245,8 @@
   </sheetPr>
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3924,7 +3924,7 @@
     <hyperlink ref="D8" r:id="rId20" xr:uid="{D4CB98E8-7A2B-495D-9E37-8208D21A6270}"/>
     <hyperlink ref="D6" r:id="rId21" display="6x5x1 Option Shim" xr:uid="{A333F16C-7F8A-421A-B64A-B04B701B747A}"/>
     <hyperlink ref="F6" r:id="rId22" display="NB! 200 pcs option is same price" xr:uid="{D98A7A59-4D4C-4589-8C00-1DCF83FFF3E6}"/>
-    <hyperlink ref="D17" r:id="rId23" display="BTT DUET WIFI Clone" xr:uid="{F52EB8DF-670A-4145-90A1-8A8DF8B4B7B2}"/>
+    <hyperlink ref="D17" r:id="rId23" xr:uid="{F52EB8DF-670A-4145-90A1-8A8DF8B4B7B2}"/>
     <hyperlink ref="D19" r:id="rId24" xr:uid="{53A16D3E-EBE4-45B6-9E87-70111D7D2FFE}"/>
     <hyperlink ref="F19" r:id="rId25" xr:uid="{2E01C49B-F943-468C-B222-27E06F7C15FC}"/>
     <hyperlink ref="D15" r:id="rId26" display="Cable Loom - Bowden Path" xr:uid="{5DD23B84-72DC-46EC-A740-B82AFAD09C94}"/>

--- a/Document Library/Bill Of Materials/V-Baby BOM.xlsx
+++ b/Document Library/Bill Of Materials/V-Baby BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/V-Baby CoreXY/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2228" documentId="11_2E462098BBA7632759C38D02185E4833A2B67484" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{07B600EE-DBB2-4D61-A886-1D1A4F73372A}"/>
+  <xr:revisionPtr revIDLastSave="2335" documentId="11_2E462098BBA7632759C38D02185E4833A2B67484" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{DD4A21CC-3044-4A98-9D5D-37953C2820AA}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,9 @@
     <sheet name="OpenBuild Part List" sheetId="1" r:id="rId1"/>
     <sheet name="V-Slot Calculator" sheetId="6" r:id="rId2"/>
     <sheet name="Component Part List" sheetId="3" r:id="rId3"/>
-    <sheet name="Fasteners" sheetId="5" r:id="rId4"/>
-    <sheet name="Cable Managment" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId4"/>
+    <sheet name="Fasteners" sheetId="5" r:id="rId5"/>
+    <sheet name="Cable Managment" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="240">
   <si>
     <t>Exstrusions</t>
   </si>
@@ -291,12 +292,6 @@
     <t>3Pack &amp; Cable</t>
   </si>
   <si>
-    <t>Worm Gear Box</t>
-  </si>
-  <si>
-    <t>Includes Stepper motor</t>
-  </si>
-  <si>
     <t>Component Total Price</t>
   </si>
   <si>
@@ -697,6 +692,69 @@
   </si>
   <si>
     <t>No cuts - No tapps</t>
+  </si>
+  <si>
+    <t>Z 3:1 GT2 Gear Pulleys</t>
+  </si>
+  <si>
+    <t>BD: 20T(5mm)-60T(5mm)</t>
+  </si>
+  <si>
+    <t>Z Drive NEMA 17 Motor</t>
+  </si>
+  <si>
+    <t>NEMA 17</t>
+  </si>
+  <si>
+    <t>Nema 17 (17HS4401)</t>
+  </si>
+  <si>
+    <t>WORM GEAR</t>
+  </si>
+  <si>
+    <t>BELT GEAR</t>
+  </si>
+  <si>
+    <t>PRICE</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Requirement</t>
+  </si>
+  <si>
+    <t>Availability</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Maintenance</t>
+  </si>
+  <si>
+    <t>Presicion</t>
+  </si>
+  <si>
+    <t>Low-Medium</t>
+  </si>
+  <si>
+    <t>Medium-High</t>
+  </si>
+  <si>
+    <t>Backlash</t>
+  </si>
+  <si>
+    <t>Resume Option</t>
+  </si>
+  <si>
+    <t>Smoothness</t>
+  </si>
+  <si>
+    <t>GT2 Pulleys and 200 mm Belt</t>
   </si>
 </sst>
 </file>
@@ -804,7 +862,7 @@
       <family val="4"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -874,6 +932,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="35">
     <border>
@@ -1280,7 +1344,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1391,17 +1455,12 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1485,6 +1544,16 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1503,6 +1572,18 @@
   <dxfs count="15">
     <dxf>
       <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -2069,9 +2150,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1070DF90-74AC-4245-AA46-2FAD63F74767}" name="Table1" displayName="Table1" ref="A6:G33" headerRowCount="0" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" headerRowCellStyle="Accent1">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:G33">
-    <sortCondition ref="A6:A33"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1070DF90-74AC-4245-AA46-2FAD63F74767}" name="Table1" displayName="Table1" ref="A6:G34" headerRowCount="0" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" headerRowCellStyle="Accent1">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:G34">
+    <sortCondition ref="A6:A34"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{AB8C8187-911D-4248-8608-1F70796FF7C8}" name="Column1" headerRowDxfId="11"/>
@@ -2443,11 +2524,11 @@
         <v>4</v>
       </c>
       <c r="F7" s="45" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G7" s="43"/>
       <c r="H7" s="56" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I7" s="55"/>
       <c r="J7" s="57" t="s">
@@ -2460,8 +2541,8 @@
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
       <c r="E8" s="20"/>
-      <c r="F8" s="150" t="s">
-        <v>134</v>
+      <c r="F8" s="155" t="s">
+        <v>132</v>
       </c>
       <c r="G8" s="40"/>
       <c r="H8" s="50"/>
@@ -2485,7 +2566,7 @@
         <f>D9*310</f>
         <v>1240</v>
       </c>
-      <c r="F9" s="151"/>
+      <c r="F9" s="156"/>
       <c r="G9" s="40"/>
       <c r="H9" s="49"/>
       <c r="I9" s="15"/>
@@ -2508,7 +2589,7 @@
         <f>D10*350</f>
         <v>1400</v>
       </c>
-      <c r="F10" s="151"/>
+      <c r="F10" s="156"/>
       <c r="G10" s="40"/>
       <c r="H10" s="50"/>
       <c r="I10" s="42"/>
@@ -2531,7 +2612,7 @@
         <f>D11*340</f>
         <v>1700</v>
       </c>
-      <c r="F11" s="151"/>
+      <c r="F11" s="156"/>
       <c r="G11" s="40"/>
       <c r="H11" s="49"/>
       <c r="I11" s="15"/>
@@ -2554,7 +2635,7 @@
         <f>D12*295</f>
         <v>295</v>
       </c>
-      <c r="F12" s="151"/>
+      <c r="F12" s="156"/>
       <c r="G12" s="40"/>
       <c r="H12" s="50"/>
       <c r="I12" s="42"/>
@@ -2566,7 +2647,7 @@
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="10"/>
-      <c r="F13" s="151"/>
+      <c r="F13" s="156"/>
       <c r="G13" s="40"/>
       <c r="H13" s="26"/>
       <c r="I13" s="6"/>
@@ -2589,7 +2670,7 @@
         <f>D14*290</f>
         <v>290</v>
       </c>
-      <c r="F14" s="151"/>
+      <c r="F14" s="156"/>
       <c r="G14" s="40"/>
       <c r="H14" s="50"/>
       <c r="I14" s="42"/>
@@ -2612,10 +2693,10 @@
         <f>D15*350</f>
         <v>700</v>
       </c>
-      <c r="F15" s="151"/>
+      <c r="F15" s="156"/>
       <c r="G15" s="40"/>
       <c r="H15" s="49" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I15" s="15"/>
       <c r="J15" s="59"/>
@@ -2635,13 +2716,13 @@
         <f>SUM(E9:E15)</f>
         <v>5625</v>
       </c>
-      <c r="F16" s="151"/>
+      <c r="F16" s="156"/>
       <c r="G16" s="40"/>
       <c r="H16" s="51" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I16" s="60" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J16" s="58">
         <v>21</v>
@@ -2653,7 +2734,7 @@
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="10"/>
-      <c r="F17" s="151"/>
+      <c r="F17" s="156"/>
       <c r="G17" s="40"/>
       <c r="H17" s="26" t="s">
         <v>27</v>
@@ -2677,13 +2758,13 @@
         <v>18</v>
       </c>
       <c r="E18" s="21"/>
-      <c r="F18" s="151"/>
+      <c r="F18" s="156"/>
       <c r="G18" s="40"/>
       <c r="H18" s="51" t="s">
         <v>30</v>
       </c>
       <c r="I18" s="60" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J18" s="58">
         <v>15</v>
@@ -2695,7 +2776,7 @@
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="10"/>
-      <c r="F19" s="151"/>
+      <c r="F19" s="156"/>
       <c r="G19" s="40"/>
       <c r="H19" s="26"/>
       <c r="I19" s="61"/>
@@ -2715,13 +2796,13 @@
         <v>30</v>
       </c>
       <c r="E20" s="21"/>
-      <c r="F20" s="151"/>
+      <c r="F20" s="156"/>
       <c r="G20" s="40"/>
       <c r="H20" s="51" t="s">
         <v>34</v>
       </c>
       <c r="I20" s="60" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J20" s="58">
         <v>14</v>
@@ -2780,18 +2861,18 @@
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="149">
-        <f>'Component Part List'!$E$34</f>
-        <v>515</v>
+      <c r="F25" s="146">
+        <f>'Component Part List'!$E$35</f>
+        <v>505.5</v>
       </c>
       <c r="G25" s="41"/>
       <c r="H25" s="26" t="s">
         <v>37</v>
       </c>
       <c r="I25" s="6"/>
-      <c r="J25" s="149">
-        <f>'Component Part List'!$E$34</f>
-        <v>515</v>
+      <c r="J25" s="146">
+        <f>'Component Part List'!$E$35</f>
+        <v>505.5</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -2823,21 +2904,21 @@
       <c r="D27" s="36"/>
       <c r="E27" s="36"/>
       <c r="F27" s="39" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G27" s="41"/>
       <c r="H27" s="26" t="s">
         <v>40</v>
       </c>
       <c r="I27" s="6"/>
-      <c r="J27" s="149">
+      <c r="J27" s="146">
         <f>Fasteners!D39</f>
         <v>80.600000000000009</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="37" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B28" s="38"/>
       <c r="C28" s="38"/>
@@ -2845,7 +2926,7 @@
       <c r="E28" s="38"/>
       <c r="F28" s="34">
         <f>SUM(F24:F27)</f>
-        <v>875</v>
+        <v>865.5</v>
       </c>
       <c r="G28" s="41"/>
       <c r="H28" s="52" t="s">
@@ -2854,7 +2935,7 @@
       <c r="I28" s="53"/>
       <c r="J28" s="54">
         <f>SUM(J24:J27)</f>
-        <v>753.6</v>
+        <v>744.1</v>
       </c>
     </row>
   </sheetData>
@@ -2889,7 +2970,7 @@
   <sheetData>
     <row r="6" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A6" s="74" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B6" s="75"/>
       <c r="C6" s="76"/>
@@ -2899,31 +2980,31 @@
       <c r="G6" s="77"/>
     </row>
     <row r="7" spans="1:7" s="73" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="131" t="s">
-        <v>144</v>
-      </c>
-      <c r="B7" s="132"/>
-      <c r="C7" s="133" t="s">
-        <v>165</v>
-      </c>
-      <c r="D7" s="131" t="s">
-        <v>148</v>
-      </c>
-      <c r="E7" s="132"/>
-      <c r="F7" s="131" t="s">
-        <v>149</v>
-      </c>
-      <c r="G7" s="132"/>
+      <c r="A7" s="128" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="129"/>
+      <c r="C7" s="130" t="s">
+        <v>163</v>
+      </c>
+      <c r="D7" s="128" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" s="129"/>
+      <c r="F7" s="128" t="s">
+        <v>147</v>
+      </c>
+      <c r="G7" s="129"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="78" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B8" s="10">
         <v>310</v>
       </c>
-      <c r="C8" s="134" t="s">
-        <v>161</v>
+      <c r="C8" s="131" t="s">
+        <v>159</v>
       </c>
       <c r="D8" s="78">
         <f>B8+50</f>
@@ -2938,38 +3019,38 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="78" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B9" s="10">
         <v>350</v>
       </c>
-      <c r="C9" s="134" t="s">
-        <v>161</v>
+      <c r="C9" s="131" t="s">
+        <v>159</v>
       </c>
       <c r="D9" s="78">
         <f>B9+50</f>
         <v>400</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F9" s="78">
         <f>B9+100</f>
         <v>450</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="78" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B10" s="10">
         <v>340</v>
       </c>
-      <c r="C10" s="134" t="s">
-        <v>162</v>
+      <c r="C10" s="131" t="s">
+        <v>160</v>
       </c>
       <c r="D10" s="78">
         <f>B10+50</f>
@@ -2986,11 +3067,11 @@
       <c r="A11" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="120">
+      <c r="B11" s="117">
         <v>290</v>
       </c>
-      <c r="C11" s="134" t="s">
-        <v>163</v>
+      <c r="C11" s="131" t="s">
+        <v>161</v>
       </c>
       <c r="D11" s="78">
         <f t="shared" ref="D11:D13" si="0">B11+50</f>
@@ -3007,11 +3088,11 @@
       <c r="A12" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="120">
+      <c r="B12" s="117">
         <v>350</v>
       </c>
-      <c r="C12" s="134" t="s">
-        <v>164</v>
+      <c r="C12" s="131" t="s">
+        <v>162</v>
       </c>
       <c r="D12" s="78">
         <f t="shared" si="0"/>
@@ -3028,11 +3109,11 @@
       <c r="A13" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="119">
+      <c r="B13" s="116">
         <v>295</v>
       </c>
-      <c r="C13" s="135" t="s">
-        <v>163</v>
+      <c r="C13" s="132" t="s">
+        <v>161</v>
       </c>
       <c r="D13" s="84">
         <f t="shared" si="0"/>
@@ -3056,7 +3137,7 @@
     </row>
     <row r="15" spans="1:7" s="73" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="80" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B15" s="81"/>
       <c r="C15" s="82"/>
@@ -3067,7 +3148,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="78" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="79"/>
@@ -3077,81 +3158,81 @@
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="143" t="s">
+      <c r="A17" s="140" t="s">
+        <v>150</v>
+      </c>
+      <c r="B17" s="141"/>
+      <c r="C17" s="135" t="s">
         <v>152</v>
       </c>
-      <c r="B17" s="144"/>
-      <c r="C17" s="138" t="s">
-        <v>154</v>
-      </c>
-      <c r="D17" s="147" t="s">
-        <v>153</v>
-      </c>
-      <c r="E17" s="148"/>
-      <c r="F17" s="130" t="s">
-        <v>165</v>
+      <c r="D17" s="144" t="s">
+        <v>151</v>
+      </c>
+      <c r="E17" s="145"/>
+      <c r="F17" s="127" t="s">
+        <v>163</v>
       </c>
       <c r="G17" s="77"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="78" t="s">
-        <v>158</v>
-      </c>
-      <c r="B18" s="141">
+        <v>156</v>
+      </c>
+      <c r="B18" s="138">
         <v>390</v>
       </c>
-      <c r="C18" s="139" t="s">
-        <v>145</v>
-      </c>
-      <c r="D18" s="145">
+      <c r="C18" s="136" t="s">
+        <v>143</v>
+      </c>
+      <c r="D18" s="142">
         <f>B18+110</f>
         <v>500</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="78" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G18" s="10"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="78" t="s">
-        <v>159</v>
-      </c>
-      <c r="B19" s="141">
+        <v>157</v>
+      </c>
+      <c r="B19" s="138">
         <v>350</v>
       </c>
-      <c r="C19" s="139" t="s">
-        <v>146</v>
-      </c>
-      <c r="D19" s="145">
+      <c r="C19" s="136" t="s">
+        <v>144</v>
+      </c>
+      <c r="D19" s="142">
         <f>B19+150</f>
         <v>500</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="78" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="78" t="s">
-        <v>160</v>
-      </c>
-      <c r="B20" s="141">
+        <v>158</v>
+      </c>
+      <c r="B20" s="138">
         <v>360</v>
       </c>
-      <c r="C20" s="139" t="s">
-        <v>147</v>
-      </c>
-      <c r="D20" s="145">
+      <c r="C20" s="136" t="s">
+        <v>145</v>
+      </c>
+      <c r="D20" s="142">
         <f>B20+140</f>
         <v>500</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="78" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G20" s="10"/>
     </row>
@@ -3159,15 +3240,15 @@
       <c r="A21" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="141"/>
-      <c r="C21" s="139"/>
-      <c r="D21" s="145">
+      <c r="B21" s="138"/>
+      <c r="C21" s="136"/>
+      <c r="D21" s="142">
         <f>B18+90</f>
         <v>480</v>
       </c>
-      <c r="E21" s="120"/>
-      <c r="F21" s="136" t="s">
-        <v>163</v>
+      <c r="E21" s="117"/>
+      <c r="F21" s="133" t="s">
+        <v>161</v>
       </c>
       <c r="G21" s="10"/>
     </row>
@@ -3175,15 +3256,15 @@
       <c r="A22" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="141"/>
-      <c r="C22" s="139"/>
-      <c r="D22" s="145">
+      <c r="B22" s="138"/>
+      <c r="C22" s="136"/>
+      <c r="D22" s="142">
         <f>B19+150</f>
         <v>500</v>
       </c>
-      <c r="E22" s="120"/>
-      <c r="F22" s="136" t="s">
-        <v>164</v>
+      <c r="E22" s="117"/>
+      <c r="F22" s="133" t="s">
+        <v>162</v>
       </c>
       <c r="G22" s="10"/>
     </row>
@@ -3191,15 +3272,15 @@
       <c r="A23" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="142"/>
-      <c r="C23" s="140"/>
-      <c r="D23" s="146">
+      <c r="B23" s="139"/>
+      <c r="C23" s="137"/>
+      <c r="D23" s="143">
         <f>B18+95</f>
         <v>485</v>
       </c>
-      <c r="E23" s="119"/>
-      <c r="F23" s="137" t="s">
-        <v>163</v>
+      <c r="E23" s="116"/>
+      <c r="F23" s="134" t="s">
+        <v>161</v>
       </c>
       <c r="G23" s="85"/>
     </row>
@@ -3214,17 +3295,17 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -3243,11 +3324,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3258,369 +3337,364 @@
     <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.7109375" style="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.28515625" style="14" customWidth="1"/>
-    <col min="8" max="8" width="23.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="113"/>
+    <row r="1" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="110"/>
       <c r="B1" s="75"/>
       <c r="C1" s="75"/>
       <c r="D1" s="75"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="116"/>
-    </row>
-    <row r="2" spans="1:8" ht="27.75" x14ac:dyDescent="0.5">
-      <c r="A2" s="117"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="100"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="113"/>
+    </row>
+    <row r="2" spans="1:7" ht="27.75" x14ac:dyDescent="0.5">
+      <c r="A2" s="114"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="97"/>
       <c r="D2" s="87" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E2" s="88"/>
       <c r="F2" s="89"/>
-      <c r="G2" s="118"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G2" s="115"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="78"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="86"/>
-      <c r="G3" s="119"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="123" t="s">
-        <v>196</v>
-      </c>
-      <c r="B4" s="124"/>
-      <c r="C4" s="124" t="s">
+      <c r="G3" s="116"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="120" t="s">
+        <v>194</v>
+      </c>
+      <c r="B4" s="121"/>
+      <c r="C4" s="121" t="s">
+        <v>195</v>
+      </c>
+      <c r="D4" s="122"/>
+      <c r="E4" s="123">
+        <v>334</v>
+      </c>
+      <c r="G4" s="117"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="118" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="119" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="119" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="119" t="s">
+        <v>176</v>
+      </c>
+      <c r="E5" s="119" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="98" t="s">
+        <v>177</v>
+      </c>
+      <c r="G5" s="99" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="C6" s="91">
+        <v>80</v>
+      </c>
+      <c r="D6" s="105" t="s">
+        <v>185</v>
+      </c>
+      <c r="E6" s="102">
+        <v>15</v>
+      </c>
+      <c r="F6" s="96" t="s">
+        <v>170</v>
+      </c>
+      <c r="G6" s="149"/>
+    </row>
+    <row r="7" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="C7" s="91">
+        <v>4</v>
+      </c>
+      <c r="D7" s="105" t="s">
+        <v>200</v>
+      </c>
+      <c r="E7" s="102">
+        <v>17</v>
+      </c>
+      <c r="F7" s="92"/>
+      <c r="G7" s="102"/>
+    </row>
+    <row r="8" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="D4" s="125"/>
-      <c r="E4" s="126">
-        <v>334</v>
-      </c>
-      <c r="G4" s="120"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="121" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="122" t="s">
+      <c r="B8" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="C8" s="91">
         <v>2</v>
       </c>
-      <c r="C5" s="122" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="122" t="s">
-        <v>178</v>
-      </c>
-      <c r="E5" s="122" t="s">
+      <c r="D8" s="105" t="s">
+        <v>199</v>
+      </c>
+      <c r="E8" s="102">
+        <v>10</v>
+      </c>
+      <c r="F8" s="92"/>
+      <c r="G8" s="102"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="C9" s="91">
+        <v>2</v>
+      </c>
+      <c r="D9" s="105" t="s">
+        <v>208</v>
+      </c>
+      <c r="E9" s="102">
+        <v>25</v>
+      </c>
+      <c r="F9" s="96"/>
+      <c r="G9" s="103"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="C10" s="91">
         <v>6</v>
       </c>
-      <c r="F5" s="101" t="s">
-        <v>179</v>
-      </c>
-      <c r="G5" s="102" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>188</v>
-      </c>
-      <c r="C6" s="93">
-        <v>80</v>
-      </c>
-      <c r="D6" s="108" t="s">
-        <v>187</v>
-      </c>
-      <c r="E6" s="105">
-        <v>15</v>
-      </c>
-      <c r="F6" s="99" t="s">
-        <v>172</v>
-      </c>
-      <c r="G6" s="92"/>
-    </row>
-    <row r="7" spans="1:8" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>206</v>
-      </c>
-      <c r="C7" s="93">
-        <v>4</v>
-      </c>
-      <c r="D7" s="108" t="s">
-        <v>202</v>
-      </c>
-      <c r="E7" s="105">
+      <c r="D10" s="105" t="s">
+        <v>207</v>
+      </c>
+      <c r="E10" s="102">
+        <v>25</v>
+      </c>
+      <c r="F10" s="96"/>
+      <c r="G10" s="103"/>
+    </row>
+    <row r="11" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="C11" s="91" t="s">
+        <v>211</v>
+      </c>
+      <c r="D11" s="105" t="s">
+        <v>212</v>
+      </c>
+      <c r="E11" s="103">
+        <v>19</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="103"/>
+    </row>
+    <row r="12" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="C12" s="91" t="s">
+        <v>213</v>
+      </c>
+      <c r="D12" s="105" t="s">
+        <v>216</v>
+      </c>
+      <c r="E12" s="103">
         <v>17</v>
       </c>
-      <c r="F7" s="95"/>
-      <c r="G7" s="94"/>
-    </row>
-    <row r="8" spans="1:8" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="C8" s="93">
-        <v>2</v>
-      </c>
-      <c r="D8" s="108" t="s">
-        <v>201</v>
-      </c>
-      <c r="E8" s="105">
-        <v>10</v>
-      </c>
-      <c r="F8" s="95"/>
-      <c r="G8" s="94"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>208</v>
-      </c>
-      <c r="C9" s="93">
-        <v>2</v>
-      </c>
-      <c r="D9" s="108" t="s">
-        <v>210</v>
-      </c>
-      <c r="E9" s="105">
-        <v>25</v>
-      </c>
-      <c r="F9" s="99"/>
-      <c r="G9" s="92"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>207</v>
-      </c>
-      <c r="C10" s="93">
-        <v>6</v>
-      </c>
-      <c r="D10" s="108" t="s">
-        <v>209</v>
-      </c>
-      <c r="E10" s="105">
-        <v>25</v>
-      </c>
-      <c r="F10" s="99"/>
-      <c r="G10" s="92"/>
-    </row>
-    <row r="11" spans="1:8" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="C11" s="93" t="s">
-        <v>213</v>
-      </c>
-      <c r="D11" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="E11" s="106">
-        <v>19</v>
-      </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="90"/>
-    </row>
-    <row r="12" spans="1:8" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>216</v>
-      </c>
-      <c r="C12" s="93" t="s">
-        <v>215</v>
-      </c>
-      <c r="D12" s="108" t="s">
-        <v>218</v>
-      </c>
-      <c r="E12" s="106">
-        <v>17</v>
-      </c>
       <c r="F12" s="15"/>
-      <c r="G12" s="92"/>
-      <c r="H12" s="90"/>
-    </row>
-    <row r="13" spans="1:8" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="103"/>
+    </row>
+    <row r="13" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>67</v>
       </c>
       <c r="B13" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="93">
+      <c r="C13" s="91">
         <v>1</v>
       </c>
-      <c r="D13" s="108" t="s">
+      <c r="D13" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="106">
+      <c r="E13" s="103">
         <v>2.5</v>
       </c>
       <c r="F13" s="15"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="90"/>
-    </row>
-    <row r="14" spans="1:8" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G13" s="103"/>
+    </row>
+    <row r="14" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B14" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="93">
+      <c r="C14" s="91">
         <v>2</v>
       </c>
-      <c r="D14" s="108" t="s">
+      <c r="D14" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="106">
+      <c r="E14" s="103">
         <v>3</v>
       </c>
-      <c r="F14" s="99"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="90"/>
-    </row>
-    <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F14" s="96"/>
+      <c r="G14" s="103"/>
+    </row>
+    <row r="15" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="B15" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="C15" s="91">
+        <v>1</v>
+      </c>
+      <c r="D15" s="105" t="s">
+        <v>178</v>
+      </c>
+      <c r="E15" s="103">
+        <v>2.5</v>
+      </c>
+      <c r="F15" s="15"/>
+      <c r="G15" s="103"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="C15" s="93">
+      <c r="B16" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="C16" s="91">
         <v>1</v>
       </c>
-      <c r="D15" s="108" t="s">
-        <v>180</v>
-      </c>
-      <c r="E15" s="106">
-        <v>2.5</v>
-      </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="92"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="B16" s="29" t="s">
+      <c r="D16" s="105" t="s">
         <v>182</v>
       </c>
-      <c r="C16" s="93">
-        <v>1</v>
-      </c>
-      <c r="D16" s="108" t="s">
-        <v>184</v>
-      </c>
-      <c r="E16" s="106">
+      <c r="E16" s="103">
         <v>8</v>
       </c>
       <c r="F16" s="15"/>
-      <c r="G16" s="92"/>
+      <c r="G16" s="103"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="C17" s="93">
+        <v>171</v>
+      </c>
+      <c r="C17" s="91">
         <v>1</v>
       </c>
-      <c r="D17" s="108" t="s">
-        <v>186</v>
-      </c>
-      <c r="E17" s="106">
+      <c r="D17" s="105" t="s">
+        <v>184</v>
+      </c>
+      <c r="E17" s="103">
         <v>60</v>
       </c>
-      <c r="F17" s="99"/>
-      <c r="G17" s="92"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="103"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>66</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="C18" s="93">
+        <v>191</v>
+      </c>
+      <c r="C18" s="91">
         <v>1</v>
       </c>
-      <c r="D18" s="108" t="s">
-        <v>194</v>
-      </c>
-      <c r="E18" s="106">
+      <c r="D18" s="105" t="s">
+        <v>192</v>
+      </c>
+      <c r="E18" s="103">
         <v>31</v>
       </c>
       <c r="F18" s="15"/>
-      <c r="G18" s="92"/>
+      <c r="G18" s="103"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B19" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="C19" s="91">
+        <v>1</v>
+      </c>
+      <c r="D19" s="105" t="s">
+        <v>174</v>
+      </c>
+      <c r="E19" s="103">
+        <v>30</v>
+      </c>
+      <c r="F19" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="C19" s="93">
-        <v>1</v>
-      </c>
-      <c r="D19" s="108" t="s">
-        <v>176</v>
-      </c>
-      <c r="E19" s="106">
-        <v>30</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="G19" s="92">
+      <c r="G19" s="103">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="C20" s="91">
+        <v>1</v>
+      </c>
+      <c r="D20" s="105" t="s">
         <v>189</v>
       </c>
-      <c r="B20" s="29" t="s">
-        <v>190</v>
-      </c>
-      <c r="C20" s="93">
-        <v>1</v>
-      </c>
-      <c r="D20" s="108" t="s">
-        <v>191</v>
-      </c>
-      <c r="E20" s="106">
+      <c r="E20" s="103">
         <v>73</v>
       </c>
       <c r="F20" s="15"/>
-      <c r="G20" s="92"/>
+      <c r="G20" s="103"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
@@ -3629,17 +3703,17 @@
       <c r="B21" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="93">
+      <c r="C21" s="91">
         <v>1</v>
       </c>
-      <c r="D21" s="108" t="s">
+      <c r="D21" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="106">
+      <c r="E21" s="103">
         <v>2</v>
       </c>
       <c r="F21" s="15"/>
-      <c r="G21" s="92"/>
+      <c r="G21" s="103"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
@@ -3648,17 +3722,17 @@
       <c r="B22" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="93">
+      <c r="C22" s="91">
         <v>2</v>
       </c>
-      <c r="D22" s="108" t="s">
+      <c r="D22" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="106">
+      <c r="E22" s="103">
         <v>10</v>
       </c>
       <c r="F22" s="15"/>
-      <c r="G22" s="92"/>
+      <c r="G22" s="103"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
@@ -3667,17 +3741,17 @@
       <c r="B23" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="C23" s="93">
+      <c r="C23" s="91">
         <v>2</v>
       </c>
-      <c r="D23" s="108" t="s">
+      <c r="D23" s="105" t="s">
         <v>78</v>
       </c>
-      <c r="E23" s="106">
+      <c r="E23" s="103">
         <v>9</v>
       </c>
       <c r="F23" s="15"/>
-      <c r="G23" s="92"/>
+      <c r="G23" s="103"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
@@ -3686,17 +3760,17 @@
       <c r="B24" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="93">
+      <c r="C24" s="91">
         <v>1</v>
       </c>
-      <c r="D24" s="108" t="s">
+      <c r="D24" s="105" t="s">
         <v>81</v>
       </c>
-      <c r="E24" s="106">
+      <c r="E24" s="103">
         <v>7</v>
       </c>
       <c r="F24" s="15"/>
-      <c r="G24" s="92"/>
+      <c r="G24" s="103"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -3705,36 +3779,36 @@
       <c r="B25" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="C25" s="93">
+      <c r="C25" s="91">
         <v>3</v>
       </c>
-      <c r="D25" s="108" t="s">
+      <c r="D25" s="105" t="s">
         <v>84</v>
       </c>
-      <c r="E25" s="106">
+      <c r="E25" s="103">
         <v>30</v>
       </c>
       <c r="F25" s="15"/>
-      <c r="G25" s="92"/>
+      <c r="G25" s="103"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="111" t="s">
+      <c r="B26" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="93">
+      <c r="C26" s="91">
         <v>3</v>
       </c>
-      <c r="D26" s="108" t="s">
-        <v>192</v>
-      </c>
-      <c r="E26" s="106">
+      <c r="D26" s="105" t="s">
+        <v>190</v>
+      </c>
+      <c r="E26" s="103">
         <v>4</v>
       </c>
-      <c r="F26" s="99"/>
-      <c r="G26" s="92"/>
+      <c r="F26" s="96"/>
+      <c r="G26" s="103"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
@@ -3743,17 +3817,17 @@
       <c r="B27" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="93">
+      <c r="C27" s="91">
         <v>1</v>
       </c>
-      <c r="D27" s="108" t="s">
+      <c r="D27" s="105" t="s">
         <v>75</v>
       </c>
-      <c r="E27" s="106">
+      <c r="E27" s="103">
         <v>8.5</v>
       </c>
       <c r="F27" s="15"/>
-      <c r="G27" s="92"/>
+      <c r="G27" s="103"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
@@ -3762,17 +3836,17 @@
       <c r="B28" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="93">
+      <c r="C28" s="91">
         <v>1</v>
       </c>
-      <c r="D28" s="108" t="s">
+      <c r="D28" s="105" t="s">
         <v>72</v>
       </c>
-      <c r="E28" s="106">
+      <c r="E28" s="103">
         <v>20</v>
       </c>
       <c r="F28" s="15"/>
-      <c r="G28" s="92"/>
+      <c r="G28" s="103"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
@@ -3781,17 +3855,17 @@
       <c r="B29" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="93">
+      <c r="C29" s="91">
         <v>1</v>
       </c>
-      <c r="D29" s="108" t="s">
+      <c r="D29" s="105" t="s">
         <v>65</v>
       </c>
-      <c r="E29" s="106">
+      <c r="E29" s="103">
         <v>2</v>
       </c>
-      <c r="F29" s="103"/>
-      <c r="G29" s="92"/>
+      <c r="F29" s="100"/>
+      <c r="G29" s="103"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
@@ -3800,19 +3874,19 @@
       <c r="B30" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="93">
+      <c r="C30" s="91">
         <v>1</v>
       </c>
-      <c r="D30" s="108" t="s">
+      <c r="D30" s="105" t="s">
         <v>59</v>
       </c>
-      <c r="E30" s="106">
+      <c r="E30" s="103">
         <v>30</v>
       </c>
-      <c r="F30" s="103" t="s">
-        <v>169</v>
-      </c>
-      <c r="G30" s="92">
+      <c r="F30" s="100" t="s">
+        <v>167</v>
+      </c>
+      <c r="G30" s="103">
         <v>40</v>
       </c>
     </row>
@@ -3823,80 +3897,103 @@
       <c r="B31" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="93">
+      <c r="C31" s="91">
         <v>1</v>
       </c>
-      <c r="D31" s="108" t="s">
+      <c r="D31" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="E31" s="106">
+      <c r="E31" s="103">
         <v>3.5</v>
       </c>
-      <c r="F31" s="103"/>
-      <c r="G31" s="92"/>
+      <c r="F31" s="100"/>
+      <c r="G31" s="103"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>85</v>
+        <v>219</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="C32" s="93">
+        <v>239</v>
+      </c>
+      <c r="C32" s="91">
         <v>1</v>
       </c>
-      <c r="D32" s="108" t="s">
-        <v>195</v>
-      </c>
-      <c r="E32" s="106">
-        <v>37</v>
-      </c>
-      <c r="F32" s="15"/>
-      <c r="G32" s="92"/>
+      <c r="D32" s="105" t="s">
+        <v>220</v>
+      </c>
+      <c r="E32" s="103">
+        <v>8.5</v>
+      </c>
+      <c r="F32" s="148" t="s">
+        <v>193</v>
+      </c>
+      <c r="G32" s="103">
+        <v>43.5</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="C33" s="91">
+        <v>1</v>
+      </c>
+      <c r="D33" s="147" t="s">
+        <v>223</v>
+      </c>
+      <c r="E33" s="103">
+        <v>19</v>
+      </c>
+      <c r="F33" s="15"/>
+      <c r="G33" s="103"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="112" t="s">
+      <c r="B34" s="109" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="110">
+      <c r="C34" s="107">
         <v>1</v>
       </c>
-      <c r="D33" s="109" t="s">
+      <c r="D34" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="E33" s="107">
+      <c r="E34" s="104">
         <v>14</v>
       </c>
-      <c r="F33" s="104"/>
-      <c r="G33" s="92"/>
-    </row>
-    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="96" t="s">
-        <v>87</v>
-      </c>
-      <c r="B34" s="97"/>
-      <c r="C34" s="97"/>
-      <c r="D34" s="97"/>
-      <c r="E34" s="98">
+      <c r="F34" s="101"/>
+      <c r="G34" s="104"/>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="93" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" s="94"/>
+      <c r="C35" s="94"/>
+      <c r="D35" s="94"/>
+      <c r="E35" s="95">
         <f>SUBTOTAL(109,Table1[[#All],[Column5]])</f>
-        <v>515</v>
-      </c>
-      <c r="F34" s="64"/>
-      <c r="G34" s="64"/>
-    </row>
-    <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="127" t="s">
-        <v>198</v>
-      </c>
-      <c r="B35" s="128"/>
-      <c r="C35" s="128"/>
-      <c r="D35" s="128"/>
-      <c r="E35" s="129">
-        <f>E4+E34</f>
-        <v>849</v>
+        <v>505.5</v>
+      </c>
+      <c r="F35" s="64"/>
+      <c r="G35" s="64"/>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="124" t="s">
+        <v>196</v>
+      </c>
+      <c r="B36" s="125"/>
+      <c r="C36" s="125"/>
+      <c r="D36" s="125"/>
+      <c r="E36" s="126">
+        <f>E4+E35</f>
+        <v>839.5</v>
       </c>
     </row>
   </sheetData>
@@ -3917,9 +4014,9 @@
     <hyperlink ref="D25" r:id="rId13" display="Link" xr:uid="{49178A12-AF45-4969-AC8E-49BA3EBADDA9}"/>
     <hyperlink ref="D20" r:id="rId14" xr:uid="{537A3F3C-7C92-42A9-B8B2-F37129F7787F}"/>
     <hyperlink ref="D13" r:id="rId15" xr:uid="{82909F8B-3A14-4248-8CB2-384756C6E8BE}"/>
-    <hyperlink ref="D32" r:id="rId16" display="1/30 Worm Stepper" xr:uid="{0D6A5659-9181-49D0-A7D8-101F63076C8A}"/>
+    <hyperlink ref="F32" r:id="rId16" display="1/30 Worm Stepper" xr:uid="{0D6A5659-9181-49D0-A7D8-101F63076C8A}"/>
     <hyperlink ref="D26" r:id="rId17" display="6Pcs Endstops" xr:uid="{4AEFCE09-28B7-4C24-82DE-ADAB9CAA43E1}"/>
-    <hyperlink ref="D33" r:id="rId18" xr:uid="{0ED2334F-09CF-437E-82F8-E81D86F288DC}"/>
+    <hyperlink ref="D34" r:id="rId18" xr:uid="{0ED2334F-09CF-437E-82F8-E81D86F288DC}"/>
     <hyperlink ref="D10" r:id="rId19" display="8Pcs 7mm With T" xr:uid="{87CB364F-700B-4E81-BC67-3C859C1B7934}"/>
     <hyperlink ref="D8" r:id="rId20" xr:uid="{D4CB98E8-7A2B-495D-9E37-8208D21A6270}"/>
     <hyperlink ref="D6" r:id="rId21" display="6x5x1 Option Shim" xr:uid="{A333F16C-7F8A-421A-B64A-B04B701B747A}"/>
@@ -3934,17 +4031,129 @@
     <hyperlink ref="D7" r:id="rId30" xr:uid="{DC8F7F14-CA2A-4482-8C1E-5173C4B8D9AD}"/>
     <hyperlink ref="D9" r:id="rId31" display="8Pcs 7mm With T" xr:uid="{9AED87BC-5BEC-4990-87E4-DE18B0259F70}"/>
     <hyperlink ref="D12" r:id="rId32" xr:uid="{3BB9CD36-EAAE-4CDD-91A2-546DD9AEE97B}"/>
+    <hyperlink ref="D32" r:id="rId33" xr:uid="{7F3B442E-F7CB-4007-B0E0-F7D6FA00B53B}"/>
+    <hyperlink ref="D33" r:id="rId34" xr:uid="{EFF7A929-E8E4-4F05-A22B-23B664574CE1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="92" orientation="landscape" r:id="rId33"/>
-  <drawing r:id="rId34"/>
+  <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId35"/>
+  <drawing r:id="rId36"/>
   <tableParts count="1">
-    <tablePart r:id="rId35"/>
+    <tablePart r:id="rId37"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{805A8826-0E0A-436E-B61C-106B47A9DE2A}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="154" t="s">
+        <v>229</v>
+      </c>
+      <c r="B1" s="154" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1" s="122"/>
+      <c r="D1" s="154" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="B2" s="151" t="s">
+        <v>227</v>
+      </c>
+      <c r="D2" s="142" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="B3" s="151" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3" s="152" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="B4" s="142" t="s">
+        <v>228</v>
+      </c>
+      <c r="D4" s="152" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="B5" s="142" t="s">
+        <v>234</v>
+      </c>
+      <c r="D5" s="152" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="B6" s="142" t="s">
+        <v>228</v>
+      </c>
+      <c r="D6" s="152" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="B7" s="152" t="s">
+        <v>227</v>
+      </c>
+      <c r="D7" s="151" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="150" t="s">
+        <v>238</v>
+      </c>
+      <c r="B8" s="143" t="s">
+        <v>228</v>
+      </c>
+      <c r="D8" s="153" t="s">
+        <v>227</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D29D6D75-B7C4-4BE2-88D5-EC1A978798F7}">
   <dimension ref="A1:H39"/>
   <sheetViews>
@@ -3974,7 +4183,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="66" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -3988,10 +4197,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C2" s="29">
         <v>2</v>
@@ -4002,10 +4211,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C3" s="29">
         <v>4</v>
@@ -4016,10 +4225,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C4" s="29">
         <v>4</v>
@@ -4030,10 +4239,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C5" s="29">
         <v>2</v>
@@ -4044,10 +4253,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C6" s="29">
         <v>2</v>
@@ -4058,10 +4267,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C7" s="29">
         <v>11</v>
@@ -4072,10 +4281,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C8" s="29">
         <v>15</v>
@@ -4086,10 +4295,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C9" s="29">
         <v>6</v>
@@ -4100,10 +4309,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C10" s="29">
         <v>9</v>
@@ -4114,10 +4323,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C11" s="29">
         <v>5</v>
@@ -4128,10 +4337,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C12" s="29">
         <v>8</v>
@@ -4142,10 +4351,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C13" s="29">
         <v>2</v>
@@ -4156,10 +4365,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C14" s="29">
         <v>5</v>
@@ -4170,10 +4379,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C15" s="29">
         <v>5</v>
@@ -4184,10 +4393,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C16" s="29">
         <v>13</v>
@@ -4198,10 +4407,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C17" s="29">
         <v>6</v>
@@ -4212,10 +4421,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C18" s="29">
         <v>2</v>
@@ -4226,10 +4435,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C19" s="29">
         <v>1</v>
@@ -4240,10 +4449,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C20" s="29">
         <v>3</v>
@@ -4254,10 +4463,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C21" s="29">
         <v>1</v>
@@ -4268,10 +4477,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C22" s="29">
         <v>1</v>
@@ -4282,10 +4491,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C23" s="29">
         <v>28</v>
@@ -4296,10 +4505,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C24" s="29">
         <v>6</v>
@@ -4310,10 +4519,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C25" s="29">
         <v>50</v>
@@ -4324,10 +4533,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C26" s="29">
         <v>63</v>
@@ -4336,15 +4545,15 @@
         <v>70</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C27" s="29">
         <v>143</v>
@@ -4355,10 +4564,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C28" s="29">
         <v>200</v>
@@ -4369,10 +4578,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C29" s="29">
         <v>142</v>
@@ -4383,10 +4592,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C30" s="29">
         <v>8</v>
@@ -4397,10 +4606,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C31" s="29">
         <v>1</v>
@@ -4411,10 +4620,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C32" s="29">
         <v>2</v>
@@ -4425,10 +4634,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C33" s="29">
         <v>2</v>
@@ -4439,10 +4648,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C34" s="29">
         <v>18</v>
@@ -4453,10 +4662,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C35" s="29">
         <v>8</v>
@@ -4467,10 +4676,10 @@
     </row>
     <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C36" s="29">
         <v>4</v>
@@ -4481,7 +4690,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="62" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B37" s="63"/>
       <c r="C37" s="69">
@@ -4495,7 +4704,7 @@
     </row>
     <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="4"/>
@@ -4505,7 +4714,7 @@
     </row>
     <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="8"/>
@@ -4523,7 +4732,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{925F042A-9E32-4038-B3DB-6EE5FFFEDFCE}">
   <dimension ref="A1:C1"/>
   <sheetViews>

--- a/Document Library/Bill Of Materials/V-Baby BOM.xlsx
+++ b/Document Library/Bill Of Materials/V-Baby BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/V-Baby CoreXY/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2335" documentId="11_2E462098BBA7632759C38D02185E4833A2B67484" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{DD4A21CC-3044-4A98-9D5D-37953C2820AA}"/>
+  <xr:revisionPtr revIDLastSave="2452" documentId="11_2E462098BBA7632759C38D02185E4833A2B67484" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A13F721A-D915-4FEE-BFE8-563DFE4A02F4}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OpenBuild Part List" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="240">
   <si>
     <t>Exstrusions</t>
   </si>
@@ -166,33 +166,15 @@
     <t>Controller Board</t>
   </si>
   <si>
-    <t>Layer Fan</t>
-  </si>
-  <si>
     <t>3010 Blower Fan 5/12 24V</t>
   </si>
   <si>
-    <t>24V 30x30x10</t>
-  </si>
-  <si>
-    <t>Hotend Fan</t>
-  </si>
-  <si>
     <t>4010 Blower Fan 12/24V</t>
   </si>
   <si>
-    <t>24V 40x10 Blower</t>
-  </si>
-  <si>
-    <t>Cabinet Fan</t>
-  </si>
-  <si>
     <t>4010 Axial Fan 12/24V</t>
   </si>
   <si>
-    <t>24V Controller Fan</t>
-  </si>
-  <si>
     <t>Optical Endstops</t>
   </si>
   <si>
@@ -214,9 +196,6 @@
     <t>200x200 110V/220V Heater</t>
   </si>
   <si>
-    <t>220V/110V</t>
-  </si>
-  <si>
     <t>Solid State Relay</t>
   </si>
   <si>
@@ -244,9 +223,6 @@
     <t>1.9ID 4OD Filament Tube</t>
   </si>
   <si>
-    <t>ID 1.9 OD 4</t>
-  </si>
-  <si>
     <t>Powersupply</t>
   </si>
   <si>
@@ -265,33 +241,9 @@
     <t>10A Fused Switch</t>
   </si>
   <si>
-    <t>Motor Pulley 5Bore</t>
-  </si>
-  <si>
     <t>GT2 20T 6W 5mm Bore</t>
   </si>
   <si>
-    <t>2 x 5 BORE</t>
-  </si>
-  <si>
-    <t>Motor Pulley 8Bore</t>
-  </si>
-  <si>
-    <t>GT2 20T 6W 8mm Bore</t>
-  </si>
-  <si>
-    <t>1 x 8 BORE</t>
-  </si>
-  <si>
-    <t>Nema 17 1.5 A</t>
-  </si>
-  <si>
-    <t>Stepper motor 1.5 Amp</t>
-  </si>
-  <si>
-    <t>3Pack &amp; Cable</t>
-  </si>
-  <si>
     <t>Component Total Price</t>
   </si>
   <si>
@@ -538,18 +490,12 @@
     <t>Belt Idler Precision Shim</t>
   </si>
   <si>
-    <t>Keenovo Option</t>
-  </si>
-  <si>
     <t>NB! See Component List</t>
   </si>
   <si>
     <t>Heatbed Build Plate</t>
   </si>
   <si>
-    <t>200 pcs is same price</t>
-  </si>
-  <si>
     <t>Duet WIFI Clone w/TMC2660</t>
   </si>
   <si>
@@ -589,12 +535,6 @@
     <t>Cable Sleeve Nylon</t>
   </si>
   <si>
-    <t>MKS DUET WIFI Clone</t>
-  </si>
-  <si>
-    <t>(4x20) 6.5x5x1 Option Shim</t>
-  </si>
-  <si>
     <t>6.5x5x1 mm Precision Shim</t>
   </si>
   <si>
@@ -604,9 +544,6 @@
     <t>Dragon Hotend</t>
   </si>
   <si>
-    <t>TriangleLab Dragon</t>
-  </si>
-  <si>
     <t>6Pack Endstops</t>
   </si>
   <si>
@@ -616,9 +553,6 @@
     <t>TriangleLab BMG</t>
   </si>
   <si>
-    <t>1/17 Worm Stepper</t>
-  </si>
-  <si>
     <t>MakerSupplies Mechanical Kit</t>
   </si>
   <si>
@@ -628,24 +562,6 @@
     <t>Price inclusive mech kit</t>
   </si>
   <si>
-    <t>Belt Idler Smooth 7mm</t>
-  </si>
-  <si>
-    <t>Belt Idler Smooth 11mm</t>
-  </si>
-  <si>
-    <t>2Pcs 7mm Without T</t>
-  </si>
-  <si>
-    <t>4Pcs 11mm Without T</t>
-  </si>
-  <si>
-    <t>Belt Idler Thoothed 7mm</t>
-  </si>
-  <si>
-    <t>Belt Idler Thoothed 11mm</t>
-  </si>
-  <si>
     <t>Smooth Idler for 6mm belt</t>
   </si>
   <si>
@@ -658,12 +574,6 @@
     <t>Thoothed Idler for 10mm belt</t>
   </si>
   <si>
-    <t>6Pcs 7mm With T</t>
-  </si>
-  <si>
-    <t>2Pcs 7mm With T</t>
-  </si>
-  <si>
     <t>Belt Timing Belt 6mm</t>
   </si>
   <si>
@@ -673,9 +583,6 @@
     <t>4 meter</t>
   </si>
   <si>
-    <t>4M-6MM-2GT</t>
-  </si>
-  <si>
     <t>2 meter</t>
   </si>
   <si>
@@ -685,9 +592,6 @@
     <t>2GT Timing Belt 6W 4 Meter</t>
   </si>
   <si>
-    <t>2M-6MM-2GT</t>
-  </si>
-  <si>
     <t>17x350</t>
   </si>
   <si>
@@ -697,18 +601,6 @@
     <t>Z 3:1 GT2 Gear Pulleys</t>
   </si>
   <si>
-    <t>BD: 20T(5mm)-60T(5mm)</t>
-  </si>
-  <si>
-    <t>Z Drive NEMA 17 Motor</t>
-  </si>
-  <si>
-    <t>NEMA 17</t>
-  </si>
-  <si>
-    <t>Nema 17 (17HS4401)</t>
-  </si>
-  <si>
     <t>WORM GEAR</t>
   </si>
   <si>
@@ -755,6 +647,114 @@
   </si>
   <si>
     <t>GT2 Pulleys and 200 mm Belt</t>
+  </si>
+  <si>
+    <t>Size: 6.5x5x1mm</t>
+  </si>
+  <si>
+    <t>BTT DUET WIFI Clone</t>
+  </si>
+  <si>
+    <t>Blade Color: 24V Ball 9500RPM</t>
+  </si>
+  <si>
+    <t>Blade Color: 24v dual ball</t>
+  </si>
+  <si>
+    <t>Size: Bore 5 width 6</t>
+  </si>
+  <si>
+    <t>6mm Belt Idler Smooth</t>
+  </si>
+  <si>
+    <t>6mm Belt Idler Thoothed</t>
+  </si>
+  <si>
+    <t>10mm Belt Idler Thoothed</t>
+  </si>
+  <si>
+    <t>10mm Belt Idler Smooth</t>
+  </si>
+  <si>
+    <t>Bore 5mm No Teeth:For belt width 6mm</t>
+  </si>
+  <si>
+    <t>Bore 5mm With Teeth:For belt width 6mm</t>
+  </si>
+  <si>
+    <t>Bore 5mm No Teeth:For belt width 10mm</t>
+  </si>
+  <si>
+    <t>Bore 5mm With Teeth:For belt width 10mm</t>
+  </si>
+  <si>
+    <t>4M Color: 2GT 6MM</t>
+  </si>
+  <si>
+    <t>2M Color: 2GT 10MM</t>
+  </si>
+  <si>
+    <t>Size: Black 1M</t>
+  </si>
+  <si>
+    <t>Blade Color: 24V Ball</t>
+  </si>
+  <si>
+    <t>Fan for Hotend cooling</t>
+  </si>
+  <si>
+    <t>Fan for Cabinet cooling</t>
+  </si>
+  <si>
+    <t>Fan Part Cooling</t>
+  </si>
+  <si>
+    <t>GT2 Motor Pulley 5Bore</t>
+  </si>
+  <si>
+    <t>Stepper motor 1.8 Amp</t>
+  </si>
+  <si>
+    <t>Nema 17 1.8 A</t>
+  </si>
+  <si>
+    <t>5Pack &amp; Cable</t>
+  </si>
+  <si>
+    <t>1x5</t>
+  </si>
+  <si>
+    <t>1x6</t>
+  </si>
+  <si>
+    <t>Kenoovo 240V 400W</t>
+  </si>
+  <si>
+    <t>Size: 20T5 - 60T5:Color: 200MM</t>
+  </si>
+  <si>
+    <t>1x10</t>
+  </si>
+  <si>
+    <t>Z Drive Bearings</t>
+  </si>
+  <si>
+    <t>625RS Bearings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10Pcs 625RS </t>
+  </si>
+  <si>
+    <t>Dragonfly Phateus Color: BMO</t>
+  </si>
+  <si>
+    <t>XY Idler Bearing shafts</t>
+  </si>
+  <si>
+    <t>Bearing shafts 5mm</t>
+  </si>
+  <si>
+    <t>5mm Length: 35mm 6PC</t>
   </si>
 </sst>
 </file>
@@ -1344,7 +1344,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1548,7 +1548,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1559,6 +1558,10 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2524,11 +2527,11 @@
         <v>4</v>
       </c>
       <c r="F7" s="45" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="G7" s="43"/>
       <c r="H7" s="56" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="I7" s="55"/>
       <c r="J7" s="57" t="s">
@@ -2541,8 +2544,8 @@
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
       <c r="E8" s="20"/>
-      <c r="F8" s="155" t="s">
-        <v>132</v>
+      <c r="F8" s="154" t="s">
+        <v>116</v>
       </c>
       <c r="G8" s="40"/>
       <c r="H8" s="50"/>
@@ -2566,7 +2569,7 @@
         <f>D9*310</f>
         <v>1240</v>
       </c>
-      <c r="F9" s="156"/>
+      <c r="F9" s="155"/>
       <c r="G9" s="40"/>
       <c r="H9" s="49"/>
       <c r="I9" s="15"/>
@@ -2589,7 +2592,7 @@
         <f>D10*350</f>
         <v>1400</v>
       </c>
-      <c r="F10" s="156"/>
+      <c r="F10" s="155"/>
       <c r="G10" s="40"/>
       <c r="H10" s="50"/>
       <c r="I10" s="42"/>
@@ -2612,7 +2615,7 @@
         <f>D11*340</f>
         <v>1700</v>
       </c>
-      <c r="F11" s="156"/>
+      <c r="F11" s="155"/>
       <c r="G11" s="40"/>
       <c r="H11" s="49"/>
       <c r="I11" s="15"/>
@@ -2635,7 +2638,7 @@
         <f>D12*295</f>
         <v>295</v>
       </c>
-      <c r="F12" s="156"/>
+      <c r="F12" s="155"/>
       <c r="G12" s="40"/>
       <c r="H12" s="50"/>
       <c r="I12" s="42"/>
@@ -2647,7 +2650,7 @@
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="10"/>
-      <c r="F13" s="156"/>
+      <c r="F13" s="155"/>
       <c r="G13" s="40"/>
       <c r="H13" s="26"/>
       <c r="I13" s="6"/>
@@ -2670,7 +2673,7 @@
         <f>D14*290</f>
         <v>290</v>
       </c>
-      <c r="F14" s="156"/>
+      <c r="F14" s="155"/>
       <c r="G14" s="40"/>
       <c r="H14" s="50"/>
       <c r="I14" s="42"/>
@@ -2693,10 +2696,10 @@
         <f>D15*350</f>
         <v>700</v>
       </c>
-      <c r="F15" s="156"/>
+      <c r="F15" s="155"/>
       <c r="G15" s="40"/>
       <c r="H15" s="49" t="s">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="I15" s="15"/>
       <c r="J15" s="59"/>
@@ -2716,13 +2719,13 @@
         <f>SUM(E9:E15)</f>
         <v>5625</v>
       </c>
-      <c r="F16" s="156"/>
+      <c r="F16" s="155"/>
       <c r="G16" s="40"/>
       <c r="H16" s="51" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c r="I16" s="60" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="J16" s="58">
         <v>21</v>
@@ -2734,7 +2737,7 @@
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="10"/>
-      <c r="F17" s="156"/>
+      <c r="F17" s="155"/>
       <c r="G17" s="40"/>
       <c r="H17" s="26" t="s">
         <v>27</v>
@@ -2758,13 +2761,13 @@
         <v>18</v>
       </c>
       <c r="E18" s="21"/>
-      <c r="F18" s="156"/>
+      <c r="F18" s="155"/>
       <c r="G18" s="40"/>
       <c r="H18" s="51" t="s">
         <v>30</v>
       </c>
       <c r="I18" s="60" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="J18" s="58">
         <v>15</v>
@@ -2776,7 +2779,7 @@
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="10"/>
-      <c r="F19" s="156"/>
+      <c r="F19" s="155"/>
       <c r="G19" s="40"/>
       <c r="H19" s="26"/>
       <c r="I19" s="61"/>
@@ -2796,13 +2799,13 @@
         <v>30</v>
       </c>
       <c r="E20" s="21"/>
-      <c r="F20" s="156"/>
+      <c r="F20" s="155"/>
       <c r="G20" s="40"/>
       <c r="H20" s="51" t="s">
         <v>34</v>
       </c>
       <c r="I20" s="60" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="J20" s="58">
         <v>14</v>
@@ -2863,7 +2866,7 @@
       <c r="E25" s="6"/>
       <c r="F25" s="146">
         <f>'Component Part List'!$E$35</f>
-        <v>505.5</v>
+        <v>503.5</v>
       </c>
       <c r="G25" s="41"/>
       <c r="H25" s="26" t="s">
@@ -2872,7 +2875,7 @@
       <c r="I25" s="6"/>
       <c r="J25" s="146">
         <f>'Component Part List'!$E$35</f>
-        <v>505.5</v>
+        <v>503.5</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -2904,7 +2907,7 @@
       <c r="D27" s="36"/>
       <c r="E27" s="36"/>
       <c r="F27" s="39" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="G27" s="41"/>
       <c r="H27" s="26" t="s">
@@ -2918,7 +2921,7 @@
     </row>
     <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="37" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="B28" s="38"/>
       <c r="C28" s="38"/>
@@ -2926,7 +2929,7 @@
       <c r="E28" s="38"/>
       <c r="F28" s="34">
         <f>SUM(F24:F27)</f>
-        <v>865.5</v>
+        <v>863.5</v>
       </c>
       <c r="G28" s="41"/>
       <c r="H28" s="52" t="s">
@@ -2935,7 +2938,7 @@
       <c r="I28" s="53"/>
       <c r="J28" s="54">
         <f>SUM(J24:J27)</f>
-        <v>744.1</v>
+        <v>742.1</v>
       </c>
     </row>
   </sheetData>
@@ -2970,7 +2973,7 @@
   <sheetData>
     <row r="6" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A6" s="74" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="B6" s="75"/>
       <c r="C6" s="76"/>
@@ -2981,30 +2984,30 @@
     </row>
     <row r="7" spans="1:7" s="73" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="128" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B7" s="129"/>
       <c r="C7" s="130" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="D7" s="128" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E7" s="129"/>
       <c r="F7" s="128" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="G7" s="129"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="78" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="B8" s="10">
         <v>310</v>
       </c>
       <c r="C8" s="131" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="D8" s="78">
         <f>B8+50</f>
@@ -3019,38 +3022,38 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="78" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="B9" s="10">
         <v>350</v>
       </c>
       <c r="C9" s="131" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="D9" s="78">
         <f>B9+50</f>
         <v>400</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="F9" s="78">
         <f>B9+100</f>
         <v>450</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="78" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="B10" s="10">
         <v>340</v>
       </c>
       <c r="C10" s="131" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="D10" s="78">
         <f>B10+50</f>
@@ -3071,7 +3074,7 @@
         <v>290</v>
       </c>
       <c r="C11" s="131" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="D11" s="78">
         <f t="shared" ref="D11:D13" si="0">B11+50</f>
@@ -3092,7 +3095,7 @@
         <v>350</v>
       </c>
       <c r="C12" s="131" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="D12" s="78">
         <f t="shared" si="0"/>
@@ -3113,7 +3116,7 @@
         <v>295</v>
       </c>
       <c r="C13" s="132" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="D13" s="84">
         <f t="shared" si="0"/>
@@ -3137,7 +3140,7 @@
     </row>
     <row r="15" spans="1:7" s="73" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="80" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="B15" s="81"/>
       <c r="C15" s="82"/>
@@ -3148,7 +3151,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="78" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="79"/>
@@ -3159,30 +3162,30 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="140" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="B17" s="141"/>
       <c r="C17" s="135" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="D17" s="144" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="E17" s="145"/>
       <c r="F17" s="127" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="G17" s="77"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="78" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="B18" s="138">
         <v>390</v>
       </c>
       <c r="C18" s="136" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="D18" s="142">
         <f>B18+110</f>
@@ -3190,19 +3193,19 @@
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="78" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="G18" s="10"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="78" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="B19" s="138">
         <v>350</v>
       </c>
       <c r="C19" s="136" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="D19" s="142">
         <f>B19+150</f>
@@ -3210,21 +3213,21 @@
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="78" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="78" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="B20" s="138">
         <v>360</v>
       </c>
       <c r="C20" s="136" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="D20" s="142">
         <f>B20+140</f>
@@ -3232,7 +3235,7 @@
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="78" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="G20" s="10"/>
     </row>
@@ -3248,7 +3251,7 @@
       </c>
       <c r="E21" s="117"/>
       <c r="F21" s="133" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="G21" s="10"/>
     </row>
@@ -3264,7 +3267,7 @@
       </c>
       <c r="E22" s="117"/>
       <c r="F22" s="133" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="G22" s="10"/>
     </row>
@@ -3280,7 +3283,7 @@
       </c>
       <c r="E23" s="116"/>
       <c r="F23" s="134" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="G23" s="85"/>
     </row>
@@ -3295,17 +3298,17 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -3333,7 +3336,7 @@
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.7109375" style="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.28515625" style="14" customWidth="1"/>
@@ -3353,7 +3356,7 @@
       <c r="B2" s="90"/>
       <c r="C2" s="97"/>
       <c r="D2" s="87" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="E2" s="88"/>
       <c r="F2" s="89"/>
@@ -3370,11 +3373,11 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="120" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="B4" s="121"/>
       <c r="C4" s="121" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="D4" s="122"/>
       <c r="E4" s="123">
@@ -3393,13 +3396,13 @@
         <v>3</v>
       </c>
       <c r="D5" s="119" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="E5" s="119" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="98" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="G5" s="99" t="s">
         <v>41</v>
@@ -3407,56 +3410,54 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>166</v>
+        <v>212</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="C6" s="91">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="D6" s="105" t="s">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="E6" s="102">
-        <v>15</v>
-      </c>
-      <c r="F6" s="96" t="s">
-        <v>170</v>
-      </c>
-      <c r="G6" s="149"/>
+        <v>16</v>
+      </c>
+      <c r="F6" s="92"/>
+      <c r="G6" s="156"/>
     </row>
     <row r="7" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="C7" s="91">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" s="105" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="E7" s="102">
-        <v>17</v>
-      </c>
-      <c r="F7" s="92"/>
-      <c r="G7" s="102"/>
+        <v>10</v>
+      </c>
+      <c r="F7" s="96"/>
+      <c r="G7" s="103"/>
     </row>
     <row r="8" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>203</v>
+        <v>175</v>
       </c>
       <c r="C8" s="91">
         <v>2</v>
       </c>
       <c r="D8" s="105" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="E8" s="102">
         <v>10</v>
@@ -3466,92 +3467,92 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>206</v>
+        <v>177</v>
       </c>
       <c r="C9" s="91">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D9" s="105" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="E9" s="102">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F9" s="96"/>
       <c r="G9" s="103"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>201</v>
+        <v>150</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
       <c r="C10" s="91">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="D10" s="105" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E10" s="102">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F10" s="96"/>
       <c r="G10" s="103"/>
     </row>
     <row r="11" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>215</v>
+        <v>183</v>
       </c>
       <c r="C11" s="91" t="s">
-        <v>211</v>
+        <v>182</v>
       </c>
       <c r="D11" s="105" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="E11" s="103">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="103"/>
     </row>
     <row r="12" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="C12" s="91" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="D12" s="105" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E12" s="103">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="103"/>
     </row>
     <row r="13" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C13" s="91">
         <v>1</v>
       </c>
       <c r="D13" s="105" t="s">
-        <v>69</v>
+        <v>219</v>
       </c>
       <c r="E13" s="103">
         <v>2.5</v>
@@ -3560,390 +3561,382 @@
       <c r="G13" s="103"/>
     </row>
     <row r="14" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>49</v>
+      <c r="A14" s="14" t="s">
+        <v>161</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>50</v>
+        <v>163</v>
       </c>
       <c r="C14" s="91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" s="105" t="s">
-        <v>51</v>
+        <v>160</v>
       </c>
       <c r="E14" s="103">
-        <v>3</v>
-      </c>
-      <c r="F14" s="96"/>
+        <v>2.5</v>
+      </c>
+      <c r="F14" s="15"/>
       <c r="G14" s="103"/>
     </row>
     <row r="15" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>179</v>
+      <c r="A15" s="6" t="s">
+        <v>165</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="C15" s="91">
         <v>1</v>
       </c>
       <c r="D15" s="105" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="E15" s="103">
-        <v>2.5</v>
+        <v>8</v>
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="103"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>183</v>
+        <v>42</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="C16" s="91">
         <v>1</v>
       </c>
       <c r="D16" s="105" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="E16" s="103">
-        <v>8</v>
-      </c>
-      <c r="F16" s="15"/>
+        <v>60</v>
+      </c>
+      <c r="F16" s="96"/>
       <c r="G16" s="103"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C17" s="91">
         <v>1</v>
       </c>
       <c r="D17" s="105" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="E17" s="103">
-        <v>60</v>
-      </c>
-      <c r="F17" s="96"/>
+        <v>31</v>
+      </c>
+      <c r="F17" s="15"/>
       <c r="G17" s="103"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>66</v>
+        <v>222</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>191</v>
+        <v>45</v>
       </c>
       <c r="C18" s="91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" s="105" t="s">
-        <v>192</v>
+        <v>220</v>
       </c>
       <c r="E18" s="103">
-        <v>31</v>
-      </c>
-      <c r="F18" s="15"/>
+        <v>10</v>
+      </c>
+      <c r="F18" s="96"/>
       <c r="G18" s="103"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>169</v>
+        <v>221</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>173</v>
+        <v>44</v>
       </c>
       <c r="C19" s="91">
         <v>1</v>
       </c>
       <c r="D19" s="105" t="s">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="E19" s="103">
-        <v>30</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="G19" s="103">
-        <v>16</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="103"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>188</v>
+        <v>43</v>
       </c>
       <c r="C20" s="91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" s="105" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="E20" s="103">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="F20" s="15"/>
       <c r="G20" s="103"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>46</v>
+        <v>224</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="C21" s="91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" s="105" t="s">
-        <v>48</v>
+        <v>208</v>
       </c>
       <c r="E21" s="103">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F21" s="15"/>
       <c r="G21" s="103"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>43</v>
+        <v>152</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>44</v>
+        <v>155</v>
       </c>
       <c r="C22" s="91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" s="105" t="s">
-        <v>45</v>
+        <v>156</v>
       </c>
       <c r="E22" s="103">
-        <v>10</v>
-      </c>
-      <c r="F22" s="15"/>
-      <c r="G22" s="103"/>
+        <v>30</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="G22" s="103">
+        <v>16</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>76</v>
+        <v>167</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="C23" s="91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" s="105" t="s">
-        <v>78</v>
+        <v>236</v>
       </c>
       <c r="E23" s="103">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="F23" s="15"/>
       <c r="G23" s="103"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>79</v>
+        <v>226</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="C24" s="91">
-        <v>1</v>
+        <v>225</v>
+      </c>
+      <c r="C24" s="91" t="s">
+        <v>228</v>
       </c>
       <c r="D24" s="105" t="s">
-        <v>81</v>
+        <v>227</v>
       </c>
       <c r="E24" s="103">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="F24" s="15"/>
       <c r="G24" s="103"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25" s="91">
-        <v>3</v>
+        <v>46</v>
+      </c>
+      <c r="B25" s="108" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="91" t="s">
+        <v>229</v>
       </c>
       <c r="D25" s="105" t="s">
-        <v>84</v>
+        <v>169</v>
       </c>
       <c r="E25" s="103">
-        <v>30</v>
-      </c>
-      <c r="F25" s="15"/>
+        <v>4</v>
+      </c>
+      <c r="F25" s="96"/>
       <c r="G25" s="103"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="108" t="s">
-        <v>53</v>
+        <v>65</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>66</v>
       </c>
       <c r="C26" s="91">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D26" s="105" t="s">
-        <v>190</v>
+        <v>67</v>
       </c>
       <c r="E26" s="103">
-        <v>4</v>
-      </c>
-      <c r="F26" s="96"/>
+        <v>8.5</v>
+      </c>
+      <c r="F26" s="15"/>
       <c r="G26" s="103"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C27" s="91">
         <v>1</v>
       </c>
       <c r="D27" s="105" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="E27" s="103">
-        <v>8.5</v>
+        <v>20</v>
       </c>
       <c r="F27" s="15"/>
       <c r="G27" s="103"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C28" s="91">
         <v>1</v>
       </c>
       <c r="D28" s="105" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="E28" s="103">
-        <v>20</v>
-      </c>
-      <c r="F28" s="15"/>
+        <v>2</v>
+      </c>
+      <c r="F28" s="100"/>
       <c r="G28" s="103"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C29" s="91">
         <v>1</v>
       </c>
       <c r="D29" s="105" t="s">
-        <v>65</v>
+        <v>230</v>
       </c>
       <c r="E29" s="103">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="F29" s="100"/>
       <c r="G29" s="103"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C30" s="91">
         <v>1</v>
       </c>
       <c r="D30" s="105" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E30" s="103">
-        <v>30</v>
-      </c>
-      <c r="F30" s="100" t="s">
-        <v>167</v>
-      </c>
-      <c r="G30" s="103">
-        <v>40</v>
-      </c>
+        <v>3.5</v>
+      </c>
+      <c r="F30" s="100"/>
+      <c r="G30" s="103"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>60</v>
+        <v>237</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" s="91">
-        <v>1</v>
-      </c>
-      <c r="D31" s="105" t="s">
-        <v>62</v>
+        <v>238</v>
+      </c>
+      <c r="C31" s="91" t="s">
+        <v>229</v>
+      </c>
+      <c r="D31" s="157" t="s">
+        <v>239</v>
       </c>
       <c r="E31" s="103">
-        <v>3.5</v>
-      </c>
-      <c r="F31" s="100"/>
+        <v>3</v>
+      </c>
+      <c r="F31" s="148"/>
       <c r="G31" s="103"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>239</v>
+        <v>203</v>
       </c>
       <c r="C32" s="91">
         <v>1</v>
       </c>
-      <c r="D32" s="105" t="s">
-        <v>220</v>
+      <c r="D32" s="15" t="s">
+        <v>231</v>
       </c>
       <c r="E32" s="103">
         <v>8.5</v>
       </c>
-      <c r="F32" s="148" t="s">
-        <v>193</v>
-      </c>
-      <c r="G32" s="103">
-        <v>43.5</v>
-      </c>
+      <c r="F32" s="15"/>
+      <c r="G32" s="103"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>222</v>
-      </c>
-      <c r="C33" s="91">
-        <v>1</v>
+        <v>234</v>
+      </c>
+      <c r="C33" s="91" t="s">
+        <v>232</v>
       </c>
       <c r="D33" s="147" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="E33" s="103">
         <v>19</v>
@@ -3953,16 +3946,16 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B34" s="109" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C34" s="107">
         <v>1</v>
       </c>
       <c r="D34" s="106" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E34" s="104">
         <v>14</v>
@@ -3972,73 +3965,70 @@
     </row>
     <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="93" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="B35" s="94"/>
       <c r="C35" s="94"/>
       <c r="D35" s="94"/>
       <c r="E35" s="95">
         <f>SUBTOTAL(109,Table1[[#All],[Column5]])</f>
-        <v>505.5</v>
+        <v>503.5</v>
       </c>
       <c r="F35" s="64"/>
       <c r="G35" s="64"/>
     </row>
     <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="124" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="B36" s="125"/>
       <c r="C36" s="125"/>
       <c r="D36" s="125"/>
       <c r="E36" s="126">
         <f>E4+E35</f>
-        <v>839.5</v>
+        <v>837.5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D30" r:id="rId1" xr:uid="{3773511A-F3AF-4897-B5BB-16FB39A0B508}"/>
-    <hyperlink ref="D14" r:id="rId2" xr:uid="{AFC120EB-E75F-4BB8-BC6D-4AA9408DD14D}"/>
-    <hyperlink ref="D28" r:id="rId3" display="Link" xr:uid="{401DDADA-DB79-4416-96CF-3B1D6329769B}"/>
-    <hyperlink ref="D22" r:id="rId4" display="24V Dual Ball" xr:uid="{98BCAD8D-1DD9-49E5-B60D-FB8A39108E71}"/>
-    <hyperlink ref="D21" r:id="rId5" xr:uid="{968A8156-5055-4A5F-97A2-06DF8EA0EB3D}"/>
-    <hyperlink ref="D11" r:id="rId6" xr:uid="{9F0DE403-B0EC-4933-928F-2806FBCF603A}"/>
-    <hyperlink ref="D27" r:id="rId7" display="Link" xr:uid="{45531F32-6B6C-44D5-9B2A-FB1F259BC9F9}"/>
-    <hyperlink ref="F30" r:id="rId8" display="Keenovo" xr:uid="{C2A02BBB-B317-4856-A562-A30BE2CA0A6C}"/>
-    <hyperlink ref="D24" r:id="rId9" xr:uid="{4C50ADBB-FC9C-42E4-8421-5A0C1600DD46}"/>
-    <hyperlink ref="D23" r:id="rId10" display="5 BORE" xr:uid="{43C03DCA-7867-4C9F-B1D0-8588267A1C82}"/>
-    <hyperlink ref="D31" r:id="rId11" xr:uid="{A901DFE1-486C-4AC2-8672-C18618945E04}"/>
-    <hyperlink ref="D29" r:id="rId12" xr:uid="{BA467D2F-0948-4A82-B49C-B8DCBA7936A0}"/>
-    <hyperlink ref="D25" r:id="rId13" display="Link" xr:uid="{49178A12-AF45-4969-AC8E-49BA3EBADDA9}"/>
-    <hyperlink ref="D20" r:id="rId14" xr:uid="{537A3F3C-7C92-42A9-B8B2-F37129F7787F}"/>
-    <hyperlink ref="D13" r:id="rId15" xr:uid="{82909F8B-3A14-4248-8CB2-384756C6E8BE}"/>
-    <hyperlink ref="F32" r:id="rId16" display="1/30 Worm Stepper" xr:uid="{0D6A5659-9181-49D0-A7D8-101F63076C8A}"/>
-    <hyperlink ref="D26" r:id="rId17" display="6Pcs Endstops" xr:uid="{4AEFCE09-28B7-4C24-82DE-ADAB9CAA43E1}"/>
-    <hyperlink ref="D34" r:id="rId18" xr:uid="{0ED2334F-09CF-437E-82F8-E81D86F288DC}"/>
-    <hyperlink ref="D10" r:id="rId19" display="8Pcs 7mm With T" xr:uid="{87CB364F-700B-4E81-BC67-3C859C1B7934}"/>
-    <hyperlink ref="D8" r:id="rId20" xr:uid="{D4CB98E8-7A2B-495D-9E37-8208D21A6270}"/>
-    <hyperlink ref="D6" r:id="rId21" display="6x5x1 Option Shim" xr:uid="{A333F16C-7F8A-421A-B64A-B04B701B747A}"/>
-    <hyperlink ref="F6" r:id="rId22" display="NB! 200 pcs option is same price" xr:uid="{D98A7A59-4D4C-4589-8C00-1DCF83FFF3E6}"/>
-    <hyperlink ref="D17" r:id="rId23" xr:uid="{F52EB8DF-670A-4145-90A1-8A8DF8B4B7B2}"/>
-    <hyperlink ref="D19" r:id="rId24" xr:uid="{53A16D3E-EBE4-45B6-9E87-70111D7D2FFE}"/>
-    <hyperlink ref="F19" r:id="rId25" xr:uid="{2E01C49B-F943-468C-B222-27E06F7C15FC}"/>
-    <hyperlink ref="D15" r:id="rId26" display="Cable Loom - Bowden Path" xr:uid="{5DD23B84-72DC-46EC-A740-B82AFAD09C94}"/>
-    <hyperlink ref="D16" r:id="rId27" xr:uid="{0C6F2C79-ACBB-4C55-AC21-4895BA685D6B}"/>
-    <hyperlink ref="D18" r:id="rId28" xr:uid="{9689F2B7-24E0-4CC5-A39F-53D7E0370FC8}"/>
-    <hyperlink ref="A4" r:id="rId29" xr:uid="{42E8AC4D-928E-4528-A3B8-EB12C0061FC4}"/>
-    <hyperlink ref="D7" r:id="rId30" xr:uid="{DC8F7F14-CA2A-4482-8C1E-5173C4B8D9AD}"/>
-    <hyperlink ref="D9" r:id="rId31" display="8Pcs 7mm With T" xr:uid="{9AED87BC-5BEC-4990-87E4-DE18B0259F70}"/>
-    <hyperlink ref="D12" r:id="rId32" xr:uid="{3BB9CD36-EAAE-4CDD-91A2-546DD9AEE97B}"/>
-    <hyperlink ref="D32" r:id="rId33" xr:uid="{7F3B442E-F7CB-4007-B0E0-F7D6FA00B53B}"/>
-    <hyperlink ref="D33" r:id="rId34" xr:uid="{EFF7A929-E8E4-4F05-A22B-23B664574CE1}"/>
+    <hyperlink ref="D29" r:id="rId1" display="220V/110V" xr:uid="{3773511A-F3AF-4897-B5BB-16FB39A0B508}"/>
+    <hyperlink ref="D18" r:id="rId2" xr:uid="{AFC120EB-E75F-4BB8-BC6D-4AA9408DD14D}"/>
+    <hyperlink ref="D27" r:id="rId3" display="Link" xr:uid="{401DDADA-DB79-4416-96CF-3B1D6329769B}"/>
+    <hyperlink ref="D20" r:id="rId4" display="24V Dual Ball" xr:uid="{98BCAD8D-1DD9-49E5-B60D-FB8A39108E71}"/>
+    <hyperlink ref="D12" r:id="rId5" xr:uid="{9F0DE403-B0EC-4933-928F-2806FBCF603A}"/>
+    <hyperlink ref="D26" r:id="rId6" display="Link" xr:uid="{45531F32-6B6C-44D5-9B2A-FB1F259BC9F9}"/>
+    <hyperlink ref="D21" r:id="rId7" xr:uid="{43C03DCA-7867-4C9F-B1D0-8588267A1C82}"/>
+    <hyperlink ref="D30" r:id="rId8" xr:uid="{A901DFE1-486C-4AC2-8672-C18618945E04}"/>
+    <hyperlink ref="D28" r:id="rId9" xr:uid="{BA467D2F-0948-4A82-B49C-B8DCBA7936A0}"/>
+    <hyperlink ref="D24" r:id="rId10" xr:uid="{49178A12-AF45-4969-AC8E-49BA3EBADDA9}"/>
+    <hyperlink ref="D23" r:id="rId11" xr:uid="{537A3F3C-7C92-42A9-B8B2-F37129F7787F}"/>
+    <hyperlink ref="D13" r:id="rId12" xr:uid="{82909F8B-3A14-4248-8CB2-384756C6E8BE}"/>
+    <hyperlink ref="D25" r:id="rId13" display="6Pcs Endstops" xr:uid="{4AEFCE09-28B7-4C24-82DE-ADAB9CAA43E1}"/>
+    <hyperlink ref="D34" r:id="rId14" xr:uid="{0ED2334F-09CF-437E-82F8-E81D86F288DC}"/>
+    <hyperlink ref="D10" r:id="rId15" xr:uid="{A333F16C-7F8A-421A-B64A-B04B701B747A}"/>
+    <hyperlink ref="D16" r:id="rId16" display="MKS DUET WIFI Clone" xr:uid="{F52EB8DF-670A-4145-90A1-8A8DF8B4B7B2}"/>
+    <hyperlink ref="D22" r:id="rId17" xr:uid="{53A16D3E-EBE4-45B6-9E87-70111D7D2FFE}"/>
+    <hyperlink ref="F22" r:id="rId18" xr:uid="{2E01C49B-F943-468C-B222-27E06F7C15FC}"/>
+    <hyperlink ref="D14" r:id="rId19" display="Cable Loom - Bowden Path" xr:uid="{5DD23B84-72DC-46EC-A740-B82AFAD09C94}"/>
+    <hyperlink ref="D15" r:id="rId20" xr:uid="{0C6F2C79-ACBB-4C55-AC21-4895BA685D6B}"/>
+    <hyperlink ref="D17" r:id="rId21" xr:uid="{9689F2B7-24E0-4CC5-A39F-53D7E0370FC8}"/>
+    <hyperlink ref="A4" r:id="rId22" xr:uid="{42E8AC4D-928E-4528-A3B8-EB12C0061FC4}"/>
+    <hyperlink ref="D6" r:id="rId23" display="Bore Diameter: Bore 5mm No Teeth" xr:uid="{DC8F7F14-CA2A-4482-8C1E-5173C4B8D9AD}"/>
+    <hyperlink ref="D11" r:id="rId24" display="Color: 2GT 10MM" xr:uid="{3BB9CD36-EAAE-4CDD-91A2-546DD9AEE97B}"/>
+    <hyperlink ref="D32" r:id="rId25" xr:uid="{7F3B442E-F7CB-4007-B0E0-F7D6FA00B53B}"/>
+    <hyperlink ref="D33" r:id="rId26" xr:uid="{EFF7A929-E8E4-4F05-A22B-23B664574CE1}"/>
+    <hyperlink ref="D19" r:id="rId27" xr:uid="{968A8156-5055-4A5F-97A2-06DF8EA0EB3D}"/>
+    <hyperlink ref="D7" r:id="rId28" display="Bore Diameter: Bore 5mm With Teeth" xr:uid="{9AED87BC-5BEC-4990-87E4-DE18B0259F70}"/>
+    <hyperlink ref="D8" r:id="rId29" display="Bore Diameter: Bore 5mm No Teeth" xr:uid="{AEF1FF18-EC10-49DF-B80B-75E1D8A2D85F}"/>
+    <hyperlink ref="D9" r:id="rId30" display="Bore Diameter: Bore 5mm With Teeth" xr:uid="{5D50B8E6-99FC-422D-900D-829D1530AC87}"/>
+    <hyperlink ref="D31" r:id="rId31" xr:uid="{E2B3A9CD-7038-461B-A7D6-7375A7FBF5F4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId35"/>
-  <drawing r:id="rId36"/>
+  <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId32"/>
+  <drawing r:id="rId33"/>
   <tableParts count="1">
-    <tablePart r:id="rId37"/>
+    <tablePart r:id="rId34"/>
   </tableParts>
 </worksheet>
 </file>
@@ -4060,92 +4050,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="154" t="s">
-        <v>229</v>
-      </c>
-      <c r="B1" s="154" t="s">
-        <v>224</v>
+      <c r="A1" s="153" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" s="153" t="s">
+        <v>188</v>
       </c>
       <c r="C1" s="122"/>
-      <c r="D1" s="154" t="s">
-        <v>225</v>
+      <c r="D1" s="153" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
-        <v>226</v>
-      </c>
-      <c r="B2" s="151" t="s">
-        <v>227</v>
+        <v>190</v>
+      </c>
+      <c r="B2" s="150" t="s">
+        <v>191</v>
       </c>
       <c r="D2" s="142" t="s">
-        <v>228</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>230</v>
-      </c>
-      <c r="B3" s="151" t="s">
-        <v>231</v>
-      </c>
-      <c r="D3" s="152" t="s">
-        <v>227</v>
+        <v>194</v>
+      </c>
+      <c r="B3" s="150" t="s">
+        <v>195</v>
+      </c>
+      <c r="D3" s="151" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
-        <v>232</v>
+        <v>196</v>
       </c>
       <c r="B4" s="142" t="s">
-        <v>228</v>
-      </c>
-      <c r="D4" s="152" t="s">
-        <v>231</v>
+        <v>192</v>
+      </c>
+      <c r="D4" s="151" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="B5" s="142" t="s">
-        <v>234</v>
-      </c>
-      <c r="D5" s="152" t="s">
-        <v>235</v>
+        <v>198</v>
+      </c>
+      <c r="D5" s="151" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
-        <v>236</v>
+        <v>200</v>
       </c>
       <c r="B6" s="142" t="s">
-        <v>228</v>
-      </c>
-      <c r="D6" s="152" t="s">
-        <v>231</v>
+        <v>192</v>
+      </c>
+      <c r="D6" s="151" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>237</v>
-      </c>
-      <c r="B7" s="152" t="s">
-        <v>227</v>
-      </c>
-      <c r="D7" s="151" t="s">
-        <v>231</v>
+        <v>201</v>
+      </c>
+      <c r="B7" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="D7" s="150" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="150" t="s">
-        <v>238</v>
+      <c r="A8" s="149" t="s">
+        <v>202</v>
       </c>
       <c r="B8" s="143" t="s">
-        <v>228</v>
-      </c>
-      <c r="D8" s="153" t="s">
-        <v>227</v>
+        <v>192</v>
+      </c>
+      <c r="D8" s="152" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -4183,7 +4173,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="66" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -4197,10 +4187,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="C2" s="29">
         <v>2</v>
@@ -4211,10 +4201,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="C3" s="29">
         <v>4</v>
@@ -4225,10 +4215,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C4" s="29">
         <v>4</v>
@@ -4239,10 +4229,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C5" s="29">
         <v>2</v>
@@ -4253,10 +4243,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C6" s="29">
         <v>2</v>
@@ -4267,10 +4257,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="C7" s="29">
         <v>11</v>
@@ -4281,10 +4271,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C8" s="29">
         <v>15</v>
@@ -4295,10 +4285,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C9" s="29">
         <v>6</v>
@@ -4309,10 +4299,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C10" s="29">
         <v>9</v>
@@ -4323,10 +4313,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C11" s="29">
         <v>5</v>
@@ -4337,10 +4327,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C12" s="29">
         <v>8</v>
@@ -4351,10 +4341,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="C13" s="29">
         <v>2</v>
@@ -4365,10 +4355,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C14" s="29">
         <v>5</v>
@@ -4379,10 +4369,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="C15" s="29">
         <v>5</v>
@@ -4393,10 +4383,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C16" s="29">
         <v>13</v>
@@ -4407,10 +4397,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C17" s="29">
         <v>6</v>
@@ -4421,10 +4411,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C18" s="29">
         <v>2</v>
@@ -4435,10 +4425,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C19" s="29">
         <v>1</v>
@@ -4449,10 +4439,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="C20" s="29">
         <v>3</v>
@@ -4463,10 +4453,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="C21" s="29">
         <v>1</v>
@@ -4477,10 +4467,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C22" s="29">
         <v>1</v>
@@ -4491,10 +4481,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C23" s="29">
         <v>28</v>
@@ -4505,10 +4495,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="C24" s="29">
         <v>6</v>
@@ -4519,10 +4509,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C25" s="29">
         <v>50</v>
@@ -4533,10 +4523,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="C26" s="29">
         <v>63</v>
@@ -4545,15 +4535,15 @@
         <v>70</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C27" s="29">
         <v>143</v>
@@ -4564,10 +4554,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C28" s="29">
         <v>200</v>
@@ -4578,10 +4568,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C29" s="29">
         <v>142</v>
@@ -4592,10 +4582,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C30" s="29">
         <v>8</v>
@@ -4606,10 +4596,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C31" s="29">
         <v>1</v>
@@ -4620,10 +4610,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C32" s="29">
         <v>2</v>
@@ -4634,10 +4624,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C33" s="29">
         <v>2</v>
@@ -4648,10 +4638,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C34" s="29">
         <v>18</v>
@@ -4662,10 +4652,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C35" s="29">
         <v>8</v>
@@ -4676,10 +4666,10 @@
     </row>
     <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="26" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="C36" s="29">
         <v>4</v>
@@ -4690,7 +4680,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="62" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="B37" s="63"/>
       <c r="C37" s="69">
@@ -4704,7 +4694,7 @@
     </row>
     <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="26" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="4"/>
@@ -4714,7 +4704,7 @@
     </row>
     <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="8"/>

--- a/Document Library/Bill Of Materials/V-Baby BOM.xlsx
+++ b/Document Library/Bill Of Materials/V-Baby BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/V-Baby CoreXY/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2452" documentId="11_2E462098BBA7632759C38D02185E4833A2B67484" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A13F721A-D915-4FEE-BFE8-563DFE4A02F4}"/>
+  <xr:revisionPtr revIDLastSave="2465" documentId="11_2E462098BBA7632759C38D02185E4833A2B67484" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{114B7AA6-BC44-4140-96A5-E6F293C7B3B4}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="243">
   <si>
     <t>Exstrusions</t>
   </si>
@@ -709,9 +709,6 @@
     <t>Fan Part Cooling</t>
   </si>
   <si>
-    <t>GT2 Motor Pulley 5Bore</t>
-  </si>
-  <si>
     <t>Stepper motor 1.8 Amp</t>
   </si>
   <si>
@@ -736,9 +733,6 @@
     <t>1x10</t>
   </si>
   <si>
-    <t>Z Drive Bearings</t>
-  </si>
-  <si>
     <t>625RS Bearings</t>
   </si>
   <si>
@@ -748,13 +742,28 @@
     <t>Dragonfly Phateus Color: BMO</t>
   </si>
   <si>
-    <t>XY Idler Bearing shafts</t>
-  </si>
-  <si>
     <t>Bearing shafts 5mm</t>
   </si>
   <si>
     <t>5mm Length: 35mm 6PC</t>
+  </si>
+  <si>
+    <t>Belt Motor Pulley GT2</t>
+  </si>
+  <si>
+    <t>Belt Idler Bearing shafts</t>
+  </si>
+  <si>
+    <t>Z Drive Gear Bearings</t>
+  </si>
+  <si>
+    <t>Z Drive Gear Pulley Bolt</t>
+  </si>
+  <si>
+    <t>Bolt for the Gear Pulleys</t>
+  </si>
+  <si>
+    <t>M5 Length: 55mm</t>
   </si>
 </sst>
 </file>
@@ -1547,22 +1556,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="40% - Accent6" xfId="4" builtinId="51"/>
@@ -2153,9 +2162,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1070DF90-74AC-4245-AA46-2FAD63F74767}" name="Table1" displayName="Table1" ref="A6:G34" headerRowCount="0" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" headerRowCellStyle="Accent1">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:G34">
-    <sortCondition ref="A6:A34"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1070DF90-74AC-4245-AA46-2FAD63F74767}" name="Table1" displayName="Table1" ref="A6:G35" headerRowCount="0" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" headerRowCellStyle="Accent1">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:G35">
+    <sortCondition ref="A6:A35"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{AB8C8187-911D-4248-8608-1F70796FF7C8}" name="Column1" headerRowDxfId="11"/>
@@ -2544,7 +2553,7 @@
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
       <c r="E8" s="20"/>
-      <c r="F8" s="154" t="s">
+      <c r="F8" s="155" t="s">
         <v>116</v>
       </c>
       <c r="G8" s="40"/>
@@ -2569,7 +2578,7 @@
         <f>D9*310</f>
         <v>1240</v>
       </c>
-      <c r="F9" s="155"/>
+      <c r="F9" s="156"/>
       <c r="G9" s="40"/>
       <c r="H9" s="49"/>
       <c r="I9" s="15"/>
@@ -2592,7 +2601,7 @@
         <f>D10*350</f>
         <v>1400</v>
       </c>
-      <c r="F10" s="155"/>
+      <c r="F10" s="156"/>
       <c r="G10" s="40"/>
       <c r="H10" s="50"/>
       <c r="I10" s="42"/>
@@ -2615,7 +2624,7 @@
         <f>D11*340</f>
         <v>1700</v>
       </c>
-      <c r="F11" s="155"/>
+      <c r="F11" s="156"/>
       <c r="G11" s="40"/>
       <c r="H11" s="49"/>
       <c r="I11" s="15"/>
@@ -2638,7 +2647,7 @@
         <f>D12*295</f>
         <v>295</v>
       </c>
-      <c r="F12" s="155"/>
+      <c r="F12" s="156"/>
       <c r="G12" s="40"/>
       <c r="H12" s="50"/>
       <c r="I12" s="42"/>
@@ -2650,7 +2659,7 @@
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="10"/>
-      <c r="F13" s="155"/>
+      <c r="F13" s="156"/>
       <c r="G13" s="40"/>
       <c r="H13" s="26"/>
       <c r="I13" s="6"/>
@@ -2673,7 +2682,7 @@
         <f>D14*290</f>
         <v>290</v>
       </c>
-      <c r="F14" s="155"/>
+      <c r="F14" s="156"/>
       <c r="G14" s="40"/>
       <c r="H14" s="50"/>
       <c r="I14" s="42"/>
@@ -2696,7 +2705,7 @@
         <f>D15*350</f>
         <v>700</v>
       </c>
-      <c r="F15" s="155"/>
+      <c r="F15" s="156"/>
       <c r="G15" s="40"/>
       <c r="H15" s="49" t="s">
         <v>186</v>
@@ -2719,7 +2728,7 @@
         <f>SUM(E9:E15)</f>
         <v>5625</v>
       </c>
-      <c r="F16" s="155"/>
+      <c r="F16" s="156"/>
       <c r="G16" s="40"/>
       <c r="H16" s="51" t="s">
         <v>185</v>
@@ -2737,7 +2746,7 @@
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="10"/>
-      <c r="F17" s="155"/>
+      <c r="F17" s="156"/>
       <c r="G17" s="40"/>
       <c r="H17" s="26" t="s">
         <v>27</v>
@@ -2761,7 +2770,7 @@
         <v>18</v>
       </c>
       <c r="E18" s="21"/>
-      <c r="F18" s="155"/>
+      <c r="F18" s="156"/>
       <c r="G18" s="40"/>
       <c r="H18" s="51" t="s">
         <v>30</v>
@@ -2779,7 +2788,7 @@
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="10"/>
-      <c r="F19" s="155"/>
+      <c r="F19" s="156"/>
       <c r="G19" s="40"/>
       <c r="H19" s="26"/>
       <c r="I19" s="61"/>
@@ -2799,7 +2808,7 @@
         <v>30</v>
       </c>
       <c r="E20" s="21"/>
-      <c r="F20" s="155"/>
+      <c r="F20" s="156"/>
       <c r="G20" s="40"/>
       <c r="H20" s="51" t="s">
         <v>34</v>
@@ -2865,8 +2874,8 @@
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="146">
-        <f>'Component Part List'!$E$35</f>
-        <v>503.5</v>
+        <f>'Component Part List'!$E$36</f>
+        <v>509.5</v>
       </c>
       <c r="G25" s="41"/>
       <c r="H25" s="26" t="s">
@@ -2874,8 +2883,8 @@
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="146">
-        <f>'Component Part List'!$E$35</f>
-        <v>503.5</v>
+        <f>'Component Part List'!$E$36</f>
+        <v>509.5</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -2929,7 +2938,7 @@
       <c r="E28" s="38"/>
       <c r="F28" s="34">
         <f>SUM(F24:F27)</f>
-        <v>863.5</v>
+        <v>869.5</v>
       </c>
       <c r="G28" s="41"/>
       <c r="H28" s="52" t="s">
@@ -2938,7 +2947,7 @@
       <c r="I28" s="53"/>
       <c r="J28" s="54">
         <f>SUM(J24:J27)</f>
-        <v>742.1</v>
+        <v>748.1</v>
       </c>
     </row>
   </sheetData>
@@ -3327,7 +3336,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -3425,7 +3434,7 @@
         <v>16</v>
       </c>
       <c r="F6" s="92"/>
-      <c r="G6" s="156"/>
+      <c r="G6" s="153"/>
     </row>
     <row r="7" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -3486,424 +3495,424 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>150</v>
+        <v>238</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="C10" s="91">
-        <v>80</v>
-      </c>
-      <c r="D10" s="105" t="s">
-        <v>204</v>
-      </c>
-      <c r="E10" s="102">
-        <v>15</v>
-      </c>
-      <c r="F10" s="96"/>
+        <v>235</v>
+      </c>
+      <c r="C10" s="91" t="s">
+        <v>228</v>
+      </c>
+      <c r="D10" s="154" t="s">
+        <v>236</v>
+      </c>
+      <c r="E10" s="103">
+        <v>3</v>
+      </c>
+      <c r="F10" s="15"/>
       <c r="G10" s="103"/>
     </row>
     <row r="11" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="C11" s="91" t="s">
-        <v>182</v>
+        <v>166</v>
+      </c>
+      <c r="C11" s="91">
+        <v>80</v>
       </c>
       <c r="D11" s="105" t="s">
-        <v>218</v>
-      </c>
-      <c r="E11" s="103">
-        <v>13</v>
-      </c>
-      <c r="F11" s="15"/>
+        <v>204</v>
+      </c>
+      <c r="E11" s="102">
+        <v>15</v>
+      </c>
+      <c r="F11" s="96"/>
       <c r="G11" s="103"/>
     </row>
     <row r="12" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>179</v>
+        <v>237</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="C12" s="91" t="s">
-        <v>181</v>
+        <v>68</v>
+      </c>
+      <c r="C12" s="91">
+        <v>2</v>
       </c>
       <c r="D12" s="105" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="E12" s="103">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="103"/>
     </row>
     <row r="13" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="91">
-        <v>1</v>
+        <v>183</v>
+      </c>
+      <c r="C13" s="91" t="s">
+        <v>182</v>
       </c>
       <c r="D13" s="105" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E13" s="103">
-        <v>2.5</v>
+        <v>13</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="103"/>
     </row>
     <row r="14" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>161</v>
+      <c r="A14" s="6" t="s">
+        <v>179</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="C14" s="91">
-        <v>1</v>
+        <v>184</v>
+      </c>
+      <c r="C14" s="91" t="s">
+        <v>181</v>
       </c>
       <c r="D14" s="105" t="s">
-        <v>160</v>
+        <v>217</v>
       </c>
       <c r="E14" s="103">
-        <v>2.5</v>
+        <v>19</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="103"/>
     </row>
     <row r="15" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>165</v>
+        <v>60</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>162</v>
+        <v>61</v>
       </c>
       <c r="C15" s="91">
         <v>1</v>
       </c>
       <c r="D15" s="105" t="s">
-        <v>164</v>
+        <v>219</v>
       </c>
       <c r="E15" s="103">
-        <v>8</v>
+        <v>2.5</v>
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="103"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>42</v>
+      <c r="A16" s="14" t="s">
+        <v>161</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="C16" s="91">
         <v>1</v>
       </c>
       <c r="D16" s="105" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="E16" s="103">
-        <v>60</v>
-      </c>
-      <c r="F16" s="96"/>
+        <v>2.5</v>
+      </c>
+      <c r="F16" s="15"/>
       <c r="G16" s="103"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>59</v>
+        <v>165</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C17" s="91">
         <v>1</v>
       </c>
       <c r="D17" s="105" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E17" s="103">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="103"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>222</v>
+        <v>42</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>45</v>
+        <v>153</v>
       </c>
       <c r="C18" s="91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" s="105" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="E18" s="103">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F18" s="96"/>
       <c r="G18" s="103"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>221</v>
+        <v>59</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>44</v>
+        <v>170</v>
       </c>
       <c r="C19" s="91">
         <v>1</v>
       </c>
       <c r="D19" s="105" t="s">
-        <v>206</v>
+        <v>171</v>
       </c>
       <c r="E19" s="103">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="103"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C20" s="91">
         <v>2</v>
       </c>
       <c r="D20" s="105" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="E20" s="103">
         <v>10</v>
       </c>
-      <c r="F20" s="15"/>
+      <c r="F20" s="96"/>
       <c r="G20" s="103"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="C21" s="91">
+        <v>1</v>
+      </c>
+      <c r="D21" s="105" t="s">
+        <v>206</v>
+      </c>
+      <c r="E21" s="103">
         <v>2</v>
-      </c>
-      <c r="D21" s="105" t="s">
-        <v>208</v>
-      </c>
-      <c r="E21" s="103">
-        <v>11</v>
       </c>
       <c r="F21" s="15"/>
       <c r="G21" s="103"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>152</v>
+        <v>223</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>155</v>
+        <v>43</v>
       </c>
       <c r="C22" s="91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" s="105" t="s">
-        <v>156</v>
+        <v>207</v>
       </c>
       <c r="E22" s="103">
-        <v>30</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="G22" s="103">
-        <v>16</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F22" s="15"/>
+      <c r="G22" s="103"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="C23" s="91">
         <v>1</v>
       </c>
       <c r="D23" s="105" t="s">
-        <v>236</v>
+        <v>156</v>
       </c>
       <c r="E23" s="103">
-        <v>73</v>
-      </c>
-      <c r="F23" s="15"/>
-      <c r="G23" s="103"/>
+        <v>30</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="G23" s="103">
+        <v>16</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>226</v>
+        <v>167</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>225</v>
-      </c>
-      <c r="C24" s="91" t="s">
-        <v>228</v>
+        <v>168</v>
+      </c>
+      <c r="C24" s="91">
+        <v>1</v>
       </c>
       <c r="D24" s="105" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="E24" s="103">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="F24" s="15"/>
       <c r="G24" s="103"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="108" t="s">
-        <v>47</v>
+        <v>225</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>224</v>
       </c>
       <c r="C25" s="91" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D25" s="105" t="s">
-        <v>169</v>
+        <v>226</v>
       </c>
       <c r="E25" s="103">
-        <v>4</v>
-      </c>
-      <c r="F25" s="96"/>
+        <v>30</v>
+      </c>
+      <c r="F25" s="15"/>
       <c r="G25" s="103"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="91">
-        <v>1</v>
+        <v>46</v>
+      </c>
+      <c r="B26" s="108" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="91" t="s">
+        <v>228</v>
       </c>
       <c r="D26" s="105" t="s">
-        <v>67</v>
+        <v>169</v>
       </c>
       <c r="E26" s="103">
-        <v>8.5</v>
-      </c>
-      <c r="F26" s="15"/>
+        <v>4</v>
+      </c>
+      <c r="F26" s="96"/>
       <c r="G26" s="103"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C27" s="91">
         <v>1</v>
       </c>
       <c r="D27" s="105" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E27" s="103">
-        <v>20</v>
+        <v>8.5</v>
       </c>
       <c r="F27" s="15"/>
       <c r="G27" s="103"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C28" s="91">
         <v>1</v>
       </c>
       <c r="D28" s="105" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E28" s="103">
-        <v>2</v>
-      </c>
-      <c r="F28" s="100"/>
+        <v>20</v>
+      </c>
+      <c r="F28" s="15"/>
       <c r="G28" s="103"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C29" s="91">
         <v>1</v>
       </c>
       <c r="D29" s="105" t="s">
-        <v>230</v>
+        <v>58</v>
       </c>
       <c r="E29" s="103">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="F29" s="100"/>
       <c r="G29" s="103"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C30" s="91">
         <v>1</v>
       </c>
       <c r="D30" s="105" t="s">
-        <v>55</v>
+        <v>229</v>
       </c>
       <c r="E30" s="103">
-        <v>3.5</v>
+        <v>40</v>
       </c>
       <c r="F30" s="100"/>
       <c r="G30" s="103"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>237</v>
+        <v>53</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>238</v>
-      </c>
-      <c r="C31" s="91" t="s">
-        <v>229</v>
-      </c>
-      <c r="D31" s="157" t="s">
-        <v>239</v>
+        <v>54</v>
+      </c>
+      <c r="C31" s="91">
+        <v>1</v>
+      </c>
+      <c r="D31" s="105" t="s">
+        <v>55</v>
       </c>
       <c r="E31" s="103">
-        <v>3</v>
-      </c>
-      <c r="F31" s="148"/>
+        <v>3.5</v>
+      </c>
+      <c r="F31" s="157"/>
       <c r="G31" s="103"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -3917,7 +3926,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E32" s="103">
         <v>8.5</v>
@@ -3927,16 +3936,16 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="C33" s="91" t="s">
+        <v>231</v>
+      </c>
+      <c r="D33" s="147" t="s">
         <v>233</v>
-      </c>
-      <c r="B33" s="29" t="s">
-        <v>234</v>
-      </c>
-      <c r="C33" s="91" t="s">
-        <v>232</v>
-      </c>
-      <c r="D33" s="147" t="s">
-        <v>235</v>
       </c>
       <c r="E33" s="103">
         <v>19</v>
@@ -3946,89 +3955,109 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="C34" s="91">
+        <v>1</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="E34" s="103">
+        <v>6</v>
+      </c>
+      <c r="F34" s="15"/>
+      <c r="G34" s="103"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B34" s="109" t="s">
+      <c r="B35" s="109" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="107">
+      <c r="C35" s="107">
         <v>1</v>
       </c>
-      <c r="D34" s="106" t="s">
+      <c r="D35" s="106" t="s">
         <v>50</v>
       </c>
-      <c r="E34" s="104">
+      <c r="E35" s="104">
         <v>14</v>
       </c>
-      <c r="F34" s="101"/>
-      <c r="G34" s="104"/>
-    </row>
-    <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="93" t="s">
+      <c r="F35" s="101"/>
+      <c r="G35" s="104"/>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="94"/>
-      <c r="C35" s="94"/>
-      <c r="D35" s="94"/>
-      <c r="E35" s="95">
+      <c r="B36" s="94"/>
+      <c r="C36" s="94"/>
+      <c r="D36" s="94"/>
+      <c r="E36" s="95">
         <f>SUBTOTAL(109,Table1[[#All],[Column5]])</f>
-        <v>503.5</v>
-      </c>
-      <c r="F35" s="64"/>
-      <c r="G35" s="64"/>
-    </row>
-    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="124" t="s">
+        <v>509.5</v>
+      </c>
+      <c r="F36" s="64"/>
+      <c r="G36" s="64"/>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="124" t="s">
         <v>174</v>
       </c>
-      <c r="B36" s="125"/>
-      <c r="C36" s="125"/>
-      <c r="D36" s="125"/>
-      <c r="E36" s="126">
-        <f>E4+E35</f>
-        <v>837.5</v>
+      <c r="B37" s="125"/>
+      <c r="C37" s="125"/>
+      <c r="D37" s="125"/>
+      <c r="E37" s="126">
+        <f>E4+E36</f>
+        <v>843.5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D29" r:id="rId1" display="220V/110V" xr:uid="{3773511A-F3AF-4897-B5BB-16FB39A0B508}"/>
-    <hyperlink ref="D18" r:id="rId2" xr:uid="{AFC120EB-E75F-4BB8-BC6D-4AA9408DD14D}"/>
-    <hyperlink ref="D27" r:id="rId3" display="Link" xr:uid="{401DDADA-DB79-4416-96CF-3B1D6329769B}"/>
-    <hyperlink ref="D20" r:id="rId4" display="24V Dual Ball" xr:uid="{98BCAD8D-1DD9-49E5-B60D-FB8A39108E71}"/>
-    <hyperlink ref="D12" r:id="rId5" xr:uid="{9F0DE403-B0EC-4933-928F-2806FBCF603A}"/>
-    <hyperlink ref="D26" r:id="rId6" display="Link" xr:uid="{45531F32-6B6C-44D5-9B2A-FB1F259BC9F9}"/>
-    <hyperlink ref="D21" r:id="rId7" xr:uid="{43C03DCA-7867-4C9F-B1D0-8588267A1C82}"/>
-    <hyperlink ref="D30" r:id="rId8" xr:uid="{A901DFE1-486C-4AC2-8672-C18618945E04}"/>
-    <hyperlink ref="D28" r:id="rId9" xr:uid="{BA467D2F-0948-4A82-B49C-B8DCBA7936A0}"/>
-    <hyperlink ref="D24" r:id="rId10" xr:uid="{49178A12-AF45-4969-AC8E-49BA3EBADDA9}"/>
-    <hyperlink ref="D23" r:id="rId11" xr:uid="{537A3F3C-7C92-42A9-B8B2-F37129F7787F}"/>
-    <hyperlink ref="D13" r:id="rId12" xr:uid="{82909F8B-3A14-4248-8CB2-384756C6E8BE}"/>
-    <hyperlink ref="D25" r:id="rId13" display="6Pcs Endstops" xr:uid="{4AEFCE09-28B7-4C24-82DE-ADAB9CAA43E1}"/>
-    <hyperlink ref="D34" r:id="rId14" xr:uid="{0ED2334F-09CF-437E-82F8-E81D86F288DC}"/>
-    <hyperlink ref="D10" r:id="rId15" xr:uid="{A333F16C-7F8A-421A-B64A-B04B701B747A}"/>
-    <hyperlink ref="D16" r:id="rId16" display="MKS DUET WIFI Clone" xr:uid="{F52EB8DF-670A-4145-90A1-8A8DF8B4B7B2}"/>
-    <hyperlink ref="D22" r:id="rId17" xr:uid="{53A16D3E-EBE4-45B6-9E87-70111D7D2FFE}"/>
-    <hyperlink ref="F22" r:id="rId18" xr:uid="{2E01C49B-F943-468C-B222-27E06F7C15FC}"/>
-    <hyperlink ref="D14" r:id="rId19" display="Cable Loom - Bowden Path" xr:uid="{5DD23B84-72DC-46EC-A740-B82AFAD09C94}"/>
-    <hyperlink ref="D15" r:id="rId20" xr:uid="{0C6F2C79-ACBB-4C55-AC21-4895BA685D6B}"/>
-    <hyperlink ref="D17" r:id="rId21" xr:uid="{9689F2B7-24E0-4CC5-A39F-53D7E0370FC8}"/>
+    <hyperlink ref="D30" r:id="rId1" display="220V/110V" xr:uid="{3773511A-F3AF-4897-B5BB-16FB39A0B508}"/>
+    <hyperlink ref="D20" r:id="rId2" xr:uid="{AFC120EB-E75F-4BB8-BC6D-4AA9408DD14D}"/>
+    <hyperlink ref="D28" r:id="rId3" display="Link" xr:uid="{401DDADA-DB79-4416-96CF-3B1D6329769B}"/>
+    <hyperlink ref="D22" r:id="rId4" display="24V Dual Ball" xr:uid="{98BCAD8D-1DD9-49E5-B60D-FB8A39108E71}"/>
+    <hyperlink ref="D14" r:id="rId5" xr:uid="{9F0DE403-B0EC-4933-928F-2806FBCF603A}"/>
+    <hyperlink ref="D27" r:id="rId6" display="Link" xr:uid="{45531F32-6B6C-44D5-9B2A-FB1F259BC9F9}"/>
+    <hyperlink ref="D12" r:id="rId7" xr:uid="{43C03DCA-7867-4C9F-B1D0-8588267A1C82}"/>
+    <hyperlink ref="D31" r:id="rId8" xr:uid="{A901DFE1-486C-4AC2-8672-C18618945E04}"/>
+    <hyperlink ref="D29" r:id="rId9" xr:uid="{BA467D2F-0948-4A82-B49C-B8DCBA7936A0}"/>
+    <hyperlink ref="D25" r:id="rId10" xr:uid="{49178A12-AF45-4969-AC8E-49BA3EBADDA9}"/>
+    <hyperlink ref="D24" r:id="rId11" xr:uid="{537A3F3C-7C92-42A9-B8B2-F37129F7787F}"/>
+    <hyperlink ref="D15" r:id="rId12" xr:uid="{82909F8B-3A14-4248-8CB2-384756C6E8BE}"/>
+    <hyperlink ref="D26" r:id="rId13" display="6Pcs Endstops" xr:uid="{4AEFCE09-28B7-4C24-82DE-ADAB9CAA43E1}"/>
+    <hyperlink ref="D35" r:id="rId14" xr:uid="{0ED2334F-09CF-437E-82F8-E81D86F288DC}"/>
+    <hyperlink ref="D11" r:id="rId15" xr:uid="{A333F16C-7F8A-421A-B64A-B04B701B747A}"/>
+    <hyperlink ref="D18" r:id="rId16" display="MKS DUET WIFI Clone" xr:uid="{F52EB8DF-670A-4145-90A1-8A8DF8B4B7B2}"/>
+    <hyperlink ref="D23" r:id="rId17" xr:uid="{53A16D3E-EBE4-45B6-9E87-70111D7D2FFE}"/>
+    <hyperlink ref="F23" r:id="rId18" xr:uid="{2E01C49B-F943-468C-B222-27E06F7C15FC}"/>
+    <hyperlink ref="D16" r:id="rId19" display="Cable Loom - Bowden Path" xr:uid="{5DD23B84-72DC-46EC-A740-B82AFAD09C94}"/>
+    <hyperlink ref="D17" r:id="rId20" xr:uid="{0C6F2C79-ACBB-4C55-AC21-4895BA685D6B}"/>
+    <hyperlink ref="D19" r:id="rId21" xr:uid="{9689F2B7-24E0-4CC5-A39F-53D7E0370FC8}"/>
     <hyperlink ref="A4" r:id="rId22" xr:uid="{42E8AC4D-928E-4528-A3B8-EB12C0061FC4}"/>
     <hyperlink ref="D6" r:id="rId23" display="Bore Diameter: Bore 5mm No Teeth" xr:uid="{DC8F7F14-CA2A-4482-8C1E-5173C4B8D9AD}"/>
-    <hyperlink ref="D11" r:id="rId24" display="Color: 2GT 10MM" xr:uid="{3BB9CD36-EAAE-4CDD-91A2-546DD9AEE97B}"/>
+    <hyperlink ref="D13" r:id="rId24" display="Color: 2GT 10MM" xr:uid="{3BB9CD36-EAAE-4CDD-91A2-546DD9AEE97B}"/>
     <hyperlink ref="D32" r:id="rId25" xr:uid="{7F3B442E-F7CB-4007-B0E0-F7D6FA00B53B}"/>
     <hyperlink ref="D33" r:id="rId26" xr:uid="{EFF7A929-E8E4-4F05-A22B-23B664574CE1}"/>
-    <hyperlink ref="D19" r:id="rId27" xr:uid="{968A8156-5055-4A5F-97A2-06DF8EA0EB3D}"/>
+    <hyperlink ref="D21" r:id="rId27" xr:uid="{968A8156-5055-4A5F-97A2-06DF8EA0EB3D}"/>
     <hyperlink ref="D7" r:id="rId28" display="Bore Diameter: Bore 5mm With Teeth" xr:uid="{9AED87BC-5BEC-4990-87E4-DE18B0259F70}"/>
     <hyperlink ref="D8" r:id="rId29" display="Bore Diameter: Bore 5mm No Teeth" xr:uid="{AEF1FF18-EC10-49DF-B80B-75E1D8A2D85F}"/>
     <hyperlink ref="D9" r:id="rId30" display="Bore Diameter: Bore 5mm With Teeth" xr:uid="{5D50B8E6-99FC-422D-900D-829D1530AC87}"/>
-    <hyperlink ref="D31" r:id="rId31" xr:uid="{E2B3A9CD-7038-461B-A7D6-7375A7FBF5F4}"/>
+    <hyperlink ref="D10" r:id="rId31" xr:uid="{E2B3A9CD-7038-461B-A7D6-7375A7FBF5F4}"/>
+    <hyperlink ref="D34" r:id="rId32" xr:uid="{402BD230-D603-422A-931E-B65C09CB34DA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId32"/>
-  <drawing r:id="rId33"/>
+  <pageSetup paperSize="9" scale="88" orientation="landscape" r:id="rId33"/>
+  <drawing r:id="rId34"/>
   <tableParts count="1">
-    <tablePart r:id="rId34"/>
+    <tablePart r:id="rId35"/>
   </tableParts>
 </worksheet>
 </file>
@@ -4050,14 +4079,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="152" t="s">
         <v>193</v>
       </c>
-      <c r="B1" s="153" t="s">
+      <c r="B1" s="152" t="s">
         <v>188</v>
       </c>
       <c r="C1" s="122"/>
-      <c r="D1" s="153" t="s">
+      <c r="D1" s="152" t="s">
         <v>189</v>
       </c>
     </row>
@@ -4065,7 +4094,7 @@
       <c r="A2" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="B2" s="150" t="s">
+      <c r="B2" s="149" t="s">
         <v>191</v>
       </c>
       <c r="D2" s="142" t="s">
@@ -4076,10 +4105,10 @@
       <c r="A3" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="B3" s="150" t="s">
+      <c r="B3" s="149" t="s">
         <v>195</v>
       </c>
-      <c r="D3" s="151" t="s">
+      <c r="D3" s="150" t="s">
         <v>191</v>
       </c>
     </row>
@@ -4090,7 +4119,7 @@
       <c r="B4" s="142" t="s">
         <v>192</v>
       </c>
-      <c r="D4" s="151" t="s">
+      <c r="D4" s="150" t="s">
         <v>195</v>
       </c>
     </row>
@@ -4101,7 +4130,7 @@
       <c r="B5" s="142" t="s">
         <v>198</v>
       </c>
-      <c r="D5" s="151" t="s">
+      <c r="D5" s="150" t="s">
         <v>199</v>
       </c>
     </row>
@@ -4112,7 +4141,7 @@
       <c r="B6" s="142" t="s">
         <v>192</v>
       </c>
-      <c r="D6" s="151" t="s">
+      <c r="D6" s="150" t="s">
         <v>195</v>
       </c>
     </row>
@@ -4120,21 +4149,21 @@
       <c r="A7" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="B7" s="151" t="s">
+      <c r="B7" s="150" t="s">
         <v>191</v>
       </c>
-      <c r="D7" s="150" t="s">
+      <c r="D7" s="149" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="149" t="s">
+      <c r="A8" s="148" t="s">
         <v>202</v>
       </c>
       <c r="B8" s="143" t="s">
         <v>192</v>
       </c>
-      <c r="D8" s="152" t="s">
+      <c r="D8" s="151" t="s">
         <v>191</v>
       </c>
     </row>

--- a/Document Library/Bill Of Materials/V-Baby BOM.xlsx
+++ b/Document Library/Bill Of Materials/V-Baby BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/V-Baby CoreXY/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2465" documentId="11_2E462098BBA7632759C38D02185E4833A2B67484" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{114B7AA6-BC44-4140-96A5-E6F293C7B3B4}"/>
+  <xr:revisionPtr revIDLastSave="2466" documentId="11_2E462098BBA7632759C38D02185E4833A2B67484" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{5C38E042-79FA-4EE7-AAF6-646B9C4761B3}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -763,7 +763,7 @@
     <t>Bolt for the Gear Pulleys</t>
   </si>
   <si>
-    <t>M5 Length: 55mm</t>
+    <t>M5 Length: 60mm</t>
   </si>
 </sst>
 </file>
@@ -1565,13 +1565,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="40% - Accent6" xfId="4" builtinId="51"/>
@@ -2553,7 +2553,7 @@
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
       <c r="E8" s="20"/>
-      <c r="F8" s="155" t="s">
+      <c r="F8" s="156" t="s">
         <v>116</v>
       </c>
       <c r="G8" s="40"/>
@@ -2578,7 +2578,7 @@
         <f>D9*310</f>
         <v>1240</v>
       </c>
-      <c r="F9" s="156"/>
+      <c r="F9" s="157"/>
       <c r="G9" s="40"/>
       <c r="H9" s="49"/>
       <c r="I9" s="15"/>
@@ -2601,7 +2601,7 @@
         <f>D10*350</f>
         <v>1400</v>
       </c>
-      <c r="F10" s="156"/>
+      <c r="F10" s="157"/>
       <c r="G10" s="40"/>
       <c r="H10" s="50"/>
       <c r="I10" s="42"/>
@@ -2624,7 +2624,7 @@
         <f>D11*340</f>
         <v>1700</v>
       </c>
-      <c r="F11" s="156"/>
+      <c r="F11" s="157"/>
       <c r="G11" s="40"/>
       <c r="H11" s="49"/>
       <c r="I11" s="15"/>
@@ -2647,7 +2647,7 @@
         <f>D12*295</f>
         <v>295</v>
       </c>
-      <c r="F12" s="156"/>
+      <c r="F12" s="157"/>
       <c r="G12" s="40"/>
       <c r="H12" s="50"/>
       <c r="I12" s="42"/>
@@ -2659,7 +2659,7 @@
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="10"/>
-      <c r="F13" s="156"/>
+      <c r="F13" s="157"/>
       <c r="G13" s="40"/>
       <c r="H13" s="26"/>
       <c r="I13" s="6"/>
@@ -2682,7 +2682,7 @@
         <f>D14*290</f>
         <v>290</v>
       </c>
-      <c r="F14" s="156"/>
+      <c r="F14" s="157"/>
       <c r="G14" s="40"/>
       <c r="H14" s="50"/>
       <c r="I14" s="42"/>
@@ -2705,7 +2705,7 @@
         <f>D15*350</f>
         <v>700</v>
       </c>
-      <c r="F15" s="156"/>
+      <c r="F15" s="157"/>
       <c r="G15" s="40"/>
       <c r="H15" s="49" t="s">
         <v>186</v>
@@ -2728,7 +2728,7 @@
         <f>SUM(E9:E15)</f>
         <v>5625</v>
       </c>
-      <c r="F16" s="156"/>
+      <c r="F16" s="157"/>
       <c r="G16" s="40"/>
       <c r="H16" s="51" t="s">
         <v>185</v>
@@ -2746,7 +2746,7 @@
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="10"/>
-      <c r="F17" s="156"/>
+      <c r="F17" s="157"/>
       <c r="G17" s="40"/>
       <c r="H17" s="26" t="s">
         <v>27</v>
@@ -2770,7 +2770,7 @@
         <v>18</v>
       </c>
       <c r="E18" s="21"/>
-      <c r="F18" s="156"/>
+      <c r="F18" s="157"/>
       <c r="G18" s="40"/>
       <c r="H18" s="51" t="s">
         <v>30</v>
@@ -2788,7 +2788,7 @@
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="10"/>
-      <c r="F19" s="156"/>
+      <c r="F19" s="157"/>
       <c r="G19" s="40"/>
       <c r="H19" s="26"/>
       <c r="I19" s="61"/>
@@ -2808,7 +2808,7 @@
         <v>30</v>
       </c>
       <c r="E20" s="21"/>
-      <c r="F20" s="156"/>
+      <c r="F20" s="157"/>
       <c r="G20" s="40"/>
       <c r="H20" s="51" t="s">
         <v>34</v>
@@ -3912,7 +3912,7 @@
       <c r="E31" s="103">
         <v>3.5</v>
       </c>
-      <c r="F31" s="157"/>
+      <c r="F31" s="155"/>
       <c r="G31" s="103"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -4051,7 +4051,7 @@
     <hyperlink ref="D8" r:id="rId29" display="Bore Diameter: Bore 5mm No Teeth" xr:uid="{AEF1FF18-EC10-49DF-B80B-75E1D8A2D85F}"/>
     <hyperlink ref="D9" r:id="rId30" display="Bore Diameter: Bore 5mm With Teeth" xr:uid="{5D50B8E6-99FC-422D-900D-829D1530AC87}"/>
     <hyperlink ref="D10" r:id="rId31" xr:uid="{E2B3A9CD-7038-461B-A7D6-7375A7FBF5F4}"/>
-    <hyperlink ref="D34" r:id="rId32" xr:uid="{402BD230-D603-422A-931E-B65C09CB34DA}"/>
+    <hyperlink ref="D34" r:id="rId32" display="M5 Length: 55mm" xr:uid="{402BD230-D603-422A-931E-B65C09CB34DA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="88" orientation="landscape" r:id="rId33"/>

--- a/Document Library/Bill Of Materials/V-Baby BOM.xlsx
+++ b/Document Library/Bill Of Materials/V-Baby BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/V-Baby CoreXY/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2466" documentId="11_2E462098BBA7632759C38D02185E4833A2B67484" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{5C38E042-79FA-4EE7-AAF6-646B9C4761B3}"/>
+  <xr:revisionPtr revIDLastSave="2479" documentId="11_2E462098BBA7632759C38D02185E4833A2B67484" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{EBA4D932-7365-4DBC-B728-D7797CB18D9D}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OpenBuild Part List" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="242">
   <si>
     <t>Exstrusions</t>
   </si>
@@ -673,21 +673,6 @@
     <t>10mm Belt Idler Thoothed</t>
   </si>
   <si>
-    <t>10mm Belt Idler Smooth</t>
-  </si>
-  <si>
-    <t>Bore 5mm No Teeth:For belt width 6mm</t>
-  </si>
-  <si>
-    <t>Bore 5mm With Teeth:For belt width 6mm</t>
-  </si>
-  <si>
-    <t>Bore 5mm No Teeth:For belt width 10mm</t>
-  </si>
-  <si>
-    <t>Bore 5mm With Teeth:For belt width 10mm</t>
-  </si>
-  <si>
     <t>4M Color: 2GT 6MM</t>
   </si>
   <si>
@@ -764,6 +749,18 @@
   </si>
   <si>
     <t>M5 Length: 60mm</t>
+  </si>
+  <si>
+    <t>Size: W 11mm without t</t>
+  </si>
+  <si>
+    <t>Size: W 11mm with t</t>
+  </si>
+  <si>
+    <t>Size: W 7mm with t</t>
+  </si>
+  <si>
+    <t>pulley</t>
   </si>
 </sst>
 </file>
@@ -1574,12 +1571,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="40% - Accent6" xfId="4" builtinId="51"/>
-    <cellStyle name="Accent1" xfId="2" builtinId="29"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
-    <cellStyle name="Neutral" xfId="5" builtinId="28"/>
+    <cellStyle name="40 % – uthevingsfarge 6" xfId="4" builtinId="51"/>
+    <cellStyle name="God" xfId="1" builtinId="26"/>
+    <cellStyle name="Hyperkobling" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Nøytral" xfId="5" builtinId="28"/>
+    <cellStyle name="Uthevingsfarge1" xfId="2" builtinId="29"/>
   </cellStyles>
   <dxfs count="15">
     <dxf>
@@ -2162,25 +2159,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1070DF90-74AC-4245-AA46-2FAD63F74767}" name="Table1" displayName="Table1" ref="A6:G35" headerRowCount="0" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" headerRowCellStyle="Accent1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1070DF90-74AC-4245-AA46-2FAD63F74767}" name="Table1" displayName="Table1" ref="A6:G35" headerRowCount="0" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:G35">
     <sortCondition ref="A6:A35"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{AB8C8187-911D-4248-8608-1F70796FF7C8}" name="Column1" headerRowDxfId="11"/>
     <tableColumn id="2" xr3:uid="{129F7AE4-0D03-4AA3-A2BF-5181AA27AF31}" name="Column2" headerRowDxfId="10" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{34C25536-CCA4-454C-9FCE-0168DD2CC6CC}" name="Column3" headerRowDxfId="8" dataDxfId="7" headerRowCellStyle="40% - Accent6"/>
-    <tableColumn id="4" xr3:uid="{2ABF818D-0A23-4468-A061-EB5B1AC04237}" name="Column4" headerRowDxfId="6" dataDxfId="5" headerRowCellStyle="Good" dataCellStyle="Hyperlink"/>
-    <tableColumn id="5" xr3:uid="{3DD38B84-FE10-46EA-8CEE-8542F56DCDD7}" name="Column5" headerRowDxfId="4" dataDxfId="3" headerRowCellStyle="Good"/>
-    <tableColumn id="6" xr3:uid="{E4DF9CF3-4A3D-433E-9BD0-F94DDCA192BB}" name="Column6" headerRowDxfId="2" headerRowCellStyle="Accent1" dataCellStyle="Hyperlink"/>
-    <tableColumn id="7" xr3:uid="{4866A326-BBBA-4B58-BFBD-4D095130E124}" name="Column7" headerRowDxfId="1" dataDxfId="0" headerRowCellStyle="Accent1"/>
+    <tableColumn id="3" xr3:uid="{34C25536-CCA4-454C-9FCE-0168DD2CC6CC}" name="Column3" headerRowDxfId="8" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{2ABF818D-0A23-4468-A061-EB5B1AC04237}" name="Column4" headerRowDxfId="6" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{3DD38B84-FE10-46EA-8CEE-8542F56DCDD7}" name="Column5" headerRowDxfId="4" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{E4DF9CF3-4A3D-433E-9BD0-F94DDCA192BB}" name="Column6" headerRowDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{4866A326-BBBA-4B58-BFBD-4D095130E124}" name="Column7" headerRowDxfId="1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2506,20 +2503,20 @@
       <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" customWidth="1"/>
-    <col min="7" max="7" width="4.28515625" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.54296875" customWidth="1"/>
+    <col min="2" max="2" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.26953125" customWidth="1"/>
+    <col min="7" max="7" width="4.26953125" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
         <v>0</v>
       </c>
@@ -2547,7 +2544,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="46"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -2561,7 +2558,7 @@
       <c r="I8" s="42"/>
       <c r="J8" s="58"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="47" t="s">
         <v>7</v>
       </c>
@@ -2584,7 +2581,7 @@
       <c r="I9" s="15"/>
       <c r="J9" s="59"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="48" t="s">
         <v>10</v>
       </c>
@@ -2607,7 +2604,7 @@
       <c r="I10" s="42"/>
       <c r="J10" s="58"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="47" t="s">
         <v>13</v>
       </c>
@@ -2630,7 +2627,7 @@
       <c r="I11" s="15"/>
       <c r="J11" s="59"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="48" t="s">
         <v>16</v>
       </c>
@@ -2653,7 +2650,7 @@
       <c r="I12" s="42"/>
       <c r="J12" s="58"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="47"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -2665,7 +2662,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="59"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="48" t="s">
         <v>18</v>
       </c>
@@ -2688,7 +2685,7 @@
       <c r="I14" s="42"/>
       <c r="J14" s="58"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="47" t="s">
         <v>21</v>
       </c>
@@ -2713,7 +2710,7 @@
       <c r="I15" s="15"/>
       <c r="J15" s="59"/>
     </row>
-    <row r="16" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="48" t="s">
         <v>24</v>
       </c>
@@ -2740,7 +2737,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="47"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -2756,7 +2753,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="48" t="s">
         <v>28</v>
       </c>
@@ -2782,7 +2779,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="47"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -2794,7 +2791,7 @@
       <c r="I19" s="61"/>
       <c r="J19" s="59"/>
     </row>
-    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="48" t="s">
         <v>31</v>
       </c>
@@ -2820,7 +2817,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="9" t="s">
         <v>35</v>
       </c>
@@ -2839,11 +2836,11 @@
         <v>158</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="32" t="s">
         <v>36</v>
       </c>
@@ -2865,7 +2862,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="26" t="s">
         <v>37</v>
       </c>
@@ -2887,7 +2884,7 @@
         <v>509.5</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="27" t="s">
         <v>38</v>
       </c>
@@ -2907,7 +2904,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="33" t="s">
         <v>40</v>
       </c>
@@ -2928,7 +2925,7 @@
         <v>80.600000000000009</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="37" t="s">
         <v>119</v>
       </c>
@@ -2973,14 +2970,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="72" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="6.26953125" style="72" customWidth="1"/>
+    <col min="5" max="5" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="22.5" x14ac:dyDescent="0.45">
       <c r="A6" s="74" t="s">
         <v>125</v>
       </c>
@@ -2991,7 +2988,7 @@
       <c r="F6" s="75"/>
       <c r="G6" s="77"/>
     </row>
-    <row r="7" spans="1:7" s="73" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="73" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="128" t="s">
         <v>126</v>
       </c>
@@ -3008,7 +3005,7 @@
       </c>
       <c r="G7" s="129"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="78" t="s">
         <v>140</v>
       </c>
@@ -3029,7 +3026,7 @@
       </c>
       <c r="G8" s="10"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="78" t="s">
         <v>141</v>
       </c>
@@ -3054,7 +3051,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="78" t="s">
         <v>142</v>
       </c>
@@ -3075,7 +3072,7 @@
       </c>
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="78" t="s">
         <v>18</v>
       </c>
@@ -3096,7 +3093,7 @@
       </c>
       <c r="G11" s="10"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="78" t="s">
         <v>21</v>
       </c>
@@ -3117,7 +3114,7 @@
       </c>
       <c r="G12" s="10"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="84" t="s">
         <v>16</v>
       </c>
@@ -3138,7 +3135,7 @@
       </c>
       <c r="G13" s="85"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="78"/>
       <c r="B14" s="6"/>
       <c r="C14" s="79"/>
@@ -3147,7 +3144,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="10"/>
     </row>
-    <row r="15" spans="1:7" s="73" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="73" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="80" t="s">
         <v>133</v>
       </c>
@@ -3158,7 +3155,7 @@
       <c r="F15" s="81"/>
       <c r="G15" s="83"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="78" t="s">
         <v>132</v>
       </c>
@@ -3169,7 +3166,7 @@
       <c r="F16" s="6"/>
       <c r="G16" s="10"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="140" t="s">
         <v>134</v>
       </c>
@@ -3186,7 +3183,7 @@
       </c>
       <c r="G17" s="77"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="78" t="s">
         <v>140</v>
       </c>
@@ -3206,7 +3203,7 @@
       </c>
       <c r="G18" s="10"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="78" t="s">
         <v>141</v>
       </c>
@@ -3228,7 +3225,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="78" t="s">
         <v>142</v>
       </c>
@@ -3248,7 +3245,7 @@
       </c>
       <c r="G20" s="10"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="78" t="s">
         <v>18</v>
       </c>
@@ -3264,7 +3261,7 @@
       </c>
       <c r="G21" s="10"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="78" t="s">
         <v>21</v>
       </c>
@@ -3280,7 +3277,7 @@
       </c>
       <c r="G22" s="10"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="84" t="s">
         <v>16</v>
       </c>
@@ -3296,7 +3293,7 @@
       </c>
       <c r="G23" s="85"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="79"/>
@@ -3305,17 +3302,17 @@
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>139</v>
       </c>
@@ -3338,20 +3335,22 @@
   </sheetPr>
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" customWidth="1"/>
-    <col min="4" max="4" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.453125" customWidth="1"/>
+    <col min="4" max="4" width="37.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7265625" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="110"/>
       <c r="B1" s="75"/>
       <c r="C1" s="75"/>
@@ -3360,7 +3359,7 @@
       <c r="F1" s="112"/>
       <c r="G1" s="113"/>
     </row>
-    <row r="2" spans="1:7" ht="27.75" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.7">
       <c r="A2" s="114"/>
       <c r="B2" s="90"/>
       <c r="C2" s="97"/>
@@ -3371,7 +3370,7 @@
       <c r="F2" s="89"/>
       <c r="G2" s="115"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="78"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -3380,7 +3379,7 @@
       <c r="F3" s="86"/>
       <c r="G3" s="116"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="120" t="s">
         <v>172</v>
       </c>
@@ -3394,7 +3393,7 @@
       </c>
       <c r="G4" s="117"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="118" t="s">
         <v>1</v>
       </c>
@@ -3417,9 +3416,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="B6" s="29" t="s">
         <v>176</v>
@@ -3428,7 +3427,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="105" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="E6" s="102">
         <v>16</v>
@@ -3436,7 +3435,7 @@
       <c r="F6" s="92"/>
       <c r="G6" s="153"/>
     </row>
-    <row r="7" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>211</v>
       </c>
@@ -3447,7 +3446,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="105" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="E7" s="102">
         <v>10</v>
@@ -3455,7 +3454,7 @@
       <c r="F7" s="96"/>
       <c r="G7" s="103"/>
     </row>
-    <row r="8" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>209</v>
       </c>
@@ -3466,7 +3465,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="105" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="E8" s="102">
         <v>10</v>
@@ -3474,7 +3473,7 @@
       <c r="F8" s="92"/>
       <c r="G8" s="102"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>210</v>
       </c>
@@ -3485,7 +3484,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="105" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="E9" s="102">
         <v>28</v>
@@ -3493,18 +3492,18 @@
       <c r="F9" s="96"/>
       <c r="G9" s="103"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C10" s="91" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D10" s="154" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="E10" s="103">
         <v>3</v>
@@ -3512,7 +3511,7 @@
       <c r="F10" s="15"/>
       <c r="G10" s="103"/>
     </row>
-    <row r="11" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>150</v>
       </c>
@@ -3531,9 +3530,9 @@
       <c r="F11" s="96"/>
       <c r="G11" s="103"/>
     </row>
-    <row r="12" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B12" s="29" t="s">
         <v>68</v>
@@ -3550,7 +3549,7 @@
       <c r="F12" s="15"/>
       <c r="G12" s="103"/>
     </row>
-    <row r="13" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>180</v>
       </c>
@@ -3561,7 +3560,7 @@
         <v>182</v>
       </c>
       <c r="D13" s="105" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E13" s="103">
         <v>13</v>
@@ -3569,7 +3568,7 @@
       <c r="F13" s="15"/>
       <c r="G13" s="103"/>
     </row>
-    <row r="14" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>179</v>
       </c>
@@ -3580,7 +3579,7 @@
         <v>181</v>
       </c>
       <c r="D14" s="105" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E14" s="103">
         <v>19</v>
@@ -3588,7 +3587,7 @@
       <c r="F14" s="15"/>
       <c r="G14" s="103"/>
     </row>
-    <row r="15" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>60</v>
       </c>
@@ -3599,7 +3598,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="105" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E15" s="103">
         <v>2.5</v>
@@ -3607,7 +3606,7 @@
       <c r="F15" s="15"/>
       <c r="G15" s="103"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
         <v>161</v>
       </c>
@@ -3626,7 +3625,7 @@
       <c r="F16" s="15"/>
       <c r="G16" s="103"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>165</v>
       </c>
@@ -3645,7 +3644,7 @@
       <c r="F17" s="15"/>
       <c r="G17" s="103"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>42</v>
       </c>
@@ -3664,7 +3663,7 @@
       <c r="F18" s="96"/>
       <c r="G18" s="103"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>59</v>
       </c>
@@ -3683,9 +3682,9 @@
       <c r="F19" s="15"/>
       <c r="G19" s="103"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B20" s="29" t="s">
         <v>45</v>
@@ -3694,7 +3693,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="105" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E20" s="103">
         <v>10</v>
@@ -3702,9 +3701,9 @@
       <c r="F20" s="96"/>
       <c r="G20" s="103"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B21" s="29" t="s">
         <v>44</v>
@@ -3721,9 +3720,9 @@
       <c r="F21" s="15"/>
       <c r="G21" s="103"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B22" s="29" t="s">
         <v>43</v>
@@ -3740,7 +3739,7 @@
       <c r="F22" s="15"/>
       <c r="G22" s="103"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>152</v>
       </c>
@@ -3763,7 +3762,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>167</v>
       </c>
@@ -3774,7 +3773,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="105" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E24" s="103">
         <v>73</v>
@@ -3782,18 +3781,18 @@
       <c r="F24" s="15"/>
       <c r="G24" s="103"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C25" s="91" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D25" s="105" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E25" s="103">
         <v>30</v>
@@ -3801,7 +3800,7 @@
       <c r="F25" s="15"/>
       <c r="G25" s="103"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>46</v>
       </c>
@@ -3809,7 +3808,7 @@
         <v>47</v>
       </c>
       <c r="C26" s="91" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D26" s="105" t="s">
         <v>169</v>
@@ -3820,7 +3819,7 @@
       <c r="F26" s="96"/>
       <c r="G26" s="103"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
         <v>65</v>
       </c>
@@ -3839,7 +3838,7 @@
       <c r="F27" s="15"/>
       <c r="G27" s="103"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
         <v>62</v>
       </c>
@@ -3858,7 +3857,7 @@
       <c r="F28" s="15"/>
       <c r="G28" s="103"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
         <v>56</v>
       </c>
@@ -3877,7 +3876,7 @@
       <c r="F29" s="100"/>
       <c r="G29" s="103"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
         <v>51</v>
       </c>
@@ -3888,7 +3887,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="105" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E30" s="103">
         <v>40</v>
@@ -3896,7 +3895,7 @@
       <c r="F30" s="100"/>
       <c r="G30" s="103"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>53</v>
       </c>
@@ -3915,7 +3914,7 @@
       <c r="F31" s="155"/>
       <c r="G31" s="103"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>187</v>
       </c>
@@ -3926,7 +3925,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="E32" s="103">
         <v>8.5</v>
@@ -3934,18 +3933,18 @@
       <c r="F32" s="15"/>
       <c r="G32" s="103"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C33" s="91" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D33" s="147" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E33" s="103">
         <v>19</v>
@@ -3953,18 +3952,18 @@
       <c r="F33" s="15"/>
       <c r="G33" s="103"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C34" s="91">
         <v>1</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="E34" s="103">
         <v>6</v>
@@ -3972,7 +3971,7 @@
       <c r="F34" s="15"/>
       <c r="G34" s="103"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
         <v>48</v>
       </c>
@@ -3991,7 +3990,7 @@
       <c r="F35" s="101"/>
       <c r="G35" s="104"/>
     </row>
-    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="93" t="s">
         <v>69</v>
       </c>
@@ -4005,7 +4004,7 @@
       <c r="F36" s="64"/>
       <c r="G36" s="64"/>
     </row>
-    <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="124" t="s">
         <v>174</v>
       </c>
@@ -4042,14 +4041,14 @@
     <hyperlink ref="D17" r:id="rId20" xr:uid="{0C6F2C79-ACBB-4C55-AC21-4895BA685D6B}"/>
     <hyperlink ref="D19" r:id="rId21" xr:uid="{9689F2B7-24E0-4CC5-A39F-53D7E0370FC8}"/>
     <hyperlink ref="A4" r:id="rId22" xr:uid="{42E8AC4D-928E-4528-A3B8-EB12C0061FC4}"/>
-    <hyperlink ref="D6" r:id="rId23" display="Bore Diameter: Bore 5mm No Teeth" xr:uid="{DC8F7F14-CA2A-4482-8C1E-5173C4B8D9AD}"/>
+    <hyperlink ref="D6" r:id="rId23" display="Bore 5mm No Teeth:For belt width 10mm" xr:uid="{DC8F7F14-CA2A-4482-8C1E-5173C4B8D9AD}"/>
     <hyperlink ref="D13" r:id="rId24" display="Color: 2GT 10MM" xr:uid="{3BB9CD36-EAAE-4CDD-91A2-546DD9AEE97B}"/>
     <hyperlink ref="D32" r:id="rId25" xr:uid="{7F3B442E-F7CB-4007-B0E0-F7D6FA00B53B}"/>
     <hyperlink ref="D33" r:id="rId26" xr:uid="{EFF7A929-E8E4-4F05-A22B-23B664574CE1}"/>
     <hyperlink ref="D21" r:id="rId27" xr:uid="{968A8156-5055-4A5F-97A2-06DF8EA0EB3D}"/>
-    <hyperlink ref="D7" r:id="rId28" display="Bore Diameter: Bore 5mm With Teeth" xr:uid="{9AED87BC-5BEC-4990-87E4-DE18B0259F70}"/>
-    <hyperlink ref="D8" r:id="rId29" display="Bore Diameter: Bore 5mm No Teeth" xr:uid="{AEF1FF18-EC10-49DF-B80B-75E1D8A2D85F}"/>
-    <hyperlink ref="D9" r:id="rId30" display="Bore Diameter: Bore 5mm With Teeth" xr:uid="{5D50B8E6-99FC-422D-900D-829D1530AC87}"/>
+    <hyperlink ref="D7" r:id="rId28" display="Bore 5mm With Teeth:For belt width 10mm" xr:uid="{9AED87BC-5BEC-4990-87E4-DE18B0259F70}"/>
+    <hyperlink ref="D8" r:id="rId29" display="Bore 5mm No Teeth:For belt width 6mm" xr:uid="{AEF1FF18-EC10-49DF-B80B-75E1D8A2D85F}"/>
+    <hyperlink ref="D9" r:id="rId30" display="Bore 5mm With Teeth:For belt width 6mm" xr:uid="{5D50B8E6-99FC-422D-900D-829D1530AC87}"/>
     <hyperlink ref="D10" r:id="rId31" xr:uid="{E2B3A9CD-7038-461B-A7D6-7375A7FBF5F4}"/>
     <hyperlink ref="D34" r:id="rId32" display="M5 Length: 55mm" xr:uid="{402BD230-D603-422A-931E-B65C09CB34DA}"/>
   </hyperlinks>
@@ -4070,15 +4069,15 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="152" t="s">
         <v>193</v>
       </c>
@@ -4090,7 +4089,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="29" t="s">
         <v>190</v>
       </c>
@@ -4101,7 +4100,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="29" t="s">
         <v>194</v>
       </c>
@@ -4112,7 +4111,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="29" t="s">
         <v>196</v>
       </c>
@@ -4123,7 +4122,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="29" t="s">
         <v>197</v>
       </c>
@@ -4134,7 +4133,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="29" t="s">
         <v>200</v>
       </c>
@@ -4145,7 +4144,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="29" t="s">
         <v>201</v>
       </c>
@@ -4156,7 +4155,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="148" t="s">
         <v>202</v>
       </c>
@@ -4178,20 +4177,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.26953125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
@@ -4214,7 +4213,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
         <v>71</v>
       </c>
@@ -4228,7 +4227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="26" t="s">
         <v>73</v>
       </c>
@@ -4242,7 +4241,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="26" t="s">
         <v>74</v>
       </c>
@@ -4256,7 +4255,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="26" t="s">
         <v>76</v>
       </c>
@@ -4270,7 +4269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="26" t="s">
         <v>77</v>
       </c>
@@ -4284,7 +4283,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="26" t="s">
         <v>79</v>
       </c>
@@ -4298,7 +4297,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="26" t="s">
         <v>80</v>
       </c>
@@ -4312,7 +4311,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="26" t="s">
         <v>82</v>
       </c>
@@ -4326,7 +4325,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="26" t="s">
         <v>83</v>
       </c>
@@ -4340,7 +4339,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="26" t="s">
         <v>84</v>
       </c>
@@ -4354,7 +4353,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="26" t="s">
         <v>85</v>
       </c>
@@ -4368,7 +4367,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="26" t="s">
         <v>123</v>
       </c>
@@ -4382,7 +4381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="26" t="s">
         <v>86</v>
       </c>
@@ -4396,7 +4395,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="26" t="s">
         <v>88</v>
       </c>
@@ -4410,7 +4409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="26" t="s">
         <v>89</v>
       </c>
@@ -4424,7 +4423,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="26" t="s">
         <v>90</v>
       </c>
@@ -4438,7 +4437,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="26" t="s">
         <v>91</v>
       </c>
@@ -4452,7 +4451,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="26" t="s">
         <v>92</v>
       </c>
@@ -4466,7 +4465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="26" t="s">
         <v>93</v>
       </c>
@@ -4480,7 +4479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="26" t="s">
         <v>94</v>
       </c>
@@ -4494,7 +4493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="26" t="s">
         <v>95</v>
       </c>
@@ -4508,7 +4507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="26" t="s">
         <v>96</v>
       </c>
@@ -4522,7 +4521,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="26" t="s">
         <v>97</v>
       </c>
@@ -4536,7 +4535,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="26" t="s">
         <v>98</v>
       </c>
@@ -4550,7 +4549,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="26" t="s">
         <v>100</v>
       </c>
@@ -4567,7 +4566,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="26" t="s">
         <v>101</v>
       </c>
@@ -4581,7 +4580,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="26" t="s">
         <v>103</v>
       </c>
@@ -4595,7 +4594,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="26" t="s">
         <v>104</v>
       </c>
@@ -4609,7 +4608,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="26" t="s">
         <v>105</v>
       </c>
@@ -4623,7 +4622,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="26" t="s">
         <v>106</v>
       </c>
@@ -4637,7 +4636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="26" t="s">
         <v>107</v>
       </c>
@@ -4651,7 +4650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="26" t="s">
         <v>108</v>
       </c>
@@ -4665,7 +4664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="26" t="s">
         <v>109</v>
       </c>
@@ -4679,7 +4678,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="26" t="s">
         <v>110</v>
       </c>
@@ -4693,7 +4692,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="26" t="s">
         <v>111</v>
       </c>
@@ -4707,7 +4706,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="62" t="s">
         <v>112</v>
       </c>
@@ -4721,7 +4720,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="26" t="s">
         <v>113</v>
       </c>
@@ -4731,7 +4730,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="11" t="s">
         <v>114</v>
       </c>
@@ -4757,14 +4756,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>

--- a/Document Library/Bill Of Materials/V-Baby BOM.xlsx
+++ b/Document Library/Bill Of Materials/V-Baby BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/V-Baby CoreXY/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2479" documentId="11_2E462098BBA7632759C38D02185E4833A2B67484" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{EBA4D932-7365-4DBC-B728-D7797CB18D9D}"/>
+  <xr:revisionPtr revIDLastSave="2480" documentId="11_2E462098BBA7632759C38D02185E4833A2B67484" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8CB3C518-702F-4E34-9682-27010B221D45}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Document Library/Bill Of Materials/V-Baby BOM.xlsx
+++ b/Document Library/Bill Of Materials/V-Baby BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/V-Baby CoreXY/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2480" documentId="11_2E462098BBA7632759C38D02185E4833A2B67484" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8CB3C518-702F-4E34-9682-27010B221D45}"/>
+  <xr:revisionPtr revIDLastSave="2531" documentId="11_2E462098BBA7632759C38D02185E4833A2B67484" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E899A878-221C-42F9-8DDE-18B5C6A2148C}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="252">
   <si>
     <t>Exstrusions</t>
   </si>
@@ -574,12 +574,6 @@
     <t>Thoothed Idler for 10mm belt</t>
   </si>
   <si>
-    <t>Belt Timing Belt 6mm</t>
-  </si>
-  <si>
-    <t>Belt Timing Belt 10mm</t>
-  </si>
-  <si>
     <t>4 meter</t>
   </si>
   <si>
@@ -598,9 +592,6 @@
     <t>No cuts - No tapps</t>
   </si>
   <si>
-    <t>Z 3:1 GT2 Gear Pulleys</t>
-  </si>
-  <si>
     <t>WORM GEAR</t>
   </si>
   <si>
@@ -673,12 +664,6 @@
     <t>10mm Belt Idler Thoothed</t>
   </si>
   <si>
-    <t>4M Color: 2GT 6MM</t>
-  </si>
-  <si>
-    <t>2M Color: 2GT 10MM</t>
-  </si>
-  <si>
     <t>Size: Black 1M</t>
   </si>
   <si>
@@ -691,9 +676,6 @@
     <t>Fan for Cabinet cooling</t>
   </si>
   <si>
-    <t>Fan Part Cooling</t>
-  </si>
-  <si>
     <t>Stepper motor 1.8 Amp</t>
   </si>
   <si>
@@ -733,9 +715,6 @@
     <t>5mm Length: 35mm 6PC</t>
   </si>
   <si>
-    <t>Belt Motor Pulley GT2</t>
-  </si>
-  <si>
     <t>Belt Idler Bearing shafts</t>
   </si>
   <si>
@@ -748,9 +727,6 @@
     <t>Bolt for the Gear Pulleys</t>
   </si>
   <si>
-    <t>M5 Length: 60mm</t>
-  </si>
-  <si>
     <t>Size: W 11mm without t</t>
   </si>
   <si>
@@ -760,7 +736,61 @@
     <t>Size: W 7mm with t</t>
   </si>
   <si>
-    <t>pulley</t>
+    <t>Z 3:1 GT2 Gear</t>
+  </si>
+  <si>
+    <t>Dia 5mm Length: 60mm</t>
+  </si>
+  <si>
+    <t>10mm Belt Idler Smooth</t>
+  </si>
+  <si>
+    <t>6mm Belt Motor Pulley</t>
+  </si>
+  <si>
+    <t>10mm Timing Belt</t>
+  </si>
+  <si>
+    <t>6mm Timing Belt</t>
+  </si>
+  <si>
+    <t>10mm Belt Z Gear Pulley</t>
+  </si>
+  <si>
+    <t>Pulley for the Belted Z Gear</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Column4</t>
+  </si>
+  <si>
+    <t>Column5</t>
+  </si>
+  <si>
+    <t>Column6</t>
+  </si>
+  <si>
+    <t>Column7</t>
+  </si>
+  <si>
+    <t>Fan For Part Cooling</t>
+  </si>
+  <si>
+    <t>Size: For 10mm 1 pcs</t>
+  </si>
+  <si>
+    <t>Size: 4M-6MM-2GT</t>
+  </si>
+  <si>
+    <t>Size: 2M Color: 2GT 10MM</t>
   </si>
 </sst>
 </file>
@@ -1350,7 +1380,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1569,16 +1599,25 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="40 % – uthevingsfarge 6" xfId="4" builtinId="51"/>
-    <cellStyle name="God" xfId="1" builtinId="26"/>
-    <cellStyle name="Hyperkobling" xfId="3" builtinId="8"/>
+    <cellStyle name="40% - Accent6" xfId="4" builtinId="51"/>
+    <cellStyle name="Accent1" xfId="2" builtinId="29"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="5" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Nøytral" xfId="5" builtinId="28"/>
-    <cellStyle name="Uthevingsfarge1" xfId="2" builtinId="29"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="8">
     <dxf>
       <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -1593,40 +1632,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
@@ -1644,23 +1649,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1673,23 +1661,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1724,38 +1695,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1768,72 +1707,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -2159,25 +2032,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1070DF90-74AC-4245-AA46-2FAD63F74767}" name="Table1" displayName="Table1" ref="A6:G35" headerRowCount="0" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:G35">
-    <sortCondition ref="A6:A35"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1070DF90-74AC-4245-AA46-2FAD63F74767}" name="Table1" displayName="Table1" ref="A6:G37" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:G37">
+    <sortCondition ref="A7:A37"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{AB8C8187-911D-4248-8608-1F70796FF7C8}" name="Column1" headerRowDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{129F7AE4-0D03-4AA3-A2BF-5181AA27AF31}" name="Column2" headerRowDxfId="10" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{34C25536-CCA4-454C-9FCE-0168DD2CC6CC}" name="Column3" headerRowDxfId="8" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{2ABF818D-0A23-4468-A061-EB5B1AC04237}" name="Column4" headerRowDxfId="6" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{3DD38B84-FE10-46EA-8CEE-8542F56DCDD7}" name="Column5" headerRowDxfId="4" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{E4DF9CF3-4A3D-433E-9BD0-F94DDCA192BB}" name="Column6" headerRowDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{4866A326-BBBA-4B58-BFBD-4D095130E124}" name="Column7" headerRowDxfId="1" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{AB8C8187-911D-4248-8608-1F70796FF7C8}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{129F7AE4-0D03-4AA3-A2BF-5181AA27AF31}" name="Column2" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{34C25536-CCA4-454C-9FCE-0168DD2CC6CC}" name="Column3" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{2ABF818D-0A23-4468-A061-EB5B1AC04237}" name="Column4" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{3DD38B84-FE10-46EA-8CEE-8542F56DCDD7}" name="Column5" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{E4DF9CF3-4A3D-433E-9BD0-F94DDCA192BB}" name="Column6"/>
+    <tableColumn id="7" xr3:uid="{4866A326-BBBA-4B58-BFBD-4D095130E124}" name="Column7" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2503,7 +2376,7 @@
       <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.54296875" customWidth="1"/>
     <col min="2" max="2" width="22.7265625" bestFit="1" customWidth="1"/>
@@ -2705,7 +2578,7 @@
       <c r="F15" s="157"/>
       <c r="G15" s="40"/>
       <c r="H15" s="49" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I15" s="15"/>
       <c r="J15" s="59"/>
@@ -2728,7 +2601,7 @@
       <c r="F16" s="157"/>
       <c r="G16" s="40"/>
       <c r="H16" s="51" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I16" s="60" t="s">
         <v>120</v>
@@ -2871,8 +2744,8 @@
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="146">
-        <f>'Component Part List'!$E$36</f>
-        <v>509.5</v>
+        <f>'Component Part List'!$E$38</f>
+        <v>515.5</v>
       </c>
       <c r="G25" s="41"/>
       <c r="H25" s="26" t="s">
@@ -2880,8 +2753,8 @@
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="146">
-        <f>'Component Part List'!$E$36</f>
-        <v>509.5</v>
+        <f>'Component Part List'!$E$38</f>
+        <v>515.5</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
@@ -2935,7 +2808,7 @@
       <c r="E28" s="38"/>
       <c r="F28" s="34">
         <f>SUM(F24:F27)</f>
-        <v>869.5</v>
+        <v>875.5</v>
       </c>
       <c r="G28" s="41"/>
       <c r="H28" s="52" t="s">
@@ -2944,7 +2817,7 @@
       <c r="I28" s="53"/>
       <c r="J28" s="54">
         <f>SUM(J24:J27)</f>
-        <v>748.1</v>
+        <v>754.1</v>
       </c>
     </row>
   </sheetData>
@@ -2970,7 +2843,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="3" max="3" width="6.26953125" style="72" customWidth="1"/>
@@ -3333,13 +3206,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.54296875" bestFit="1" customWidth="1"/>
@@ -3416,170 +3287,174 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="158" t="s">
         <v>241</v>
       </c>
-      <c r="B6" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="C6" s="91">
-        <v>4</v>
-      </c>
-      <c r="D6" s="105" t="s">
-        <v>238</v>
-      </c>
-      <c r="E6" s="102">
-        <v>16</v>
-      </c>
-      <c r="F6" s="92"/>
-      <c r="G6" s="153"/>
+      <c r="B6" s="87" t="s">
+        <v>242</v>
+      </c>
+      <c r="C6" s="159" t="s">
+        <v>243</v>
+      </c>
+      <c r="D6" s="160" t="s">
+        <v>244</v>
+      </c>
+      <c r="E6" s="160" t="s">
+        <v>245</v>
+      </c>
+      <c r="F6" s="160" t="s">
+        <v>246</v>
+      </c>
+      <c r="G6" s="160" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="7" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C7" s="91">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" s="105" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="E7" s="102">
-        <v>10</v>
-      </c>
-      <c r="F7" s="96"/>
-      <c r="G7" s="103"/>
+        <v>16</v>
+      </c>
+      <c r="F7" s="92"/>
+      <c r="G7" s="153"/>
     </row>
     <row r="8" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C8" s="91">
         <v>2</v>
       </c>
       <c r="D8" s="105" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E8" s="102">
         <v>10</v>
       </c>
-      <c r="F8" s="92"/>
-      <c r="G8" s="102"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="103"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>177</v>
+        <v>240</v>
       </c>
       <c r="C9" s="91">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D9" s="105" t="s">
-        <v>240</v>
-      </c>
-      <c r="E9" s="102">
-        <v>28</v>
-      </c>
-      <c r="F9" s="96"/>
+        <v>249</v>
+      </c>
+      <c r="E9" s="103">
+        <v>5</v>
+      </c>
+      <c r="F9" s="15"/>
       <c r="G9" s="103"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>230</v>
+        <v>181</v>
       </c>
       <c r="C10" s="91" t="s">
-        <v>223</v>
-      </c>
-      <c r="D10" s="154" t="s">
-        <v>231</v>
+        <v>180</v>
+      </c>
+      <c r="D10" s="105" t="s">
+        <v>251</v>
       </c>
       <c r="E10" s="103">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="103"/>
     </row>
     <row r="11" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>150</v>
+        <v>206</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="C11" s="91">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="D11" s="105" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="E11" s="102">
-        <v>15</v>
-      </c>
-      <c r="F11" s="96"/>
-      <c r="G11" s="103"/>
+        <v>10</v>
+      </c>
+      <c r="F11" s="92"/>
+      <c r="G11" s="102"/>
     </row>
     <row r="12" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="C12" s="91">
+        <v>6</v>
+      </c>
+      <c r="D12" s="105" t="s">
         <v>232</v>
       </c>
-      <c r="B12" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="91">
-        <v>2</v>
-      </c>
-      <c r="D12" s="105" t="s">
-        <v>208</v>
-      </c>
-      <c r="E12" s="103">
-        <v>11</v>
-      </c>
-      <c r="F12" s="15"/>
+      <c r="E12" s="102">
+        <v>28</v>
+      </c>
+      <c r="F12" s="96"/>
       <c r="G12" s="103"/>
     </row>
     <row r="13" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
-        <v>180</v>
+        <v>236</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="C13" s="91" t="s">
-        <v>182</v>
+        <v>68</v>
+      </c>
+      <c r="C13" s="91">
+        <v>2</v>
       </c>
       <c r="D13" s="105" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E13" s="103">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="103"/>
     </row>
     <row r="14" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="C14" s="91" t="s">
         <v>179</v>
       </c>
-      <c r="B14" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="C14" s="91" t="s">
-        <v>181</v>
-      </c>
       <c r="D14" s="105" t="s">
-        <v>212</v>
+        <v>250</v>
       </c>
       <c r="E14" s="103">
         <v>19</v>
@@ -3589,474 +3464,513 @@
     </row>
     <row r="15" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
-        <v>60</v>
+        <v>226</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="91">
-        <v>1</v>
-      </c>
-      <c r="D15" s="105" t="s">
-        <v>214</v>
+        <v>224</v>
+      </c>
+      <c r="C15" s="91" t="s">
+        <v>217</v>
+      </c>
+      <c r="D15" s="154" t="s">
+        <v>225</v>
       </c>
       <c r="E15" s="103">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="103"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="14" t="s">
-        <v>161</v>
+      <c r="A16" s="6" t="s">
+        <v>150</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C16" s="91">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="D16" s="105" t="s">
-        <v>160</v>
-      </c>
-      <c r="E16" s="103">
-        <v>2.5</v>
-      </c>
-      <c r="F16" s="15"/>
+        <v>201</v>
+      </c>
+      <c r="E16" s="102">
+        <v>15</v>
+      </c>
+      <c r="F16" s="96"/>
       <c r="G16" s="103"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
-        <v>165</v>
+        <v>60</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>162</v>
+        <v>61</v>
       </c>
       <c r="C17" s="91">
         <v>1</v>
       </c>
       <c r="D17" s="105" t="s">
-        <v>164</v>
+        <v>209</v>
       </c>
       <c r="E17" s="103">
-        <v>8</v>
+        <v>2.5</v>
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="103"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="6" t="s">
-        <v>42</v>
+      <c r="A18" s="14" t="s">
+        <v>161</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="C18" s="91">
         <v>1</v>
       </c>
       <c r="D18" s="105" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="E18" s="103">
-        <v>60</v>
-      </c>
-      <c r="F18" s="96"/>
+        <v>2.5</v>
+      </c>
+      <c r="F18" s="15"/>
       <c r="G18" s="103"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
-        <v>59</v>
+        <v>165</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C19" s="91">
         <v>1</v>
       </c>
       <c r="D19" s="105" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E19" s="103">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="103"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
-        <v>217</v>
+        <v>42</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>45</v>
+        <v>153</v>
       </c>
       <c r="C20" s="91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" s="105" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="E20" s="103">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F20" s="96"/>
       <c r="G20" s="103"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
-        <v>216</v>
+        <v>59</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>44</v>
+        <v>170</v>
       </c>
       <c r="C21" s="91">
         <v>1</v>
       </c>
       <c r="D21" s="105" t="s">
-        <v>206</v>
+        <v>171</v>
       </c>
       <c r="E21" s="103">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F21" s="15"/>
       <c r="G21" s="103"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C22" s="91">
         <v>2</v>
       </c>
       <c r="D22" s="105" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E22" s="103">
         <v>10</v>
       </c>
-      <c r="F22" s="15"/>
+      <c r="F22" s="96"/>
       <c r="G22" s="103"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
-        <v>152</v>
+        <v>211</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>155</v>
+        <v>44</v>
       </c>
       <c r="C23" s="91">
         <v>1</v>
       </c>
       <c r="D23" s="105" t="s">
-        <v>156</v>
+        <v>203</v>
       </c>
       <c r="E23" s="103">
-        <v>30</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="G23" s="103">
-        <v>16</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F23" s="15"/>
+      <c r="G23" s="103"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
-        <v>167</v>
+        <v>248</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>168</v>
+        <v>43</v>
       </c>
       <c r="C24" s="91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24" s="105" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="E24" s="103">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="F24" s="15"/>
       <c r="G24" s="103"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
-        <v>220</v>
+        <v>152</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>219</v>
-      </c>
-      <c r="C25" s="91" t="s">
-        <v>222</v>
+        <v>155</v>
+      </c>
+      <c r="C25" s="91">
+        <v>1</v>
       </c>
       <c r="D25" s="105" t="s">
-        <v>221</v>
+        <v>156</v>
       </c>
       <c r="E25" s="103">
         <v>30</v>
       </c>
-      <c r="F25" s="15"/>
-      <c r="G25" s="103"/>
+      <c r="F25" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="G25" s="103">
+        <v>16</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="108" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="91" t="s">
+        <v>167</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="C26" s="91">
+        <v>1</v>
+      </c>
+      <c r="D26" s="105" t="s">
         <v>223</v>
       </c>
-      <c r="D26" s="105" t="s">
-        <v>169</v>
-      </c>
       <c r="E26" s="103">
-        <v>4</v>
-      </c>
-      <c r="F26" s="96"/>
+        <v>73</v>
+      </c>
+      <c r="F26" s="15"/>
       <c r="G26" s="103"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
-        <v>65</v>
+        <v>214</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="91">
-        <v>1</v>
+        <v>213</v>
+      </c>
+      <c r="C27" s="91" t="s">
+        <v>216</v>
       </c>
       <c r="D27" s="105" t="s">
-        <v>67</v>
+        <v>215</v>
       </c>
       <c r="E27" s="103">
-        <v>8.5</v>
+        <v>30</v>
       </c>
       <c r="F27" s="15"/>
       <c r="G27" s="103"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="91">
-        <v>1</v>
+        <v>46</v>
+      </c>
+      <c r="B28" s="108" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="91" t="s">
+        <v>217</v>
       </c>
       <c r="D28" s="105" t="s">
-        <v>64</v>
+        <v>169</v>
       </c>
       <c r="E28" s="103">
-        <v>20</v>
-      </c>
-      <c r="F28" s="15"/>
+        <v>4</v>
+      </c>
+      <c r="F28" s="96"/>
       <c r="G28" s="103"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C29" s="91">
         <v>1</v>
       </c>
       <c r="D29" s="105" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E29" s="103">
-        <v>2</v>
-      </c>
-      <c r="F29" s="100"/>
+        <v>8.5</v>
+      </c>
+      <c r="F29" s="15"/>
       <c r="G29" s="103"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C30" s="91">
         <v>1</v>
       </c>
       <c r="D30" s="105" t="s">
-        <v>224</v>
+        <v>64</v>
       </c>
       <c r="E30" s="103">
-        <v>40</v>
-      </c>
-      <c r="F30" s="100"/>
+        <v>20</v>
+      </c>
+      <c r="F30" s="15"/>
       <c r="G30" s="103"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C31" s="91">
         <v>1</v>
       </c>
       <c r="D31" s="105" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E31" s="103">
-        <v>3.5</v>
-      </c>
-      <c r="F31" s="155"/>
+        <v>2</v>
+      </c>
+      <c r="F31" s="100"/>
       <c r="G31" s="103"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
-        <v>187</v>
+        <v>51</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>203</v>
+        <v>52</v>
       </c>
       <c r="C32" s="91">
         <v>1</v>
       </c>
-      <c r="D32" s="15" t="s">
-        <v>225</v>
+      <c r="D32" s="105" t="s">
+        <v>218</v>
       </c>
       <c r="E32" s="103">
-        <v>8.5</v>
-      </c>
-      <c r="F32" s="15"/>
+        <v>40</v>
+      </c>
+      <c r="F32" s="100"/>
       <c r="G32" s="103"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
-        <v>234</v>
+        <v>53</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="C33" s="91" t="s">
-        <v>226</v>
-      </c>
-      <c r="D33" s="147" t="s">
-        <v>228</v>
+        <v>54</v>
+      </c>
+      <c r="C33" s="91">
+        <v>1</v>
+      </c>
+      <c r="D33" s="105" t="s">
+        <v>55</v>
       </c>
       <c r="E33" s="103">
-        <v>19</v>
-      </c>
-      <c r="F33" s="15"/>
+        <v>3.5</v>
+      </c>
+      <c r="F33" s="155"/>
       <c r="G33" s="103"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>236</v>
+        <v>200</v>
       </c>
       <c r="C34" s="91">
         <v>1</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="E34" s="103">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="F34" s="15"/>
       <c r="G34" s="103"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="C35" s="91" t="s">
+        <v>220</v>
+      </c>
+      <c r="D35" s="147" t="s">
+        <v>222</v>
+      </c>
+      <c r="E35" s="103">
+        <v>19</v>
+      </c>
+      <c r="F35" s="15"/>
+      <c r="G35" s="103"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="C36" s="91">
+        <v>1</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="E36" s="103">
+        <v>6</v>
+      </c>
+      <c r="F36" s="15"/>
+      <c r="G36" s="103"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="109" t="s">
+      <c r="B37" s="109" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="107">
+      <c r="C37" s="107">
         <v>1</v>
       </c>
-      <c r="D35" s="106" t="s">
+      <c r="D37" s="106" t="s">
         <v>50</v>
       </c>
-      <c r="E35" s="104">
+      <c r="E37" s="104">
         <v>14</v>
       </c>
-      <c r="F35" s="101"/>
-      <c r="G35" s="104"/>
-    </row>
-    <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="93" t="s">
+      <c r="F37" s="101"/>
+      <c r="G37" s="104"/>
+    </row>
+    <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="94"/>
-      <c r="C36" s="94"/>
-      <c r="D36" s="94"/>
-      <c r="E36" s="95">
+      <c r="B38" s="94"/>
+      <c r="C38" s="94"/>
+      <c r="D38" s="94"/>
+      <c r="E38" s="95">
         <f>SUBTOTAL(109,Table1[[#All],[Column5]])</f>
-        <v>509.5</v>
-      </c>
-      <c r="F36" s="64"/>
-      <c r="G36" s="64"/>
-    </row>
-    <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="124" t="s">
+        <v>515.5</v>
+      </c>
+      <c r="F38" s="64"/>
+      <c r="G38" s="64"/>
+    </row>
+    <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="124" t="s">
         <v>174</v>
       </c>
-      <c r="B37" s="125"/>
-      <c r="C37" s="125"/>
-      <c r="D37" s="125"/>
-      <c r="E37" s="126">
-        <f>E4+E36</f>
-        <v>843.5</v>
+      <c r="B39" s="125"/>
+      <c r="C39" s="125"/>
+      <c r="D39" s="125"/>
+      <c r="E39" s="126">
+        <f>E4+E38</f>
+        <v>849.5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D30" r:id="rId1" display="220V/110V" xr:uid="{3773511A-F3AF-4897-B5BB-16FB39A0B508}"/>
-    <hyperlink ref="D20" r:id="rId2" xr:uid="{AFC120EB-E75F-4BB8-BC6D-4AA9408DD14D}"/>
-    <hyperlink ref="D28" r:id="rId3" display="Link" xr:uid="{401DDADA-DB79-4416-96CF-3B1D6329769B}"/>
-    <hyperlink ref="D22" r:id="rId4" display="24V Dual Ball" xr:uid="{98BCAD8D-1DD9-49E5-B60D-FB8A39108E71}"/>
-    <hyperlink ref="D14" r:id="rId5" xr:uid="{9F0DE403-B0EC-4933-928F-2806FBCF603A}"/>
-    <hyperlink ref="D27" r:id="rId6" display="Link" xr:uid="{45531F32-6B6C-44D5-9B2A-FB1F259BC9F9}"/>
-    <hyperlink ref="D12" r:id="rId7" xr:uid="{43C03DCA-7867-4C9F-B1D0-8588267A1C82}"/>
-    <hyperlink ref="D31" r:id="rId8" xr:uid="{A901DFE1-486C-4AC2-8672-C18618945E04}"/>
-    <hyperlink ref="D29" r:id="rId9" xr:uid="{BA467D2F-0948-4A82-B49C-B8DCBA7936A0}"/>
-    <hyperlink ref="D25" r:id="rId10" xr:uid="{49178A12-AF45-4969-AC8E-49BA3EBADDA9}"/>
-    <hyperlink ref="D24" r:id="rId11" xr:uid="{537A3F3C-7C92-42A9-B8B2-F37129F7787F}"/>
-    <hyperlink ref="D15" r:id="rId12" xr:uid="{82909F8B-3A14-4248-8CB2-384756C6E8BE}"/>
-    <hyperlink ref="D26" r:id="rId13" display="6Pcs Endstops" xr:uid="{4AEFCE09-28B7-4C24-82DE-ADAB9CAA43E1}"/>
-    <hyperlink ref="D35" r:id="rId14" xr:uid="{0ED2334F-09CF-437E-82F8-E81D86F288DC}"/>
-    <hyperlink ref="D11" r:id="rId15" xr:uid="{A333F16C-7F8A-421A-B64A-B04B701B747A}"/>
-    <hyperlink ref="D18" r:id="rId16" display="MKS DUET WIFI Clone" xr:uid="{F52EB8DF-670A-4145-90A1-8A8DF8B4B7B2}"/>
-    <hyperlink ref="D23" r:id="rId17" xr:uid="{53A16D3E-EBE4-45B6-9E87-70111D7D2FFE}"/>
-    <hyperlink ref="F23" r:id="rId18" xr:uid="{2E01C49B-F943-468C-B222-27E06F7C15FC}"/>
-    <hyperlink ref="D16" r:id="rId19" display="Cable Loom - Bowden Path" xr:uid="{5DD23B84-72DC-46EC-A740-B82AFAD09C94}"/>
-    <hyperlink ref="D17" r:id="rId20" xr:uid="{0C6F2C79-ACBB-4C55-AC21-4895BA685D6B}"/>
-    <hyperlink ref="D19" r:id="rId21" xr:uid="{9689F2B7-24E0-4CC5-A39F-53D7E0370FC8}"/>
+    <hyperlink ref="D32" r:id="rId1" display="220V/110V" xr:uid="{3773511A-F3AF-4897-B5BB-16FB39A0B508}"/>
+    <hyperlink ref="D22" r:id="rId2" xr:uid="{AFC120EB-E75F-4BB8-BC6D-4AA9408DD14D}"/>
+    <hyperlink ref="D30" r:id="rId3" display="Link" xr:uid="{401DDADA-DB79-4416-96CF-3B1D6329769B}"/>
+    <hyperlink ref="D24" r:id="rId4" display="24V Dual Ball" xr:uid="{98BCAD8D-1DD9-49E5-B60D-FB8A39108E71}"/>
+    <hyperlink ref="D14" r:id="rId5" display="4M Color: 2GT 6MM" xr:uid="{9F0DE403-B0EC-4933-928F-2806FBCF603A}"/>
+    <hyperlink ref="D29" r:id="rId6" display="Link" xr:uid="{45531F32-6B6C-44D5-9B2A-FB1F259BC9F9}"/>
+    <hyperlink ref="D13" r:id="rId7" xr:uid="{43C03DCA-7867-4C9F-B1D0-8588267A1C82}"/>
+    <hyperlink ref="D33" r:id="rId8" xr:uid="{A901DFE1-486C-4AC2-8672-C18618945E04}"/>
+    <hyperlink ref="D31" r:id="rId9" xr:uid="{BA467D2F-0948-4A82-B49C-B8DCBA7936A0}"/>
+    <hyperlink ref="D27" r:id="rId10" xr:uid="{49178A12-AF45-4969-AC8E-49BA3EBADDA9}"/>
+    <hyperlink ref="D26" r:id="rId11" xr:uid="{537A3F3C-7C92-42A9-B8B2-F37129F7787F}"/>
+    <hyperlink ref="D17" r:id="rId12" xr:uid="{82909F8B-3A14-4248-8CB2-384756C6E8BE}"/>
+    <hyperlink ref="D28" r:id="rId13" display="6Pcs Endstops" xr:uid="{4AEFCE09-28B7-4C24-82DE-ADAB9CAA43E1}"/>
+    <hyperlink ref="D37" r:id="rId14" xr:uid="{0ED2334F-09CF-437E-82F8-E81D86F288DC}"/>
+    <hyperlink ref="D16" r:id="rId15" xr:uid="{A333F16C-7F8A-421A-B64A-B04B701B747A}"/>
+    <hyperlink ref="D20" r:id="rId16" display="MKS DUET WIFI Clone" xr:uid="{F52EB8DF-670A-4145-90A1-8A8DF8B4B7B2}"/>
+    <hyperlink ref="D25" r:id="rId17" xr:uid="{53A16D3E-EBE4-45B6-9E87-70111D7D2FFE}"/>
+    <hyperlink ref="F25" r:id="rId18" xr:uid="{2E01C49B-F943-468C-B222-27E06F7C15FC}"/>
+    <hyperlink ref="D18" r:id="rId19" display="Cable Loom - Bowden Path" xr:uid="{5DD23B84-72DC-46EC-A740-B82AFAD09C94}"/>
+    <hyperlink ref="D19" r:id="rId20" xr:uid="{0C6F2C79-ACBB-4C55-AC21-4895BA685D6B}"/>
+    <hyperlink ref="D21" r:id="rId21" xr:uid="{9689F2B7-24E0-4CC5-A39F-53D7E0370FC8}"/>
     <hyperlink ref="A4" r:id="rId22" xr:uid="{42E8AC4D-928E-4528-A3B8-EB12C0061FC4}"/>
-    <hyperlink ref="D6" r:id="rId23" display="Bore 5mm No Teeth:For belt width 10mm" xr:uid="{DC8F7F14-CA2A-4482-8C1E-5173C4B8D9AD}"/>
-    <hyperlink ref="D13" r:id="rId24" display="Color: 2GT 10MM" xr:uid="{3BB9CD36-EAAE-4CDD-91A2-546DD9AEE97B}"/>
-    <hyperlink ref="D32" r:id="rId25" xr:uid="{7F3B442E-F7CB-4007-B0E0-F7D6FA00B53B}"/>
-    <hyperlink ref="D33" r:id="rId26" xr:uid="{EFF7A929-E8E4-4F05-A22B-23B664574CE1}"/>
-    <hyperlink ref="D21" r:id="rId27" xr:uid="{968A8156-5055-4A5F-97A2-06DF8EA0EB3D}"/>
-    <hyperlink ref="D7" r:id="rId28" display="Bore 5mm With Teeth:For belt width 10mm" xr:uid="{9AED87BC-5BEC-4990-87E4-DE18B0259F70}"/>
-    <hyperlink ref="D8" r:id="rId29" display="Bore 5mm No Teeth:For belt width 6mm" xr:uid="{AEF1FF18-EC10-49DF-B80B-75E1D8A2D85F}"/>
-    <hyperlink ref="D9" r:id="rId30" display="Bore 5mm With Teeth:For belt width 6mm" xr:uid="{5D50B8E6-99FC-422D-900D-829D1530AC87}"/>
-    <hyperlink ref="D10" r:id="rId31" xr:uid="{E2B3A9CD-7038-461B-A7D6-7375A7FBF5F4}"/>
-    <hyperlink ref="D34" r:id="rId32" display="M5 Length: 55mm" xr:uid="{402BD230-D603-422A-931E-B65C09CB34DA}"/>
+    <hyperlink ref="D7" r:id="rId23" display="Bore 5mm No Teeth:For belt width 10mm" xr:uid="{DC8F7F14-CA2A-4482-8C1E-5173C4B8D9AD}"/>
+    <hyperlink ref="D10" r:id="rId24" display="Color: 2GT 10MM" xr:uid="{3BB9CD36-EAAE-4CDD-91A2-546DD9AEE97B}"/>
+    <hyperlink ref="D34" r:id="rId25" xr:uid="{7F3B442E-F7CB-4007-B0E0-F7D6FA00B53B}"/>
+    <hyperlink ref="D35" r:id="rId26" xr:uid="{EFF7A929-E8E4-4F05-A22B-23B664574CE1}"/>
+    <hyperlink ref="D23" r:id="rId27" xr:uid="{968A8156-5055-4A5F-97A2-06DF8EA0EB3D}"/>
+    <hyperlink ref="D8" r:id="rId28" display="Bore 5mm With Teeth:For belt width 10mm" xr:uid="{9AED87BC-5BEC-4990-87E4-DE18B0259F70}"/>
+    <hyperlink ref="D11" r:id="rId29" display="Bore 5mm No Teeth:For belt width 6mm" xr:uid="{AEF1FF18-EC10-49DF-B80B-75E1D8A2D85F}"/>
+    <hyperlink ref="D12" r:id="rId30" display="Bore 5mm With Teeth:For belt width 6mm" xr:uid="{5D50B8E6-99FC-422D-900D-829D1530AC87}"/>
+    <hyperlink ref="D15" r:id="rId31" xr:uid="{E2B3A9CD-7038-461B-A7D6-7375A7FBF5F4}"/>
+    <hyperlink ref="D36" r:id="rId32" display="M5 Length: 55mm" xr:uid="{402BD230-D603-422A-931E-B65C09CB34DA}"/>
+    <hyperlink ref="D9" r:id="rId33" display="For 10mm 1 pcs" xr:uid="{7BA0A6EE-6125-4655-AC0E-C61D1887FEFC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="88" orientation="landscape" r:id="rId33"/>
-  <drawing r:id="rId34"/>
+  <pageSetup paperSize="9" scale="86" orientation="landscape" r:id="rId34"/>
+  <drawing r:id="rId35"/>
   <tableParts count="1">
-    <tablePart r:id="rId35"/>
+    <tablePart r:id="rId36"/>
   </tableParts>
 </worksheet>
 </file>
@@ -4069,7 +3983,7 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.7265625" bestFit="1" customWidth="1"/>
@@ -4079,91 +3993,91 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="152" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B1" s="152" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C1" s="122"/>
       <c r="D1" s="152" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="29" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B2" s="149" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D2" s="142" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="29" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B3" s="149" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D3" s="150" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="29" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B4" s="142" t="s">
+        <v>189</v>
+      </c>
+      <c r="D4" s="150" t="s">
         <v>192</v>
-      </c>
-      <c r="D4" s="150" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="29" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B5" s="142" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D5" s="150" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="29" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B6" s="142" t="s">
+        <v>189</v>
+      </c>
+      <c r="D6" s="150" t="s">
         <v>192</v>
-      </c>
-      <c r="D6" s="150" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="29" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B7" s="150" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D7" s="149" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="148" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B8" s="143" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D8" s="151" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -4177,7 +4091,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
@@ -4756,7 +4670,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>

--- a/Document Library/Bill Of Materials/V-Baby BOM.xlsx
+++ b/Document Library/Bill Of Materials/V-Baby BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/V-Baby CoreXY/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2531" documentId="11_2E462098BBA7632759C38D02185E4833A2B67484" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E899A878-221C-42F9-8DDE-18B5C6A2148C}"/>
+  <xr:revisionPtr revIDLastSave="2533" documentId="11_2E462098BBA7632759C38D02185E4833A2B67484" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91E6F13B-7B6A-43FA-80DD-652DB1CC48FB}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="253">
   <si>
     <t>Exstrusions</t>
   </si>
@@ -791,6 +791,9 @@
   </si>
   <si>
     <t>Size: 2M Color: 2GT 10MM</t>
+  </si>
+  <si>
+    <t>Size: W 7mm without t</t>
   </si>
 </sst>
 </file>
@@ -1593,12 +1596,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -1607,6 +1604,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2423,7 +2426,7 @@
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
       <c r="E8" s="20"/>
-      <c r="F8" s="156" t="s">
+      <c r="F8" s="159" t="s">
         <v>116</v>
       </c>
       <c r="G8" s="40"/>
@@ -2448,7 +2451,7 @@
         <f>D9*310</f>
         <v>1240</v>
       </c>
-      <c r="F9" s="157"/>
+      <c r="F9" s="160"/>
       <c r="G9" s="40"/>
       <c r="H9" s="49"/>
       <c r="I9" s="15"/>
@@ -2471,7 +2474,7 @@
         <f>D10*350</f>
         <v>1400</v>
       </c>
-      <c r="F10" s="157"/>
+      <c r="F10" s="160"/>
       <c r="G10" s="40"/>
       <c r="H10" s="50"/>
       <c r="I10" s="42"/>
@@ -2494,7 +2497,7 @@
         <f>D11*340</f>
         <v>1700</v>
       </c>
-      <c r="F11" s="157"/>
+      <c r="F11" s="160"/>
       <c r="G11" s="40"/>
       <c r="H11" s="49"/>
       <c r="I11" s="15"/>
@@ -2517,7 +2520,7 @@
         <f>D12*295</f>
         <v>295</v>
       </c>
-      <c r="F12" s="157"/>
+      <c r="F12" s="160"/>
       <c r="G12" s="40"/>
       <c r="H12" s="50"/>
       <c r="I12" s="42"/>
@@ -2529,7 +2532,7 @@
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="10"/>
-      <c r="F13" s="157"/>
+      <c r="F13" s="160"/>
       <c r="G13" s="40"/>
       <c r="H13" s="26"/>
       <c r="I13" s="6"/>
@@ -2552,7 +2555,7 @@
         <f>D14*290</f>
         <v>290</v>
       </c>
-      <c r="F14" s="157"/>
+      <c r="F14" s="160"/>
       <c r="G14" s="40"/>
       <c r="H14" s="50"/>
       <c r="I14" s="42"/>
@@ -2575,7 +2578,7 @@
         <f>D15*350</f>
         <v>700</v>
       </c>
-      <c r="F15" s="157"/>
+      <c r="F15" s="160"/>
       <c r="G15" s="40"/>
       <c r="H15" s="49" t="s">
         <v>184</v>
@@ -2598,7 +2601,7 @@
         <f>SUM(E9:E15)</f>
         <v>5625</v>
       </c>
-      <c r="F16" s="157"/>
+      <c r="F16" s="160"/>
       <c r="G16" s="40"/>
       <c r="H16" s="51" t="s">
         <v>183</v>
@@ -2616,7 +2619,7 @@
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="10"/>
-      <c r="F17" s="157"/>
+      <c r="F17" s="160"/>
       <c r="G17" s="40"/>
       <c r="H17" s="26" t="s">
         <v>27</v>
@@ -2640,7 +2643,7 @@
         <v>18</v>
       </c>
       <c r="E18" s="21"/>
-      <c r="F18" s="157"/>
+      <c r="F18" s="160"/>
       <c r="G18" s="40"/>
       <c r="H18" s="51" t="s">
         <v>30</v>
@@ -2658,7 +2661,7 @@
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="10"/>
-      <c r="F19" s="157"/>
+      <c r="F19" s="160"/>
       <c r="G19" s="40"/>
       <c r="H19" s="26"/>
       <c r="I19" s="61"/>
@@ -2678,7 +2681,7 @@
         <v>30</v>
       </c>
       <c r="E20" s="21"/>
-      <c r="F20" s="157"/>
+      <c r="F20" s="160"/>
       <c r="G20" s="40"/>
       <c r="H20" s="51" t="s">
         <v>34</v>
@@ -3208,7 +3211,9 @@
   </sheetPr>
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -3288,25 +3293,25 @@
       </c>
     </row>
     <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="158" t="s">
+      <c r="A6" s="156" t="s">
         <v>241</v>
       </c>
       <c r="B6" s="87" t="s">
         <v>242</v>
       </c>
-      <c r="C6" s="159" t="s">
+      <c r="C6" s="157" t="s">
         <v>243</v>
       </c>
-      <c r="D6" s="160" t="s">
+      <c r="D6" s="158" t="s">
         <v>244</v>
       </c>
-      <c r="E6" s="160" t="s">
+      <c r="E6" s="158" t="s">
         <v>245</v>
       </c>
-      <c r="F6" s="160" t="s">
+      <c r="F6" s="158" t="s">
         <v>246</v>
       </c>
-      <c r="G6" s="160" t="s">
+      <c r="G6" s="158" t="s">
         <v>247</v>
       </c>
     </row>
@@ -3397,7 +3402,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="105" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="E11" s="102">
         <v>10</v>

--- a/Document Library/Bill Of Materials/V-Baby BOM.xlsx
+++ b/Document Library/Bill Of Materials/V-Baby BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/V-Baby CoreXY/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2533" documentId="11_2E462098BBA7632759C38D02185E4833A2B67484" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91E6F13B-7B6A-43FA-80DD-652DB1CC48FB}"/>
+  <xr:revisionPtr revIDLastSave="2536" documentId="11_2E462098BBA7632759C38D02185E4833A2B67484" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7FA8670-BA6E-4E24-9F01-71D410423B88}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OpenBuild Part List" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="252">
   <si>
     <t>Exstrusions</t>
   </si>
@@ -575,9 +575,6 @@
   </si>
   <si>
     <t>4 meter</t>
-  </si>
-  <si>
-    <t>2 meter</t>
   </si>
   <si>
     <t>2GT Timing Belt 10W 2 Meter</t>
@@ -2379,20 +2376,20 @@
       <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.54296875" customWidth="1"/>
-    <col min="2" max="2" width="22.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.26953125" customWidth="1"/>
-    <col min="7" max="7" width="4.26953125" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="4.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>0</v>
       </c>
@@ -2420,7 +2417,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="46"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -2434,7 +2431,7 @@
       <c r="I8" s="42"/>
       <c r="J8" s="58"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="47" t="s">
         <v>7</v>
       </c>
@@ -2457,7 +2454,7 @@
       <c r="I9" s="15"/>
       <c r="J9" s="59"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>10</v>
       </c>
@@ -2480,7 +2477,7 @@
       <c r="I10" s="42"/>
       <c r="J10" s="58"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="47" t="s">
         <v>13</v>
       </c>
@@ -2503,7 +2500,7 @@
       <c r="I11" s="15"/>
       <c r="J11" s="59"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="48" t="s">
         <v>16</v>
       </c>
@@ -2526,7 +2523,7 @@
       <c r="I12" s="42"/>
       <c r="J12" s="58"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="47"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -2538,7 +2535,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="59"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="48" t="s">
         <v>18</v>
       </c>
@@ -2561,7 +2558,7 @@
       <c r="I14" s="42"/>
       <c r="J14" s="58"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="47" t="s">
         <v>21</v>
       </c>
@@ -2581,12 +2578,12 @@
       <c r="F15" s="160"/>
       <c r="G15" s="40"/>
       <c r="H15" s="49" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I15" s="15"/>
       <c r="J15" s="59"/>
     </row>
-    <row r="16" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="48" t="s">
         <v>24</v>
       </c>
@@ -2604,7 +2601,7 @@
       <c r="F16" s="160"/>
       <c r="G16" s="40"/>
       <c r="H16" s="51" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I16" s="60" t="s">
         <v>120</v>
@@ -2613,7 +2610,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="47"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -2629,7 +2626,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="48" t="s">
         <v>28</v>
       </c>
@@ -2655,7 +2652,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="47"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -2667,7 +2664,7 @@
       <c r="I19" s="61"/>
       <c r="J19" s="59"/>
     </row>
-    <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="48" t="s">
         <v>31</v>
       </c>
@@ -2693,7 +2690,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>35</v>
       </c>
@@ -2712,11 +2709,11 @@
         <v>158</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
         <v>36</v>
       </c>
@@ -2738,7 +2735,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
         <v>37</v>
       </c>
@@ -2748,7 +2745,7 @@
       <c r="E25" s="6"/>
       <c r="F25" s="146">
         <f>'Component Part List'!$E$38</f>
-        <v>515.5</v>
+        <v>523.5</v>
       </c>
       <c r="G25" s="41"/>
       <c r="H25" s="26" t="s">
@@ -2757,10 +2754,10 @@
       <c r="I25" s="6"/>
       <c r="J25" s="146">
         <f>'Component Part List'!$E$38</f>
-        <v>515.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+        <v>523.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="27" t="s">
         <v>38</v>
       </c>
@@ -2780,7 +2777,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="33" t="s">
         <v>40</v>
       </c>
@@ -2801,7 +2798,7 @@
         <v>80.600000000000009</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="37" t="s">
         <v>119</v>
       </c>
@@ -2811,7 +2808,7 @@
       <c r="E28" s="38"/>
       <c r="F28" s="34">
         <f>SUM(F24:F27)</f>
-        <v>875.5</v>
+        <v>883.5</v>
       </c>
       <c r="G28" s="41"/>
       <c r="H28" s="52" t="s">
@@ -2820,7 +2817,7 @@
       <c r="I28" s="53"/>
       <c r="J28" s="54">
         <f>SUM(J24:J27)</f>
-        <v>754.1</v>
+        <v>762.1</v>
       </c>
     </row>
   </sheetData>
@@ -2846,14 +2843,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="3" max="3" width="6.26953125" style="72" customWidth="1"/>
-    <col min="5" max="5" width="14.453125" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="72" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:7" ht="22.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A6" s="74" t="s">
         <v>125</v>
       </c>
@@ -2864,7 +2861,7 @@
       <c r="F6" s="75"/>
       <c r="G6" s="77"/>
     </row>
-    <row r="7" spans="1:7" s="73" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" s="73" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="128" t="s">
         <v>126</v>
       </c>
@@ -2881,7 +2878,7 @@
       </c>
       <c r="G7" s="129"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="78" t="s">
         <v>140</v>
       </c>
@@ -2902,7 +2899,7 @@
       </c>
       <c r="G8" s="10"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="78" t="s">
         <v>141</v>
       </c>
@@ -2927,7 +2924,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="78" t="s">
         <v>142</v>
       </c>
@@ -2948,7 +2945,7 @@
       </c>
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="78" t="s">
         <v>18</v>
       </c>
@@ -2969,7 +2966,7 @@
       </c>
       <c r="G11" s="10"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="78" t="s">
         <v>21</v>
       </c>
@@ -2990,7 +2987,7 @@
       </c>
       <c r="G12" s="10"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="84" t="s">
         <v>16</v>
       </c>
@@ -3011,7 +3008,7 @@
       </c>
       <c r="G13" s="85"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="78"/>
       <c r="B14" s="6"/>
       <c r="C14" s="79"/>
@@ -3020,7 +3017,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="10"/>
     </row>
-    <row r="15" spans="1:7" s="73" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" s="73" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="80" t="s">
         <v>133</v>
       </c>
@@ -3031,7 +3028,7 @@
       <c r="F15" s="81"/>
       <c r="G15" s="83"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="78" t="s">
         <v>132</v>
       </c>
@@ -3042,7 +3039,7 @@
       <c r="F16" s="6"/>
       <c r="G16" s="10"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="140" t="s">
         <v>134</v>
       </c>
@@ -3059,7 +3056,7 @@
       </c>
       <c r="G17" s="77"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="78" t="s">
         <v>140</v>
       </c>
@@ -3079,7 +3076,7 @@
       </c>
       <c r="G18" s="10"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="78" t="s">
         <v>141</v>
       </c>
@@ -3101,7 +3098,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="78" t="s">
         <v>142</v>
       </c>
@@ -3121,7 +3118,7 @@
       </c>
       <c r="G20" s="10"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="78" t="s">
         <v>18</v>
       </c>
@@ -3137,7 +3134,7 @@
       </c>
       <c r="G21" s="10"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="78" t="s">
         <v>21</v>
       </c>
@@ -3153,7 +3150,7 @@
       </c>
       <c r="G22" s="10"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="84" t="s">
         <v>16</v>
       </c>
@@ -3169,7 +3166,7 @@
       </c>
       <c r="G23" s="85"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="79"/>
@@ -3178,17 +3175,17 @@
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>139</v>
       </c>
@@ -3211,22 +3208,20 @@
   </sheetPr>
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" customWidth="1"/>
-    <col min="4" max="4" width="37.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.7265625" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.26953125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" customWidth="1"/>
+    <col min="4" max="4" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="110"/>
       <c r="B1" s="75"/>
       <c r="C1" s="75"/>
@@ -3235,7 +3230,7 @@
       <c r="F1" s="112"/>
       <c r="G1" s="113"/>
     </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:7" ht="27.75" x14ac:dyDescent="0.5">
       <c r="A2" s="114"/>
       <c r="B2" s="90"/>
       <c r="C2" s="97"/>
@@ -3246,7 +3241,7 @@
       <c r="F2" s="89"/>
       <c r="G2" s="115"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="78"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -3255,7 +3250,7 @@
       <c r="F3" s="86"/>
       <c r="G3" s="116"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="120" t="s">
         <v>172</v>
       </c>
@@ -3269,7 +3264,7 @@
       </c>
       <c r="G4" s="117"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="118" t="s">
         <v>1</v>
       </c>
@@ -3292,32 +3287,32 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="156" t="s">
+        <v>240</v>
+      </c>
+      <c r="B6" s="87" t="s">
         <v>241</v>
       </c>
-      <c r="B6" s="87" t="s">
+      <c r="C6" s="157" t="s">
         <v>242</v>
       </c>
-      <c r="C6" s="157" t="s">
+      <c r="D6" s="158" t="s">
         <v>243</v>
       </c>
-      <c r="D6" s="158" t="s">
+      <c r="E6" s="158" t="s">
         <v>244</v>
       </c>
-      <c r="E6" s="158" t="s">
+      <c r="F6" s="158" t="s">
         <v>245</v>
       </c>
-      <c r="F6" s="158" t="s">
+      <c r="G6" s="158" t="s">
         <v>246</v>
       </c>
-      <c r="G6" s="158" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B7" s="29" t="s">
         <v>176</v>
@@ -3326,7 +3321,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="105" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E7" s="102">
         <v>16</v>
@@ -3334,9 +3329,9 @@
       <c r="F7" s="92"/>
       <c r="G7" s="153"/>
     </row>
-    <row r="8" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B8" s="29" t="s">
         <v>178</v>
@@ -3345,7 +3340,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="105" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E8" s="102">
         <v>10</v>
@@ -3353,18 +3348,18 @@
       <c r="F8" s="96"/>
       <c r="G8" s="103"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B9" s="29" t="s">
         <v>239</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>240</v>
       </c>
       <c r="C9" s="91">
         <v>1</v>
       </c>
       <c r="D9" s="105" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E9" s="103">
         <v>5</v>
@@ -3372,28 +3367,28 @@
       <c r="F9" s="15"/>
       <c r="G9" s="103"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C10" s="91" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D10" s="105" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E10" s="103">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="103"/>
     </row>
-    <row r="11" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B11" s="29" t="s">
         <v>175</v>
@@ -3402,7 +3397,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="105" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E11" s="102">
         <v>10</v>
@@ -3410,9 +3405,9 @@
       <c r="F11" s="92"/>
       <c r="G11" s="102"/>
     </row>
-    <row r="12" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B12" s="29" t="s">
         <v>177</v>
@@ -3421,7 +3416,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="105" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E12" s="102">
         <v>28</v>
@@ -3429,9 +3424,9 @@
       <c r="F12" s="96"/>
       <c r="G12" s="103"/>
     </row>
-    <row r="13" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B13" s="29" t="s">
         <v>68</v>
@@ -3440,7 +3435,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="105" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E13" s="103">
         <v>11</v>
@@ -3448,18 +3443,18 @@
       <c r="F13" s="15"/>
       <c r="G13" s="103"/>
     </row>
-    <row r="14" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C14" s="91" t="s">
         <v>179</v>
       </c>
       <c r="D14" s="105" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E14" s="103">
         <v>19</v>
@@ -3467,18 +3462,18 @@
       <c r="F14" s="15"/>
       <c r="G14" s="103"/>
     </row>
-    <row r="15" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B15" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="C15" s="91" t="s">
+        <v>216</v>
+      </c>
+      <c r="D15" s="154" t="s">
         <v>224</v>
-      </c>
-      <c r="C15" s="91" t="s">
-        <v>217</v>
-      </c>
-      <c r="D15" s="154" t="s">
-        <v>225</v>
       </c>
       <c r="E15" s="103">
         <v>3</v>
@@ -3486,7 +3481,7 @@
       <c r="F15" s="15"/>
       <c r="G15" s="103"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>150</v>
       </c>
@@ -3497,7 +3492,7 @@
         <v>80</v>
       </c>
       <c r="D16" s="105" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E16" s="102">
         <v>15</v>
@@ -3505,7 +3500,7 @@
       <c r="F16" s="96"/>
       <c r="G16" s="103"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>60</v>
       </c>
@@ -3516,7 +3511,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="105" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E17" s="103">
         <v>2.5</v>
@@ -3524,7 +3519,7 @@
       <c r="F17" s="15"/>
       <c r="G17" s="103"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>161</v>
       </c>
@@ -3543,7 +3538,7 @@
       <c r="F18" s="15"/>
       <c r="G18" s="103"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>165</v>
       </c>
@@ -3562,7 +3557,7 @@
       <c r="F19" s="15"/>
       <c r="G19" s="103"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>42</v>
       </c>
@@ -3573,7 +3568,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="105" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E20" s="103">
         <v>60</v>
@@ -3581,7 +3576,7 @@
       <c r="F20" s="96"/>
       <c r="G20" s="103"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>59</v>
       </c>
@@ -3600,9 +3595,9 @@
       <c r="F21" s="15"/>
       <c r="G21" s="103"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B22" s="29" t="s">
         <v>45</v>
@@ -3611,7 +3606,7 @@
         <v>2</v>
       </c>
       <c r="D22" s="105" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E22" s="103">
         <v>10</v>
@@ -3619,9 +3614,9 @@
       <c r="F22" s="96"/>
       <c r="G22" s="103"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B23" s="29" t="s">
         <v>44</v>
@@ -3630,7 +3625,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="105" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E23" s="103">
         <v>2</v>
@@ -3638,9 +3633,9 @@
       <c r="F23" s="15"/>
       <c r="G23" s="103"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B24" s="29" t="s">
         <v>43</v>
@@ -3649,7 +3644,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="105" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E24" s="103">
         <v>10</v>
@@ -3657,7 +3652,7 @@
       <c r="F24" s="15"/>
       <c r="G24" s="103"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>152</v>
       </c>
@@ -3680,7 +3675,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>167</v>
       </c>
@@ -3691,7 +3686,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="105" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E26" s="103">
         <v>73</v>
@@ -3699,18 +3694,18 @@
       <c r="F26" s="15"/>
       <c r="G26" s="103"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="C27" s="91" t="s">
+        <v>215</v>
+      </c>
+      <c r="D27" s="105" t="s">
         <v>214</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="C27" s="91" t="s">
-        <v>216</v>
-      </c>
-      <c r="D27" s="105" t="s">
-        <v>215</v>
       </c>
       <c r="E27" s="103">
         <v>30</v>
@@ -3718,7 +3713,7 @@
       <c r="F27" s="15"/>
       <c r="G27" s="103"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>46</v>
       </c>
@@ -3726,7 +3721,7 @@
         <v>47</v>
       </c>
       <c r="C28" s="91" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D28" s="105" t="s">
         <v>169</v>
@@ -3737,7 +3732,7 @@
       <c r="F28" s="96"/>
       <c r="G28" s="103"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>65</v>
       </c>
@@ -3756,7 +3751,7 @@
       <c r="F29" s="15"/>
       <c r="G29" s="103"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>62</v>
       </c>
@@ -3775,7 +3770,7 @@
       <c r="F30" s="15"/>
       <c r="G30" s="103"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>56</v>
       </c>
@@ -3794,7 +3789,7 @@
       <c r="F31" s="100"/>
       <c r="G31" s="103"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>51</v>
       </c>
@@ -3805,7 +3800,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="105" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E32" s="103">
         <v>40</v>
@@ -3813,7 +3808,7 @@
       <c r="F32" s="100"/>
       <c r="G32" s="103"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>53</v>
       </c>
@@ -3832,18 +3827,18 @@
       <c r="F33" s="155"/>
       <c r="G33" s="103"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C34" s="91">
         <v>1</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E34" s="103">
         <v>8.5</v>
@@ -3851,18 +3846,18 @@
       <c r="F34" s="15"/>
       <c r="G34" s="103"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B35" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="C35" s="91" t="s">
+        <v>219</v>
+      </c>
+      <c r="D35" s="147" t="s">
         <v>221</v>
-      </c>
-      <c r="C35" s="91" t="s">
-        <v>220</v>
-      </c>
-      <c r="D35" s="147" t="s">
-        <v>222</v>
       </c>
       <c r="E35" s="103">
         <v>19</v>
@@ -3870,18 +3865,18 @@
       <c r="F35" s="15"/>
       <c r="G35" s="103"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="B36" s="29" t="s">
         <v>228</v>
-      </c>
-      <c r="B36" s="29" t="s">
-        <v>229</v>
       </c>
       <c r="C36" s="91">
         <v>1</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E36" s="103">
         <v>6</v>
@@ -3889,7 +3884,7 @@
       <c r="F36" s="15"/>
       <c r="G36" s="103"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>48</v>
       </c>
@@ -3908,7 +3903,7 @@
       <c r="F37" s="101"/>
       <c r="G37" s="104"/>
     </row>
-    <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="93" t="s">
         <v>69</v>
       </c>
@@ -3917,12 +3912,12 @@
       <c r="D38" s="94"/>
       <c r="E38" s="95">
         <f>SUBTOTAL(109,Table1[[#All],[Column5]])</f>
-        <v>515.5</v>
+        <v>523.5</v>
       </c>
       <c r="F38" s="64"/>
       <c r="G38" s="64"/>
     </row>
-    <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="124" t="s">
         <v>174</v>
       </c>
@@ -3931,7 +3926,7 @@
       <c r="D39" s="125"/>
       <c r="E39" s="126">
         <f>E4+E38</f>
-        <v>849.5</v>
+        <v>857.5</v>
       </c>
     </row>
   </sheetData>
@@ -3988,101 +3983,101 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4" customWidth="1"/>
-    <col min="4" max="4" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="152" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B1" s="152" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C1" s="122"/>
       <c r="D1" s="152" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="29" t="s">
+      <c r="B2" s="149" t="s">
         <v>187</v>
       </c>
-      <c r="B2" s="149" t="s">
+      <c r="D2" s="142" t="s">
         <v>188</v>
       </c>
-      <c r="D2" s="142" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" s="149" t="s">
         <v>191</v>
       </c>
-      <c r="B3" s="149" t="s">
+      <c r="D3" s="150" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="D3" s="150" t="s">
+      <c r="B4" s="142" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="29" t="s">
+      <c r="D4" s="150" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="B4" s="142" t="s">
-        <v>189</v>
-      </c>
-      <c r="D4" s="150" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="29" t="s">
+      <c r="B5" s="142" t="s">
         <v>194</v>
       </c>
-      <c r="B5" s="142" t="s">
+      <c r="D5" s="150" t="s">
         <v>195</v>
       </c>
-      <c r="D5" s="150" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="29" t="s">
+      <c r="B6" s="142" t="s">
+        <v>188</v>
+      </c>
+      <c r="D6" s="150" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="B6" s="142" t="s">
-        <v>189</v>
-      </c>
-      <c r="D6" s="150" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="29" t="s">
+      <c r="B7" s="150" t="s">
+        <v>187</v>
+      </c>
+      <c r="D7" s="149" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="148" t="s">
         <v>198</v>
       </c>
-      <c r="B7" s="150" t="s">
+      <c r="B8" s="143" t="s">
         <v>188</v>
       </c>
-      <c r="D7" s="149" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="148" t="s">
-        <v>199</v>
-      </c>
-      <c r="B8" s="143" t="s">
-        <v>189</v>
-      </c>
       <c r="D8" s="151" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -4096,20 +4091,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
@@ -4132,7 +4127,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>71</v>
       </c>
@@ -4146,7 +4141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>73</v>
       </c>
@@ -4160,7 +4155,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>74</v>
       </c>
@@ -4174,7 +4169,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>76</v>
       </c>
@@ -4188,7 +4183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>77</v>
       </c>
@@ -4202,7 +4197,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>79</v>
       </c>
@@ -4216,7 +4211,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>80</v>
       </c>
@@ -4230,7 +4225,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>82</v>
       </c>
@@ -4244,7 +4239,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>83</v>
       </c>
@@ -4258,7 +4253,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>84</v>
       </c>
@@ -4272,7 +4267,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>85</v>
       </c>
@@ -4286,7 +4281,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>123</v>
       </c>
@@ -4300,7 +4295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>86</v>
       </c>
@@ -4314,7 +4309,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>88</v>
       </c>
@@ -4328,7 +4323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
         <v>89</v>
       </c>
@@ -4342,7 +4337,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
         <v>90</v>
       </c>
@@ -4356,7 +4351,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>91</v>
       </c>
@@ -4370,7 +4365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
         <v>92</v>
       </c>
@@ -4384,7 +4379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
         <v>93</v>
       </c>
@@ -4398,7 +4393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
         <v>94</v>
       </c>
@@ -4412,7 +4407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
         <v>95</v>
       </c>
@@ -4426,7 +4421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
         <v>96</v>
       </c>
@@ -4440,7 +4435,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
         <v>97</v>
       </c>
@@ -4454,7 +4449,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
         <v>98</v>
       </c>
@@ -4468,7 +4463,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
         <v>100</v>
       </c>
@@ -4485,7 +4480,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
         <v>101</v>
       </c>
@@ -4499,7 +4494,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
         <v>103</v>
       </c>
@@ -4513,7 +4508,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
         <v>104</v>
       </c>
@@ -4527,7 +4522,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
         <v>105</v>
       </c>
@@ -4541,7 +4536,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
         <v>106</v>
       </c>
@@ -4555,7 +4550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
         <v>107</v>
       </c>
@@ -4569,7 +4564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
         <v>108</v>
       </c>
@@ -4583,7 +4578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
         <v>109</v>
       </c>
@@ -4597,7 +4592,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="s">
         <v>110</v>
       </c>
@@ -4611,7 +4606,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="26" t="s">
         <v>111</v>
       </c>
@@ -4625,7 +4620,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="62" t="s">
         <v>112</v>
       </c>
@@ -4639,7 +4634,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="26" t="s">
         <v>113</v>
       </c>
@@ -4649,7 +4644,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
         <v>114</v>
       </c>
@@ -4675,14 +4670,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>

--- a/Document Library/Bill Of Materials/V-Baby BOM.xlsx
+++ b/Document Library/Bill Of Materials/V-Baby BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/V-Baby CoreXY/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2536" documentId="11_2E462098BBA7632759C38D02185E4833A2B67484" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7FA8670-BA6E-4E24-9F01-71D410423B88}"/>
+  <xr:revisionPtr revIDLastSave="2541" documentId="11_2E462098BBA7632759C38D02185E4833A2B67484" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5096FF90-CC45-407E-A09A-ACA9C75E91A1}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OpenBuild Part List" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="252">
   <si>
     <t>Exstrusions</t>
   </si>
@@ -544,9 +544,6 @@
     <t>Dragon Hotend</t>
   </si>
   <si>
-    <t>6Pack Endstops</t>
-  </si>
-  <si>
     <t>BMG Type Filament Extruder</t>
   </si>
   <si>
@@ -791,6 +788,9 @@
   </si>
   <si>
     <t>Size: W 7mm without t</t>
+  </si>
+  <si>
+    <t>3PCS</t>
   </si>
 </sst>
 </file>
@@ -2578,7 +2578,7 @@
       <c r="F15" s="160"/>
       <c r="G15" s="40"/>
       <c r="H15" s="49" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I15" s="15"/>
       <c r="J15" s="59"/>
@@ -2601,7 +2601,7 @@
       <c r="F16" s="160"/>
       <c r="G16" s="40"/>
       <c r="H16" s="51" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I16" s="60" t="s">
         <v>120</v>
@@ -3252,11 +3252,11 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="120" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B4" s="121"/>
       <c r="C4" s="121" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D4" s="122"/>
       <c r="E4" s="123">
@@ -3289,39 +3289,39 @@
     </row>
     <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="156" t="s">
+        <v>239</v>
+      </c>
+      <c r="B6" s="87" t="s">
         <v>240</v>
       </c>
-      <c r="B6" s="87" t="s">
+      <c r="C6" s="157" t="s">
         <v>241</v>
       </c>
-      <c r="C6" s="157" t="s">
+      <c r="D6" s="158" t="s">
         <v>242</v>
       </c>
-      <c r="D6" s="158" t="s">
+      <c r="E6" s="158" t="s">
         <v>243</v>
       </c>
-      <c r="E6" s="158" t="s">
+      <c r="F6" s="158" t="s">
         <v>244</v>
       </c>
-      <c r="F6" s="158" t="s">
+      <c r="G6" s="158" t="s">
         <v>245</v>
-      </c>
-      <c r="G6" s="158" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C7" s="91">
         <v>4</v>
       </c>
       <c r="D7" s="105" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E7" s="102">
         <v>16</v>
@@ -3331,16 +3331,16 @@
     </row>
     <row r="8" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C8" s="91">
         <v>2</v>
       </c>
       <c r="D8" s="105" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E8" s="102">
         <v>10</v>
@@ -3350,16 +3350,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="B9" s="29" t="s">
         <v>238</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>239</v>
       </c>
       <c r="C9" s="91">
         <v>1</v>
       </c>
       <c r="D9" s="105" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E9" s="103">
         <v>5</v>
@@ -3369,16 +3369,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C10" s="91" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D10" s="105" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E10" s="103">
         <v>22</v>
@@ -3388,16 +3388,16 @@
     </row>
     <row r="11" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C11" s="91">
         <v>2</v>
       </c>
       <c r="D11" s="105" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E11" s="102">
         <v>10</v>
@@ -3407,16 +3407,16 @@
     </row>
     <row r="12" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C12" s="91">
         <v>6</v>
       </c>
       <c r="D12" s="105" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E12" s="102">
         <v>28</v>
@@ -3426,7 +3426,7 @@
     </row>
     <row r="13" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B13" s="29" t="s">
         <v>68</v>
@@ -3435,7 +3435,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="105" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E13" s="103">
         <v>11</v>
@@ -3445,16 +3445,16 @@
     </row>
     <row r="14" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C14" s="91" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D14" s="105" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E14" s="103">
         <v>19</v>
@@ -3464,16 +3464,16 @@
     </row>
     <row r="15" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B15" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="C15" s="91" t="s">
+        <v>215</v>
+      </c>
+      <c r="D15" s="154" t="s">
         <v>223</v>
-      </c>
-      <c r="C15" s="91" t="s">
-        <v>216</v>
-      </c>
-      <c r="D15" s="154" t="s">
-        <v>224</v>
       </c>
       <c r="E15" s="103">
         <v>3</v>
@@ -3492,7 +3492,7 @@
         <v>80</v>
       </c>
       <c r="D16" s="105" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E16" s="102">
         <v>15</v>
@@ -3511,7 +3511,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="105" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E17" s="103">
         <v>2.5</v>
@@ -3568,7 +3568,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="105" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E20" s="103">
         <v>60</v>
@@ -3581,13 +3581,13 @@
         <v>59</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C21" s="91">
         <v>1</v>
       </c>
       <c r="D21" s="105" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E21" s="103">
         <v>31</v>
@@ -3597,7 +3597,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B22" s="29" t="s">
         <v>45</v>
@@ -3606,7 +3606,7 @@
         <v>2</v>
       </c>
       <c r="D22" s="105" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E22" s="103">
         <v>10</v>
@@ -3616,7 +3616,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B23" s="29" t="s">
         <v>44</v>
@@ -3625,7 +3625,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="105" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E23" s="103">
         <v>2</v>
@@ -3635,7 +3635,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B24" s="29" t="s">
         <v>43</v>
@@ -3644,7 +3644,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="105" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E24" s="103">
         <v>10</v>
@@ -3686,7 +3686,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="105" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E26" s="103">
         <v>73</v>
@@ -3696,16 +3696,16 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="C27" s="91" t="s">
+        <v>214</v>
+      </c>
+      <c r="D27" s="105" t="s">
         <v>213</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>212</v>
-      </c>
-      <c r="C27" s="91" t="s">
-        <v>215</v>
-      </c>
-      <c r="D27" s="105" t="s">
-        <v>214</v>
       </c>
       <c r="E27" s="103">
         <v>30</v>
@@ -3720,11 +3720,11 @@
       <c r="B28" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="91" t="s">
-        <v>216</v>
+      <c r="C28" s="91">
+        <v>3</v>
       </c>
       <c r="D28" s="105" t="s">
-        <v>169</v>
+        <v>251</v>
       </c>
       <c r="E28" s="103">
         <v>4</v>
@@ -3800,7 +3800,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="105" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E32" s="103">
         <v>40</v>
@@ -3829,16 +3829,16 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C34" s="91">
         <v>1</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E34" s="103">
         <v>8.5</v>
@@ -3848,16 +3848,16 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B35" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="C35" s="91" t="s">
+        <v>218</v>
+      </c>
+      <c r="D35" s="147" t="s">
         <v>220</v>
-      </c>
-      <c r="C35" s="91" t="s">
-        <v>219</v>
-      </c>
-      <c r="D35" s="147" t="s">
-        <v>221</v>
       </c>
       <c r="E35" s="103">
         <v>19</v>
@@ -3867,16 +3867,16 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B36" s="29" t="s">
         <v>227</v>
-      </c>
-      <c r="B36" s="29" t="s">
-        <v>228</v>
       </c>
       <c r="C36" s="91">
         <v>1</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E36" s="103">
         <v>6</v>
@@ -3919,7 +3919,7 @@
     </row>
     <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="124" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B39" s="125"/>
       <c r="C39" s="125"/>
@@ -3937,14 +3937,14 @@
     <hyperlink ref="D30" r:id="rId3" display="Link" xr:uid="{401DDADA-DB79-4416-96CF-3B1D6329769B}"/>
     <hyperlink ref="D24" r:id="rId4" display="24V Dual Ball" xr:uid="{98BCAD8D-1DD9-49E5-B60D-FB8A39108E71}"/>
     <hyperlink ref="D14" r:id="rId5" display="4M Color: 2GT 6MM" xr:uid="{9F0DE403-B0EC-4933-928F-2806FBCF603A}"/>
-    <hyperlink ref="D29" r:id="rId6" display="Link" xr:uid="{45531F32-6B6C-44D5-9B2A-FB1F259BC9F9}"/>
+    <hyperlink ref="D29" r:id="rId6" xr:uid="{45531F32-6B6C-44D5-9B2A-FB1F259BC9F9}"/>
     <hyperlink ref="D13" r:id="rId7" xr:uid="{43C03DCA-7867-4C9F-B1D0-8588267A1C82}"/>
     <hyperlink ref="D33" r:id="rId8" xr:uid="{A901DFE1-486C-4AC2-8672-C18618945E04}"/>
     <hyperlink ref="D31" r:id="rId9" xr:uid="{BA467D2F-0948-4A82-B49C-B8DCBA7936A0}"/>
     <hyperlink ref="D27" r:id="rId10" xr:uid="{49178A12-AF45-4969-AC8E-49BA3EBADDA9}"/>
     <hyperlink ref="D26" r:id="rId11" xr:uid="{537A3F3C-7C92-42A9-B8B2-F37129F7787F}"/>
     <hyperlink ref="D17" r:id="rId12" xr:uid="{82909F8B-3A14-4248-8CB2-384756C6E8BE}"/>
-    <hyperlink ref="D28" r:id="rId13" display="6Pcs Endstops" xr:uid="{4AEFCE09-28B7-4C24-82DE-ADAB9CAA43E1}"/>
+    <hyperlink ref="D28" r:id="rId13" xr:uid="{4AEFCE09-28B7-4C24-82DE-ADAB9CAA43E1}"/>
     <hyperlink ref="D37" r:id="rId14" xr:uid="{0ED2334F-09CF-437E-82F8-E81D86F288DC}"/>
     <hyperlink ref="D16" r:id="rId15" xr:uid="{A333F16C-7F8A-421A-B64A-B04B701B747A}"/>
     <hyperlink ref="D20" r:id="rId16" display="MKS DUET WIFI Clone" xr:uid="{F52EB8DF-670A-4145-90A1-8A8DF8B4B7B2}"/>
@@ -3993,91 +3993,91 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="152" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B1" s="152" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C1" s="122"/>
       <c r="D1" s="152" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2" s="149" t="s">
         <v>186</v>
       </c>
-      <c r="B2" s="149" t="s">
+      <c r="D2" s="142" t="s">
         <v>187</v>
-      </c>
-      <c r="D2" s="142" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3" s="149" t="s">
         <v>190</v>
       </c>
-      <c r="B3" s="149" t="s">
-        <v>191</v>
-      </c>
       <c r="D3" s="150" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B4" s="142" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D4" s="150" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="B5" s="142" t="s">
         <v>193</v>
       </c>
-      <c r="B5" s="142" t="s">
+      <c r="D5" s="150" t="s">
         <v>194</v>
-      </c>
-      <c r="D5" s="150" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B6" s="142" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D6" s="150" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B7" s="150" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D7" s="149" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="148" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B8" s="143" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D8" s="151" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/Document Library/Bill Of Materials/V-Baby BOM.xlsx
+++ b/Document Library/Bill Of Materials/V-Baby BOM.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -3208,7 +3208,9 @@
   </sheetPr>
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Document Library/Bill Of Materials/V-Baby BOM.xlsx
+++ b/Document Library/Bill Of Materials/V-Baby BOM.xlsx
@@ -1,24 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/V-Baby CoreXY/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2541" documentId="11_2E462098BBA7632759C38D02185E4833A2B67484" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5096FF90-CC45-407E-A09A-ACA9C75E91A1}"/>
+  <xr:revisionPtr revIDLastSave="2543" documentId="11_2E462098BBA7632759C38D02185E4833A2B67484" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3260E91-8503-4513-A99A-B1DBFE49996C}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OpenBuild Part List" sheetId="1" r:id="rId1"/>
     <sheet name="V-Slot Calculator" sheetId="6" r:id="rId2"/>
     <sheet name="Component Part List" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId4"/>
-    <sheet name="Fasteners" sheetId="5" r:id="rId5"/>
-    <sheet name="Cable Managment" sheetId="4" r:id="rId6"/>
+    <sheet name="Fasteners" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="237">
   <si>
     <t>Exstrusions</t>
   </si>
@@ -584,51 +582,6 @@
   </si>
   <si>
     <t>No cuts - No tapps</t>
-  </si>
-  <si>
-    <t>WORM GEAR</t>
-  </si>
-  <si>
-    <t>BELT GEAR</t>
-  </si>
-  <si>
-    <t>PRICE</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>Requirement</t>
-  </si>
-  <si>
-    <t>Availability</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>Maintenance</t>
-  </si>
-  <si>
-    <t>Presicion</t>
-  </si>
-  <si>
-    <t>Low-Medium</t>
-  </si>
-  <si>
-    <t>Medium-High</t>
-  </si>
-  <si>
-    <t>Backlash</t>
-  </si>
-  <si>
-    <t>Resume Option</t>
-  </si>
-  <si>
-    <t>Smoothness</t>
   </si>
   <si>
     <t>GT2 Pulleys and 200 mm Belt</t>
@@ -898,7 +851,7 @@
       <family val="4"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -968,12 +921,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="35">
     <border>
@@ -1380,14 +1327,12 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1395,17 +1340,16 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="6" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1426,14 +1370,13 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="21" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="12" xfId="3" applyFill="1" applyBorder="1"/>
@@ -1445,11 +1388,10 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -1470,37 +1412,29 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -1508,8 +1442,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="3" applyBorder="1"/>
@@ -1517,9 +1449,8 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1531,14 +1462,12 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="3" applyBorder="1"/>
@@ -1560,8 +1489,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1583,23 +1510,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2050,9 +1969,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2090,9 +2009,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2125,26 +2044,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2177,26 +2079,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2390,432 +2275,406 @@
   <sheetData>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="45" t="s">
+      <c r="F7" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="G7" s="43"/>
-      <c r="H7" s="56" t="s">
+      <c r="G7" s="39"/>
+      <c r="H7" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="I7" s="55"/>
-      <c r="J7" s="57" t="s">
+      <c r="I7" s="51"/>
+      <c r="J7" s="53" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="159" t="s">
+      <c r="A8" s="42"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="137" t="s">
         <v>116</v>
       </c>
-      <c r="G8" s="40"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="58"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="54"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9">
         <v>4</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="8">
         <f>D9*310</f>
         <v>1240</v>
       </c>
-      <c r="F9" s="160"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="59"/>
+      <c r="F9" s="138"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="55"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="21">
         <v>4</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="20">
         <f>D10*350</f>
         <v>1400</v>
       </c>
-      <c r="F10" s="160"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="58"/>
+      <c r="F10" s="138"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="54"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11">
         <v>5</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="8">
         <f>D11*340</f>
         <v>1700</v>
       </c>
-      <c r="F11" s="160"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="59"/>
+      <c r="F11" s="138"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="55"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="21">
         <v>1</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="20">
         <f>D12*295</f>
         <v>295</v>
       </c>
-      <c r="F12" s="160"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="58"/>
+      <c r="F12" s="138"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="54"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="160"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="59"/>
+      <c r="A13" s="43"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="138"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="23"/>
+      <c r="J13" s="55"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="24">
+      <c r="D14" s="21">
         <v>1</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="20">
         <f>D14*290</f>
         <v>290</v>
       </c>
-      <c r="F14" s="160"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="58"/>
+      <c r="F14" s="138"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="54"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15">
         <v>2</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="8">
         <f>D15*350</f>
         <v>700</v>
       </c>
-      <c r="F15" s="160"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="49" t="s">
+      <c r="F15" s="138"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="45" t="s">
         <v>182</v>
       </c>
-      <c r="I15" s="15"/>
-      <c r="J15" s="59"/>
-    </row>
-    <row r="16" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="48" t="s">
+      <c r="I15" s="12"/>
+      <c r="J15" s="55"/>
+    </row>
+    <row r="16" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="22">
+      <c r="D16" s="21"/>
+      <c r="E16" s="19">
         <f>SUM(E9:E15)</f>
         <v>5625</v>
       </c>
-      <c r="F16" s="160"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="51" t="s">
+      <c r="F16" s="138"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="47" t="s">
         <v>181</v>
       </c>
-      <c r="I16" s="60" t="s">
+      <c r="I16" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="J16" s="58">
+      <c r="J16" s="54">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="160"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="26" t="s">
+      <c r="A17" s="43"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="138"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="61"/>
-      <c r="J17" s="59">
+      <c r="J17" s="55">
         <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="24">
+      <c r="D18" s="21">
         <v>18</v>
       </c>
-      <c r="E18" s="21"/>
-      <c r="F18" s="160"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="51" t="s">
+      <c r="E18" s="18"/>
+      <c r="F18" s="138"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="I18" s="60" t="s">
+      <c r="I18" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="J18" s="58">
+      <c r="J18" s="54">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="47"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="160"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="59"/>
+      <c r="A19" s="43"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="138"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="23"/>
+      <c r="J19" s="55"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="48" t="s">
+      <c r="A20" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="24">
+      <c r="D20" s="21">
         <v>30</v>
       </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="160"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="51" t="s">
+      <c r="E20" s="18"/>
+      <c r="F20" s="138"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="I20" s="60" t="s">
+      <c r="I20" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="J20" s="58">
+      <c r="J20" s="54">
         <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="25">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="22">
         <v>360</v>
       </c>
-      <c r="G21" s="44"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="25">
+      <c r="G21" s="40"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="22">
         <f>SUM(J8:J20)</f>
         <v>158</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G22" s="14"/>
-    </row>
     <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="30">
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="27">
         <f>F21</f>
         <v>360</v>
       </c>
-      <c r="G24" s="41"/>
-      <c r="H24" s="32" t="s">
+      <c r="H24" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="I24" s="35"/>
-      <c r="J24" s="30">
+      <c r="I24" s="32"/>
+      <c r="J24" s="27">
         <f>J21</f>
         <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="146">
+      <c r="F25" s="130">
         <f>'Component Part List'!$E$38</f>
         <v>523.5</v>
       </c>
-      <c r="G25" s="41"/>
-      <c r="H25" s="26" t="s">
+      <c r="H25" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="I25" s="6"/>
-      <c r="J25" s="146">
+      <c r="J25" s="130">
         <f>'Component Part List'!$E$38</f>
         <v>523.5</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="31" t="s">
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="G26" s="41"/>
-      <c r="H26" s="27" t="s">
+      <c r="H26" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="I26" s="24"/>
-      <c r="J26" s="31" t="s">
+      <c r="I26" s="21"/>
+      <c r="J26" s="28" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="39" t="s">
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="G27" s="41"/>
-      <c r="H27" s="26" t="s">
+      <c r="H27" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="I27" s="6"/>
-      <c r="J27" s="146">
+      <c r="J27" s="130">
         <f>Fasteners!D39</f>
         <v>80.600000000000009</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="34">
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="31">
         <f>SUM(F24:F27)</f>
         <v>883.5</v>
       </c>
-      <c r="G28" s="41"/>
-      <c r="H28" s="52" t="s">
+      <c r="H28" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="I28" s="53"/>
-      <c r="J28" s="54">
+      <c r="I28" s="49"/>
+      <c r="J28" s="50">
         <f>SUM(J24:J27)</f>
         <v>762.1</v>
       </c>
@@ -2846,334 +2705,311 @@
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="72" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="67" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="77"/>
-    </row>
-    <row r="7" spans="1:7" s="73" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="128" t="s">
+      <c r="B6" s="70"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="72"/>
+    </row>
+    <row r="7" spans="1:7" s="68" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="114" t="s">
         <v>126</v>
       </c>
-      <c r="B7" s="129"/>
-      <c r="C7" s="130" t="s">
+      <c r="B7" s="115"/>
+      <c r="C7" s="116" t="s">
         <v>147</v>
       </c>
-      <c r="D7" s="128" t="s">
+      <c r="D7" s="114" t="s">
         <v>130</v>
       </c>
-      <c r="E7" s="129"/>
-      <c r="F7" s="128" t="s">
+      <c r="E7" s="115"/>
+      <c r="F7" s="114" t="s">
         <v>131</v>
       </c>
-      <c r="G7" s="129"/>
+      <c r="G7" s="115"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="73" t="s">
         <v>140</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="8">
         <v>310</v>
       </c>
-      <c r="C8" s="131" t="s">
+      <c r="C8" s="117" t="s">
         <v>143</v>
       </c>
-      <c r="D8" s="78">
+      <c r="D8" s="73">
         <f>B8+50</f>
         <v>360</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="78">
+      <c r="E8" s="8"/>
+      <c r="F8" s="73">
         <f>B8+100</f>
         <v>410</v>
       </c>
-      <c r="G8" s="10"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="73" t="s">
         <v>141</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="8">
         <v>350</v>
       </c>
-      <c r="C9" s="131" t="s">
+      <c r="C9" s="117" t="s">
         <v>143</v>
       </c>
-      <c r="D9" s="78">
+      <c r="D9" s="73">
         <f>B9+50</f>
         <v>400</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="F9" s="78">
+      <c r="F9" s="73">
         <f>B9+100</f>
         <v>450</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="8" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="78" t="s">
+      <c r="A10" s="73" t="s">
         <v>142</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="8">
         <v>340</v>
       </c>
-      <c r="C10" s="131" t="s">
+      <c r="C10" s="117" t="s">
         <v>144</v>
       </c>
-      <c r="D10" s="78">
+      <c r="D10" s="73">
         <f>B10+50</f>
         <v>390</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="78">
+      <c r="E10" s="8"/>
+      <c r="F10" s="73">
         <f>B10+100</f>
         <v>440</v>
       </c>
-      <c r="G10" s="10"/>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="78" t="s">
+      <c r="A11" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="117">
+      <c r="B11" s="8">
         <v>290</v>
       </c>
-      <c r="C11" s="131" t="s">
+      <c r="C11" s="117" t="s">
         <v>145</v>
       </c>
-      <c r="D11" s="78">
+      <c r="D11" s="73">
         <f t="shared" ref="D11:D13" si="0">B11+50</f>
         <v>340</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="78">
+      <c r="E11" s="8"/>
+      <c r="F11" s="73">
         <f t="shared" ref="F11:F13" si="1">B11+100</f>
         <v>390</v>
       </c>
-      <c r="G11" s="10"/>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="78" t="s">
+      <c r="A12" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="117">
+      <c r="B12" s="8">
         <v>350</v>
       </c>
-      <c r="C12" s="131" t="s">
+      <c r="C12" s="117" t="s">
         <v>146</v>
       </c>
-      <c r="D12" s="78">
+      <c r="D12" s="73">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="78">
+      <c r="E12" s="8"/>
+      <c r="F12" s="73">
         <f t="shared" si="1"/>
         <v>450</v>
       </c>
-      <c r="G12" s="10"/>
+      <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="84" t="s">
+      <c r="A13" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="116">
+      <c r="B13" s="78">
         <v>295</v>
       </c>
-      <c r="C13" s="132" t="s">
+      <c r="C13" s="118" t="s">
         <v>145</v>
       </c>
-      <c r="D13" s="84">
+      <c r="D13" s="77">
         <f t="shared" si="0"/>
         <v>345</v>
       </c>
-      <c r="E13" s="85"/>
-      <c r="F13" s="84">
+      <c r="E13" s="78"/>
+      <c r="F13" s="77">
         <f t="shared" si="1"/>
         <v>395</v>
       </c>
-      <c r="G13" s="85"/>
+      <c r="G13" s="78"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="78"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="10"/>
-    </row>
-    <row r="15" spans="1:7" s="73" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="80" t="s">
+      <c r="A14" s="73"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" s="68" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="B15" s="81"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="83"/>
+      <c r="C15" s="75"/>
+      <c r="G15" s="76"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="78" t="s">
+      <c r="A16" s="73" t="s">
         <v>132</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="10"/>
+      <c r="G16" s="8"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="140" t="s">
+      <c r="A17" s="124" t="s">
         <v>134</v>
       </c>
-      <c r="B17" s="141"/>
-      <c r="C17" s="135" t="s">
+      <c r="B17" s="125"/>
+      <c r="C17" s="119" t="s">
         <v>136</v>
       </c>
-      <c r="D17" s="144" t="s">
+      <c r="D17" s="128" t="s">
         <v>135</v>
       </c>
-      <c r="E17" s="145"/>
-      <c r="F17" s="127" t="s">
+      <c r="E17" s="129"/>
+      <c r="F17" s="113" t="s">
         <v>147</v>
       </c>
-      <c r="G17" s="77"/>
+      <c r="G17" s="72"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="78" t="s">
+      <c r="A18" s="73" t="s">
         <v>140</v>
       </c>
-      <c r="B18" s="138">
+      <c r="B18" s="122">
         <v>390</v>
       </c>
-      <c r="C18" s="136" t="s">
+      <c r="C18" s="120" t="s">
         <v>127</v>
       </c>
-      <c r="D18" s="142">
+      <c r="D18" s="126">
         <f>B18+110</f>
         <v>500</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="78" t="s">
+      <c r="E18" s="8"/>
+      <c r="F18" s="73" t="s">
         <v>143</v>
       </c>
-      <c r="G18" s="10"/>
+      <c r="G18" s="8"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="78" t="s">
+      <c r="A19" s="73" t="s">
         <v>141</v>
       </c>
-      <c r="B19" s="138">
+      <c r="B19" s="122">
         <v>350</v>
       </c>
-      <c r="C19" s="136" t="s">
+      <c r="C19" s="120" t="s">
         <v>128</v>
       </c>
-      <c r="D19" s="142">
+      <c r="D19" s="126">
         <f>B19+150</f>
         <v>500</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="78" t="s">
+      <c r="E19" s="8"/>
+      <c r="F19" s="73" t="s">
         <v>143</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="8" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="78" t="s">
+      <c r="A20" s="73" t="s">
         <v>142</v>
       </c>
-      <c r="B20" s="138">
+      <c r="B20" s="122">
         <v>360</v>
       </c>
-      <c r="C20" s="136" t="s">
+      <c r="C20" s="120" t="s">
         <v>129</v>
       </c>
-      <c r="D20" s="142">
+      <c r="D20" s="126">
         <f>B20+140</f>
         <v>500</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="78" t="s">
+      <c r="E20" s="8"/>
+      <c r="F20" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="G20" s="10"/>
+      <c r="G20" s="8"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="78" t="s">
+      <c r="A21" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="138"/>
-      <c r="C21" s="136"/>
-      <c r="D21" s="142">
+      <c r="B21" s="122"/>
+      <c r="C21" s="120"/>
+      <c r="D21" s="126">
         <f>B18+90</f>
         <v>480</v>
       </c>
-      <c r="E21" s="117"/>
-      <c r="F21" s="133" t="s">
+      <c r="E21" s="8"/>
+      <c r="F21" s="73" t="s">
         <v>145</v>
       </c>
-      <c r="G21" s="10"/>
+      <c r="G21" s="8"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="78" t="s">
+      <c r="A22" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="138"/>
-      <c r="C22" s="136"/>
-      <c r="D22" s="142">
+      <c r="B22" s="122"/>
+      <c r="C22" s="120"/>
+      <c r="D22" s="126">
         <f>B19+150</f>
         <v>500</v>
       </c>
-      <c r="E22" s="117"/>
-      <c r="F22" s="133" t="s">
+      <c r="E22" s="8"/>
+      <c r="F22" s="73" t="s">
         <v>146</v>
       </c>
-      <c r="G22" s="10"/>
+      <c r="G22" s="8"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="84" t="s">
+      <c r="A23" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="139"/>
-      <c r="C23" s="137"/>
-      <c r="D23" s="143">
+      <c r="B23" s="123"/>
+      <c r="C23" s="121"/>
+      <c r="D23" s="127">
         <f>B18+95</f>
         <v>485</v>
       </c>
-      <c r="E23" s="116"/>
-      <c r="F23" s="134" t="s">
+      <c r="E23" s="78"/>
+      <c r="F23" s="77" t="s">
         <v>145</v>
       </c>
-      <c r="G23" s="85"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
+      <c r="G23" s="78"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -3181,12 +3017,12 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="4" t="s">
         <v>139</v>
       </c>
     </row>
@@ -3208,7 +3044,7 @@
   </sheetPr>
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -3219,714 +3055,710 @@
     <col min="3" max="3" width="8.42578125" customWidth="1"/>
     <col min="4" max="4" width="37.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" style="14" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="110"/>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="113"/>
+      <c r="A1" s="98"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="101"/>
     </row>
     <row r="2" spans="1:7" ht="27.75" x14ac:dyDescent="0.5">
-      <c r="A2" s="114"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="87" t="s">
+      <c r="A2" s="102"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="E2" s="88"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="115"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="103"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="78"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="116"/>
+      <c r="A3" s="73"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="78"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="106" t="s">
         <v>171</v>
       </c>
-      <c r="B4" s="121"/>
-      <c r="C4" s="121" t="s">
+      <c r="B4" s="107"/>
+      <c r="C4" s="107" t="s">
         <v>172</v>
       </c>
-      <c r="D4" s="122"/>
-      <c r="E4" s="123">
+      <c r="D4" s="108"/>
+      <c r="E4" s="109">
         <v>334</v>
       </c>
-      <c r="G4" s="117"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="118" t="s">
+      <c r="A5" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="119" t="s">
+      <c r="B5" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="119" t="s">
+      <c r="C5" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="119" t="s">
+      <c r="D5" s="105" t="s">
         <v>158</v>
       </c>
-      <c r="E5" s="119" t="s">
+      <c r="E5" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="98" t="s">
+      <c r="F5" s="89" t="s">
         <v>159</v>
       </c>
-      <c r="G5" s="99" t="s">
+      <c r="G5" s="90" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="156" t="s">
-        <v>239</v>
-      </c>
-      <c r="B6" s="87" t="s">
-        <v>240</v>
-      </c>
-      <c r="C6" s="157" t="s">
-        <v>241</v>
-      </c>
-      <c r="D6" s="158" t="s">
-        <v>242</v>
-      </c>
-      <c r="E6" s="158" t="s">
-        <v>243</v>
-      </c>
-      <c r="F6" s="158" t="s">
-        <v>244</v>
-      </c>
-      <c r="G6" s="158" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A6" s="135" t="s">
+        <v>224</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>225</v>
+      </c>
+      <c r="C6" s="136" t="s">
+        <v>226</v>
+      </c>
+      <c r="D6" s="136" t="s">
+        <v>227</v>
+      </c>
+      <c r="E6" s="136" t="s">
+        <v>228</v>
+      </c>
+      <c r="F6" s="136" t="s">
+        <v>229</v>
+      </c>
+      <c r="G6" s="136" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="C7" s="83">
+        <v>4</v>
+      </c>
+      <c r="D7" s="94" t="s">
+        <v>213</v>
+      </c>
+      <c r="E7" s="92">
+        <v>16</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="132"/>
+    </row>
+    <row r="8" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="C8" s="83">
+        <v>2</v>
+      </c>
+      <c r="D8" s="94" t="s">
+        <v>214</v>
+      </c>
+      <c r="E8" s="92">
+        <v>10</v>
+      </c>
+      <c r="F8" s="87"/>
+      <c r="G8" s="92"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="C9" s="83">
+        <v>1</v>
+      </c>
+      <c r="D9" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E9" s="92">
+        <v>5</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="92"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="C10" s="83" t="s">
+        <v>178</v>
+      </c>
+      <c r="D10" s="94" t="s">
+        <v>234</v>
+      </c>
+      <c r="E10" s="92">
+        <v>22</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="92"/>
+    </row>
+    <row r="11" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" s="83">
+        <v>2</v>
+      </c>
+      <c r="D11" s="94" t="s">
+        <v>235</v>
+      </c>
+      <c r="E11" s="92">
+        <v>10</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="92"/>
+    </row>
+    <row r="12" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>190</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12" s="83">
+        <v>6</v>
+      </c>
+      <c r="D12" s="94" t="s">
+        <v>215</v>
+      </c>
+      <c r="E12" s="92">
+        <v>28</v>
+      </c>
+      <c r="F12" s="87"/>
+      <c r="G12" s="92"/>
+    </row>
+    <row r="13" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>219</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="83">
+        <v>2</v>
+      </c>
+      <c r="D13" s="94" t="s">
+        <v>188</v>
+      </c>
+      <c r="E13" s="92">
+        <v>11</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="92"/>
+    </row>
+    <row r="14" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>221</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="C14" s="83" t="s">
+        <v>178</v>
+      </c>
+      <c r="D14" s="94" t="s">
         <v>233</v>
       </c>
-      <c r="B7" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="C7" s="91">
+      <c r="E14" s="92">
+        <v>19</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="92"/>
+    </row>
+    <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>209</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="C15" s="83" t="s">
+        <v>200</v>
+      </c>
+      <c r="D15" s="133" t="s">
+        <v>208</v>
+      </c>
+      <c r="E15" s="92">
+        <v>3</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="92"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>150</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="C16" s="83">
+        <v>80</v>
+      </c>
+      <c r="D16" s="94" t="s">
+        <v>184</v>
+      </c>
+      <c r="E16" s="92">
+        <v>15</v>
+      </c>
+      <c r="F16" s="87"/>
+      <c r="G16" s="92"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="83">
+        <v>1</v>
+      </c>
+      <c r="D17" s="94" t="s">
+        <v>192</v>
+      </c>
+      <c r="E17" s="92">
+        <v>2.5</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="92"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>161</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="C18" s="83">
+        <v>1</v>
+      </c>
+      <c r="D18" s="94" t="s">
+        <v>160</v>
+      </c>
+      <c r="E18" s="92">
+        <v>2.5</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="92"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>165</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="C19" s="83">
+        <v>1</v>
+      </c>
+      <c r="D19" s="94" t="s">
+        <v>164</v>
+      </c>
+      <c r="E19" s="92">
+        <v>8</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="92"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="C20" s="83">
+        <v>1</v>
+      </c>
+      <c r="D20" s="94" t="s">
+        <v>185</v>
+      </c>
+      <c r="E20" s="92">
+        <v>60</v>
+      </c>
+      <c r="F20" s="87"/>
+      <c r="G20" s="92"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="C21" s="83">
+        <v>1</v>
+      </c>
+      <c r="D21" s="94" t="s">
+        <v>170</v>
+      </c>
+      <c r="E21" s="92">
+        <v>31</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="92"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>195</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="83">
+        <v>2</v>
+      </c>
+      <c r="D22" s="94" t="s">
+        <v>193</v>
+      </c>
+      <c r="E22" s="92">
+        <v>10</v>
+      </c>
+      <c r="F22" s="87"/>
+      <c r="G22" s="92"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>194</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="83">
+        <v>1</v>
+      </c>
+      <c r="D23" s="94" t="s">
+        <v>186</v>
+      </c>
+      <c r="E23" s="92">
+        <v>2</v>
+      </c>
+      <c r="F23" s="12"/>
+      <c r="G23" s="92"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>231</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="83">
+        <v>2</v>
+      </c>
+      <c r="D24" s="94" t="s">
+        <v>187</v>
+      </c>
+      <c r="E24" s="92">
+        <v>10</v>
+      </c>
+      <c r="F24" s="12"/>
+      <c r="G24" s="92"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>152</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="C25" s="83">
+        <v>1</v>
+      </c>
+      <c r="D25" s="94" t="s">
+        <v>156</v>
+      </c>
+      <c r="E25" s="92">
+        <v>30</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="G25" s="92">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>167</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="C26" s="83">
+        <v>1</v>
+      </c>
+      <c r="D26" s="94" t="s">
+        <v>206</v>
+      </c>
+      <c r="E26" s="92">
+        <v>73</v>
+      </c>
+      <c r="F26" s="12"/>
+      <c r="G26" s="92"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>197</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="C27" s="83" t="s">
+        <v>199</v>
+      </c>
+      <c r="D27" s="94" t="s">
+        <v>198</v>
+      </c>
+      <c r="E27" s="92">
+        <v>30</v>
+      </c>
+      <c r="F27" s="12"/>
+      <c r="G27" s="92"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="83">
+        <v>3</v>
+      </c>
+      <c r="D28" s="94" t="s">
+        <v>236</v>
+      </c>
+      <c r="E28" s="92">
         <v>4</v>
       </c>
-      <c r="D7" s="105" t="s">
-        <v>228</v>
-      </c>
-      <c r="E7" s="102">
-        <v>16</v>
-      </c>
-      <c r="F7" s="92"/>
-      <c r="G7" s="153"/>
-    </row>
-    <row r="8" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>177</v>
-      </c>
-      <c r="C8" s="91">
+      <c r="F28" s="87"/>
+      <c r="G28" s="92"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="83">
+        <v>1</v>
+      </c>
+      <c r="D29" s="94" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" s="92">
+        <v>8.5</v>
+      </c>
+      <c r="F29" s="12"/>
+      <c r="G29" s="92"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="83">
+        <v>1</v>
+      </c>
+      <c r="D30" s="94" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="92">
+        <v>20</v>
+      </c>
+      <c r="F30" s="12"/>
+      <c r="G30" s="92"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="83">
+        <v>1</v>
+      </c>
+      <c r="D31" s="94" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="92">
         <v>2</v>
       </c>
-      <c r="D8" s="105" t="s">
-        <v>229</v>
-      </c>
-      <c r="E8" s="102">
-        <v>10</v>
-      </c>
-      <c r="F8" s="96"/>
-      <c r="G8" s="103"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>238</v>
-      </c>
-      <c r="C9" s="91">
+      <c r="F31" s="91"/>
+      <c r="G31" s="92"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="83">
         <v>1</v>
       </c>
-      <c r="D9" s="105" t="s">
-        <v>247</v>
-      </c>
-      <c r="E9" s="103">
-        <v>5</v>
-      </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="103"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>179</v>
-      </c>
-      <c r="C10" s="91" t="s">
-        <v>178</v>
-      </c>
-      <c r="D10" s="105" t="s">
-        <v>249</v>
-      </c>
-      <c r="E10" s="103">
-        <v>22</v>
-      </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="103"/>
-    </row>
-    <row r="11" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="D32" s="94" t="s">
+        <v>201</v>
+      </c>
+      <c r="E32" s="92">
+        <v>40</v>
+      </c>
+      <c r="F32" s="91"/>
+      <c r="G32" s="92"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="83">
+        <v>1</v>
+      </c>
+      <c r="D33" s="94" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" s="92">
+        <v>3.5</v>
+      </c>
+      <c r="F33" s="134"/>
+      <c r="G33" s="92"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>216</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="C34" s="83">
+        <v>1</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="E34" s="92">
+        <v>8.5</v>
+      </c>
+      <c r="F34" s="12"/>
+      <c r="G34" s="92"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>210</v>
+      </c>
+      <c r="B35" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="B11" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="C11" s="91">
-        <v>2</v>
-      </c>
-      <c r="D11" s="105" t="s">
-        <v>250</v>
-      </c>
-      <c r="E11" s="102">
-        <v>10</v>
-      </c>
-      <c r="F11" s="92"/>
-      <c r="G11" s="102"/>
-    </row>
-    <row r="12" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="C35" s="83" t="s">
+        <v>203</v>
+      </c>
+      <c r="D35" s="131" t="s">
         <v>205</v>
       </c>
-      <c r="B12" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="C12" s="91">
+      <c r="E35" s="92">
+        <v>19</v>
+      </c>
+      <c r="F35" s="12"/>
+      <c r="G35" s="92"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>211</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="C36" s="83">
+        <v>1</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="E36" s="92">
         <v>6</v>
       </c>
-      <c r="D12" s="105" t="s">
-        <v>230</v>
-      </c>
-      <c r="E12" s="102">
-        <v>28</v>
-      </c>
-      <c r="F12" s="96"/>
-      <c r="G12" s="103"/>
-    </row>
-    <row r="13" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="91">
-        <v>2</v>
-      </c>
-      <c r="D13" s="105" t="s">
-        <v>203</v>
-      </c>
-      <c r="E13" s="103">
-        <v>11</v>
-      </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="103"/>
-    </row>
-    <row r="14" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>180</v>
-      </c>
-      <c r="C14" s="91" t="s">
-        <v>178</v>
-      </c>
-      <c r="D14" s="105" t="s">
-        <v>248</v>
-      </c>
-      <c r="E14" s="103">
-        <v>19</v>
-      </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="103"/>
-    </row>
-    <row r="15" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>222</v>
-      </c>
-      <c r="C15" s="91" t="s">
-        <v>215</v>
-      </c>
-      <c r="D15" s="154" t="s">
-        <v>223</v>
-      </c>
-      <c r="E15" s="103">
-        <v>3</v>
-      </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="103"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="C16" s="91">
-        <v>80</v>
-      </c>
-      <c r="D16" s="105" t="s">
-        <v>199</v>
-      </c>
-      <c r="E16" s="102">
-        <v>15</v>
-      </c>
-      <c r="F16" s="96"/>
-      <c r="G16" s="103"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="91">
+      <c r="F36" s="12"/>
+      <c r="G36" s="92"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="97" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="96">
         <v>1</v>
       </c>
-      <c r="D17" s="105" t="s">
-        <v>207</v>
-      </c>
-      <c r="E17" s="103">
-        <v>2.5</v>
-      </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="103"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="C18" s="91">
-        <v>1</v>
-      </c>
-      <c r="D18" s="105" t="s">
-        <v>160</v>
-      </c>
-      <c r="E18" s="103">
-        <v>2.5</v>
-      </c>
-      <c r="F18" s="15"/>
-      <c r="G18" s="103"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C19" s="91">
-        <v>1</v>
-      </c>
-      <c r="D19" s="105" t="s">
-        <v>164</v>
-      </c>
-      <c r="E19" s="103">
-        <v>8</v>
-      </c>
-      <c r="F19" s="15"/>
-      <c r="G19" s="103"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="C20" s="91">
-        <v>1</v>
-      </c>
-      <c r="D20" s="105" t="s">
-        <v>200</v>
-      </c>
-      <c r="E20" s="103">
-        <v>60</v>
-      </c>
-      <c r="F20" s="96"/>
-      <c r="G20" s="103"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>169</v>
-      </c>
-      <c r="C21" s="91">
-        <v>1</v>
-      </c>
-      <c r="D21" s="105" t="s">
-        <v>170</v>
-      </c>
-      <c r="E21" s="103">
-        <v>31</v>
-      </c>
-      <c r="F21" s="15"/>
-      <c r="G21" s="103"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="B22" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="91">
-        <v>2</v>
-      </c>
-      <c r="D22" s="105" t="s">
-        <v>208</v>
-      </c>
-      <c r="E22" s="103">
-        <v>10</v>
-      </c>
-      <c r="F22" s="96"/>
-      <c r="G22" s="103"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="91">
-        <v>1</v>
-      </c>
-      <c r="D23" s="105" t="s">
-        <v>201</v>
-      </c>
-      <c r="E23" s="103">
-        <v>2</v>
-      </c>
-      <c r="F23" s="15"/>
-      <c r="G23" s="103"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="B24" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="91">
-        <v>2</v>
-      </c>
-      <c r="D24" s="105" t="s">
-        <v>202</v>
-      </c>
-      <c r="E24" s="103">
-        <v>10</v>
-      </c>
-      <c r="F24" s="15"/>
-      <c r="G24" s="103"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="C25" s="91">
-        <v>1</v>
-      </c>
-      <c r="D25" s="105" t="s">
-        <v>156</v>
-      </c>
-      <c r="E25" s="103">
-        <v>30</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="G25" s="103">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="C26" s="91">
-        <v>1</v>
-      </c>
-      <c r="D26" s="105" t="s">
-        <v>221</v>
-      </c>
-      <c r="E26" s="103">
-        <v>73</v>
-      </c>
-      <c r="F26" s="15"/>
-      <c r="G26" s="103"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>211</v>
-      </c>
-      <c r="C27" s="91" t="s">
-        <v>214</v>
-      </c>
-      <c r="D27" s="105" t="s">
-        <v>213</v>
-      </c>
-      <c r="E27" s="103">
-        <v>30</v>
-      </c>
-      <c r="F27" s="15"/>
-      <c r="G27" s="103"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" s="108" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="91">
-        <v>3</v>
-      </c>
-      <c r="D28" s="105" t="s">
-        <v>251</v>
-      </c>
-      <c r="E28" s="103">
-        <v>4</v>
-      </c>
-      <c r="F28" s="96"/>
-      <c r="G28" s="103"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B29" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" s="91">
-        <v>1</v>
-      </c>
-      <c r="D29" s="105" t="s">
-        <v>67</v>
-      </c>
-      <c r="E29" s="103">
-        <v>8.5</v>
-      </c>
-      <c r="F29" s="15"/>
-      <c r="G29" s="103"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B30" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="91">
-        <v>1</v>
-      </c>
-      <c r="D30" s="105" t="s">
-        <v>64</v>
-      </c>
-      <c r="E30" s="103">
-        <v>20</v>
-      </c>
-      <c r="F30" s="15"/>
-      <c r="G30" s="103"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B31" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="91">
-        <v>1</v>
-      </c>
-      <c r="D31" s="105" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31" s="103">
-        <v>2</v>
-      </c>
-      <c r="F31" s="100"/>
-      <c r="G31" s="103"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B32" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" s="91">
-        <v>1</v>
-      </c>
-      <c r="D32" s="105" t="s">
-        <v>216</v>
-      </c>
-      <c r="E32" s="103">
-        <v>40</v>
-      </c>
-      <c r="F32" s="100"/>
-      <c r="G32" s="103"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B33" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="91">
-        <v>1</v>
-      </c>
-      <c r="D33" s="105" t="s">
-        <v>55</v>
-      </c>
-      <c r="E33" s="103">
-        <v>3.5</v>
-      </c>
-      <c r="F33" s="155"/>
-      <c r="G33" s="103"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B34" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="C34" s="91">
-        <v>1</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="E34" s="103">
-        <v>8.5</v>
-      </c>
-      <c r="F34" s="15"/>
-      <c r="G34" s="103"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="B35" s="29" t="s">
-        <v>219</v>
-      </c>
-      <c r="C35" s="91" t="s">
-        <v>218</v>
-      </c>
-      <c r="D35" s="147" t="s">
-        <v>220</v>
-      </c>
-      <c r="E35" s="103">
-        <v>19</v>
-      </c>
-      <c r="F35" s="15"/>
-      <c r="G35" s="103"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="B36" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="C36" s="91">
-        <v>1</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="E36" s="103">
-        <v>6</v>
-      </c>
-      <c r="F36" s="15"/>
-      <c r="G36" s="103"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B37" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" s="107">
-        <v>1</v>
-      </c>
-      <c r="D37" s="106" t="s">
+      <c r="D37" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="E37" s="104">
+      <c r="E37" s="93">
         <v>14</v>
       </c>
-      <c r="F37" s="101"/>
-      <c r="G37" s="104"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="93"/>
     </row>
     <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="93" t="s">
+      <c r="A38" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="B38" s="94"/>
-      <c r="C38" s="94"/>
-      <c r="D38" s="94"/>
-      <c r="E38" s="95">
+      <c r="B38" s="85"/>
+      <c r="C38" s="85"/>
+      <c r="D38" s="85"/>
+      <c r="E38" s="86">
         <f>SUBTOTAL(109,Table1[[#All],[Column5]])</f>
         <v>523.5</v>
       </c>
-      <c r="F38" s="64"/>
-      <c r="G38" s="64"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="59"/>
     </row>
     <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="124" t="s">
+      <c r="A39" s="110" t="s">
         <v>173</v>
       </c>
-      <c r="B39" s="125"/>
-      <c r="C39" s="125"/>
-      <c r="D39" s="125"/>
-      <c r="E39" s="126">
+      <c r="B39" s="111"/>
+      <c r="C39" s="111"/>
+      <c r="D39" s="111"/>
+      <c r="E39" s="112">
         <f>E4+E38</f>
         <v>857.5</v>
       </c>
@@ -3978,120 +3810,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{805A8826-0E0A-436E-B61C-106B47A9DE2A}">
-  <dimension ref="A1:D8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="152" t="s">
-        <v>188</v>
-      </c>
-      <c r="B1" s="152" t="s">
-        <v>183</v>
-      </c>
-      <c r="C1" s="122"/>
-      <c r="D1" s="152" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="B2" s="149" t="s">
-        <v>186</v>
-      </c>
-      <c r="D2" s="142" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="B3" s="149" t="s">
-        <v>190</v>
-      </c>
-      <c r="D3" s="150" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="B4" s="142" t="s">
-        <v>187</v>
-      </c>
-      <c r="D4" s="150" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="B5" s="142" t="s">
-        <v>193</v>
-      </c>
-      <c r="D5" s="150" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="B6" s="142" t="s">
-        <v>187</v>
-      </c>
-      <c r="D6" s="150" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="B7" s="150" t="s">
-        <v>186</v>
-      </c>
-      <c r="D7" s="149" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="148" t="s">
-        <v>197</v>
-      </c>
-      <c r="B8" s="143" t="s">
-        <v>187</v>
-      </c>
-      <c r="D8" s="151" t="s">
-        <v>186</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D29D6D75-B7C4-4BE2-88D5-EC1A978798F7}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4106,17 +3828,17 @@
     <col min="10" max="10" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="61" t="s">
         <v>70</v>
       </c>
       <c r="F1" t="s">
@@ -4130,529 +3852,528 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="29">
+      <c r="C2" s="26">
         <v>2</v>
       </c>
-      <c r="D2" s="67">
+      <c r="D2" s="62">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="26">
         <v>4</v>
       </c>
-      <c r="D3" s="67">
+      <c r="D3" s="62">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="26">
         <v>4</v>
       </c>
-      <c r="D4" s="67">
+      <c r="D4" s="62">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="26">
         <v>2</v>
       </c>
-      <c r="D5" s="67">
+      <c r="D5" s="62">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="26">
         <v>2</v>
       </c>
-      <c r="D6" s="67">
+      <c r="D6" s="62">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="26">
         <v>11</v>
       </c>
-      <c r="D7" s="67">
+      <c r="D7" s="62">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="26">
         <v>15</v>
       </c>
-      <c r="D8" s="67">
+      <c r="D8" s="62">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="26">
         <v>6</v>
       </c>
-      <c r="D9" s="67">
+      <c r="D9" s="62">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="26">
         <v>9</v>
       </c>
-      <c r="D10" s="67">
+      <c r="D10" s="62">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="26">
         <v>5</v>
       </c>
-      <c r="D11" s="67">
+      <c r="D11" s="62">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="26">
         <v>8</v>
       </c>
-      <c r="D12" s="67">
+      <c r="D12" s="62">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C13" s="26">
         <v>2</v>
       </c>
-      <c r="D13" s="67">
+      <c r="D13" s="62">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" t="s">
         <v>87</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C14" s="26">
         <v>5</v>
       </c>
-      <c r="D14" s="67">
+      <c r="D14" s="62">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="29">
+      <c r="C15" s="26">
         <v>5</v>
       </c>
-      <c r="D15" s="67">
+      <c r="D15" s="62">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="29">
+      <c r="C16" s="26">
         <v>13</v>
       </c>
-      <c r="D16" s="67">
+      <c r="D16" s="62">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="29">
+      <c r="C17" s="26">
         <v>6</v>
       </c>
-      <c r="D17" s="67">
+      <c r="D17" s="62">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="29">
+      <c r="C18" s="26">
         <v>2</v>
       </c>
-      <c r="D18" s="67">
+      <c r="D18" s="62">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="29">
+      <c r="C19" s="26">
         <v>1</v>
       </c>
-      <c r="D19" s="67">
+      <c r="D19" s="62">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="29">
+      <c r="C20" s="26">
         <v>3</v>
       </c>
-      <c r="D20" s="67">
+      <c r="D20" s="62">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" t="s">
         <v>124</v>
       </c>
-      <c r="C21" s="29">
+      <c r="C21" s="26">
         <v>1</v>
       </c>
-      <c r="D21" s="67">
+      <c r="D21" s="62">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="29">
+      <c r="C22" s="26">
         <v>1</v>
       </c>
-      <c r="D22" s="67">
+      <c r="D22" s="62">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" t="s">
         <v>87</v>
       </c>
-      <c r="C23" s="29">
+      <c r="C23" s="26">
         <v>28</v>
       </c>
-      <c r="D23" s="67">
+      <c r="D23" s="62">
         <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="29">
+      <c r="C24" s="26">
         <v>6</v>
       </c>
-      <c r="D24" s="67">
+      <c r="D24" s="62">
         <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" t="s">
         <v>99</v>
       </c>
-      <c r="C25" s="29">
+      <c r="C25" s="26">
         <v>50</v>
       </c>
-      <c r="D25" s="67">
+      <c r="D25" s="62">
         <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="C26" s="29">
+      <c r="C26" s="26">
         <v>63</v>
       </c>
-      <c r="D26" s="67">
+      <c r="D26" s="62">
         <v>70</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="2" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" t="s">
         <v>102</v>
       </c>
-      <c r="C27" s="29">
+      <c r="C27" s="26">
         <v>143</v>
       </c>
-      <c r="D27" s="67">
+      <c r="D27" s="62">
         <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" t="s">
         <v>81</v>
       </c>
-      <c r="C28" s="29">
+      <c r="C28" s="26">
         <v>200</v>
       </c>
-      <c r="D28" s="67">
+      <c r="D28" s="62">
         <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="29">
+      <c r="C29" s="26">
         <v>142</v>
       </c>
-      <c r="D29" s="67">
+      <c r="D29" s="62">
         <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="26" t="s">
+      <c r="A30" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" t="s">
         <v>75</v>
       </c>
-      <c r="C30" s="29">
+      <c r="C30" s="26">
         <v>8</v>
       </c>
-      <c r="D30" s="67">
+      <c r="D30" s="62">
         <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" t="s">
         <v>75</v>
       </c>
-      <c r="C31" s="29">
+      <c r="C31" s="26">
         <v>1</v>
       </c>
-      <c r="D31" s="67">
+      <c r="D31" s="62">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" t="s">
         <v>75</v>
       </c>
-      <c r="C32" s="29">
+      <c r="C32" s="26">
         <v>2</v>
       </c>
-      <c r="D32" s="67">
+      <c r="D32" s="62">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" t="s">
         <v>75</v>
       </c>
-      <c r="C33" s="29">
+      <c r="C33" s="26">
         <v>2</v>
       </c>
-      <c r="D33" s="67">
+      <c r="D33" s="62">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" t="s">
         <v>75</v>
       </c>
-      <c r="C34" s="29">
+      <c r="C34" s="26">
         <v>18</v>
       </c>
-      <c r="D34" s="67">
+      <c r="D34" s="62">
         <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" t="s">
         <v>75</v>
       </c>
-      <c r="C35" s="29">
+      <c r="C35" s="26">
         <v>8</v>
       </c>
-      <c r="D35" s="67">
+      <c r="D35" s="62">
         <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" t="s">
         <v>124</v>
       </c>
-      <c r="C36" s="29">
+      <c r="C36" s="26">
         <v>4</v>
       </c>
-      <c r="D36" s="67">
+      <c r="D36" s="62">
         <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="62" t="s">
+      <c r="A37" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="B37" s="63"/>
-      <c r="C37" s="69">
+      <c r="B37" s="58"/>
+      <c r="C37" s="64">
         <f>SUM(C2:C36)</f>
         <v>782</v>
       </c>
-      <c r="D37" s="70">
+      <c r="D37" s="65">
         <f>SUM(D2:D36)</f>
         <v>806</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="26" t="s">
+      <c r="A38" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="71">
+      <c r="C38" s="3"/>
+      <c r="D38" s="66">
         <v>0.1</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="B39" s="7"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="25">
+      <c r="B39" s="5"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="22">
         <f>D37*D38</f>
         <v>80.600000000000009</v>
       </c>
@@ -4664,33 +4385,4 @@
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="125" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{925F042A-9E32-4038-B3DB-6EE5FFFEDFCE}">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Document Library/Bill Of Materials/V-Baby BOM.xlsx
+++ b/Document Library/Bill Of Materials/V-Baby BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/V-Baby CoreXY/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2543" documentId="11_2E462098BBA7632759C38D02185E4833A2B67484" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3260E91-8503-4513-A99A-B1DBFE49996C}"/>
+  <xr:revisionPtr revIDLastSave="2552" documentId="11_2E462098BBA7632759C38D02185E4833A2B67484" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73599623-D84C-4B3C-AE60-FC9AAAF465B7}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="238">
   <si>
     <t>Exstrusions</t>
   </si>
@@ -368,9 +368,6 @@
     <t>M5x35 BH</t>
   </si>
   <si>
-    <t>M5x40 HEX</t>
-  </si>
-  <si>
     <t>Number of fasteners</t>
   </si>
   <si>
@@ -744,6 +741,12 @@
   </si>
   <si>
     <t>3PCS</t>
+  </si>
+  <si>
+    <t>M5x35 Bearing pin</t>
+  </si>
+  <si>
+    <t>5mm Bearing pin</t>
   </si>
 </sst>
 </file>
@@ -1327,7 +1330,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1526,6 +1529,9 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1950,6 +1956,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1070DF90-74AC-4245-AA46-2FAD63F74767}" name="Table1" displayName="Table1" ref="A6:G37" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:G37">
@@ -2291,11 +2301,11 @@
         <v>4</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G7" s="39"/>
       <c r="H7" s="52" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I7" s="51"/>
       <c r="J7" s="53" t="s">
@@ -2309,7 +2319,7 @@
       <c r="D8" s="13"/>
       <c r="E8" s="17"/>
       <c r="F8" s="137" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G8" s="37"/>
       <c r="H8" s="46"/>
@@ -2459,7 +2469,7 @@
       <c r="F15" s="138"/>
       <c r="G15" s="37"/>
       <c r="H15" s="45" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I15" s="12"/>
       <c r="J15" s="55"/>
@@ -2482,10 +2492,10 @@
       <c r="F16" s="138"/>
       <c r="G16" s="37"/>
       <c r="H16" s="47" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I16" s="56" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J16" s="54">
         <v>21</v>
@@ -2523,7 +2533,7 @@
         <v>30</v>
       </c>
       <c r="I18" s="56" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J18" s="54">
         <v>15</v>
@@ -2557,7 +2567,7 @@
         <v>34</v>
       </c>
       <c r="I20" s="56" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J20" s="54">
         <v>14</v>
@@ -2648,19 +2658,19 @@
       <c r="D27" s="33"/>
       <c r="E27" s="33"/>
       <c r="F27" s="36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H27" s="23" t="s">
         <v>40</v>
       </c>
       <c r="J27" s="130">
         <f>Fasteners!D39</f>
-        <v>80.600000000000009</v>
+        <v>80.2</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B28" s="35"/>
       <c r="C28" s="35"/>
@@ -2676,7 +2686,7 @@
       <c r="I28" s="49"/>
       <c r="J28" s="50">
         <f>SUM(J24:J27)</f>
-        <v>762.1</v>
+        <v>761.7</v>
       </c>
     </row>
   </sheetData>
@@ -2711,7 +2721,7 @@
   <sheetData>
     <row r="6" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A6" s="69" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B6" s="70"/>
       <c r="C6" s="71"/>
@@ -2722,30 +2732,30 @@
     </row>
     <row r="7" spans="1:7" s="68" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="114" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B7" s="115"/>
       <c r="C7" s="116" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D7" s="114" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E7" s="115"/>
       <c r="F7" s="114" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G7" s="115"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="73" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B8" s="8">
         <v>310</v>
       </c>
       <c r="C8" s="117" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D8" s="73">
         <f>B8+50</f>
@@ -2760,38 +2770,38 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="73" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B9" s="8">
         <v>350</v>
       </c>
       <c r="C9" s="117" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D9" s="73">
         <f>B9+50</f>
         <v>400</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F9" s="73">
         <f>B9+100</f>
         <v>450</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="73" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B10" s="8">
         <v>340</v>
       </c>
       <c r="C10" s="117" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D10" s="73">
         <f>B10+50</f>
@@ -2812,7 +2822,7 @@
         <v>290</v>
       </c>
       <c r="C11" s="117" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D11" s="73">
         <f t="shared" ref="D11:D13" si="0">B11+50</f>
@@ -2833,7 +2843,7 @@
         <v>350</v>
       </c>
       <c r="C12" s="117" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D12" s="73">
         <f t="shared" si="0"/>
@@ -2854,7 +2864,7 @@
         <v>295</v>
       </c>
       <c r="C13" s="118" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D13" s="77">
         <f t="shared" si="0"/>
@@ -2873,43 +2883,43 @@
     </row>
     <row r="15" spans="1:7" s="68" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="74" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C15" s="75"/>
       <c r="G15" s="76"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="73" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G16" s="8"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="124" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B17" s="125"/>
       <c r="C17" s="119" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D17" s="128" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E17" s="129"/>
       <c r="F17" s="113" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G17" s="72"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="73" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B18" s="122">
         <v>390</v>
       </c>
       <c r="C18" s="120" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D18" s="126">
         <f>B18+110</f>
@@ -2917,19 +2927,19 @@
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="73" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G18" s="8"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="73" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B19" s="122">
         <v>350</v>
       </c>
       <c r="C19" s="120" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D19" s="126">
         <f>B19+150</f>
@@ -2937,21 +2947,21 @@
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="73" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="73" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B20" s="122">
         <v>360</v>
       </c>
       <c r="C20" s="120" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D20" s="126">
         <f>B20+140</f>
@@ -2959,7 +2969,7 @@
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="73" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G20" s="8"/>
     </row>
@@ -2975,7 +2985,7 @@
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="73" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G21" s="8"/>
     </row>
@@ -2991,7 +3001,7 @@
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="73" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G22" s="8"/>
     </row>
@@ -3007,23 +3017,23 @@
       </c>
       <c r="E23" s="78"/>
       <c r="F23" s="77" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G23" s="78"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -3073,7 +3083,7 @@
       <c r="B2" s="82"/>
       <c r="C2" s="88"/>
       <c r="D2" s="60" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E2" s="80"/>
       <c r="F2" s="81"/>
@@ -3086,11 +3096,11 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="106" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B4" s="107"/>
       <c r="C4" s="107" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D4" s="108"/>
       <c r="E4" s="109">
@@ -3109,13 +3119,13 @@
         <v>3</v>
       </c>
       <c r="D5" s="105" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E5" s="105" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="89" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G5" s="90" t="s">
         <v>41</v>
@@ -3123,39 +3133,39 @@
     </row>
     <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="135" t="s">
+        <v>223</v>
+      </c>
+      <c r="B6" s="60" t="s">
         <v>224</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="C6" s="136" t="s">
         <v>225</v>
       </c>
-      <c r="C6" s="136" t="s">
+      <c r="D6" s="136" t="s">
         <v>226</v>
       </c>
-      <c r="D6" s="136" t="s">
+      <c r="E6" s="136" t="s">
         <v>227</v>
       </c>
-      <c r="E6" s="136" t="s">
+      <c r="F6" s="136" t="s">
         <v>228</v>
       </c>
-      <c r="F6" s="136" t="s">
+      <c r="G6" s="136" t="s">
         <v>229</v>
-      </c>
-      <c r="G6" s="136" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C7" s="83">
         <v>4</v>
       </c>
       <c r="D7" s="94" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E7" s="92">
         <v>16</v>
@@ -3165,16 +3175,16 @@
     </row>
     <row r="8" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C8" s="83">
         <v>2</v>
       </c>
       <c r="D8" s="94" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E8" s="92">
         <v>10</v>
@@ -3184,16 +3194,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>221</v>
+      </c>
+      <c r="B9" s="26" t="s">
         <v>222</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>223</v>
       </c>
       <c r="C9" s="83">
         <v>1</v>
       </c>
       <c r="D9" s="94" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E9" s="92">
         <v>5</v>
@@ -3203,16 +3213,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C10" s="83" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D10" s="94" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E10" s="92">
         <v>22</v>
@@ -3222,16 +3232,16 @@
     </row>
     <row r="11" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C11" s="83">
         <v>2</v>
       </c>
       <c r="D11" s="94" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E11" s="92">
         <v>10</v>
@@ -3241,16 +3251,16 @@
     </row>
     <row r="12" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C12" s="83">
         <v>6</v>
       </c>
       <c r="D12" s="94" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E12" s="92">
         <v>28</v>
@@ -3260,7 +3270,7 @@
     </row>
     <row r="13" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B13" s="26" t="s">
         <v>68</v>
@@ -3269,7 +3279,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="94" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E13" s="92">
         <v>11</v>
@@ -3279,16 +3289,16 @@
     </row>
     <row r="14" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C14" s="83" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D14" s="94" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E14" s="92">
         <v>19</v>
@@ -3298,16 +3308,16 @@
     </row>
     <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B15" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="C15" s="83" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" s="133" t="s">
         <v>207</v>
-      </c>
-      <c r="C15" s="83" t="s">
-        <v>200</v>
-      </c>
-      <c r="D15" s="133" t="s">
-        <v>208</v>
       </c>
       <c r="E15" s="92">
         <v>3</v>
@@ -3317,16 +3327,16 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C16" s="83">
         <v>80</v>
       </c>
       <c r="D16" s="94" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E16" s="92">
         <v>15</v>
@@ -3345,7 +3355,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="94" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E17" s="92">
         <v>2.5</v>
@@ -3355,16 +3365,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C18" s="83">
         <v>1</v>
       </c>
       <c r="D18" s="94" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E18" s="92">
         <v>2.5</v>
@@ -3374,16 +3384,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C19" s="83">
         <v>1</v>
       </c>
       <c r="D19" s="94" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E19" s="92">
         <v>8</v>
@@ -3396,13 +3406,13 @@
         <v>42</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C20" s="83">
         <v>1</v>
       </c>
       <c r="D20" s="94" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E20" s="92">
         <v>60</v>
@@ -3415,13 +3425,13 @@
         <v>59</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C21" s="83">
         <v>1</v>
       </c>
       <c r="D21" s="94" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E21" s="92">
         <v>31</v>
@@ -3431,7 +3441,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B22" s="26" t="s">
         <v>45</v>
@@ -3440,7 +3450,7 @@
         <v>2</v>
       </c>
       <c r="D22" s="94" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E22" s="92">
         <v>10</v>
@@ -3450,7 +3460,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B23" s="26" t="s">
         <v>44</v>
@@ -3459,7 +3469,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="94" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E23" s="92">
         <v>2</v>
@@ -3469,7 +3479,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B24" s="26" t="s">
         <v>43</v>
@@ -3478,7 +3488,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="94" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E24" s="92">
         <v>10</v>
@@ -3488,22 +3498,22 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C25" s="83">
         <v>1</v>
       </c>
       <c r="D25" s="94" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E25" s="92">
         <v>30</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G25" s="92">
         <v>16</v>
@@ -3511,16 +3521,16 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>166</v>
+      </c>
+      <c r="B26" s="26" t="s">
         <v>167</v>
-      </c>
-      <c r="B26" s="26" t="s">
-        <v>168</v>
       </c>
       <c r="C26" s="83">
         <v>1</v>
       </c>
       <c r="D26" s="94" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E26" s="92">
         <v>73</v>
@@ -3530,16 +3540,16 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>196</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="C27" s="83" t="s">
+        <v>198</v>
+      </c>
+      <c r="D27" s="94" t="s">
         <v>197</v>
-      </c>
-      <c r="B27" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="C27" s="83" t="s">
-        <v>199</v>
-      </c>
-      <c r="D27" s="94" t="s">
-        <v>198</v>
       </c>
       <c r="E27" s="92">
         <v>30</v>
@@ -3558,7 +3568,7 @@
         <v>3</v>
       </c>
       <c r="D28" s="94" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E28" s="92">
         <v>4</v>
@@ -3634,7 +3644,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="94" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E32" s="92">
         <v>40</v>
@@ -3663,16 +3673,16 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C34" s="83">
         <v>1</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E34" s="92">
         <v>8.5</v>
@@ -3682,16 +3692,16 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B35" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="C35" s="83" t="s">
+        <v>202</v>
+      </c>
+      <c r="D35" s="131" t="s">
         <v>204</v>
-      </c>
-      <c r="C35" s="83" t="s">
-        <v>203</v>
-      </c>
-      <c r="D35" s="131" t="s">
-        <v>205</v>
       </c>
       <c r="E35" s="92">
         <v>19</v>
@@ -3701,16 +3711,16 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>210</v>
+      </c>
+      <c r="B36" s="26" t="s">
         <v>211</v>
-      </c>
-      <c r="B36" s="26" t="s">
-        <v>212</v>
       </c>
       <c r="C36" s="83">
         <v>1</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E36" s="92">
         <v>6</v>
@@ -3753,7 +3763,7 @@
     </row>
     <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="110" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B39" s="111"/>
       <c r="C39" s="111"/>
@@ -3813,7 +3823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D29D6D75-B7C4-4BE2-88D5-EC1A978798F7}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4007,10 +4017,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" t="s">
         <v>123</v>
-      </c>
-      <c r="B13" t="s">
-        <v>124</v>
       </c>
       <c r="C13" s="26">
         <v>2</v>
@@ -4108,7 +4118,7 @@
         <v>93</v>
       </c>
       <c r="B20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C20" s="26">
         <v>3</v>
@@ -4122,7 +4132,7 @@
         <v>94</v>
       </c>
       <c r="B21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C21" s="26">
         <v>1</v>
@@ -4192,7 +4202,7 @@
         <v>100</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C26" s="26">
         <v>63</v>
@@ -4201,7 +4211,7 @@
         <v>70</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -4332,21 +4342,21 @@
     </row>
     <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="B36" t="s">
-        <v>124</v>
+        <v>236</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>237</v>
       </c>
       <c r="C36" s="26">
         <v>4</v>
       </c>
-      <c r="D36" s="62">
-        <v>4</v>
+      <c r="D36" s="139" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="57" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B37" s="58"/>
       <c r="C37" s="64">
@@ -4355,12 +4365,12 @@
       </c>
       <c r="D37" s="65">
         <f>SUM(D2:D36)</f>
-        <v>806</v>
+        <v>802</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="66">
@@ -4369,20 +4379,21 @@
     </row>
     <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="6"/>
       <c r="D39" s="22">
         <f>D37*D38</f>
-        <v>80.600000000000009</v>
+        <v>80.2</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B26" location="'Component Part List'!A1" display="5X6X1 Precision Shim" xr:uid="{3572F6E0-E77C-4DC4-8F2D-396904032282}"/>
+    <hyperlink ref="B36" r:id="rId1" xr:uid="{41EAAEB8-C341-40B9-9110-C9F97B337F61}"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="125" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="125" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>